--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ)cn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="530"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="530" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="模型二 (1)PE副本" sheetId="14" r:id="rId1"/>
@@ -648,7 +648,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -714,6 +714,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -723,7 +726,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -789,6 +792,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>548835.01220042724</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>574803.82180182589</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -831,7 +837,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -897,6 +903,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -906,7 +915,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -972,6 +981,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>540654.57034428499</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>552598.59015013964</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1014,7 +1026,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1080,6 +1092,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1089,7 +1104,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1155,6 +1170,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>-8180.4418561422499</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-22205.231651686248</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1176,11 +1194,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="158067712"/>
-        <c:axId val="232929920"/>
+        <c:axId val="513422080"/>
+        <c:axId val="513424000"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="158067712"/>
+        <c:axId val="513422080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1223,14 +1241,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="232929920"/>
+        <c:crossAx val="513424000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="232929920"/>
+        <c:axId val="513424000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1281,7 +1299,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158067712"/>
+        <c:crossAx val="513422080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1437,6 +1455,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1471,7 +1490,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1537,6 +1556,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>24620.694956416326</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25968.8096013986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1551,8 +1573,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="35297536"/>
-        <c:axId val="35296000"/>
+        <c:axId val="398285440"/>
+        <c:axId val="398283904"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1577,7 +1599,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1643,6 +1665,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1652,7 +1677,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1718,6 +1743,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.77100002765655518</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75099998712539673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1734,11 +1762,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="35288576"/>
-        <c:axId val="35290112"/>
+        <c:axId val="674453376"/>
+        <c:axId val="674454912"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="35288576"/>
+        <c:axId val="674453376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1781,14 +1809,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35290112"/>
+        <c:crossAx val="674454912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="35290112"/>
+        <c:axId val="674454912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1839,12 +1867,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35288576"/>
+        <c:crossAx val="674453376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="35296000"/>
+        <c:axId val="398283904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1881,12 +1909,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35297536"/>
+        <c:crossAx val="398285440"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="35297536"/>
+        <c:axId val="398285440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1895,7 +1923,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="35296000"/>
+        <c:crossAx val="398283904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2074,7 +2102,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2140,6 +2168,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2149,7 +2180,7 @@
               <c:f>'模型二 (2)PE副本成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2215,6 +2246,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1376396.3421746274</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1447474.4035657665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2257,7 +2291,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2323,6 +2357,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2332,7 +2369,7 @@
               <c:f>'模型二 (2)PE副本成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2398,6 +2435,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1424833.9298069854</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1458951.2449930629</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2440,7 +2480,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2506,6 +2546,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2515,7 +2558,7 @@
               <c:f>'模型二 (2)PE副本成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2581,6 +2624,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>48437.587632358074</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11476.8414272964</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2602,11 +2648,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="36338304"/>
-        <c:axId val="36344192"/>
+        <c:axId val="399137792"/>
+        <c:axId val="399143680"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="36338304"/>
+        <c:axId val="399137792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2649,14 +2695,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36344192"/>
+        <c:crossAx val="399143680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="36344192"/>
+        <c:axId val="399143680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2707,7 +2753,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36338304"/>
+        <c:crossAx val="399137792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2863,6 +2909,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2897,7 +2944,7 @@
               <c:f>'模型二 (2)PE副本成交量'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2963,6 +3010,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>54186.545765681185</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>71078.061391139228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2977,8 +3027,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="36370304"/>
-        <c:axId val="36368768"/>
+        <c:axId val="399173888"/>
+        <c:axId val="399172352"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3003,7 +3053,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3069,6 +3119,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3078,7 +3131,7 @@
               <c:f>'模型二 (2)PE副本成交量'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3144,6 +3197,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.77100002765655518</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75099998712539673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3160,11 +3216,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="36365440"/>
-        <c:axId val="36366976"/>
+        <c:axId val="399156736"/>
+        <c:axId val="399158272"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="36365440"/>
+        <c:axId val="399156736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3207,14 +3263,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36366976"/>
+        <c:crossAx val="399158272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="36366976"/>
+        <c:axId val="399158272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3265,12 +3321,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36365440"/>
+        <c:crossAx val="399156736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="36368768"/>
+        <c:axId val="399172352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3307,12 +3363,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36370304"/>
+        <c:crossAx val="399173888"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="36370304"/>
+        <c:axId val="399173888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3321,7 +3377,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="36368768"/>
+        <c:crossAx val="399172352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3500,7 +3556,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3566,6 +3622,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3575,7 +3634,7 @@
               <c:f>'模型二 (2)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3641,6 +3700,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>4244668.8663569177</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4415397.7453730423</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3683,7 +3745,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3749,6 +3811,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3758,7 +3823,7 @@
               <c:f>'模型二 (2)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3824,6 +3889,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>4297670.0194356609</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4356915.6669407403</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3866,7 +3934,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3932,6 +4000,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3941,7 +4012,7 @@
               <c:f>'模型二 (2)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4007,6 +4078,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>53001.153078743257</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-58482.078432301991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4028,11 +4102,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="36518144"/>
-        <c:axId val="36519936"/>
+        <c:axId val="400370688"/>
+        <c:axId val="400376576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="36518144"/>
+        <c:axId val="400370688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4075,14 +4149,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36519936"/>
+        <c:crossAx val="400376576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="36519936"/>
+        <c:axId val="400376576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4133,7 +4207,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36518144"/>
+        <c:crossAx val="400370688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4289,6 +4363,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4323,7 +4398,7 @@
               <c:f>'模型二 (2)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4389,6 +4464,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>153462.94180681123</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>170728.87901612459</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4403,8 +4481,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="36550144"/>
-        <c:axId val="36548608"/>
+        <c:axId val="400394496"/>
+        <c:axId val="400392960"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4429,7 +4507,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4495,6 +4573,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4504,7 +4585,7 @@
               <c:f>'模型二 (2)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4570,6 +4651,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.77100002765655518</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75099998712539673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4586,11 +4670,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="36545280"/>
-        <c:axId val="36546816"/>
+        <c:axId val="400389632"/>
+        <c:axId val="400391168"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="36545280"/>
+        <c:axId val="400389632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4633,14 +4717,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36546816"/>
+        <c:crossAx val="400391168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="36546816"/>
+        <c:axId val="400391168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4691,12 +4775,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36545280"/>
+        <c:crossAx val="400389632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="36548608"/>
+        <c:axId val="400392960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4733,12 +4817,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36550144"/>
+        <c:crossAx val="400394496"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="36550144"/>
+        <c:axId val="400394496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4747,7 +4831,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="36548608"/>
+        <c:crossAx val="400392960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4874,6 +4958,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4908,7 +4993,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4974,6 +5059,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>24620.694956416326</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25968.8096013986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4988,8 +5076,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="254813312"/>
-        <c:axId val="254318464"/>
+        <c:axId val="516389888"/>
+        <c:axId val="516388352"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5014,7 +5102,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5080,6 +5168,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5089,7 +5180,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5155,6 +5246,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.77100002765655518</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75099998712539673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5171,11 +5265,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="254294656"/>
-        <c:axId val="254316928"/>
+        <c:axId val="516333952"/>
+        <c:axId val="516337024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="254294656"/>
+        <c:axId val="516333952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5218,14 +5312,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254316928"/>
+        <c:crossAx val="516337024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="254316928"/>
+        <c:axId val="516337024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5276,12 +5370,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254294656"/>
+        <c:crossAx val="516333952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="254318464"/>
+        <c:axId val="516388352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5318,12 +5412,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254813312"/>
+        <c:crossAx val="516389888"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="254813312"/>
+        <c:axId val="516389888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5332,7 +5426,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="254318464"/>
+        <c:crossAx val="516388352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5511,7 +5605,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5577,6 +5671,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5586,7 +5683,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5652,6 +5749,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>723813.54303888045</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>748483.91216020915</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5694,7 +5794,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5760,6 +5860,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5769,7 +5872,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5835,6 +5938,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>705284.38468563731</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>711659.40260888624</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5877,7 +5983,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5943,6 +6049,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5952,7 +6061,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6018,6 +6127,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>-18529.15835324314</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-36824.509551322903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6039,11 +6151,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="271762944"/>
-        <c:axId val="271764480"/>
+        <c:axId val="642853120"/>
+        <c:axId val="661313792"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="271762944"/>
+        <c:axId val="642853120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6086,14 +6198,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="271764480"/>
+        <c:crossAx val="661313792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="271764480"/>
+        <c:axId val="661313792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6144,7 +6256,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="271762944"/>
+        <c:crossAx val="642853120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6300,6 +6412,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6343,7 +6456,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6409,6 +6522,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>23389.660208595509</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24670.369121328669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6423,8 +6539,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="33938816"/>
-        <c:axId val="33937280"/>
+        <c:axId val="662467328"/>
+        <c:axId val="662444672"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6449,7 +6565,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6515,6 +6631,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6524,7 +6643,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6590,6 +6709,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.77100002765655518</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75099998712539673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6606,11 +6728,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="33929856"/>
-        <c:axId val="33935744"/>
+        <c:axId val="662394368"/>
+        <c:axId val="662442752"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="33929856"/>
+        <c:axId val="662394368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6653,14 +6775,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33935744"/>
+        <c:crossAx val="662442752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="33935744"/>
+        <c:axId val="662442752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6711,12 +6833,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33929856"/>
+        <c:crossAx val="662394368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="33937280"/>
+        <c:axId val="662444672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6753,12 +6875,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33938816"/>
+        <c:crossAx val="662467328"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="33938816"/>
+        <c:axId val="662467328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6767,7 +6889,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="33937280"/>
+        <c:crossAx val="662444672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6946,7 +7068,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7012,6 +7134,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7021,7 +7146,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7087,6 +7212,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>5649161.7729154676</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5811354.2079807855</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7129,7 +7257,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7195,6 +7323,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7204,7 +7335,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7270,6 +7401,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>5673901.6841965364</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5688910.9032006897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7312,7 +7446,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7378,6 +7512,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7387,7 +7524,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7453,6 +7590,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>24739.911281068809</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-122443.30478009582</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7474,11 +7614,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="34021376"/>
-        <c:axId val="34022912"/>
+        <c:axId val="662592512"/>
+        <c:axId val="662598400"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="34021376"/>
+        <c:axId val="662592512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7521,14 +7661,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34022912"/>
+        <c:crossAx val="662598400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="34022912"/>
+        <c:axId val="662598400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7579,7 +7719,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34021376"/>
+        <c:crossAx val="662592512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7735,6 +7875,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7778,7 +7919,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7844,6 +7985,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>145789.79471647067</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>162192.43506531834</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7858,8 +8002,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="34050048"/>
-        <c:axId val="34048256"/>
+        <c:axId val="662861696"/>
+        <c:axId val="662860160"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7884,7 +8028,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7950,6 +8094,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7959,7 +8106,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8025,6 +8172,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.77100002765655518</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75099998712539673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8041,11 +8191,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="34036736"/>
-        <c:axId val="34046720"/>
+        <c:axId val="662835584"/>
+        <c:axId val="662837120"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="34036736"/>
+        <c:axId val="662835584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8088,14 +8238,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34046720"/>
+        <c:crossAx val="662837120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="34046720"/>
+        <c:axId val="662837120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8146,12 +8296,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34036736"/>
+        <c:crossAx val="662835584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="34048256"/>
+        <c:axId val="662860160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8188,12 +8338,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34050048"/>
+        <c:crossAx val="662861696"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="34050048"/>
+        <c:axId val="662861696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8202,7 +8352,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="34048256"/>
+        <c:crossAx val="662860160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8381,7 +8531,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8447,6 +8597,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8456,7 +8609,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8522,6 +8675,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>239928.28559254218</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>249330.38358668654</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8564,7 +8720,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8630,6 +8786,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8639,7 +8798,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8705,6 +8864,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>246323.28450438916</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>249335.66071236212</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8747,7 +8909,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8813,6 +8975,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8822,7 +8987,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8888,6 +9053,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>6394.9989118469821</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.2771256755804643</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8909,11 +9077,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="34164096"/>
-        <c:axId val="34169984"/>
+        <c:axId val="663715840"/>
+        <c:axId val="663717760"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="34164096"/>
+        <c:axId val="663715840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8956,14 +9124,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34169984"/>
+        <c:crossAx val="663717760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="34169984"/>
+        <c:axId val="663717760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9014,7 +9182,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34164096"/>
+        <c:crossAx val="663715840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9170,6 +9338,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9204,7 +9373,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9270,6 +9439,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>7167.7139652071937</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9402.0979941443675</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9284,8 +9456,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="34208384"/>
-        <c:axId val="34206848"/>
+        <c:axId val="664533248"/>
+        <c:axId val="664531712"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9310,7 +9482,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9376,6 +9548,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9385,7 +9560,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9451,6 +9626,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.77100002765655518</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75099998712539673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9467,11 +9645,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="34195328"/>
-        <c:axId val="34196864"/>
+        <c:axId val="664147072"/>
+        <c:axId val="664148608"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="34195328"/>
+        <c:axId val="664147072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9514,14 +9692,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34196864"/>
+        <c:crossAx val="664148608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="34196864"/>
+        <c:axId val="664148608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9572,12 +9750,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34195328"/>
+        <c:crossAx val="664147072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="34206848"/>
+        <c:axId val="664531712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9614,12 +9792,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34208384"/>
+        <c:crossAx val="664533248"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="34208384"/>
+        <c:axId val="664533248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9628,7 +9806,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="34206848"/>
+        <c:crossAx val="664531712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9807,7 +9985,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9873,6 +10051,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9882,7 +10063,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9948,6 +10129,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>555708.04543317039</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>581676.85503456905</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9990,7 +10174,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10056,6 +10240,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10065,7 +10252,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10131,6 +10318,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>547345.36433575361</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>559115.82234366424</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10173,7 +10363,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10239,6 +10429,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10248,7 +10441,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10314,6 +10507,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>-8362.6810974167893</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-22561.032690904802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10335,11 +10531,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="35269632"/>
-        <c:axId val="35275520"/>
+        <c:axId val="673157888"/>
+        <c:axId val="673160192"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="35269632"/>
+        <c:axId val="673157888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10382,14 +10578,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35275520"/>
+        <c:crossAx val="673160192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="35275520"/>
+        <c:axId val="673160192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10440,7 +10636,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35269632"/>
+        <c:crossAx val="673157888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11292,9 +11488,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG24"/>
+  <dimension ref="A1:AG25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -12377,6 +12573,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="25" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="32">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="31">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="31">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D25" s="29">
+        <v>30.154382097569265</v>
+      </c>
+      <c r="E25" s="29">
+        <v>25968.8096013986</v>
+      </c>
+      <c r="F25" s="30">
+        <v>34578.974762435661</v>
+      </c>
+      <c r="G25" s="30">
+        <v>735817.04344006942</v>
+      </c>
+      <c r="H25" s="30">
+        <v>552598.59015013964</v>
+      </c>
+      <c r="I25" s="30">
+        <v>574803.82180182589</v>
+      </c>
+      <c r="J25" s="30">
+        <v>552598.59015013964</v>
+      </c>
+      <c r="K25" s="30">
+        <v>-22205.231651686248</v>
+      </c>
+      <c r="L25" s="29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -12393,7 +12627,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH24"/>
+  <dimension ref="A1:AH25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13723,6 +13957,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="25" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="15">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="31">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="16">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D25" s="17">
+        <v>30.154382097569265</v>
+      </c>
+      <c r="E25" s="17">
+        <v>24670.369121328669</v>
+      </c>
+      <c r="F25" s="18">
+        <v>32850.026024313876</v>
+      </c>
+      <c r="G25" s="18">
+        <v>947615.73210261366</v>
+      </c>
+      <c r="H25" s="18">
+        <v>711659.40260888624</v>
+      </c>
+      <c r="I25" s="18">
+        <v>748483.91216020915</v>
+      </c>
+      <c r="J25" s="18">
+        <v>711659.40260888624</v>
+      </c>
+      <c r="K25" s="18">
+        <v>-36824.509551322903</v>
+      </c>
+      <c r="L25" s="17">
+        <v>0</v>
+      </c>
+      <c r="M25" s="22">
+        <v>1.6235825800310466E-2</v>
+      </c>
+      <c r="N25" s="22">
+        <v>3.3549798769067905E-2</v>
+      </c>
+      <c r="O25" s="22">
+        <v>48.393213658495924</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -13739,7 +14023,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH24"/>
+  <dimension ref="A1:AH25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15069,6 +15353,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="25" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="15">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="31">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="16">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D25" s="17">
+        <v>30.154382097569265</v>
+      </c>
+      <c r="E25" s="17">
+        <v>162192.43506531834</v>
+      </c>
+      <c r="F25" s="18">
+        <v>215968.62562693571</v>
+      </c>
+      <c r="G25" s="18">
+        <v>7575114.514949779</v>
+      </c>
+      <c r="H25" s="18">
+        <v>5688910.9032006897</v>
+      </c>
+      <c r="I25" s="18">
+        <v>5811354.2079807855</v>
+      </c>
+      <c r="J25" s="18">
+        <v>5688910.9032006897</v>
+      </c>
+      <c r="K25" s="18">
+        <v>-122443.30478009582</v>
+      </c>
+      <c r="L25" s="17">
+        <v>0</v>
+      </c>
+      <c r="M25" s="22">
+        <v>1.6235825800310466E-2</v>
+      </c>
+      <c r="N25" s="22">
+        <v>3.3549798769067905E-2</v>
+      </c>
+      <c r="O25" s="22">
+        <v>48.393213658495924</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -15085,7 +15419,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ24"/>
+  <dimension ref="A1:AJ25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16559,6 +16893,62 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="25" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="15">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="31">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="16">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D25" s="17">
+        <v>30.154382097569265</v>
+      </c>
+      <c r="E25" s="17">
+        <v>1925900</v>
+      </c>
+      <c r="F25" s="17">
+        <v>4625994.8803013396</v>
+      </c>
+      <c r="G25" s="17">
+        <v>9402.0979941443675</v>
+      </c>
+      <c r="H25" s="18">
+        <v>12519.438289383714</v>
+      </c>
+      <c r="I25" s="18">
+        <v>332004.88014220138</v>
+      </c>
+      <c r="J25" s="18">
+        <v>249335.66071236212</v>
+      </c>
+      <c r="K25" s="18">
+        <v>249330.38358668654</v>
+      </c>
+      <c r="L25" s="18">
+        <v>249335.66071236212</v>
+      </c>
+      <c r="M25" s="18">
+        <v>5.2771256755804643</v>
+      </c>
+      <c r="N25" s="17">
+        <v>0</v>
+      </c>
+      <c r="O25" s="22">
+        <v>1.6235825800310466E-2</v>
+      </c>
+      <c r="P25" s="22">
+        <v>3.3549798769067905E-2</v>
+      </c>
+      <c r="Q25" s="22">
+        <v>48.393213658495924</v>
+      </c>
+      <c r="R25" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J2">
@@ -16575,7 +16965,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ24"/>
+  <dimension ref="A1:AJ25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17990,6 +18380,59 @@
         <v>1</v>
       </c>
     </row>
+    <row r="25" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="15">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="31">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="16">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D25" s="17">
+        <v>30.154382097569265</v>
+      </c>
+      <c r="E25" s="17">
+        <v>25968.8096013986</v>
+      </c>
+      <c r="F25" s="18">
+        <v>34578.974762435661</v>
+      </c>
+      <c r="G25" s="18">
+        <v>744495.11575065705</v>
+      </c>
+      <c r="H25" s="18">
+        <v>559115.82234366424</v>
+      </c>
+      <c r="I25" s="18">
+        <v>581676.85503456905</v>
+      </c>
+      <c r="J25" s="18">
+        <v>559115.82234366424</v>
+      </c>
+      <c r="K25" s="18">
+        <v>-22561.032690904802</v>
+      </c>
+      <c r="L25" s="17">
+        <v>0</v>
+      </c>
+      <c r="M25" s="21">
+        <v>51.666694813303359</v>
+      </c>
+      <c r="N25" s="21">
+        <v>44.636172502112707</v>
+      </c>
+      <c r="O25" s="21">
+        <v>37.449899885039635</v>
+      </c>
+      <c r="P25" s="21">
+        <v>59.008717736258845</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -18006,7 +18449,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ24"/>
+  <dimension ref="A1:AJ25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19232,6 +19675,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="25" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="15">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="31">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="16">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D25" s="17">
+        <v>30.154382097569265</v>
+      </c>
+      <c r="E25" s="17">
+        <v>1925900</v>
+      </c>
+      <c r="F25" s="17">
+        <v>4625994.8803013396</v>
+      </c>
+      <c r="G25" s="17">
+        <v>71078.061391139228</v>
+      </c>
+      <c r="H25" s="18">
+        <v>94644.557402996477</v>
+      </c>
+      <c r="I25" s="18">
+        <v>1942678.1225090188</v>
+      </c>
+      <c r="J25" s="18">
+        <v>1458951.2449930629</v>
+      </c>
+      <c r="K25" s="18">
+        <v>1447474.4035657665</v>
+      </c>
+      <c r="L25" s="18">
+        <v>1458951.2449930629</v>
+      </c>
+      <c r="M25" s="18">
+        <v>11476.8414272964</v>
+      </c>
+      <c r="N25" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J2">
@@ -19248,9 +19735,9 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG24"/>
+  <dimension ref="A1:AG25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -20333,6 +20820,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="25" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="15">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="31">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="16">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D25" s="17">
+        <v>30.154382097569265</v>
+      </c>
+      <c r="E25" s="17">
+        <v>170728.87901612459</v>
+      </c>
+      <c r="F25" s="18">
+        <v>227335.39539677446</v>
+      </c>
+      <c r="G25" s="18">
+        <v>5801485.6746106083</v>
+      </c>
+      <c r="H25" s="18">
+        <v>4356915.6669407403</v>
+      </c>
+      <c r="I25" s="18">
+        <v>4415397.7453730423</v>
+      </c>
+      <c r="J25" s="18">
+        <v>4356915.6669407403</v>
+      </c>
+      <c r="K25" s="18">
+        <v>-58482.078432301991</v>
+      </c>
+      <c r="L25" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ)cn.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="29">
   <si>
     <t>in practice</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -142,10 +142,6 @@
   </si>
   <si>
     <t>年化收益率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -648,7 +644,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -717,6 +713,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -726,7 +728,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -795,6 +797,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>574803.82180182589</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>608395.92264148453</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>637390.84148665029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -837,7 +845,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -906,6 +914,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -915,7 +929,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -984,6 +998,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>552598.59015013964</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>563380.39316840307</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>619761.83169761067</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1026,7 +1046,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1095,6 +1115,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1104,7 +1130,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1173,6 +1199,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>-22205.231651686248</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-45015.529473081464</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-17629.009789039614</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1194,11 +1226,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="513422080"/>
-        <c:axId val="513424000"/>
+        <c:axId val="497267456"/>
+        <c:axId val="497269760"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="513422080"/>
+        <c:axId val="497267456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1241,14 +1273,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513424000"/>
+        <c:crossAx val="497269760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="513424000"/>
+        <c:axId val="497269760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1299,7 +1331,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513422080"/>
+        <c:crossAx val="497267456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1490,7 +1522,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1559,6 +1591,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>25968.8096013986</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33592.100839658677</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28994.918845165728</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1573,8 +1611,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="398285440"/>
-        <c:axId val="398283904"/>
+        <c:axId val="497264512"/>
+        <c:axId val="497262976"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1599,7 +1637,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1668,6 +1706,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1677,7 +1721,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1746,6 +1790,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.75099998712539673</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75499999523162842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1762,11 +1812,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="674453376"/>
-        <c:axId val="674454912"/>
+        <c:axId val="497255552"/>
+        <c:axId val="497257088"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="674453376"/>
+        <c:axId val="497255552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1809,14 +1859,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="674454912"/>
+        <c:crossAx val="497257088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="674454912"/>
+        <c:axId val="497257088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1867,12 +1917,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="674453376"/>
+        <c:crossAx val="497255552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="398283904"/>
+        <c:axId val="497262976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1909,12 +1959,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398285440"/>
+        <c:crossAx val="497264512"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="398285440"/>
+        <c:axId val="497264512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1923,7 +1973,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="398283904"/>
+        <c:crossAx val="497262976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2102,7 +2152,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2171,6 +2221,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2180,7 +2236,7 @@
               <c:f>'模型二 (2)PE副本成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2249,6 +2305,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>1447474.4035657665</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1549567.1150589671</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1659572.0331019405</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2291,7 +2353,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2360,6 +2422,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2369,7 +2437,7 @@
               <c:f>'模型二 (2)PE副本成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2438,6 +2506,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>1458951.2449930629</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1500821.0152801611</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1683782.4379789643</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2480,7 +2554,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2549,6 +2623,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2558,7 +2638,7 @@
               <c:f>'模型二 (2)PE副本成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2627,6 +2707,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>11476.8414272964</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-48746.099778806092</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24210.404877023771</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2648,11 +2734,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="399137792"/>
-        <c:axId val="399143680"/>
+        <c:axId val="498664576"/>
+        <c:axId val="498666112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="399137792"/>
+        <c:axId val="498664576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2695,14 +2781,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399143680"/>
+        <c:crossAx val="498666112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="399143680"/>
+        <c:axId val="498666112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2753,7 +2839,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399137792"/>
+        <c:crossAx val="498664576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2944,7 +3030,7 @@
               <c:f>'模型二 (2)PE副本成交量'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3013,6 +3099,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>71078.061391139228</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>102092.71149320067</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>110004.9180429735</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3027,8 +3119,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="399173888"/>
-        <c:axId val="399172352"/>
+        <c:axId val="520562176"/>
+        <c:axId val="520560640"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3053,7 +3145,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3122,6 +3214,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3131,7 +3229,7 @@
               <c:f>'模型二 (2)PE副本成交量'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3200,6 +3298,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.75099998712539673</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75499999523162842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3216,11 +3320,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="399156736"/>
-        <c:axId val="399158272"/>
+        <c:axId val="498709248"/>
+        <c:axId val="498710784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="399156736"/>
+        <c:axId val="498709248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3263,14 +3367,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399158272"/>
+        <c:crossAx val="498710784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="399158272"/>
+        <c:axId val="498710784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3321,12 +3425,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399156736"/>
+        <c:crossAx val="498709248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="399172352"/>
+        <c:axId val="520560640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3363,12 +3467,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399173888"/>
+        <c:crossAx val="520562176"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="399173888"/>
+        <c:axId val="520562176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3377,7 +3481,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="399172352"/>
+        <c:crossAx val="520560640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3556,7 +3660,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3625,6 +3729,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3634,7 +3744,7 @@
               <c:f>'模型二 (2)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3703,6 +3813,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>4415397.7453730423</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4701076.0336823575</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4913912.8232615339</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3745,7 +3861,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3814,6 +3930,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3823,7 +3945,7 @@
               <c:f>'模型二 (2)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3892,6 +4014,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>4356915.6669407403</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4462748.14001079</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4892523.8597752657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3934,7 +4062,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4003,6 +4131,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4012,7 +4146,7 @@
               <c:f>'模型二 (2)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4081,6 +4215,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>-58482.078432301991</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-238327.89367156755</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-21388.963486268185</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4102,11 +4242,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="400370688"/>
-        <c:axId val="400376576"/>
+        <c:axId val="520581888"/>
+        <c:axId val="520583424"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="400370688"/>
+        <c:axId val="520581888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4149,14 +4289,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="400376576"/>
+        <c:crossAx val="520583424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="400376576"/>
+        <c:axId val="520583424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4207,7 +4347,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="400370688"/>
+        <c:crossAx val="520581888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4398,7 +4538,7 @@
               <c:f>'模型二 (2)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4467,6 +4607,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>170728.87901612459</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>285678.28830931569</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>212836.78957917634</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4481,8 +4627,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="400394496"/>
-        <c:axId val="400392960"/>
+        <c:axId val="520615040"/>
+        <c:axId val="520613248"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4507,7 +4653,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4576,6 +4722,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4585,7 +4737,7 @@
               <c:f>'模型二 (2)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4654,6 +4806,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.75099998712539673</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75499999523162842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4670,11 +4828,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="400389632"/>
-        <c:axId val="400391168"/>
+        <c:axId val="520610176"/>
+        <c:axId val="520611712"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="400389632"/>
+        <c:axId val="520610176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4717,14 +4875,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="400391168"/>
+        <c:crossAx val="520611712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="400391168"/>
+        <c:axId val="520611712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4775,12 +4933,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="400389632"/>
+        <c:crossAx val="520610176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="400392960"/>
+        <c:axId val="520613248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4817,12 +4975,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="400394496"/>
+        <c:crossAx val="520615040"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="400394496"/>
+        <c:axId val="520615040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4831,7 +4989,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="400392960"/>
+        <c:crossAx val="520613248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4993,7 +5151,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5062,6 +5220,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>25968.8096013986</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33592.100839658677</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28994.918845165728</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5076,8 +5240,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="516389888"/>
-        <c:axId val="516388352"/>
+        <c:axId val="564728576"/>
+        <c:axId val="559217280"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5102,7 +5266,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5171,6 +5335,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5180,7 +5350,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5249,6 +5419,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.75099998712539673</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75499999523162842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5265,11 +5441,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="516333952"/>
-        <c:axId val="516337024"/>
+        <c:axId val="527408512"/>
+        <c:axId val="559215744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="516333952"/>
+        <c:axId val="527408512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5312,14 +5488,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516337024"/>
+        <c:crossAx val="559215744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="516337024"/>
+        <c:axId val="559215744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5370,12 +5546,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516333952"/>
+        <c:crossAx val="527408512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="516388352"/>
+        <c:axId val="559217280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5412,12 +5588,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516389888"/>
+        <c:crossAx val="564728576"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="516389888"/>
+        <c:axId val="564728576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5426,7 +5602,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="516388352"/>
+        <c:crossAx val="559217280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5605,7 +5781,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5674,6 +5850,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5683,7 +5865,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5752,6 +5934,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>748483.91216020915</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>780396.40795788483</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>807941.58086079231</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5794,7 +5982,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5863,6 +6051,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5872,7 +6066,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5941,6 +6135,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>711659.40260888624</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>714195.85002306115</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>776458.84225744638</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5983,7 +6183,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6052,6 +6252,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6061,7 +6267,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6130,6 +6336,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>-36824.509551322903</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-66200.557934823679</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-31482.738603345933</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6151,11 +6363,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="642853120"/>
-        <c:axId val="661313792"/>
+        <c:axId val="564756864"/>
+        <c:axId val="564758400"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="642853120"/>
+        <c:axId val="564756864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6198,14 +6410,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="661313792"/>
+        <c:crossAx val="564758400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="661313792"/>
+        <c:axId val="564758400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6256,7 +6468,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="642853120"/>
+        <c:crossAx val="564756864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6456,7 +6668,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6525,6 +6737,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>24670.369121328669</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31912.49579767574</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27545.172902907441</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6539,8 +6757,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="662467328"/>
-        <c:axId val="662444672"/>
+        <c:axId val="569517184"/>
+        <c:axId val="566750592"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6565,7 +6783,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6634,6 +6852,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6643,7 +6867,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6712,6 +6936,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.75099998712539673</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75499999523162842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6728,11 +6958,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="662394368"/>
-        <c:axId val="662442752"/>
+        <c:axId val="566705152"/>
+        <c:axId val="566749056"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="662394368"/>
+        <c:axId val="566705152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6775,14 +7005,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="662442752"/>
+        <c:crossAx val="566749056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="662442752"/>
+        <c:axId val="566749056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6833,12 +7063,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="662394368"/>
+        <c:crossAx val="566705152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="662444672"/>
+        <c:axId val="566750592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6875,12 +7105,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="662467328"/>
+        <c:crossAx val="569517184"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="662467328"/>
+        <c:axId val="569517184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6889,7 +7119,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="662444672"/>
+        <c:crossAx val="566750592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7068,7 +7298,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7137,6 +7367,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7146,7 +7382,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7215,6 +7451,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>5811354.2079807855</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6082748.5818746351</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6284943.531974853</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7257,7 +7499,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7326,6 +7568,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7335,7 +7583,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7404,6 +7652,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>5688910.9032006897</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5725477.0413834555</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6205993.5156186232</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7446,7 +7700,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7515,6 +7769,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7524,7 +7784,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7593,6 +7853,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>-122443.30478009582</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-357271.54049117956</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-78950.016356229782</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7614,11 +7880,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="662592512"/>
-        <c:axId val="662598400"/>
+        <c:axId val="569685504"/>
+        <c:axId val="569687424"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="662592512"/>
+        <c:axId val="569685504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7661,14 +7927,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="662598400"/>
+        <c:crossAx val="569687424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="662598400"/>
+        <c:axId val="569687424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7719,7 +7985,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="662592512"/>
+        <c:crossAx val="569685504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7919,7 +8185,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7988,6 +8254,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>162192.43506531834</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>271394.3738938499</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>202194.95010021751</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8002,8 +8274,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="662861696"/>
-        <c:axId val="662860160"/>
+        <c:axId val="571579008"/>
+        <c:axId val="571577472"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8028,7 +8300,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8097,6 +8369,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8106,7 +8384,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8175,6 +8453,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.75099998712539673</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75499999523162842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8191,11 +8475,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="662835584"/>
-        <c:axId val="662837120"/>
+        <c:axId val="571560320"/>
+        <c:axId val="571561856"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="662835584"/>
+        <c:axId val="571560320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8238,14 +8522,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="662837120"/>
+        <c:crossAx val="571561856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="662837120"/>
+        <c:axId val="571561856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8296,12 +8580,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="662835584"/>
+        <c:crossAx val="571560320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="662860160"/>
+        <c:axId val="571577472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8338,12 +8622,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="662861696"/>
+        <c:crossAx val="571579008"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="662861696"/>
+        <c:axId val="571579008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8352,7 +8636,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="662860160"/>
+        <c:crossAx val="571577472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8531,7 +8815,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8600,6 +8884,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8609,7 +8899,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8678,6 +8968,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>249330.38358668654</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>262835.05238547066</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>277386.33584811713</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8720,7 +9016,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8789,6 +9085,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8798,7 +9100,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8867,6 +9169,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>249335.66071236212</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>252548.19199990496</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>279376.11148901522</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8909,7 +9217,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8978,6 +9286,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8987,7 +9301,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9056,6 +9370,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>5.2771256755804643</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-10286.860385565698</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1989.7756408980931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9077,11 +9397,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="663715840"/>
-        <c:axId val="663717760"/>
+        <c:axId val="571829632"/>
+        <c:axId val="582882816"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="663715840"/>
+        <c:axId val="571829632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9124,14 +9444,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="663717760"/>
+        <c:crossAx val="582882816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="663717760"/>
+        <c:axId val="582882816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9182,7 +9502,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="663715840"/>
+        <c:crossAx val="571829632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9373,7 +9693,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9442,6 +9762,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>9402.0979941443675</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13504.668798784138</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14551.283462646496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9456,8 +9782,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="664533248"/>
-        <c:axId val="664531712"/>
+        <c:axId val="492882176"/>
+        <c:axId val="492880640"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9482,7 +9808,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9551,6 +9877,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9560,7 +9892,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9629,6 +9961,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.75099998712539673</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75499999523162842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9645,11 +9983,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="664147072"/>
-        <c:axId val="664148608"/>
+        <c:axId val="492869120"/>
+        <c:axId val="492870656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="664147072"/>
+        <c:axId val="492869120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9692,14 +10030,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="664148608"/>
+        <c:crossAx val="492870656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="664148608"/>
+        <c:axId val="492870656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9750,12 +10088,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="664147072"/>
+        <c:crossAx val="492869120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="664531712"/>
+        <c:axId val="492880640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9792,12 +10130,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="664533248"/>
+        <c:crossAx val="492882176"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="664533248"/>
+        <c:axId val="492882176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9806,7 +10144,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="664531712"/>
+        <c:crossAx val="492880640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9985,7 +10323,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10054,6 +10392,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10063,7 +10407,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10132,6 +10476,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>581676.85503456905</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>615268.95587422769</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>644263.87471939344</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10174,7 +10524,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10243,6 +10593,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10252,7 +10608,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10321,6 +10677,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>559115.82234366424</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>569628.60548030783</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>626313.7762507241</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10363,7 +10725,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10432,6 +10794,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10441,7 +10809,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10510,6 +10878,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>-22561.032690904802</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-45640.350393919856</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-17950.098468669341</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10531,11 +10905,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="673157888"/>
-        <c:axId val="673160192"/>
+        <c:axId val="497227264"/>
+        <c:axId val="497228800"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="673157888"/>
+        <c:axId val="497227264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10578,14 +10952,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="673160192"/>
+        <c:crossAx val="497228800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="673160192"/>
+        <c:axId val="497228800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10636,7 +11010,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="673157888"/>
+        <c:crossAx val="497227264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11488,7 +11862,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG25"/>
+  <dimension ref="A1:AG27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12611,6 +12985,82 @@
         <v>0</v>
       </c>
     </row>
+    <row r="26" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="32">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="31">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="31">
+        <v>21.329999919999999</v>
+      </c>
+      <c r="D26" s="29">
+        <v>29.834329246495866</v>
+      </c>
+      <c r="E26" s="29">
+        <v>33592.100839658677</v>
+      </c>
+      <c r="F26" s="30">
+        <v>46655.693756706351</v>
+      </c>
+      <c r="G26" s="30">
+        <v>782472.73719677574</v>
+      </c>
+      <c r="H26" s="30">
+        <v>563380.39316840307</v>
+      </c>
+      <c r="I26" s="30">
+        <v>608395.92264148453</v>
+      </c>
+      <c r="J26" s="30">
+        <v>563380.39316840307</v>
+      </c>
+      <c r="K26" s="30">
+        <v>-45015.529473081464</v>
+      </c>
+      <c r="L26" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="32">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="31">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="31">
+        <v>22.200000760000002</v>
+      </c>
+      <c r="D27" s="29">
+        <v>29.540486543586262</v>
+      </c>
+      <c r="E27" s="29">
+        <v>28994.918845165728</v>
+      </c>
+      <c r="F27" s="30">
+        <v>38403.866262635274</v>
+      </c>
+      <c r="G27" s="30">
+        <v>820876.60345941107</v>
+      </c>
+      <c r="H27" s="30">
+        <v>619761.83169761067</v>
+      </c>
+      <c r="I27" s="30">
+        <v>637390.84148665029</v>
+      </c>
+      <c r="J27" s="30">
+        <v>619761.83169761067</v>
+      </c>
+      <c r="K27" s="30">
+        <v>-17629.009789039614</v>
+      </c>
+      <c r="L27" s="29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -12627,7 +13077,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH25"/>
+  <dimension ref="A1:AH27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12668,7 +13118,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -12704,16 +13154,16 @@
         <v>12</v>
       </c>
       <c r="M1" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="O1" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="P1" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -14004,6 +14454,106 @@
         <v>48.393213658495924</v>
       </c>
       <c r="P25" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="15">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="31">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="16">
+        <v>21.329999919999999</v>
+      </c>
+      <c r="D26" s="17">
+        <v>29.834329246495866</v>
+      </c>
+      <c r="E26" s="17">
+        <v>31912.49579767574</v>
+      </c>
+      <c r="F26" s="18">
+        <v>44322.909068871028</v>
+      </c>
+      <c r="G26" s="18">
+        <v>991938.64117148472</v>
+      </c>
+      <c r="H26" s="18">
+        <v>714195.85002306115</v>
+      </c>
+      <c r="I26" s="18">
+        <v>780396.40795788483</v>
+      </c>
+      <c r="J26" s="18">
+        <v>714195.85002306115</v>
+      </c>
+      <c r="K26" s="18">
+        <v>-66200.557934823679</v>
+      </c>
+      <c r="L26" s="17">
+        <v>0</v>
+      </c>
+      <c r="M26" s="22">
+        <v>1.6235825800310466E-2</v>
+      </c>
+      <c r="N26" s="22">
+        <v>3.3549798769067905E-2</v>
+      </c>
+      <c r="O26" s="22">
+        <v>48.393213658495924</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="15">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="31">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="16">
+        <v>22.200000760000002</v>
+      </c>
+      <c r="D27" s="17">
+        <v>29.540486543586262</v>
+      </c>
+      <c r="E27" s="17">
+        <v>27545.172902907441</v>
+      </c>
+      <c r="F27" s="18">
+        <v>36483.672949503511</v>
+      </c>
+      <c r="G27" s="18">
+        <v>1028422.3141209882</v>
+      </c>
+      <c r="H27" s="18">
+        <v>776458.84225744638</v>
+      </c>
+      <c r="I27" s="18">
+        <v>807941.58086079231</v>
+      </c>
+      <c r="J27" s="18">
+        <v>776458.84225744638</v>
+      </c>
+      <c r="K27" s="18">
+        <v>-31482.738603345933</v>
+      </c>
+      <c r="L27" s="17">
+        <v>0</v>
+      </c>
+      <c r="M27" s="22">
+        <v>1.127487902799338E-2</v>
+      </c>
+      <c r="N27" s="22">
+        <v>3.124291452704148E-2</v>
+      </c>
+      <c r="O27" s="22">
+        <v>36.087795260697291</v>
+      </c>
+      <c r="P27" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -14023,7 +14573,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH25"/>
+  <dimension ref="A1:AH27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14064,7 +14614,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -14100,16 +14650,16 @@
         <v>12</v>
       </c>
       <c r="M1" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="O1" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="P1" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -15400,6 +15950,106 @@
         <v>48.393213658495924</v>
       </c>
       <c r="P25" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="15">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="31">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="16">
+        <v>21.329999919999999</v>
+      </c>
+      <c r="D26" s="17">
+        <v>29.834329246495866</v>
+      </c>
+      <c r="E26" s="17">
+        <v>271394.3738938499</v>
+      </c>
+      <c r="F26" s="18">
+        <v>376936.61543000949</v>
+      </c>
+      <c r="G26" s="18">
+        <v>7952051.1303797886</v>
+      </c>
+      <c r="H26" s="18">
+        <v>5725477.0413834555</v>
+      </c>
+      <c r="I26" s="18">
+        <v>6082748.5818746351</v>
+      </c>
+      <c r="J26" s="18">
+        <v>5725477.0413834555</v>
+      </c>
+      <c r="K26" s="18">
+        <v>-357271.54049117956</v>
+      </c>
+      <c r="L26" s="17">
+        <v>0</v>
+      </c>
+      <c r="M26" s="22">
+        <v>1.6235825800310466E-2</v>
+      </c>
+      <c r="N26" s="22">
+        <v>3.3549798769067905E-2</v>
+      </c>
+      <c r="O26" s="22">
+        <v>48.393213658495924</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="15">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="31">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="16">
+        <v>22.200000760000002</v>
+      </c>
+      <c r="D27" s="17">
+        <v>29.540486543586262</v>
+      </c>
+      <c r="E27" s="17">
+        <v>202194.95010021751</v>
+      </c>
+      <c r="F27" s="18">
+        <v>267807.88261884107</v>
+      </c>
+      <c r="G27" s="18">
+        <v>8219859.0129986294</v>
+      </c>
+      <c r="H27" s="18">
+        <v>6205993.5156186232</v>
+      </c>
+      <c r="I27" s="18">
+        <v>6284943.531974853</v>
+      </c>
+      <c r="J27" s="18">
+        <v>6205993.5156186232</v>
+      </c>
+      <c r="K27" s="18">
+        <v>-78950.016356229782</v>
+      </c>
+      <c r="L27" s="17">
+        <v>0</v>
+      </c>
+      <c r="M27" s="22">
+        <v>1.127487902799338E-2</v>
+      </c>
+      <c r="N27" s="22">
+        <v>3.124291452704148E-2</v>
+      </c>
+      <c r="O27" s="22">
+        <v>36.087795260697291</v>
+      </c>
+      <c r="P27" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -15419,7 +16069,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ25"/>
+  <dimension ref="A1:AJ27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15472,10 +16122,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>24</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -15502,16 +16152,16 @@
         <v>12</v>
       </c>
       <c r="O1" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="44" t="s">
+      <c r="Q1" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="48" t="s">
+      <c r="R1" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="R1" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -15585,7 +16235,7 @@
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
       <c r="S3" s="45" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="T3" s="46" t="s">
         <v>13</v>
@@ -16946,6 +17596,118 @@
         <v>48.393213658495924</v>
       </c>
       <c r="R25" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="15">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="31">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="16">
+        <v>21.329999919999999</v>
+      </c>
+      <c r="D26" s="17">
+        <v>29.834329246495866</v>
+      </c>
+      <c r="E26" s="17">
+        <v>1602700</v>
+      </c>
+      <c r="F26" s="17">
+        <v>4484713.805488782</v>
+      </c>
+      <c r="G26" s="17">
+        <v>13504.668798784138</v>
+      </c>
+      <c r="H26" s="18">
+        <v>18756.48369744005</v>
+      </c>
+      <c r="I26" s="18">
+        <v>350761.36383964145</v>
+      </c>
+      <c r="J26" s="18">
+        <v>252548.19199990496</v>
+      </c>
+      <c r="K26" s="18">
+        <v>262835.05238547066</v>
+      </c>
+      <c r="L26" s="18">
+        <v>252548.19199990496</v>
+      </c>
+      <c r="M26" s="18">
+        <v>-10286.860385565698</v>
+      </c>
+      <c r="N26" s="17">
+        <v>0</v>
+      </c>
+      <c r="O26" s="22">
+        <v>1.6235825800310466E-2</v>
+      </c>
+      <c r="P26" s="22">
+        <v>3.3549798769067905E-2</v>
+      </c>
+      <c r="Q26" s="22">
+        <v>48.393213658495924</v>
+      </c>
+      <c r="R26" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="15">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="31">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="16">
+        <v>22.200000760000002</v>
+      </c>
+      <c r="D27" s="17">
+        <v>29.540486543586262</v>
+      </c>
+      <c r="E27" s="17">
+        <v>2280700</v>
+      </c>
+      <c r="F27" s="17">
+        <v>4412683.3111552252</v>
+      </c>
+      <c r="G27" s="17">
+        <v>14551.283462646496</v>
+      </c>
+      <c r="H27" s="18">
+        <v>19273.223251057465</v>
+      </c>
+      <c r="I27" s="18">
+        <v>370034.58709069889</v>
+      </c>
+      <c r="J27" s="18">
+        <v>279376.11148901522</v>
+      </c>
+      <c r="K27" s="18">
+        <v>277386.33584811713</v>
+      </c>
+      <c r="L27" s="18">
+        <v>279376.11148901522</v>
+      </c>
+      <c r="M27" s="18">
+        <v>1989.7756408980931</v>
+      </c>
+      <c r="N27" s="17">
+        <v>0</v>
+      </c>
+      <c r="O27" s="22">
+        <v>1.127487902799338E-2</v>
+      </c>
+      <c r="P27" s="22">
+        <v>3.124291452704148E-2</v>
+      </c>
+      <c r="Q27" s="22">
+        <v>36.087795260697291</v>
+      </c>
+      <c r="R27" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -16965,7 +17727,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ25"/>
+  <dimension ref="A1:AJ27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17006,7 +17768,7 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -17042,19 +17804,19 @@
         <v>12</v>
       </c>
       <c r="M1" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="48" t="s">
+      <c r="O1" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="P1" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="48" t="s">
+      <c r="Q1" s="11" t="s">
         <v>28</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -18430,6 +19192,112 @@
         <v>59.008717736258845</v>
       </c>
       <c r="Q25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="15">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="31">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="16">
+        <v>21.329999919999999</v>
+      </c>
+      <c r="D26" s="17">
+        <v>29.834329246495866</v>
+      </c>
+      <c r="E26" s="17">
+        <v>33592.100839658677</v>
+      </c>
+      <c r="F26" s="18">
+        <v>46655.693756706351</v>
+      </c>
+      <c r="G26" s="18">
+        <v>791150.80950736336</v>
+      </c>
+      <c r="H26" s="18">
+        <v>569628.60548030783</v>
+      </c>
+      <c r="I26" s="18">
+        <v>615268.95587422769</v>
+      </c>
+      <c r="J26" s="18">
+        <v>569628.60548030783</v>
+      </c>
+      <c r="K26" s="18">
+        <v>-45640.350393919856</v>
+      </c>
+      <c r="L26" s="17">
+        <v>0</v>
+      </c>
+      <c r="M26" s="21">
+        <v>51.666694813303359</v>
+      </c>
+      <c r="N26" s="21">
+        <v>44.636172502112707</v>
+      </c>
+      <c r="O26" s="21">
+        <v>37.449899885039635</v>
+      </c>
+      <c r="P26" s="21">
+        <v>59.008717736258845</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="15">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="31">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="16">
+        <v>22.200000760000002</v>
+      </c>
+      <c r="D27" s="17">
+        <v>29.540486543586262</v>
+      </c>
+      <c r="E27" s="17">
+        <v>28994.918845165728</v>
+      </c>
+      <c r="F27" s="18">
+        <v>38403.866262635274</v>
+      </c>
+      <c r="G27" s="18">
+        <v>829554.67576999869</v>
+      </c>
+      <c r="H27" s="18">
+        <v>626313.7762507241</v>
+      </c>
+      <c r="I27" s="18">
+        <v>644263.87471939344</v>
+      </c>
+      <c r="J27" s="18">
+        <v>626313.7762507241</v>
+      </c>
+      <c r="K27" s="18">
+        <v>-17950.098468669341</v>
+      </c>
+      <c r="L27" s="17">
+        <v>0</v>
+      </c>
+      <c r="M27" s="21">
+        <v>31.818216710700341</v>
+      </c>
+      <c r="N27" s="21">
+        <v>41.331767099766601</v>
+      </c>
+      <c r="O27" s="21">
+        <v>40.66355393645086</v>
+      </c>
+      <c r="P27" s="21">
+        <v>42.668193426398076</v>
+      </c>
+      <c r="Q27" s="1">
         <v>1</v>
       </c>
     </row>
@@ -18449,7 +19317,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ25"/>
+  <dimension ref="A1:AJ27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18502,10 +19370,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>24</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -19716,6 +20584,94 @@
         <v>11476.8414272964</v>
       </c>
       <c r="N25" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="15">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="31">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="16">
+        <v>21.329999919999999</v>
+      </c>
+      <c r="D26" s="17">
+        <v>29.834329246495866</v>
+      </c>
+      <c r="E26" s="17">
+        <v>1602700</v>
+      </c>
+      <c r="F26" s="17">
+        <v>4484713.805488782</v>
+      </c>
+      <c r="G26" s="17">
+        <v>102092.71149320067</v>
+      </c>
+      <c r="H26" s="18">
+        <v>141795.42699500133</v>
+      </c>
+      <c r="I26" s="18">
+        <v>2084473.54950402</v>
+      </c>
+      <c r="J26" s="18">
+        <v>1500821.0152801611</v>
+      </c>
+      <c r="K26" s="18">
+        <v>1549567.1150589671</v>
+      </c>
+      <c r="L26" s="18">
+        <v>1500821.0152801611</v>
+      </c>
+      <c r="M26" s="18">
+        <v>-48746.099778806092</v>
+      </c>
+      <c r="N26" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="15">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="31">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="16">
+        <v>22.200000760000002</v>
+      </c>
+      <c r="D27" s="17">
+        <v>29.540486543586262</v>
+      </c>
+      <c r="E27" s="17">
+        <v>2280700</v>
+      </c>
+      <c r="F27" s="17">
+        <v>4412683.3111552252</v>
+      </c>
+      <c r="G27" s="17">
+        <v>110004.9180429735</v>
+      </c>
+      <c r="H27" s="18">
+        <v>145701.87912282677</v>
+      </c>
+      <c r="I27" s="18">
+        <v>2230175.428626847</v>
+      </c>
+      <c r="J27" s="18">
+        <v>1683782.4379789643</v>
+      </c>
+      <c r="K27" s="18">
+        <v>1659572.0331019405</v>
+      </c>
+      <c r="L27" s="18">
+        <v>1683782.4379789643</v>
+      </c>
+      <c r="M27" s="18">
+        <v>24210.404877023771</v>
+      </c>
+      <c r="N27" s="17">
         <v>0</v>
       </c>
     </row>
@@ -19735,7 +20691,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG25"/>
+  <dimension ref="A1:AG27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19776,7 +20732,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -20855,6 +21811,82 @@
         <v>-58482.078432301991</v>
       </c>
       <c r="L25" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="15">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="31">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="16">
+        <v>21.329999919999999</v>
+      </c>
+      <c r="D26" s="17">
+        <v>29.834329246495866</v>
+      </c>
+      <c r="E26" s="17">
+        <v>285678.28830931569</v>
+      </c>
+      <c r="F26" s="18">
+        <v>396775.38466316788</v>
+      </c>
+      <c r="G26" s="18">
+        <v>6198261.0592737757</v>
+      </c>
+      <c r="H26" s="18">
+        <v>4462748.14001079</v>
+      </c>
+      <c r="I26" s="18">
+        <v>4701076.0336823575</v>
+      </c>
+      <c r="J26" s="18">
+        <v>4462748.14001079</v>
+      </c>
+      <c r="K26" s="18">
+        <v>-238327.89367156755</v>
+      </c>
+      <c r="L26" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="15">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="31">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="16">
+        <v>22.200000760000002</v>
+      </c>
+      <c r="D27" s="17">
+        <v>29.540486543586262</v>
+      </c>
+      <c r="E27" s="17">
+        <v>212836.78957917634</v>
+      </c>
+      <c r="F27" s="18">
+        <v>281903.03433562221</v>
+      </c>
+      <c r="G27" s="18">
+        <v>6480164.0936093982</v>
+      </c>
+      <c r="H27" s="18">
+        <v>4892523.8597752657</v>
+      </c>
+      <c r="I27" s="18">
+        <v>4913912.8232615339</v>
+      </c>
+      <c r="J27" s="18">
+        <v>4892523.8597752657</v>
+      </c>
+      <c r="K27" s="18">
+        <v>-21388.963486268185</v>
+      </c>
+      <c r="L27" s="17">
         <v>0</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ)cn.xlsx
@@ -644,7 +644,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -719,6 +719,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -728,7 +731,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -803,6 +806,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>637390.84148665029</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>664460.27747876197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -845,7 +851,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -920,6 +926,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -929,7 +938,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1004,6 +1013,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>619761.83169761067</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>651756.51282777358</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1046,7 +1058,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1121,6 +1133,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1130,7 +1145,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1205,6 +1220,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-17629.009789039614</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-12703.764650988393</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1226,11 +1244,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="497267456"/>
-        <c:axId val="497269760"/>
+        <c:axId val="393055616"/>
+        <c:axId val="395379840"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="497267456"/>
+        <c:axId val="393055616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1273,14 +1291,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497269760"/>
+        <c:crossAx val="395379840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="497269760"/>
+        <c:axId val="395379840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1331,7 +1349,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497267456"/>
+        <c:crossAx val="393055616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1522,7 +1540,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1597,6 +1615,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>28994.918845165728</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27069.435992111685</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1611,8 +1632,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="497264512"/>
-        <c:axId val="497262976"/>
+        <c:axId val="520675328"/>
+        <c:axId val="519936256"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1637,7 +1658,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1712,6 +1733,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1721,7 +1745,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1796,6 +1820,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.75499999523162842</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76099997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1812,11 +1839,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="497255552"/>
-        <c:axId val="497257088"/>
+        <c:axId val="519928832"/>
+        <c:axId val="519934720"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="497255552"/>
+        <c:axId val="519928832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1859,14 +1886,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497257088"/>
+        <c:crossAx val="519934720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="497257088"/>
+        <c:axId val="519934720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1917,12 +1944,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497255552"/>
+        <c:crossAx val="519928832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="497262976"/>
+        <c:axId val="519936256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1959,12 +1986,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497264512"/>
+        <c:crossAx val="520675328"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="497264512"/>
+        <c:axId val="520675328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1973,7 +2000,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="497262976"/>
+        <c:crossAx val="519936256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2152,7 +2179,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2227,6 +2254,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2236,7 +2266,7 @@
               <c:f>'模型二 (2)PE副本成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2311,6 +2341,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>1659572.0331019405</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1750125.8271918723</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2353,7 +2386,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2428,6 +2461,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2437,7 +2473,7 @@
               <c:f>'模型二 (2)PE副本成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2512,6 +2548,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>1683782.4379789643</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1787717.2452937281</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2554,7 +2593,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2629,6 +2668,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2638,7 +2680,7 @@
               <c:f>'模型二 (2)PE副本成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2713,6 +2755,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>24210.404877023771</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>37591.418101855787</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2734,11 +2779,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="498664576"/>
-        <c:axId val="498666112"/>
+        <c:axId val="520698880"/>
+        <c:axId val="520704768"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="498664576"/>
+        <c:axId val="520698880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2781,14 +2826,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="498666112"/>
+        <c:crossAx val="520704768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="498666112"/>
+        <c:axId val="520704768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2839,7 +2884,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="498664576"/>
+        <c:crossAx val="520698880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3030,7 +3075,7 @@
               <c:f>'模型二 (2)PE副本成交量'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3105,6 +3150,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>110004.9180429735</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>90553.794089931776</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3119,8 +3167,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="520562176"/>
-        <c:axId val="520560640"/>
+        <c:axId val="531688832"/>
+        <c:axId val="531687296"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3145,7 +3193,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3220,6 +3268,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3229,7 +3280,7 @@
               <c:f>'模型二 (2)PE副本成交量'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3304,6 +3355,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.75499999523162842</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76099997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3320,11 +3374,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="498709248"/>
-        <c:axId val="498710784"/>
+        <c:axId val="531683968"/>
+        <c:axId val="531685760"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="498709248"/>
+        <c:axId val="531683968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3367,14 +3421,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="498710784"/>
+        <c:crossAx val="531685760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="498710784"/>
+        <c:axId val="531685760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3425,12 +3479,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="498709248"/>
+        <c:crossAx val="531683968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="520560640"/>
+        <c:axId val="531687296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3467,12 +3521,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520562176"/>
+        <c:crossAx val="531688832"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="520562176"/>
+        <c:axId val="531688832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3481,7 +3535,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="520560640"/>
+        <c:crossAx val="531687296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3660,7 +3714,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3735,6 +3789,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3744,7 +3801,7 @@
               <c:f>'模型二 (2)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3819,6 +3876,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>4913912.8232615339</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5099420.2574212886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3861,7 +3921,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3936,6 +3996,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3945,7 +4008,7 @@
               <c:f>'模型二 (2)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4020,6 +4083,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>4892523.8597752657</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5116912.1641673045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4062,7 +4128,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4137,6 +4203,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4146,7 +4215,7 @@
               <c:f>'模型二 (2)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4221,6 +4290,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-21388.963486268185</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17491.906746015884</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4242,11 +4314,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="520581888"/>
-        <c:axId val="520583424"/>
+        <c:axId val="556334080"/>
+        <c:axId val="565957376"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="520581888"/>
+        <c:axId val="556334080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4289,14 +4361,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520583424"/>
+        <c:crossAx val="565957376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="520583424"/>
+        <c:axId val="565957376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4347,7 +4419,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520581888"/>
+        <c:crossAx val="556334080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4538,7 +4610,7 @@
               <c:f>'模型二 (2)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4613,6 +4685,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>212836.78957917634</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>185507.43415975483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4627,8 +4702,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="520615040"/>
-        <c:axId val="520613248"/>
+        <c:axId val="566828416"/>
+        <c:axId val="566826880"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4653,7 +4728,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4728,6 +4803,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4737,7 +4815,7 @@
               <c:f>'模型二 (2)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4812,6 +4890,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.75499999523162842</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76099997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4828,11 +4909,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="520610176"/>
-        <c:axId val="520611712"/>
+        <c:axId val="566823552"/>
+        <c:axId val="566825344"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="520610176"/>
+        <c:axId val="566823552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4875,14 +4956,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520611712"/>
+        <c:crossAx val="566825344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="520611712"/>
+        <c:axId val="566825344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4933,12 +5014,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520610176"/>
+        <c:crossAx val="566823552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="520613248"/>
+        <c:axId val="566826880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4975,12 +5056,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520615040"/>
+        <c:crossAx val="566828416"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="520615040"/>
+        <c:axId val="566828416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4989,7 +5070,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="520613248"/>
+        <c:crossAx val="566826880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5151,7 +5232,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5226,6 +5307,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>28994.918845165728</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27069.435992111685</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5240,8 +5324,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="564728576"/>
-        <c:axId val="559217280"/>
+        <c:axId val="520745728"/>
+        <c:axId val="400410112"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5266,7 +5350,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5341,6 +5425,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5350,7 +5437,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5425,6 +5512,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.75499999523162842</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76099997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5441,11 +5531,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="527408512"/>
-        <c:axId val="559215744"/>
+        <c:axId val="395412608"/>
+        <c:axId val="395414144"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="527408512"/>
+        <c:axId val="395412608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5488,14 +5578,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="559215744"/>
+        <c:crossAx val="395414144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="559215744"/>
+        <c:axId val="395414144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5546,12 +5636,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527408512"/>
+        <c:crossAx val="395412608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="559217280"/>
+        <c:axId val="400410112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5588,12 +5678,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564728576"/>
+        <c:crossAx val="520745728"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="564728576"/>
+        <c:axId val="520745728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5602,7 +5692,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="559217280"/>
+        <c:crossAx val="400410112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5781,7 +5871,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5856,6 +5946,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5865,7 +5958,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5940,6 +6033,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>807941.58086079231</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>833657.54505329835</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5982,7 +6078,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6057,6 +6153,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6066,7 +6165,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6141,6 +6240,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>776458.84225744638</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>808345.32219024934</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6183,7 +6285,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6258,6 +6360,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6267,7 +6372,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6342,6 +6447,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-31482.738603345933</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-25312.222863049014</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6363,11 +6471,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="564756864"/>
-        <c:axId val="564758400"/>
+        <c:axId val="568860672"/>
+        <c:axId val="568862208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="564756864"/>
+        <c:axId val="568860672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6410,14 +6518,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564758400"/>
+        <c:crossAx val="568862208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="564758400"/>
+        <c:axId val="568862208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6468,7 +6576,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564756864"/>
+        <c:crossAx val="568860672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6668,7 +6776,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6743,6 +6851,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>27545.172902907441</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25715.964192506101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6757,8 +6868,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="569517184"/>
-        <c:axId val="566750592"/>
+        <c:axId val="574146432"/>
+        <c:axId val="574144512"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6783,7 +6894,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6858,6 +6969,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6867,7 +6981,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6942,6 +7056,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.75499999523162842</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76099997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6958,11 +7075,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="566705152"/>
-        <c:axId val="566749056"/>
+        <c:axId val="574116224"/>
+        <c:axId val="574118144"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="566705152"/>
+        <c:axId val="574116224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7005,14 +7122,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="566749056"/>
+        <c:crossAx val="574118144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="566749056"/>
+        <c:axId val="574118144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7063,12 +7180,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="566705152"/>
+        <c:crossAx val="574116224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="566750592"/>
+        <c:axId val="574144512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7105,12 +7222,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="569517184"/>
+        <c:crossAx val="574146432"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="569517184"/>
+        <c:axId val="574146432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7119,7 +7236,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="566750592"/>
+        <c:crossAx val="574144512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7298,7 +7415,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7373,6 +7490,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7382,7 +7502,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7457,6 +7577,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>6284943.531974853</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6461175.5944266198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7499,7 +7622,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7574,6 +7697,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7583,7 +7709,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7658,6 +7784,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>6205993.5156186232</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6431544.5871256161</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7700,7 +7829,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7775,6 +7904,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7784,7 +7916,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7859,6 +7991,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-78950.016356229782</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-29631.007301003672</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7880,11 +8015,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="569685504"/>
-        <c:axId val="569687424"/>
+        <c:axId val="574376192"/>
+        <c:axId val="574390272"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="569685504"/>
+        <c:axId val="574376192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7927,14 +8062,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="569687424"/>
+        <c:crossAx val="574390272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="569687424"/>
+        <c:axId val="574390272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7985,7 +8120,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="569685504"/>
+        <c:crossAx val="574376192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8185,7 +8320,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8260,6 +8395,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>202194.95010021751</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>176232.06245176709</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8274,8 +8412,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="571579008"/>
-        <c:axId val="571577472"/>
+        <c:axId val="574639488"/>
+        <c:axId val="574637952"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8300,7 +8438,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8375,6 +8513,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8384,7 +8525,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8459,6 +8600,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.75499999523162842</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76099997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8475,11 +8619,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="571560320"/>
-        <c:axId val="571561856"/>
+        <c:axId val="574623744"/>
+        <c:axId val="574625280"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="571560320"/>
+        <c:axId val="574623744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8522,14 +8666,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="571561856"/>
+        <c:crossAx val="574625280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="571561856"/>
+        <c:axId val="574625280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8580,12 +8724,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="571560320"/>
+        <c:crossAx val="574623744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="571577472"/>
+        <c:axId val="574637952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8622,12 +8766,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="571579008"/>
+        <c:crossAx val="574639488"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="571579008"/>
+        <c:axId val="574639488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8636,7 +8780,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="571577472"/>
+        <c:crossAx val="574637952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8815,7 +8959,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8890,6 +9034,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8899,7 +9046,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8974,6 +9121,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>277386.33584811713</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>289364.65418026631</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9016,7 +9166,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9091,6 +9241,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9100,7 +9253,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9175,6 +9328,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>279376.11148901522</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>293574.63081519771</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9217,7 +9373,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9292,6 +9448,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9301,7 +9460,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9376,6 +9535,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>1989.7756408980931</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4209.9766349314013</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9397,11 +9559,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="571829632"/>
-        <c:axId val="582882816"/>
+        <c:axId val="577307776"/>
+        <c:axId val="577309312"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="571829632"/>
+        <c:axId val="577307776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9444,14 +9606,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="582882816"/>
+        <c:crossAx val="577309312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="582882816"/>
+        <c:axId val="577309312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9502,7 +9664,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="571829632"/>
+        <c:crossAx val="577307776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9693,7 +9855,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9768,6 +9930,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>14551.283462646496</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11978.318332149203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9782,8 +9947,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="492882176"/>
-        <c:axId val="492880640"/>
+        <c:axId val="509546880"/>
+        <c:axId val="396089984"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9808,7 +9973,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9883,6 +10048,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9892,7 +10060,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9967,6 +10135,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.75499999523162842</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76099997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9983,11 +10154,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="492869120"/>
-        <c:axId val="492870656"/>
+        <c:axId val="616456192"/>
+        <c:axId val="396088448"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="492869120"/>
+        <c:axId val="616456192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10030,14 +10201,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492870656"/>
+        <c:crossAx val="396088448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="492870656"/>
+        <c:axId val="396088448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10088,12 +10259,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492869120"/>
+        <c:crossAx val="616456192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="492880640"/>
+        <c:axId val="396089984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10130,12 +10301,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492882176"/>
+        <c:crossAx val="509546880"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="492882176"/>
+        <c:axId val="509546880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10144,7 +10315,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="492880640"/>
+        <c:crossAx val="396089984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10323,7 +10494,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10398,6 +10569,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10407,7 +10581,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10482,6 +10656,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>644263.87471939344</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>671333.31071150512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10524,7 +10701,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10599,6 +10776,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10608,7 +10788,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10683,6 +10863,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>626313.7762507241</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>658360.52566164348</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10725,7 +10908,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10800,6 +10983,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10809,7 +10995,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10884,6 +11070,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-17950.098468669341</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-12972.785049861646</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10905,11 +11094,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="497227264"/>
-        <c:axId val="497228800"/>
+        <c:axId val="519908736"/>
+        <c:axId val="519910528"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="497227264"/>
+        <c:axId val="519908736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10952,14 +11141,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497228800"/>
+        <c:crossAx val="519910528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="497228800"/>
+        <c:axId val="519910528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11010,7 +11199,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497227264"/>
+        <c:crossAx val="519908736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11862,7 +12051,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG27"/>
+  <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13061,6 +13250,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="28" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="32">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="31">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="31">
+        <v>22.409999849999998</v>
+      </c>
+      <c r="D28" s="29">
+        <v>29.263021620154856</v>
+      </c>
+      <c r="E28" s="29">
+        <v>27069.435992111685</v>
+      </c>
+      <c r="F28" s="30">
+        <v>35570.876201449297</v>
+      </c>
+      <c r="G28" s="30">
+        <v>856447.47966086038</v>
+      </c>
+      <c r="H28" s="30">
+        <v>651756.51282777358</v>
+      </c>
+      <c r="I28" s="30">
+        <v>664460.27747876197</v>
+      </c>
+      <c r="J28" s="30">
+        <v>651756.51282777358</v>
+      </c>
+      <c r="K28" s="30">
+        <v>-12703.764650988393</v>
+      </c>
+      <c r="L28" s="29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -13077,7 +13304,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH27"/>
+  <dimension ref="A1:AH28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14557,6 +14784,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="28" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="15">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="31">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="16">
+        <v>22.409999849999998</v>
+      </c>
+      <c r="D28" s="17">
+        <v>29.263021620154856</v>
+      </c>
+      <c r="E28" s="17">
+        <v>25715.964192506101</v>
+      </c>
+      <c r="F28" s="18">
+        <v>33792.332391376833</v>
+      </c>
+      <c r="G28" s="18">
+        <v>1062214.646512365</v>
+      </c>
+      <c r="H28" s="18">
+        <v>808345.32219024934</v>
+      </c>
+      <c r="I28" s="18">
+        <v>833657.54505329835</v>
+      </c>
+      <c r="J28" s="18">
+        <v>808345.32219024934</v>
+      </c>
+      <c r="K28" s="18">
+        <v>-25312.222863049014</v>
+      </c>
+      <c r="L28" s="17">
+        <v>0</v>
+      </c>
+      <c r="M28" s="22">
+        <v>1.522906029356097E-2</v>
+      </c>
+      <c r="N28" s="22">
+        <v>3.1869089876101056E-2</v>
+      </c>
+      <c r="O28" s="22">
+        <v>47.786304387002254</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -14573,7 +14850,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH27"/>
+  <dimension ref="A1:AH28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16053,6 +16330,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="28" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="15">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="31">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="16">
+        <v>22.409999849999998</v>
+      </c>
+      <c r="D28" s="17">
+        <v>29.263021620154856</v>
+      </c>
+      <c r="E28" s="17">
+        <v>176232.06245176709</v>
+      </c>
+      <c r="F28" s="18">
+        <v>231579.58954241459</v>
+      </c>
+      <c r="G28" s="18">
+        <v>8451438.6025410444</v>
+      </c>
+      <c r="H28" s="18">
+        <v>6431544.5871256161</v>
+      </c>
+      <c r="I28" s="18">
+        <v>6461175.5944266198</v>
+      </c>
+      <c r="J28" s="18">
+        <v>6431544.5871256161</v>
+      </c>
+      <c r="K28" s="18">
+        <v>-29631.007301003672</v>
+      </c>
+      <c r="L28" s="17">
+        <v>0</v>
+      </c>
+      <c r="M28" s="22">
+        <v>1.522906029356097E-2</v>
+      </c>
+      <c r="N28" s="22">
+        <v>3.1869089876101056E-2</v>
+      </c>
+      <c r="O28" s="22">
+        <v>47.786304387002254</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -16069,7 +16396,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ27"/>
+  <dimension ref="A1:AJ28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17711,6 +18038,62 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="28" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="15">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="31">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="16">
+        <v>22.409999849999998</v>
+      </c>
+      <c r="D28" s="17">
+        <v>29.263021620154856</v>
+      </c>
+      <c r="E28" s="17">
+        <v>2111506</v>
+      </c>
+      <c r="F28" s="17">
+        <v>4325606.2786714146</v>
+      </c>
+      <c r="G28" s="17">
+        <v>11978.318332149203</v>
+      </c>
+      <c r="H28" s="18">
+        <v>15740.234802771431</v>
+      </c>
+      <c r="I28" s="18">
+        <v>385774.8218934703</v>
+      </c>
+      <c r="J28" s="18">
+        <v>293574.63081519771</v>
+      </c>
+      <c r="K28" s="18">
+        <v>289364.65418026631</v>
+      </c>
+      <c r="L28" s="18">
+        <v>293574.63081519771</v>
+      </c>
+      <c r="M28" s="18">
+        <v>4209.9766349314013</v>
+      </c>
+      <c r="N28" s="17">
+        <v>0</v>
+      </c>
+      <c r="O28" s="22">
+        <v>1.522906029356097E-2</v>
+      </c>
+      <c r="P28" s="22">
+        <v>3.1869089876101056E-2</v>
+      </c>
+      <c r="Q28" s="22">
+        <v>47.786304387002254</v>
+      </c>
+      <c r="R28" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J2">
@@ -17727,7 +18110,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ27"/>
+  <dimension ref="A1:AJ28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19301,6 +19684,59 @@
         <v>1</v>
       </c>
     </row>
+    <row r="28" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="15">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="31">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="16">
+        <v>22.409999849999998</v>
+      </c>
+      <c r="D28" s="17">
+        <v>29.263021620154856</v>
+      </c>
+      <c r="E28" s="17">
+        <v>27069.435992111685</v>
+      </c>
+      <c r="F28" s="18">
+        <v>35570.876201449297</v>
+      </c>
+      <c r="G28" s="18">
+        <v>865125.551971448</v>
+      </c>
+      <c r="H28" s="18">
+        <v>658360.52566164348</v>
+      </c>
+      <c r="I28" s="18">
+        <v>671333.31071150512</v>
+      </c>
+      <c r="J28" s="18">
+        <v>658360.52566164348</v>
+      </c>
+      <c r="K28" s="18">
+        <v>-12972.785049861646</v>
+      </c>
+      <c r="L28" s="17">
+        <v>0</v>
+      </c>
+      <c r="M28" s="21">
+        <v>58.333337096251995</v>
+      </c>
+      <c r="N28" s="21">
+        <v>46.998957098595064</v>
+      </c>
+      <c r="O28" s="21">
+        <v>42.775354990498926</v>
+      </c>
+      <c r="P28" s="21">
+        <v>55.446161314787332</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -19317,7 +19753,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ27"/>
+  <dimension ref="A1:AJ28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20675,6 +21111,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="28" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="15">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="31">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="16">
+        <v>22.409999849999998</v>
+      </c>
+      <c r="D28" s="17">
+        <v>29.263021620154856</v>
+      </c>
+      <c r="E28" s="17">
+        <v>2111506</v>
+      </c>
+      <c r="F28" s="17">
+        <v>4325606.2786714146</v>
+      </c>
+      <c r="G28" s="17">
+        <v>90553.794089931776</v>
+      </c>
+      <c r="H28" s="18">
+        <v>118993.1626238223</v>
+      </c>
+      <c r="I28" s="18">
+        <v>2349168.5912506692</v>
+      </c>
+      <c r="J28" s="18">
+        <v>1787717.2452937281</v>
+      </c>
+      <c r="K28" s="18">
+        <v>1750125.8271918723</v>
+      </c>
+      <c r="L28" s="18">
+        <v>1787717.2452937281</v>
+      </c>
+      <c r="M28" s="18">
+        <v>37591.418101855787</v>
+      </c>
+      <c r="N28" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J2">
@@ -20691,7 +21171,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG27"/>
+  <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21890,6 +22370,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="28" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="15">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="31">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="16">
+        <v>22.409999849999998</v>
+      </c>
+      <c r="D28" s="17">
+        <v>29.263021620154856</v>
+      </c>
+      <c r="E28" s="17">
+        <v>185507.43415975483</v>
+      </c>
+      <c r="F28" s="18">
+        <v>243767.98899201537</v>
+      </c>
+      <c r="G28" s="18">
+        <v>6723932.0826014131</v>
+      </c>
+      <c r="H28" s="18">
+        <v>5116912.1641673045</v>
+      </c>
+      <c r="I28" s="18">
+        <v>5099420.2574212886</v>
+      </c>
+      <c r="J28" s="18">
+        <v>5116912.1641673045</v>
+      </c>
+      <c r="K28" s="18">
+        <v>17491.906746015884</v>
+      </c>
+      <c r="L28" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ)cn.xlsx
@@ -644,7 +644,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -722,6 +722,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -731,7 +734,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -809,6 +812,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>664460.27747876197</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>696265.27651067753</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -851,7 +857,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -929,6 +935,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -938,7 +947,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1016,6 +1025,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>651756.51282777358</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>643308.4880749624</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1058,7 +1070,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1136,6 +1148,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1145,7 +1160,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1223,6 +1238,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>-12703.764650988393</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-52956.788435715134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1244,11 +1262,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="393055616"/>
-        <c:axId val="395379840"/>
+        <c:axId val="578904448"/>
+        <c:axId val="578906368"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="393055616"/>
+        <c:axId val="578904448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1291,14 +1309,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395379840"/>
+        <c:crossAx val="578906368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="395379840"/>
+        <c:axId val="578906368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1349,7 +1367,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393055616"/>
+        <c:crossAx val="578904448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1540,7 +1558,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1618,6 +1636,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>27069.435992111685</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31804.999031915606</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1632,8 +1653,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="520675328"/>
-        <c:axId val="519936256"/>
+        <c:axId val="464246272"/>
+        <c:axId val="464244736"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1658,7 +1679,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1736,6 +1757,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1745,7 +1769,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1823,6 +1847,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.76099997758865356</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.71399998664855957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1839,11 +1866,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="519928832"/>
-        <c:axId val="519934720"/>
+        <c:axId val="464237312"/>
+        <c:axId val="464238848"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="519928832"/>
+        <c:axId val="464237312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1886,14 +1913,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519934720"/>
+        <c:crossAx val="464238848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="519934720"/>
+        <c:axId val="464238848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1944,12 +1971,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519928832"/>
+        <c:crossAx val="464237312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="519936256"/>
+        <c:axId val="464244736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1986,12 +2013,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520675328"/>
+        <c:crossAx val="464246272"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="520675328"/>
+        <c:axId val="464246272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2000,7 +2027,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="519936256"/>
+        <c:crossAx val="464244736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2179,7 +2206,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2257,6 +2284,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2266,7 +2296,7 @@
               <c:f>'模型二 (2)PE副本成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2344,6 +2374,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1750125.8271918723</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1941661.3272682622</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2386,7 +2419,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2464,6 +2497,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2473,7 +2509,7 @@
               <c:f>'模型二 (2)PE副本成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2551,6 +2587,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1787717.2452937281</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1868841.842864583</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2593,7 +2632,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2671,6 +2710,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2680,7 +2722,7 @@
               <c:f>'模型二 (2)PE副本成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2758,6 +2800,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>37591.418101855787</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-72819.484403679147</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2779,11 +2824,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="520698880"/>
-        <c:axId val="520704768"/>
+        <c:axId val="471925504"/>
+        <c:axId val="471927040"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="520698880"/>
+        <c:axId val="471925504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2826,14 +2871,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520704768"/>
+        <c:crossAx val="471927040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="520704768"/>
+        <c:axId val="471927040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2884,7 +2929,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520698880"/>
+        <c:crossAx val="471925504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3075,7 +3120,7 @@
               <c:f>'模型二 (2)PE副本成交量'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3153,6 +3198,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>90553.794089931776</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>191535.50007638987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3167,8 +3215,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="531688832"/>
-        <c:axId val="531687296"/>
+        <c:axId val="471950464"/>
+        <c:axId val="471944576"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3193,7 +3241,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3271,6 +3319,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3280,7 +3331,7 @@
               <c:f>'模型二 (2)PE副本成交量'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3358,6 +3409,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.76099997758865356</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.71399998664855957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3374,11 +3428,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="531683968"/>
-        <c:axId val="531685760"/>
+        <c:axId val="471941504"/>
+        <c:axId val="471943040"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="531683968"/>
+        <c:axId val="471941504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3421,14 +3475,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="531685760"/>
+        <c:crossAx val="471943040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="531685760"/>
+        <c:axId val="471943040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3479,12 +3533,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="531683968"/>
+        <c:crossAx val="471941504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="531687296"/>
+        <c:axId val="471944576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3521,12 +3575,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="531688832"/>
+        <c:crossAx val="471950464"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="531688832"/>
+        <c:axId val="471950464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3535,7 +3589,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="531687296"/>
+        <c:crossAx val="471944576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3714,7 +3768,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3792,6 +3846,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3801,7 +3858,7 @@
               <c:f>'模型二 (2)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3879,6 +3936,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>5099420.2574212886</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5355510.8810719606</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3921,7 +3981,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3999,6 +4059,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4008,7 +4071,7 @@
               <c:f>'模型二 (2)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4086,6 +4149,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>5116912.1641673045</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5056978.0408539018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4128,7 +4194,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4206,6 +4272,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4215,7 +4284,7 @@
               <c:f>'模型二 (2)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4293,6 +4362,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>17491.906746015884</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-298532.84021805879</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4314,11 +4386,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="556334080"/>
-        <c:axId val="565957376"/>
+        <c:axId val="471986944"/>
+        <c:axId val="471988480"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="556334080"/>
+        <c:axId val="471986944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4361,14 +4433,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="565957376"/>
+        <c:crossAx val="471988480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="565957376"/>
+        <c:axId val="471988480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4419,7 +4491,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556334080"/>
+        <c:crossAx val="471986944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4610,7 +4682,7 @@
               <c:f>'模型二 (2)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4688,6 +4760,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>185507.43415975483</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>256090.62365067154</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4702,8 +4777,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="566828416"/>
-        <c:axId val="566826880"/>
+        <c:axId val="479556736"/>
+        <c:axId val="479554944"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4728,7 +4803,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4806,6 +4881,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4815,7 +4893,7 @@
               <c:f>'模型二 (2)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4893,6 +4971,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.76099997758865356</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.71399998664855957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4909,11 +4990,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="566823552"/>
-        <c:axId val="566825344"/>
+        <c:axId val="479551872"/>
+        <c:axId val="479553408"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="566823552"/>
+        <c:axId val="479551872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4956,14 +5037,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="566825344"/>
+        <c:crossAx val="479553408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="566825344"/>
+        <c:axId val="479553408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5014,12 +5095,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="566823552"/>
+        <c:crossAx val="479551872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="566826880"/>
+        <c:axId val="479554944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5056,12 +5137,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="566828416"/>
+        <c:crossAx val="479556736"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="566828416"/>
+        <c:axId val="479556736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5070,7 +5151,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="566826880"/>
+        <c:crossAx val="479554944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5232,7 +5313,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5310,6 +5391,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>27069.435992111685</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31804.999031915606</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5324,8 +5408,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="520745728"/>
-        <c:axId val="400410112"/>
+        <c:axId val="584399488"/>
+        <c:axId val="584397568"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5350,7 +5434,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5428,6 +5512,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5437,7 +5524,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5515,6 +5602,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.76099997758865356</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.71399998664855957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5531,11 +5621,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="395412608"/>
-        <c:axId val="395414144"/>
+        <c:axId val="582472448"/>
+        <c:axId val="582473984"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="395412608"/>
+        <c:axId val="582472448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5578,14 +5668,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395414144"/>
+        <c:crossAx val="582473984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="395414144"/>
+        <c:axId val="582473984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5636,12 +5726,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395412608"/>
+        <c:crossAx val="582472448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="400410112"/>
+        <c:axId val="584397568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5678,12 +5768,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520745728"/>
+        <c:crossAx val="584399488"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="520745728"/>
+        <c:axId val="584399488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5692,7 +5782,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="400410112"/>
+        <c:crossAx val="584397568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5871,7 +5961,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5949,6 +6039,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5958,7 +6051,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6036,6 +6129,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>833657.54505329835</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>863872.29413361812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6078,7 +6174,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6156,6 +6252,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6165,7 +6264,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6243,6 +6342,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>808345.32219024934</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>788635.99250805273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6285,7 +6387,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6363,6 +6465,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6372,7 +6477,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6450,6 +6555,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>-25312.222863049014</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-75236.301625565393</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6471,11 +6579,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="568860672"/>
-        <c:axId val="568862208"/>
+        <c:axId val="584418048"/>
+        <c:axId val="584419584"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="568860672"/>
+        <c:axId val="584418048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6518,14 +6626,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="568862208"/>
+        <c:crossAx val="584419584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="568862208"/>
+        <c:axId val="584419584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6576,7 +6684,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="568860672"/>
+        <c:crossAx val="584418048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6776,7 +6884,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6854,6 +6962,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>25715.964192506101</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>30214.749080319823</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6868,8 +6979,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="574146432"/>
-        <c:axId val="574144512"/>
+        <c:axId val="584484736"/>
+        <c:axId val="584482816"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6894,7 +7005,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6972,6 +7083,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6981,7 +7095,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7059,6 +7173,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.76099997758865356</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.71399998664855957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7075,11 +7192,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="574116224"/>
-        <c:axId val="574118144"/>
+        <c:axId val="584465408"/>
+        <c:axId val="584481024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="574116224"/>
+        <c:axId val="584465408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7122,14 +7239,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="574118144"/>
+        <c:crossAx val="584481024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="574118144"/>
+        <c:axId val="584481024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7180,12 +7297,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="574116224"/>
+        <c:crossAx val="584465408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="574144512"/>
+        <c:axId val="584482816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7222,12 +7339,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="574146432"/>
+        <c:crossAx val="584484736"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="574146432"/>
+        <c:axId val="584484736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7236,7 +7353,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="574144512"/>
+        <c:crossAx val="584482816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7415,7 +7532,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7493,6 +7610,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7502,7 +7622,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7580,6 +7700,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>6461175.5944266198</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6704461.6868947577</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7622,7 +7745,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7700,6 +7823,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7709,7 +7835,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7787,6 +7913,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>6431544.5871256161</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6277613.1418435639</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7829,7 +7958,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7907,6 +8036,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7916,7 +8048,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7994,6 +8126,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>-29631.007301003672</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-426848.5450511938</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8015,11 +8150,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="574376192"/>
-        <c:axId val="574390272"/>
+        <c:axId val="584532352"/>
+        <c:axId val="584534656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="574376192"/>
+        <c:axId val="584532352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8062,14 +8197,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="574390272"/>
+        <c:crossAx val="584534656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="574390272"/>
+        <c:axId val="584534656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8120,7 +8255,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="574376192"/>
+        <c:crossAx val="584532352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8320,7 +8455,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8398,6 +8533,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>176232.06245176709</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>243286.09246813794</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8412,8 +8550,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="574639488"/>
-        <c:axId val="574637952"/>
+        <c:axId val="584711552"/>
+        <c:axId val="584710016"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8438,7 +8576,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8516,6 +8654,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8525,7 +8666,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8603,6 +8744,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.76099997758865356</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.71399998664855957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8619,11 +8763,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="574623744"/>
-        <c:axId val="574625280"/>
+        <c:axId val="584706304"/>
+        <c:axId val="584708480"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="574623744"/>
+        <c:axId val="584706304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8666,14 +8810,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="574625280"/>
+        <c:crossAx val="584708480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="574625280"/>
+        <c:axId val="584708480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8724,12 +8868,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="574623744"/>
+        <c:crossAx val="584706304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="574637952"/>
+        <c:axId val="584710016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8766,12 +8910,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="574639488"/>
+        <c:crossAx val="584711552"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="574639488"/>
+        <c:axId val="584711552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8780,7 +8924,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="574637952"/>
+        <c:crossAx val="584710016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8959,7 +9103,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9037,6 +9181,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9046,7 +9193,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9124,6 +9271,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>289364.65418026631</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>314700.67919037107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9166,7 +9316,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9244,6 +9394,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9253,7 +9406,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9331,6 +9484,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>293574.63081519771</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>300779.24269139301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9373,7 +9529,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9451,6 +9607,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9460,7 +9619,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9538,6 +9697,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>4209.9766349314013</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-13921.436498978059</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9559,11 +9721,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="577307776"/>
-        <c:axId val="577309312"/>
+        <c:axId val="585187328"/>
+        <c:axId val="585189632"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="577307776"/>
+        <c:axId val="585187328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9606,14 +9768,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="577309312"/>
+        <c:crossAx val="585189632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="577309312"/>
+        <c:axId val="585189632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9664,7 +9826,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="577307776"/>
+        <c:crossAx val="585187328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9855,7 +10017,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9933,6 +10095,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>11978.318332149203</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>25336.025010104735</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9947,8 +10112,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="509546880"/>
-        <c:axId val="396089984"/>
+        <c:axId val="585470720"/>
+        <c:axId val="585467776"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9973,7 +10138,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10051,6 +10216,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10060,7 +10228,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -10138,6 +10306,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.76099997758865356</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.71399998664855957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10154,11 +10325,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="616456192"/>
-        <c:axId val="396088448"/>
+        <c:axId val="585308800"/>
+        <c:axId val="585466240"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="616456192"/>
+        <c:axId val="585308800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10201,14 +10372,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396088448"/>
+        <c:crossAx val="585466240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="396088448"/>
+        <c:axId val="585466240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10259,12 +10430,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616456192"/>
+        <c:crossAx val="585308800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="396089984"/>
+        <c:axId val="585467776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10301,12 +10472,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509546880"/>
+        <c:crossAx val="585470720"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="509546880"/>
+        <c:axId val="585470720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10315,7 +10486,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="396089984"/>
+        <c:crossAx val="585467776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10494,7 +10665,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10572,6 +10743,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10581,7 +10755,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10659,6 +10833,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>671333.31071150512</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>703138.30974342069</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10701,7 +10878,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10779,6 +10956,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10788,7 +10968,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10866,6 +11046,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>658360.52566164348</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>649504.63158885716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10908,7 +11091,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10986,6 +11169,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10995,7 +11181,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11073,6 +11259,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>-12972.785049861646</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-53633.678154563531</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11094,11 +11283,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="519908736"/>
-        <c:axId val="519910528"/>
+        <c:axId val="464204928"/>
+        <c:axId val="464206464"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="519908736"/>
+        <c:axId val="464204928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11141,14 +11330,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519910528"/>
+        <c:crossAx val="464206464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="519910528"/>
+        <c:axId val="464206464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11199,7 +11388,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519908736"/>
+        <c:crossAx val="464204928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12051,7 +12240,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG28"/>
+  <dimension ref="A1:AG29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13288,6 +13477,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="29" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="32">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="31">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="31">
+        <v>20.899999619999999</v>
+      </c>
+      <c r="D29" s="29">
+        <v>28.951898109092557</v>
+      </c>
+      <c r="E29" s="29">
+        <v>31804.999031915606</v>
+      </c>
+      <c r="F29" s="30">
+        <v>44544.817404276022</v>
+      </c>
+      <c r="G29" s="30">
+        <v>900992.29706513637</v>
+      </c>
+      <c r="H29" s="30">
+        <v>643308.4880749624</v>
+      </c>
+      <c r="I29" s="30">
+        <v>696265.27651067753</v>
+      </c>
+      <c r="J29" s="30">
+        <v>643308.4880749624</v>
+      </c>
+      <c r="K29" s="30">
+        <v>-52956.788435715134</v>
+      </c>
+      <c r="L29" s="29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -13304,7 +13531,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH28"/>
+  <dimension ref="A1:AH29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14834,6 +15061,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="29" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="15">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="31">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="16">
+        <v>20.899999619999999</v>
+      </c>
+      <c r="D29" s="17">
+        <v>28.951898109092557</v>
+      </c>
+      <c r="E29" s="17">
+        <v>30214.749080319823</v>
+      </c>
+      <c r="F29" s="18">
+        <v>42317.576534062224</v>
+      </c>
+      <c r="G29" s="18">
+        <v>1104532.2230464271</v>
+      </c>
+      <c r="H29" s="18">
+        <v>788635.99250805273</v>
+      </c>
+      <c r="I29" s="18">
+        <v>863872.29413361812</v>
+      </c>
+      <c r="J29" s="18">
+        <v>788635.99250805273</v>
+      </c>
+      <c r="K29" s="18">
+        <v>-75236.301625565393</v>
+      </c>
+      <c r="L29" s="17">
+        <v>0</v>
+      </c>
+      <c r="M29" s="22">
+        <v>1.3690880637471666E-2</v>
+      </c>
+      <c r="N29" s="22">
+        <v>2.7557571956255068E-2</v>
+      </c>
+      <c r="O29" s="22">
+        <v>49.681012025314104</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -14850,7 +15127,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH28"/>
+  <dimension ref="A1:AH29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16380,6 +16657,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="29" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="15">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="31">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="16">
+        <v>20.899999619999999</v>
+      </c>
+      <c r="D29" s="17">
+        <v>28.951898109092557</v>
+      </c>
+      <c r="E29" s="17">
+        <v>243286.09246813794</v>
+      </c>
+      <c r="F29" s="18">
+        <v>340736.83055667428</v>
+      </c>
+      <c r="G29" s="18">
+        <v>8792175.4330977183</v>
+      </c>
+      <c r="H29" s="18">
+        <v>6277613.1418435639</v>
+      </c>
+      <c r="I29" s="18">
+        <v>6704461.6868947577</v>
+      </c>
+      <c r="J29" s="18">
+        <v>6277613.1418435639</v>
+      </c>
+      <c r="K29" s="18">
+        <v>-426848.5450511938</v>
+      </c>
+      <c r="L29" s="17">
+        <v>0</v>
+      </c>
+      <c r="M29" s="22">
+        <v>1.3690880637471666E-2</v>
+      </c>
+      <c r="N29" s="22">
+        <v>2.7557571956255068E-2</v>
+      </c>
+      <c r="O29" s="22">
+        <v>49.681012025314104</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -16396,7 +16723,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ28"/>
+  <dimension ref="A1:AJ29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18094,6 +18421,62 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="29" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="15">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="31">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="16">
+        <v>20.899999619999999</v>
+      </c>
+      <c r="D29" s="17">
+        <v>28.951898109092557</v>
+      </c>
+      <c r="E29" s="17">
+        <v>3152600</v>
+      </c>
+      <c r="F29" s="17">
+        <v>4215152.2814262221</v>
+      </c>
+      <c r="G29" s="17">
+        <v>25336.025010104735</v>
+      </c>
+      <c r="H29" s="18">
+        <v>35484.629529237609</v>
+      </c>
+      <c r="I29" s="18">
+        <v>421259.45142270793</v>
+      </c>
+      <c r="J29" s="18">
+        <v>300779.24269139301</v>
+      </c>
+      <c r="K29" s="18">
+        <v>314700.67919037107</v>
+      </c>
+      <c r="L29" s="18">
+        <v>300779.24269139301</v>
+      </c>
+      <c r="M29" s="18">
+        <v>-13921.436498978059</v>
+      </c>
+      <c r="N29" s="17">
+        <v>0</v>
+      </c>
+      <c r="O29" s="22">
+        <v>1.3690880637471666E-2</v>
+      </c>
+      <c r="P29" s="22">
+        <v>2.7557571956255068E-2</v>
+      </c>
+      <c r="Q29" s="22">
+        <v>49.681012025314104</v>
+      </c>
+      <c r="R29" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J2">
@@ -18110,7 +18493,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ28"/>
+  <dimension ref="A1:AJ29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19737,6 +20120,59 @@
         <v>1</v>
       </c>
     </row>
+    <row r="29" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="15">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="31">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="16">
+        <v>20.899999619999999</v>
+      </c>
+      <c r="D29" s="17">
+        <v>28.951898109092557</v>
+      </c>
+      <c r="E29" s="17">
+        <v>31804.999031915606</v>
+      </c>
+      <c r="F29" s="18">
+        <v>44544.817404276022</v>
+      </c>
+      <c r="G29" s="18">
+        <v>909670.369375724</v>
+      </c>
+      <c r="H29" s="18">
+        <v>649504.63158885716</v>
+      </c>
+      <c r="I29" s="18">
+        <v>703138.30974342069</v>
+      </c>
+      <c r="J29" s="18">
+        <v>649504.63158885716</v>
+      </c>
+      <c r="K29" s="18">
+        <v>-53633.678154563531</v>
+      </c>
+      <c r="L29" s="17">
+        <v>0</v>
+      </c>
+      <c r="M29" s="21">
+        <v>61.111087458471879</v>
+      </c>
+      <c r="N29" s="21">
+        <v>51.703000551887335</v>
+      </c>
+      <c r="O29" s="21">
+        <v>45.751236844295057</v>
+      </c>
+      <c r="P29" s="21">
+        <v>63.606527967071898</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -19753,7 +20189,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ28"/>
+  <dimension ref="A1:AJ29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21155,6 +21591,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="29" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="15">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="31">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="16">
+        <v>20.899999619999999</v>
+      </c>
+      <c r="D29" s="17">
+        <v>28.951898109092557</v>
+      </c>
+      <c r="E29" s="17">
+        <v>3152600</v>
+      </c>
+      <c r="F29" s="17">
+        <v>4215152.2814262221</v>
+      </c>
+      <c r="G29" s="17">
+        <v>191535.50007638987</v>
+      </c>
+      <c r="H29" s="18">
+        <v>268257.00792438001</v>
+      </c>
+      <c r="I29" s="18">
+        <v>2617425.599175049</v>
+      </c>
+      <c r="J29" s="18">
+        <v>1868841.842864583</v>
+      </c>
+      <c r="K29" s="18">
+        <v>1941661.3272682622</v>
+      </c>
+      <c r="L29" s="18">
+        <v>1868841.842864583</v>
+      </c>
+      <c r="M29" s="18">
+        <v>-72819.484403679147</v>
+      </c>
+      <c r="N29" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J2">
@@ -21171,7 +21651,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG28"/>
+  <dimension ref="A1:AG29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22408,6 +22888,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="29" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="15">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="31">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="16">
+        <v>20.899999619999999</v>
+      </c>
+      <c r="D29" s="17">
+        <v>28.951898109092557</v>
+      </c>
+      <c r="E29" s="17">
+        <v>256090.62365067154</v>
+      </c>
+      <c r="F29" s="18">
+        <v>358670.347954394</v>
+      </c>
+      <c r="G29" s="18">
+        <v>7082602.4305558074</v>
+      </c>
+      <c r="H29" s="18">
+        <v>5056978.0408539018</v>
+      </c>
+      <c r="I29" s="18">
+        <v>5355510.8810719606</v>
+      </c>
+      <c r="J29" s="18">
+        <v>5056978.0408539018</v>
+      </c>
+      <c r="K29" s="18">
+        <v>-298532.84021805879</v>
+      </c>
+      <c r="L29" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ)cn.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="30">
   <si>
     <t>in practice</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -142,6 +142,10 @@
   </si>
   <si>
     <t>年化收益率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -644,7 +648,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -725,6 +729,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -734,7 +741,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -815,6 +822,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>696265.27651067753</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>733363.80791297404</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -857,7 +867,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -938,6 +948,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -947,7 +960,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1028,6 +1041,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>643308.4880749624</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>654278.2570400479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1070,7 +1086,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1151,6 +1167,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1160,7 +1179,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1241,6 +1260,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-52956.788435715134</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-79085.550872926135</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1262,11 +1284,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="578904448"/>
-        <c:axId val="578906368"/>
+        <c:axId val="445851904"/>
+        <c:axId val="445854080"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="578904448"/>
+        <c:axId val="445851904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1309,14 +1331,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="578906368"/>
+        <c:crossAx val="445854080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="578906368"/>
+        <c:axId val="445854080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1367,7 +1389,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="578904448"/>
+        <c:crossAx val="445851904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1558,7 +1580,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1639,6 +1661,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>31804.999031915606</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>37098.531402296496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1653,8 +1678,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="464246272"/>
-        <c:axId val="464244736"/>
+        <c:axId val="633635968"/>
+        <c:axId val="571125120"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1679,7 +1704,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1760,6 +1785,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1769,7 +1797,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1850,6 +1878,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.71399998664855957</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68500000238418579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1866,11 +1897,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="464237312"/>
-        <c:axId val="464238848"/>
+        <c:axId val="567548928"/>
+        <c:axId val="571122432"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="464237312"/>
+        <c:axId val="567548928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1913,14 +1944,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="464238848"/>
+        <c:crossAx val="571122432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="464238848"/>
+        <c:axId val="571122432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1971,12 +2002,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="464237312"/>
+        <c:crossAx val="567548928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="464244736"/>
+        <c:axId val="571125120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2013,12 +2044,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="464246272"/>
+        <c:crossAx val="633635968"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="464246272"/>
+        <c:axId val="633635968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2027,7 +2058,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="464244736"/>
+        <c:crossAx val="571125120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2206,7 +2237,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2287,6 +2318,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2296,7 +2330,7 @@
               <c:f>'模型二 (2)PE副本成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2377,6 +2411,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>1941661.3272682622</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2078896.4840478664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2419,7 +2456,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2500,6 +2537,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2509,7 +2549,7 @@
               <c:f>'模型二 (2)PE副本成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2590,6 +2630,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>1868841.842864583</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1930171.6984549416</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2632,7 +2675,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2713,6 +2756,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2722,7 +2768,7 @@
               <c:f>'模型二 (2)PE副本成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2803,6 +2849,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-72819.484403679147</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-148724.7855929248</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2824,11 +2873,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="471925504"/>
-        <c:axId val="471927040"/>
+        <c:axId val="520165248"/>
+        <c:axId val="520166784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="471925504"/>
+        <c:axId val="520165248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2871,14 +2920,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471927040"/>
+        <c:crossAx val="520166784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="471927040"/>
+        <c:axId val="520166784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2929,7 +2978,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471925504"/>
+        <c:crossAx val="520165248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3120,7 +3169,7 @@
               <c:f>'模型二 (2)PE副本成交量'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3201,6 +3250,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>191535.50007638987</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>137235.15677960418</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3215,8 +3267,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="471950464"/>
-        <c:axId val="471944576"/>
+        <c:axId val="520210688"/>
+        <c:axId val="520209152"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3241,7 +3293,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3322,6 +3374,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3331,7 +3386,7 @@
               <c:f>'模型二 (2)PE副本成交量'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3412,6 +3467,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.71399998664855957</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68500000238418579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3428,11 +3486,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="471941504"/>
-        <c:axId val="471943040"/>
+        <c:axId val="520197632"/>
+        <c:axId val="520199168"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="471941504"/>
+        <c:axId val="520197632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3475,14 +3533,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471943040"/>
+        <c:crossAx val="520199168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="471943040"/>
+        <c:axId val="520199168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3533,12 +3591,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471941504"/>
+        <c:crossAx val="520197632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="471944576"/>
+        <c:axId val="520209152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3575,12 +3633,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471950464"/>
+        <c:crossAx val="520210688"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="471950464"/>
+        <c:axId val="520210688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3589,7 +3647,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="471944576"/>
+        <c:crossAx val="520209152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3768,7 +3826,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3849,6 +3907,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3858,7 +3919,7 @@
               <c:f>'模型二 (2)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3939,6 +4000,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>5355510.8810719606</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5703941.5221370691</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3981,7 +4045,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4062,6 +4126,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4071,7 +4138,7 @@
               <c:f>'模型二 (2)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4152,6 +4219,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>5056978.0408539018</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5200013.3228820767</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4194,7 +4264,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4275,6 +4345,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4284,7 +4357,7 @@
               <c:f>'模型二 (2)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4365,6 +4438,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-298532.84021805879</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-503928.19925499242</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4386,11 +4462,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="471986944"/>
-        <c:axId val="471988480"/>
+        <c:axId val="558638976"/>
+        <c:axId val="558640512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="471986944"/>
+        <c:axId val="558638976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4433,14 +4509,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471988480"/>
+        <c:crossAx val="558640512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="471988480"/>
+        <c:axId val="558640512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4491,7 +4567,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471986944"/>
+        <c:crossAx val="558638976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4682,7 +4758,7 @@
               <c:f>'模型二 (2)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4763,6 +4839,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>256090.62365067154</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>348430.64106510871</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4777,8 +4856,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="479556736"/>
-        <c:axId val="479554944"/>
+        <c:axId val="559876352"/>
+        <c:axId val="559874816"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4803,7 +4882,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4884,6 +4963,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4893,7 +4975,7 @@
               <c:f>'模型二 (2)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4974,6 +5056,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.71399998664855957</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68500000238418579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4990,11 +5075,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="479551872"/>
-        <c:axId val="479553408"/>
+        <c:axId val="558667264"/>
+        <c:axId val="558668800"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="479551872"/>
+        <c:axId val="558667264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5037,14 +5122,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479553408"/>
+        <c:crossAx val="558668800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="479553408"/>
+        <c:axId val="558668800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5095,12 +5180,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479551872"/>
+        <c:crossAx val="558667264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="479554944"/>
+        <c:axId val="559874816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5137,12 +5222,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479556736"/>
+        <c:crossAx val="559876352"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="479556736"/>
+        <c:axId val="559876352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5151,7 +5236,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="479554944"/>
+        <c:crossAx val="559874816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5313,7 +5398,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5394,6 +5479,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>31804.999031915606</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>37098.531402296496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5408,8 +5496,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="584399488"/>
-        <c:axId val="584397568"/>
+        <c:axId val="445895040"/>
+        <c:axId val="445888768"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5434,7 +5522,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5515,6 +5603,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5524,7 +5615,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5605,6 +5696,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.71399998664855957</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68500000238418579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5621,11 +5715,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="582472448"/>
-        <c:axId val="582473984"/>
+        <c:axId val="445881344"/>
+        <c:axId val="445887232"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="582472448"/>
+        <c:axId val="445881344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5668,14 +5762,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="582473984"/>
+        <c:crossAx val="445887232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="582473984"/>
+        <c:axId val="445887232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5726,12 +5820,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="582472448"/>
+        <c:crossAx val="445881344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="584397568"/>
+        <c:axId val="445888768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5768,12 +5862,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584399488"/>
+        <c:crossAx val="445895040"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="584399488"/>
+        <c:axId val="445895040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5782,7 +5876,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="584397568"/>
+        <c:crossAx val="445888768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5961,7 +6055,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6042,6 +6136,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6051,7 +6148,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6132,6 +6229,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>863872.29413361812</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>899115.89896579983</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6174,7 +6274,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6255,6 +6355,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6264,7 +6367,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6345,6 +6448,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>788635.99250805273</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>791848.18025239441</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6387,7 +6493,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6468,6 +6574,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6477,7 +6586,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6558,6 +6667,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-75236.301625565393</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-107267.71871340543</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6579,11 +6691,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="584418048"/>
-        <c:axId val="584419584"/>
+        <c:axId val="560101632"/>
+        <c:axId val="560695552"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="584418048"/>
+        <c:axId val="560101632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6626,14 +6738,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584419584"/>
+        <c:crossAx val="560695552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="584419584"/>
+        <c:axId val="560695552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6684,7 +6796,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584418048"/>
+        <c:crossAx val="560101632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6884,7 +6996,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6965,6 +7077,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>30214.749080319823</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>35243.604832181671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6979,8 +7094,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="584484736"/>
-        <c:axId val="584482816"/>
+        <c:axId val="564306304"/>
+        <c:axId val="564295936"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7005,7 +7120,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7086,6 +7201,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7095,7 +7213,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7176,6 +7294,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.71399998664855957</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68500000238418579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7192,11 +7313,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="584465408"/>
-        <c:axId val="584481024"/>
+        <c:axId val="564292224"/>
+        <c:axId val="564294016"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="584465408"/>
+        <c:axId val="564292224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7239,14 +7360,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584481024"/>
+        <c:crossAx val="564294016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="584481024"/>
+        <c:axId val="564294016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7297,12 +7418,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584465408"/>
+        <c:crossAx val="564292224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="584482816"/>
+        <c:axId val="564295936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7339,12 +7460,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584484736"/>
+        <c:crossAx val="564306304"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="584484736"/>
+        <c:axId val="564306304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7353,7 +7474,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="584482816"/>
+        <c:crossAx val="564295936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7532,7 +7653,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7613,6 +7734,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7622,7 +7746,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7703,6 +7827,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>6704461.6868947577</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7035470.7959066108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7745,7 +7872,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7826,6 +7953,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7835,7 +7965,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7916,6 +8046,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>6277613.1418435639</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6353649.30164597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7958,7 +8091,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8039,6 +8172,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8048,7 +8184,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8129,6 +8265,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-426848.5450511938</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-681821.49426064081</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8150,11 +8289,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="584532352"/>
-        <c:axId val="584534656"/>
+        <c:axId val="564400896"/>
+        <c:axId val="564408704"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="584532352"/>
+        <c:axId val="564400896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8197,14 +8336,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584534656"/>
+        <c:crossAx val="564408704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="584534656"/>
+        <c:axId val="564408704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8255,7 +8394,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584532352"/>
+        <c:crossAx val="564400896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8455,7 +8594,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8536,6 +8675,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>243286.09246813794</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>331009.10901185323</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8550,8 +8692,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="584711552"/>
-        <c:axId val="584710016"/>
+        <c:axId val="564644480"/>
+        <c:axId val="564641792"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8576,7 +8718,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8657,6 +8799,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8666,7 +8811,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8747,6 +8892,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.71399998664855957</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68500000238418579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8763,11 +8911,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="584706304"/>
-        <c:axId val="584708480"/>
+        <c:axId val="564638080"/>
+        <c:axId val="564639616"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="584706304"/>
+        <c:axId val="564638080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8810,14 +8958,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584708480"/>
+        <c:crossAx val="564639616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="584708480"/>
+        <c:axId val="564639616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8868,12 +9016,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584706304"/>
+        <c:crossAx val="564638080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="584710016"/>
+        <c:axId val="564641792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8910,12 +9058,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584711552"/>
+        <c:crossAx val="564644480"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="584711552"/>
+        <c:axId val="564644480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8924,7 +9072,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="584710016"/>
+        <c:crossAx val="564641792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9103,7 +9251,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9184,6 +9332,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9193,7 +9344,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9274,6 +9425,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>314700.67919037107</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>332853.93727071112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9316,7 +9470,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9397,6 +9551,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9406,7 +9563,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9487,6 +9644,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>300779.24269139301</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>306715.9833092558</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9529,7 +9689,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9610,6 +9770,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9619,7 +9782,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9700,6 +9863,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-13921.436498978059</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-26137.953961455321</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9721,11 +9887,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="585187328"/>
-        <c:axId val="585189632"/>
+        <c:axId val="564912128"/>
+        <c:axId val="564913664"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="585187328"/>
+        <c:axId val="564912128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9768,14 +9934,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="585189632"/>
+        <c:crossAx val="564913664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="585189632"/>
+        <c:axId val="564913664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9826,7 +9992,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="585187328"/>
+        <c:crossAx val="564912128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10017,7 +10183,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10098,6 +10264,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>25336.025010104735</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18153.258080340041</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10112,8 +10281,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="585470720"/>
-        <c:axId val="585467776"/>
+        <c:axId val="567175808"/>
+        <c:axId val="567173888"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10138,7 +10307,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10219,6 +10388,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10228,7 +10400,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -10309,6 +10481,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.71399998664855957</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68500000238418579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10325,11 +10500,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="585308800"/>
-        <c:axId val="585466240"/>
+        <c:axId val="567162368"/>
+        <c:axId val="567163904"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="585308800"/>
+        <c:axId val="567162368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10372,14 +10547,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="585466240"/>
+        <c:crossAx val="567163904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="585466240"/>
+        <c:axId val="567163904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10430,12 +10605,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="585308800"/>
+        <c:crossAx val="567162368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="585467776"/>
+        <c:axId val="567173888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10472,12 +10647,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="585470720"/>
+        <c:crossAx val="567175808"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="585470720"/>
+        <c:axId val="567175808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10486,7 +10661,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="585467776"/>
+        <c:crossAx val="567173888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10665,7 +10840,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10746,6 +10921,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10755,7 +10933,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10836,6 +11014,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>703138.30974342069</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>740236.84114571719</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10878,7 +11059,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10959,6 +11140,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10968,7 +11152,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11049,6 +11233,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>649504.63158885716</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>660222.73659349058</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11091,7 +11278,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11172,6 +11359,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11181,7 +11371,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11262,6 +11452,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-53633.678154563531</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-80014.104552226607</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11283,11 +11476,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="464204928"/>
-        <c:axId val="464206464"/>
+        <c:axId val="567298688"/>
+        <c:axId val="567367936"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="464204928"/>
+        <c:axId val="567298688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11330,14 +11523,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="464206464"/>
+        <c:crossAx val="567367936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="464206464"/>
+        <c:axId val="567367936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11388,7 +11581,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="464204928"/>
+        <c:crossAx val="567298688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12240,7 +12433,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG29"/>
+  <dimension ref="A1:AG30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13515,6 +13708,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="30" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="32">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="31">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="31">
+        <v>19.25</v>
+      </c>
+      <c r="D30" s="29">
+        <v>28.642033266404177</v>
+      </c>
+      <c r="E30" s="29">
+        <v>37098.531402296496</v>
+      </c>
+      <c r="F30" s="30">
+        <v>54158.439814850673</v>
+      </c>
+      <c r="G30" s="30">
+        <v>955150.73687998706</v>
+      </c>
+      <c r="H30" s="30">
+        <v>654278.2570400479</v>
+      </c>
+      <c r="I30" s="30">
+        <v>733363.80791297404</v>
+      </c>
+      <c r="J30" s="30">
+        <v>654278.2570400479</v>
+      </c>
+      <c r="K30" s="30">
+        <v>-79085.550872926135</v>
+      </c>
+      <c r="L30" s="29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -13531,7 +13762,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH29"/>
+  <dimension ref="A1:AH30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13572,7 +13803,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -13608,16 +13839,16 @@
         <v>12</v>
       </c>
       <c r="M1" s="44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N1" s="44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O1" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -15108,6 +15339,56 @@
         <v>49.681012025314104</v>
       </c>
       <c r="P29" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="15">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="31">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="16">
+        <v>19.25</v>
+      </c>
+      <c r="D30" s="17">
+        <v>28.642033266404177</v>
+      </c>
+      <c r="E30" s="17">
+        <v>35243.604832181671</v>
+      </c>
+      <c r="F30" s="18">
+        <v>51450.517824108145</v>
+      </c>
+      <c r="G30" s="18">
+        <v>1155982.7408705354</v>
+      </c>
+      <c r="H30" s="18">
+        <v>791848.18025239441</v>
+      </c>
+      <c r="I30" s="18">
+        <v>899115.89896579983</v>
+      </c>
+      <c r="J30" s="18">
+        <v>791848.18025239441</v>
+      </c>
+      <c r="K30" s="18">
+        <v>-107267.71871340543</v>
+      </c>
+      <c r="L30" s="17">
+        <v>0</v>
+      </c>
+      <c r="M30" s="22">
+        <v>1.1409067197893056E-2</v>
+      </c>
+      <c r="N30" s="22">
+        <v>3.0797975120228221E-2</v>
+      </c>
+      <c r="O30" s="22">
+        <v>37.04486140194178</v>
+      </c>
+      <c r="P30" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -15127,7 +15408,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH29"/>
+  <dimension ref="A1:AH30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15204,16 +15485,16 @@
         <v>12</v>
       </c>
       <c r="M1" s="44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N1" s="44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O1" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -16704,6 +16985,56 @@
         <v>49.681012025314104</v>
       </c>
       <c r="P29" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="15">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="31">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="16">
+        <v>19.25</v>
+      </c>
+      <c r="D30" s="17">
+        <v>28.642033266404177</v>
+      </c>
+      <c r="E30" s="17">
+        <v>331009.10901185323</v>
+      </c>
+      <c r="F30" s="18">
+        <v>483224.97497774469</v>
+      </c>
+      <c r="G30" s="18">
+        <v>9275400.408075463</v>
+      </c>
+      <c r="H30" s="18">
+        <v>6353649.30164597</v>
+      </c>
+      <c r="I30" s="18">
+        <v>7035470.7959066108</v>
+      </c>
+      <c r="J30" s="18">
+        <v>6353649.30164597</v>
+      </c>
+      <c r="K30" s="18">
+        <v>-681821.49426064081</v>
+      </c>
+      <c r="L30" s="17">
+        <v>0</v>
+      </c>
+      <c r="M30" s="22">
+        <v>1.1409067197893056E-2</v>
+      </c>
+      <c r="N30" s="22">
+        <v>3.0797975120228221E-2</v>
+      </c>
+      <c r="O30" s="22">
+        <v>37.04486140194178</v>
+      </c>
+      <c r="P30" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -16723,7 +17054,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ29"/>
+  <dimension ref="A1:AJ30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16776,10 +17107,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -16806,16 +17137,16 @@
         <v>12</v>
       </c>
       <c r="O1" s="44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P1" s="44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q1" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -18474,6 +18805,62 @@
         <v>49.681012025314104</v>
       </c>
       <c r="R29" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="15">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="31">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="16">
+        <v>19.25</v>
+      </c>
+      <c r="D30" s="17">
+        <v>28.642033266404177</v>
+      </c>
+      <c r="E30" s="17">
+        <v>1644900</v>
+      </c>
+      <c r="F30" s="17">
+        <v>4176288.16796875</v>
+      </c>
+      <c r="G30" s="17">
+        <v>18153.258080340041</v>
+      </c>
+      <c r="H30" s="18">
+        <v>26501.106594389021</v>
+      </c>
+      <c r="I30" s="18">
+        <v>447760.55801709695</v>
+      </c>
+      <c r="J30" s="18">
+        <v>306715.9833092558</v>
+      </c>
+      <c r="K30" s="18">
+        <v>332853.93727071112</v>
+      </c>
+      <c r="L30" s="18">
+        <v>306715.9833092558</v>
+      </c>
+      <c r="M30" s="18">
+        <v>-26137.953961455321</v>
+      </c>
+      <c r="N30" s="17">
+        <v>0</v>
+      </c>
+      <c r="O30" s="22">
+        <v>1.1409067197893056E-2</v>
+      </c>
+      <c r="P30" s="22">
+        <v>3.0797975120228221E-2</v>
+      </c>
+      <c r="Q30" s="22">
+        <v>37.04486140194178</v>
+      </c>
+      <c r="R30" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -18493,7 +18880,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ29"/>
+  <dimension ref="A1:AJ30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18570,19 +18957,19 @@
         <v>12</v>
       </c>
       <c r="M1" s="48" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N1" s="48" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O1" s="48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P1" s="48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -20170,6 +20557,59 @@
         <v>63.606527967071898</v>
       </c>
       <c r="Q29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="15">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="31">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="16">
+        <v>19.25</v>
+      </c>
+      <c r="D30" s="17">
+        <v>28.642033266404177</v>
+      </c>
+      <c r="E30" s="17">
+        <v>37098.531402296496</v>
+      </c>
+      <c r="F30" s="18">
+        <v>54158.439814850673</v>
+      </c>
+      <c r="G30" s="18">
+        <v>963828.80919057468</v>
+      </c>
+      <c r="H30" s="18">
+        <v>660222.73659349058</v>
+      </c>
+      <c r="I30" s="18">
+        <v>740236.84114571719</v>
+      </c>
+      <c r="J30" s="18">
+        <v>660222.73659349058</v>
+      </c>
+      <c r="K30" s="18">
+        <v>-80014.104552226607</v>
+      </c>
+      <c r="L30" s="17">
+        <v>0</v>
+      </c>
+      <c r="M30" s="21">
+        <v>21.951223057979316</v>
+      </c>
+      <c r="N30" s="21">
+        <v>41.785741387251328</v>
+      </c>
+      <c r="O30" s="21">
+        <v>44.429405025280481</v>
+      </c>
+      <c r="P30" s="21">
+        <v>36.498414111193014</v>
+      </c>
+      <c r="Q30" s="1">
         <v>1</v>
       </c>
     </row>
@@ -20189,7 +20629,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ29"/>
+  <dimension ref="A1:AJ30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20230,7 +20670,7 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -20242,10 +20682,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -21632,6 +22072,50 @@
         <v>-72819.484403679147</v>
       </c>
       <c r="N29" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="15">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="31">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="16">
+        <v>19.25</v>
+      </c>
+      <c r="D30" s="17">
+        <v>28.642033266404177</v>
+      </c>
+      <c r="E30" s="17">
+        <v>1644900</v>
+      </c>
+      <c r="F30" s="17">
+        <v>4176288.16796875</v>
+      </c>
+      <c r="G30" s="17">
+        <v>137235.15677960418</v>
+      </c>
+      <c r="H30" s="18">
+        <v>200343.29387145772</v>
+      </c>
+      <c r="I30" s="18">
+        <v>2817768.8930465067</v>
+      </c>
+      <c r="J30" s="18">
+        <v>1930171.6984549416</v>
+      </c>
+      <c r="K30" s="18">
+        <v>2078896.4840478664</v>
+      </c>
+      <c r="L30" s="18">
+        <v>1930171.6984549416</v>
+      </c>
+      <c r="M30" s="18">
+        <v>-148724.7855929248</v>
+      </c>
+      <c r="N30" s="17">
         <v>0</v>
       </c>
     </row>
@@ -21651,7 +22135,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG29"/>
+  <dimension ref="A1:AG30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22926,6 +23410,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="30" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="15">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="31">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="16">
+        <v>19.25</v>
+      </c>
+      <c r="D30" s="17">
+        <v>28.642033266404177</v>
+      </c>
+      <c r="E30" s="17">
+        <v>348430.64106510871</v>
+      </c>
+      <c r="F30" s="18">
+        <v>508657.86839762604</v>
+      </c>
+      <c r="G30" s="18">
+        <v>7591260.2989534335</v>
+      </c>
+      <c r="H30" s="18">
+        <v>5200013.3228820767</v>
+      </c>
+      <c r="I30" s="18">
+        <v>5703941.5221370691</v>
+      </c>
+      <c r="J30" s="18">
+        <v>5200013.3228820767</v>
+      </c>
+      <c r="K30" s="18">
+        <v>-503928.19925499242</v>
+      </c>
+      <c r="L30" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ)cn.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="29">
   <si>
     <t>in practice</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -142,10 +142,6 @@
   </si>
   <si>
     <t>年化收益率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -648,7 +644,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -732,6 +728,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -741,7 +740,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -825,6 +824,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>733363.80791297404</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>771292.18841627764</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -867,7 +869,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -951,6 +953,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -960,7 +965,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1044,6 +1049,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>654278.2570400479</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>671193.30721299967</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1086,7 +1094,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1170,6 +1178,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1179,7 +1190,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1263,6 +1274,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-79085.550872926135</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-100098.88120327797</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1284,11 +1298,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="445851904"/>
-        <c:axId val="445854080"/>
+        <c:axId val="476616960"/>
+        <c:axId val="480075136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="445851904"/>
+        <c:axId val="476616960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1331,14 +1345,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="445854080"/>
+        <c:crossAx val="480075136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="445854080"/>
+        <c:axId val="480075136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1389,7 +1403,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="445851904"/>
+        <c:crossAx val="476616960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1580,7 +1594,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1664,6 +1678,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>37098.531402296496</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37928.380503303619</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1678,8 +1695,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="633635968"/>
-        <c:axId val="571125120"/>
+        <c:axId val="481670656"/>
+        <c:axId val="481669120"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1704,7 +1721,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1788,6 +1805,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1797,7 +1817,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1881,6 +1901,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.68500000238418579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66299998760223389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1897,11 +1920,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="567548928"/>
-        <c:axId val="571122432"/>
+        <c:axId val="481563392"/>
+        <c:axId val="481564928"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="567548928"/>
+        <c:axId val="481563392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1944,14 +1967,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="571122432"/>
+        <c:crossAx val="481564928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="571122432"/>
+        <c:axId val="481564928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2002,12 +2025,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="567548928"/>
+        <c:crossAx val="481563392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="571125120"/>
+        <c:axId val="481669120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2044,12 +2067,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="633635968"/>
+        <c:crossAx val="481670656"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="633635968"/>
+        <c:axId val="481670656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2058,7 +2081,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="571125120"/>
+        <c:crossAx val="481669120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2237,7 +2260,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2321,6 +2344,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2330,7 +2356,7 @@
               <c:f>'模型二 (2)PE副本成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2414,6 +2440,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>2078896.4840478664</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2366634.0857381918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2456,7 +2485,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2540,6 +2569,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2549,7 +2581,7 @@
               <c:f>'模型二 (2)PE副本成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2633,6 +2665,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>1930171.6984549416</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2155918.3428461198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2675,7 +2710,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2759,6 +2794,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2768,7 +2806,7 @@
               <c:f>'模型二 (2)PE副本成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2852,6 +2890,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-148724.7855929248</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-210715.74289207207</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2873,11 +2914,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="520165248"/>
-        <c:axId val="520166784"/>
+        <c:axId val="481727232"/>
+        <c:axId val="481728768"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="520165248"/>
+        <c:axId val="481727232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2920,14 +2961,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520166784"/>
+        <c:crossAx val="481728768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="520166784"/>
+        <c:axId val="481728768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2978,7 +3019,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520165248"/>
+        <c:crossAx val="481727232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3169,7 +3210,7 @@
               <c:f>'模型二 (2)PE副本成交量'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3253,6 +3294,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>137235.15677960418</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>287737.60169032536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3267,8 +3311,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="520210688"/>
-        <c:axId val="520209152"/>
+        <c:axId val="483980416"/>
+        <c:axId val="483970432"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3293,7 +3337,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3377,6 +3421,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3386,7 +3433,7 @@
               <c:f>'模型二 (2)PE副本成交量'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3470,6 +3517,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.68500000238418579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66299998760223389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3486,11 +3536,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="520197632"/>
-        <c:axId val="520199168"/>
+        <c:axId val="483967360"/>
+        <c:axId val="483968896"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="520197632"/>
+        <c:axId val="483967360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3533,14 +3583,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520199168"/>
+        <c:crossAx val="483968896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="520199168"/>
+        <c:axId val="483968896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3591,12 +3641,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520197632"/>
+        <c:crossAx val="483967360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="520209152"/>
+        <c:axId val="483970432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3633,12 +3683,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520210688"/>
+        <c:crossAx val="483980416"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="520210688"/>
+        <c:axId val="483980416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3647,7 +3697,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="520209152"/>
+        <c:crossAx val="483970432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3826,7 +3876,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3910,6 +3960,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3919,7 +3972,7 @@
               <c:f>'模型二 (2)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4003,6 +4056,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>5703941.5221370691</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6068134.445580963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4045,7 +4101,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4129,6 +4185,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4138,7 +4197,7 @@
               <c:f>'模型二 (2)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4222,6 +4281,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>5200013.3228820767</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5397198.4075353509</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4264,7 +4326,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4348,6 +4410,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4357,7 +4422,7 @@
               <c:f>'模型二 (2)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4441,6 +4506,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-503928.19925499242</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-670936.03804561216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4462,11 +4530,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="558638976"/>
-        <c:axId val="558640512"/>
+        <c:axId val="484160256"/>
+        <c:axId val="484161792"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="558638976"/>
+        <c:axId val="484160256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4509,14 +4577,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558640512"/>
+        <c:crossAx val="484161792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="558640512"/>
+        <c:axId val="484161792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4567,7 +4635,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558638976"/>
+        <c:crossAx val="484160256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4758,7 +4826,7 @@
               <c:f>'模型二 (2)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4842,6 +4910,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>348430.64106510871</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>364192.92344389425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4856,8 +4927,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="559876352"/>
-        <c:axId val="559874816"/>
+        <c:axId val="494404736"/>
+        <c:axId val="494382464"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4882,7 +4953,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4966,6 +5037,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4975,7 +5049,7 @@
               <c:f>'模型二 (2)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5059,6 +5133,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.68500000238418579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66299998760223389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5075,11 +5152,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="558667264"/>
-        <c:axId val="558668800"/>
+        <c:axId val="494379392"/>
+        <c:axId val="494380928"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="558667264"/>
+        <c:axId val="494379392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5122,14 +5199,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558668800"/>
+        <c:crossAx val="494380928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="558668800"/>
+        <c:axId val="494380928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5180,12 +5257,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558667264"/>
+        <c:crossAx val="494379392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="559874816"/>
+        <c:axId val="494382464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5222,12 +5299,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="559876352"/>
+        <c:crossAx val="494404736"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="559876352"/>
+        <c:axId val="494404736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5236,7 +5313,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="559874816"/>
+        <c:crossAx val="494382464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5398,7 +5475,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5482,6 +5559,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>37098.531402296496</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37928.380503303619</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5496,8 +5576,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="445895040"/>
-        <c:axId val="445888768"/>
+        <c:axId val="483936896"/>
+        <c:axId val="483934976"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5522,7 +5602,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5606,6 +5686,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5615,7 +5698,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5699,6 +5782,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.68500000238418579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66299998760223389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5715,11 +5801,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="445881344"/>
-        <c:axId val="445887232"/>
+        <c:axId val="483924992"/>
+        <c:axId val="483931648"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="445881344"/>
+        <c:axId val="483924992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5762,14 +5848,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="445887232"/>
+        <c:crossAx val="483931648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="445887232"/>
+        <c:axId val="483931648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5820,12 +5906,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="445881344"/>
+        <c:crossAx val="483924992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="445888768"/>
+        <c:axId val="483934976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5862,12 +5948,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="445895040"/>
+        <c:crossAx val="483936896"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="445895040"/>
+        <c:axId val="483936896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5876,7 +5962,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="445888768"/>
+        <c:crossAx val="483934976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6055,7 +6141,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6139,6 +6225,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6148,7 +6237,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6232,6 +6321,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>899115.89896579983</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>935147.86044393829</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6274,7 +6366,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6358,6 +6450,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6367,7 +6462,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6451,6 +6546,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>791848.18025239441</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>802448.50434369978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6493,7 +6591,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6577,6 +6675,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6586,7 +6687,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6670,6 +6771,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-107267.71871340543</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-132699.35610023851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6691,11 +6795,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="560101632"/>
-        <c:axId val="560695552"/>
+        <c:axId val="484012800"/>
+        <c:axId val="484014336"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="560101632"/>
+        <c:axId val="484012800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6738,14 +6842,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="560695552"/>
+        <c:crossAx val="484014336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="560695552"/>
+        <c:axId val="484014336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6796,7 +6900,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="560101632"/>
+        <c:crossAx val="484012800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6996,7 +7100,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7080,6 +7184,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>35243.604832181671</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>36031.961478138437</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7094,8 +7201,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="564306304"/>
-        <c:axId val="564295936"/>
+        <c:axId val="494314240"/>
+        <c:axId val="494308352"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7120,7 +7227,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7204,6 +7311,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7213,7 +7323,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7297,6 +7407,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.68500000238418579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66299998760223389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7313,11 +7426,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="564292224"/>
-        <c:axId val="564294016"/>
+        <c:axId val="484068352"/>
+        <c:axId val="494306432"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="564292224"/>
+        <c:axId val="484068352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7360,14 +7473,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564294016"/>
+        <c:crossAx val="494306432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="564294016"/>
+        <c:axId val="494306432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7418,12 +7531,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564292224"/>
+        <c:crossAx val="484068352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="564295936"/>
+        <c:axId val="494308352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7460,12 +7573,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564306304"/>
+        <c:crossAx val="494314240"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="564306304"/>
+        <c:axId val="494314240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7474,7 +7587,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="564295936"/>
+        <c:crossAx val="494308352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7653,7 +7766,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7737,6 +7850,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7746,7 +7862,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7830,6 +7946,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>7035470.7959066108</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7381454.0731783099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7872,7 +7991,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7956,6 +8075,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7965,7 +8087,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8049,6 +8171,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>6353649.30164597</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6495573.6328314869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8091,7 +8216,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8175,6 +8300,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8184,7 +8312,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8268,6 +8396,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-681821.49426064081</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-885880.44034682307</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8289,11 +8420,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="564400896"/>
-        <c:axId val="564408704"/>
+        <c:axId val="496444928"/>
+        <c:axId val="496446464"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="564400896"/>
+        <c:axId val="496444928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8336,14 +8467,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564408704"/>
+        <c:crossAx val="496446464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="564408704"/>
+        <c:axId val="496446464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8394,7 +8525,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564400896"/>
+        <c:crossAx val="496444928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8594,7 +8725,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8678,6 +8809,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>331009.10901185323</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>345983.27727169951</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8692,8 +8826,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="564644480"/>
-        <c:axId val="564641792"/>
+        <c:axId val="594108416"/>
+        <c:axId val="592705792"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8718,7 +8852,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8802,6 +8936,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8811,7 +8948,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8895,6 +9032,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.68500000238418579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66299998760223389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8911,11 +9051,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="564638080"/>
-        <c:axId val="564639616"/>
+        <c:axId val="589767424"/>
+        <c:axId val="592704256"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="564638080"/>
+        <c:axId val="589767424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8958,14 +9098,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564639616"/>
+        <c:crossAx val="592704256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="564639616"/>
+        <c:axId val="592704256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9016,12 +9156,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564638080"/>
+        <c:crossAx val="589767424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="564641792"/>
+        <c:axId val="592705792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9058,12 +9198,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564644480"/>
+        <c:crossAx val="594108416"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="564644480"/>
+        <c:axId val="594108416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9072,7 +9212,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="564641792"/>
+        <c:crossAx val="592705792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9251,7 +9391,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9335,6 +9475,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9344,7 +9487,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9428,6 +9571,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>332853.93727071112</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>370915.43015253264</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9470,7 +9616,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9554,6 +9700,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9563,7 +9712,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9647,6 +9796,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>306715.9833092558</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>334926.73729592608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9689,7 +9841,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9773,6 +9925,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9782,7 +9937,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9866,6 +10021,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-26137.953961455321</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-35988.692856606562</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9887,11 +10045,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="564912128"/>
-        <c:axId val="564913664"/>
+        <c:axId val="595199104"/>
+        <c:axId val="595201408"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="564912128"/>
+        <c:axId val="595199104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9934,14 +10092,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564913664"/>
+        <c:crossAx val="595201408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="564913664"/>
+        <c:axId val="595201408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9992,7 +10150,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564912128"/>
+        <c:crossAx val="595199104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10183,7 +10341,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10267,6 +10425,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>18153.258080340041</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>38061.492881821512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10281,8 +10442,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="567175808"/>
-        <c:axId val="567173888"/>
+        <c:axId val="600585344"/>
+        <c:axId val="598498688"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10307,7 +10468,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10391,6 +10552,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10400,7 +10564,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -10484,6 +10648,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.68500000238418579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66299998760223389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10500,11 +10667,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="567162368"/>
-        <c:axId val="567163904"/>
+        <c:axId val="598495232"/>
+        <c:axId val="598497152"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="567162368"/>
+        <c:axId val="598495232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10547,14 +10714,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="567163904"/>
+        <c:crossAx val="598497152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="567163904"/>
+        <c:axId val="598497152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10605,12 +10772,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="567162368"/>
+        <c:crossAx val="598495232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="567173888"/>
+        <c:axId val="598498688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10647,12 +10814,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="567175808"/>
+        <c:crossAx val="600585344"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="567175808"/>
+        <c:axId val="600585344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10661,7 +10828,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="567173888"/>
+        <c:crossAx val="598498688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10840,7 +11007,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10924,6 +11091,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10933,7 +11103,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11017,6 +11187,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>740236.84114571719</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>778165.22164902079</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11059,7 +11232,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11143,6 +11316,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11152,7 +11328,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11236,6 +11412,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>660222.73659349058</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>676946.86904733058</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11278,7 +11457,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11362,6 +11541,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11371,7 +11553,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11455,6 +11637,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-80014.104552226607</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-101218.35260169022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11476,11 +11661,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="567298688"/>
-        <c:axId val="567367936"/>
+        <c:axId val="601959808"/>
+        <c:axId val="670348032"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="567298688"/>
+        <c:axId val="601959808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11523,14 +11708,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="567367936"/>
+        <c:crossAx val="670348032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="567367936"/>
+        <c:axId val="670348032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11581,7 +11766,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="567298688"/>
+        <c:crossAx val="601959808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12433,7 +12618,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG30"/>
+  <dimension ref="A1:AG31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13746,6 +13931,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="31" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="32">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="31">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="31">
+        <v>18.770000459999999</v>
+      </c>
+      <c r="D31" s="29">
+        <v>28.372122106405978</v>
+      </c>
+      <c r="E31" s="29">
+        <v>37928.380503303619</v>
+      </c>
+      <c r="F31" s="30">
+        <v>57207.211481968698</v>
+      </c>
+      <c r="G31" s="30">
+        <v>1012357.9483619558</v>
+      </c>
+      <c r="H31" s="30">
+        <v>671193.30721299967</v>
+      </c>
+      <c r="I31" s="30">
+        <v>771292.18841627764</v>
+      </c>
+      <c r="J31" s="30">
+        <v>671193.30721299967</v>
+      </c>
+      <c r="K31" s="30">
+        <v>-100098.88120327797</v>
+      </c>
+      <c r="L31" s="29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -13762,7 +13985,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH30"/>
+  <dimension ref="A1:AH31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13803,7 +14026,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -13839,16 +14062,16 @@
         <v>12</v>
       </c>
       <c r="M1" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="O1" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="P1" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -15130,13 +15353,13 @@
         <v>0</v>
       </c>
       <c r="M25" s="22">
-        <v>1.6235825800310466E-2</v>
+        <v>1.3529854833592056E-2</v>
       </c>
       <c r="N25" s="22">
-        <v>3.3549798769067905E-2</v>
+        <v>3.129150572941633E-2</v>
       </c>
       <c r="O25" s="22">
-        <v>48.393213658495924</v>
+        <v>43.238107333623745</v>
       </c>
       <c r="P25" s="1">
         <v>0.95</v>
@@ -15180,13 +15403,13 @@
         <v>0</v>
       </c>
       <c r="M26" s="22">
-        <v>1.6235825800310466E-2</v>
+        <v>1.127487902799338E-2</v>
       </c>
       <c r="N26" s="22">
-        <v>3.3549798769067905E-2</v>
+        <v>3.124291452704148E-2</v>
       </c>
       <c r="O26" s="22">
-        <v>48.393213658495924</v>
+        <v>36.087795260697291</v>
       </c>
       <c r="P26" s="1">
         <v>0.95</v>
@@ -15230,13 +15453,13 @@
         <v>0</v>
       </c>
       <c r="M27" s="22">
-        <v>1.127487902799338E-2</v>
+        <v>1.522906029356097E-2</v>
       </c>
       <c r="N27" s="22">
-        <v>3.124291452704148E-2</v>
+        <v>3.1869089876101056E-2</v>
       </c>
       <c r="O27" s="22">
-        <v>36.087795260697291</v>
+        <v>47.786304387002254</v>
       </c>
       <c r="P27" s="1">
         <v>0.95</v>
@@ -15280,13 +15503,13 @@
         <v>0</v>
       </c>
       <c r="M28" s="22">
-        <v>1.522906029356097E-2</v>
+        <v>1.3690880637471666E-2</v>
       </c>
       <c r="N28" s="22">
-        <v>3.1869089876101056E-2</v>
+        <v>2.7557571956255068E-2</v>
       </c>
       <c r="O28" s="22">
-        <v>47.786304387002254</v>
+        <v>49.681012025314104</v>
       </c>
       <c r="P28" s="1">
         <v>0.95</v>
@@ -15330,13 +15553,13 @@
         <v>0</v>
       </c>
       <c r="M29" s="22">
-        <v>1.3690880637471666E-2</v>
+        <v>1.1409067197893056E-2</v>
       </c>
       <c r="N29" s="22">
-        <v>2.7557571956255068E-2</v>
+        <v>3.0797975120228221E-2</v>
       </c>
       <c r="O29" s="22">
-        <v>49.681012025314104</v>
+        <v>37.04486140194178</v>
       </c>
       <c r="P29" s="1">
         <v>0.95</v>
@@ -15380,15 +15603,65 @@
         <v>0</v>
       </c>
       <c r="M30" s="22">
-        <v>1.1409067197893056E-2</v>
+        <v>9.5075559982442139E-3</v>
       </c>
       <c r="N30" s="22">
-        <v>3.0797975120228221E-2</v>
+        <v>3.0498309977585816E-2</v>
       </c>
       <c r="O30" s="22">
-        <v>37.04486140194178</v>
+        <v>31.174042119814576</v>
       </c>
       <c r="P30" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="15">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="31">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="16">
+        <v>18.770000459999999</v>
+      </c>
+      <c r="D31" s="17">
+        <v>28.372122106405978</v>
+      </c>
+      <c r="E31" s="17">
+        <v>36031.961478138437</v>
+      </c>
+      <c r="F31" s="18">
+        <v>54346.850907870263</v>
+      </c>
+      <c r="G31" s="18">
+        <v>1210329.5917784057</v>
+      </c>
+      <c r="H31" s="18">
+        <v>802448.50434369978</v>
+      </c>
+      <c r="I31" s="18">
+        <v>935147.86044393829</v>
+      </c>
+      <c r="J31" s="18">
+        <v>802448.50434369978</v>
+      </c>
+      <c r="K31" s="18">
+        <v>-132699.35610023851</v>
+      </c>
+      <c r="L31" s="17">
+        <v>0</v>
+      </c>
+      <c r="M31" s="22">
+        <v>9.5075559982442139E-3</v>
+      </c>
+      <c r="N31" s="22">
+        <v>3.0498309977585816E-2</v>
+      </c>
+      <c r="O31" s="22">
+        <v>31.174042119814576</v>
+      </c>
+      <c r="P31" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -15408,7 +15681,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH30"/>
+  <dimension ref="A1:AH31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15485,16 +15758,16 @@
         <v>12</v>
       </c>
       <c r="M1" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="O1" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="P1" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -16776,13 +17049,13 @@
         <v>0</v>
       </c>
       <c r="M25" s="22">
-        <v>1.6235825800310466E-2</v>
+        <v>1.3529854833592056E-2</v>
       </c>
       <c r="N25" s="22">
-        <v>3.3549798769067905E-2</v>
+        <v>3.129150572941633E-2</v>
       </c>
       <c r="O25" s="22">
-        <v>48.393213658495924</v>
+        <v>43.238107333623745</v>
       </c>
       <c r="P25" s="1">
         <v>0.95</v>
@@ -16826,13 +17099,13 @@
         <v>0</v>
       </c>
       <c r="M26" s="22">
-        <v>1.6235825800310466E-2</v>
+        <v>1.127487902799338E-2</v>
       </c>
       <c r="N26" s="22">
-        <v>3.3549798769067905E-2</v>
+        <v>3.124291452704148E-2</v>
       </c>
       <c r="O26" s="22">
-        <v>48.393213658495924</v>
+        <v>36.087795260697291</v>
       </c>
       <c r="P26" s="1">
         <v>0.95</v>
@@ -16876,13 +17149,13 @@
         <v>0</v>
       </c>
       <c r="M27" s="22">
-        <v>1.127487902799338E-2</v>
+        <v>1.522906029356097E-2</v>
       </c>
       <c r="N27" s="22">
-        <v>3.124291452704148E-2</v>
+        <v>3.1869089876101056E-2</v>
       </c>
       <c r="O27" s="22">
-        <v>36.087795260697291</v>
+        <v>47.786304387002254</v>
       </c>
       <c r="P27" s="1">
         <v>0.95</v>
@@ -16926,13 +17199,13 @@
         <v>0</v>
       </c>
       <c r="M28" s="22">
-        <v>1.522906029356097E-2</v>
+        <v>1.3690880637471666E-2</v>
       </c>
       <c r="N28" s="22">
-        <v>3.1869089876101056E-2</v>
+        <v>2.7557571956255068E-2</v>
       </c>
       <c r="O28" s="22">
-        <v>47.786304387002254</v>
+        <v>49.681012025314104</v>
       </c>
       <c r="P28" s="1">
         <v>0.95</v>
@@ -16976,13 +17249,13 @@
         <v>0</v>
       </c>
       <c r="M29" s="22">
-        <v>1.3690880637471666E-2</v>
+        <v>1.1409067197893056E-2</v>
       </c>
       <c r="N29" s="22">
-        <v>2.7557571956255068E-2</v>
+        <v>3.0797975120228221E-2</v>
       </c>
       <c r="O29" s="22">
-        <v>49.681012025314104</v>
+        <v>37.04486140194178</v>
       </c>
       <c r="P29" s="1">
         <v>0.95</v>
@@ -17026,15 +17299,65 @@
         <v>0</v>
       </c>
       <c r="M30" s="22">
-        <v>1.1409067197893056E-2</v>
+        <v>9.5075559982442139E-3</v>
       </c>
       <c r="N30" s="22">
-        <v>3.0797975120228221E-2</v>
+        <v>3.0498309977585816E-2</v>
       </c>
       <c r="O30" s="22">
-        <v>37.04486140194178</v>
+        <v>31.174042119814576</v>
       </c>
       <c r="P30" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="15">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="31">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="16">
+        <v>18.770000459999999</v>
+      </c>
+      <c r="D31" s="17">
+        <v>28.372122106405978</v>
+      </c>
+      <c r="E31" s="17">
+        <v>345983.27727169951</v>
+      </c>
+      <c r="F31" s="18">
+        <v>521845.07351645955</v>
+      </c>
+      <c r="G31" s="18">
+        <v>9797245.4815919232</v>
+      </c>
+      <c r="H31" s="18">
+        <v>6495573.6328314869</v>
+      </c>
+      <c r="I31" s="18">
+        <v>7381454.0731783099</v>
+      </c>
+      <c r="J31" s="18">
+        <v>6495573.6328314869</v>
+      </c>
+      <c r="K31" s="18">
+        <v>-885880.44034682307</v>
+      </c>
+      <c r="L31" s="17">
+        <v>0</v>
+      </c>
+      <c r="M31" s="22">
+        <v>9.5075559982442139E-3</v>
+      </c>
+      <c r="N31" s="22">
+        <v>3.0498309977585816E-2</v>
+      </c>
+      <c r="O31" s="22">
+        <v>31.174042119814576</v>
+      </c>
+      <c r="P31" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -17054,7 +17377,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ30"/>
+  <dimension ref="A1:AJ31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17107,10 +17430,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>24</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -17137,16 +17460,16 @@
         <v>12</v>
       </c>
       <c r="O1" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="44" t="s">
+      <c r="Q1" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="48" t="s">
+      <c r="R1" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="R1" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -18572,13 +18895,13 @@
         <v>0</v>
       </c>
       <c r="O25" s="22">
-        <v>1.6235825800310466E-2</v>
+        <v>1.3529854833592056E-2</v>
       </c>
       <c r="P25" s="22">
-        <v>3.3549798769067905E-2</v>
+        <v>3.129150572941633E-2</v>
       </c>
       <c r="Q25" s="22">
-        <v>48.393213658495924</v>
+        <v>43.238107333623745</v>
       </c>
       <c r="R25" s="1">
         <v>0.95</v>
@@ -18628,13 +18951,13 @@
         <v>0</v>
       </c>
       <c r="O26" s="22">
-        <v>1.6235825800310466E-2</v>
+        <v>1.127487902799338E-2</v>
       </c>
       <c r="P26" s="22">
-        <v>3.3549798769067905E-2</v>
+        <v>3.124291452704148E-2</v>
       </c>
       <c r="Q26" s="22">
-        <v>48.393213658495924</v>
+        <v>36.087795260697291</v>
       </c>
       <c r="R26" s="1">
         <v>0.95</v>
@@ -18684,13 +19007,13 @@
         <v>0</v>
       </c>
       <c r="O27" s="22">
-        <v>1.127487902799338E-2</v>
+        <v>1.522906029356097E-2</v>
       </c>
       <c r="P27" s="22">
-        <v>3.124291452704148E-2</v>
+        <v>3.1869089876101056E-2</v>
       </c>
       <c r="Q27" s="22">
-        <v>36.087795260697291</v>
+        <v>47.786304387002254</v>
       </c>
       <c r="R27" s="1">
         <v>0.95</v>
@@ -18740,13 +19063,13 @@
         <v>0</v>
       </c>
       <c r="O28" s="22">
-        <v>1.522906029356097E-2</v>
+        <v>1.3690880637471666E-2</v>
       </c>
       <c r="P28" s="22">
-        <v>3.1869089876101056E-2</v>
+        <v>2.7557571956255068E-2</v>
       </c>
       <c r="Q28" s="22">
-        <v>47.786304387002254</v>
+        <v>49.681012025314104</v>
       </c>
       <c r="R28" s="1">
         <v>0.95</v>
@@ -18796,13 +19119,13 @@
         <v>0</v>
       </c>
       <c r="O29" s="22">
-        <v>1.3690880637471666E-2</v>
+        <v>1.1409067197893056E-2</v>
       </c>
       <c r="P29" s="22">
-        <v>2.7557571956255068E-2</v>
+        <v>3.0797975120228221E-2</v>
       </c>
       <c r="Q29" s="22">
-        <v>49.681012025314104</v>
+        <v>37.04486140194178</v>
       </c>
       <c r="R29" s="1">
         <v>0.95</v>
@@ -18852,15 +19175,71 @@
         <v>0</v>
       </c>
       <c r="O30" s="22">
-        <v>1.1409067197893056E-2</v>
+        <v>9.5075559982442139E-3</v>
       </c>
       <c r="P30" s="22">
-        <v>3.0797975120228221E-2</v>
+        <v>3.0498309977585816E-2</v>
       </c>
       <c r="Q30" s="22">
-        <v>37.04486140194178</v>
+        <v>31.174042119814576</v>
       </c>
       <c r="R30" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="15">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="31">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="16">
+        <v>18.770000459999999</v>
+      </c>
+      <c r="D31" s="17">
+        <v>28.372122106405978</v>
+      </c>
+      <c r="E31" s="17">
+        <v>3279702</v>
+      </c>
+      <c r="F31" s="17">
+        <v>4151158.042563708</v>
+      </c>
+      <c r="G31" s="17">
+        <v>38061.492881821512</v>
+      </c>
+      <c r="H31" s="18">
+        <v>57407.984304000413</v>
+      </c>
+      <c r="I31" s="18">
+        <v>505168.54232109734</v>
+      </c>
+      <c r="J31" s="18">
+        <v>334926.73729592608</v>
+      </c>
+      <c r="K31" s="18">
+        <v>370915.43015253264</v>
+      </c>
+      <c r="L31" s="18">
+        <v>334926.73729592608</v>
+      </c>
+      <c r="M31" s="18">
+        <v>-35988.692856606562</v>
+      </c>
+      <c r="N31" s="17">
+        <v>0</v>
+      </c>
+      <c r="O31" s="22">
+        <v>9.5075559982442139E-3</v>
+      </c>
+      <c r="P31" s="22">
+        <v>3.0498309977585816E-2</v>
+      </c>
+      <c r="Q31" s="22">
+        <v>31.174042119814576</v>
+      </c>
+      <c r="R31" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -18880,7 +19259,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ30"/>
+  <dimension ref="A1:AJ31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18957,19 +19336,19 @@
         <v>12</v>
       </c>
       <c r="M1" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="48" t="s">
+      <c r="O1" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="P1" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="48" t="s">
+      <c r="Q1" s="11" t="s">
         <v>28</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -20333,16 +20712,16 @@
         <v>0</v>
       </c>
       <c r="M25" s="21">
-        <v>51.666694813303359</v>
+        <v>48.993281878673784</v>
       </c>
       <c r="N25" s="21">
-        <v>44.636172502112707</v>
+        <v>46.088542294299735</v>
       </c>
       <c r="O25" s="21">
-        <v>37.449899885039635</v>
+        <v>40.329447354792997</v>
       </c>
       <c r="P25" s="21">
-        <v>59.008717736258845</v>
+        <v>57.606732173313205</v>
       </c>
       <c r="Q25" s="1">
         <v>1</v>
@@ -20386,16 +20765,16 @@
         <v>0</v>
       </c>
       <c r="M26" s="21">
-        <v>51.666694813303359</v>
+        <v>31.818216710700341</v>
       </c>
       <c r="N26" s="21">
-        <v>44.636172502112707</v>
+        <v>41.331767099766601</v>
       </c>
       <c r="O26" s="21">
-        <v>37.449899885039635</v>
+        <v>40.66355393645086</v>
       </c>
       <c r="P26" s="21">
-        <v>59.008717736258845</v>
+        <v>42.668193426398076</v>
       </c>
       <c r="Q26" s="1">
         <v>1</v>
@@ -20439,16 +20818,16 @@
         <v>0</v>
       </c>
       <c r="M27" s="21">
-        <v>31.818216710700341</v>
+        <v>58.333337096251995</v>
       </c>
       <c r="N27" s="21">
-        <v>41.331767099766601</v>
+        <v>46.998957098595064</v>
       </c>
       <c r="O27" s="21">
-        <v>40.66355393645086</v>
+        <v>42.775354990498926</v>
       </c>
       <c r="P27" s="21">
-        <v>42.668193426398076</v>
+        <v>55.446161314787332</v>
       </c>
       <c r="Q27" s="1">
         <v>1</v>
@@ -20492,16 +20871,16 @@
         <v>0</v>
       </c>
       <c r="M28" s="21">
-        <v>58.333337096251995</v>
+        <v>61.111087458471879</v>
       </c>
       <c r="N28" s="21">
-        <v>46.998957098595064</v>
+        <v>51.703000551887335</v>
       </c>
       <c r="O28" s="21">
-        <v>42.775354990498926</v>
+        <v>45.751236844295057</v>
       </c>
       <c r="P28" s="21">
-        <v>55.446161314787332</v>
+        <v>63.606527967071898</v>
       </c>
       <c r="Q28" s="1">
         <v>1</v>
@@ -20545,16 +20924,16 @@
         <v>0</v>
       </c>
       <c r="M29" s="21">
-        <v>61.111087458471879</v>
+        <v>21.951223057979316</v>
       </c>
       <c r="N29" s="21">
-        <v>51.703000551887335</v>
+        <v>41.785741387251328</v>
       </c>
       <c r="O29" s="21">
-        <v>45.751236844295057</v>
+        <v>44.429405025280481</v>
       </c>
       <c r="P29" s="21">
-        <v>63.606527967071898</v>
+        <v>36.498414111193014</v>
       </c>
       <c r="Q29" s="1">
         <v>1</v>
@@ -20598,18 +20977,71 @@
         <v>0</v>
       </c>
       <c r="M30" s="21">
-        <v>21.951223057979316</v>
+        <v>7.4074008664308382</v>
       </c>
       <c r="N30" s="21">
-        <v>41.785741387251328</v>
+        <v>30.326294546977831</v>
       </c>
       <c r="O30" s="21">
-        <v>44.429405025280481</v>
+        <v>39.728368199179599</v>
       </c>
       <c r="P30" s="21">
-        <v>36.498414111193014</v>
+        <v>11.522147242574292</v>
       </c>
       <c r="Q30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="15">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="31">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="16">
+        <v>18.770000459999999</v>
+      </c>
+      <c r="D31" s="17">
+        <v>28.372122106405978</v>
+      </c>
+      <c r="E31" s="17">
+        <v>37928.380503303619</v>
+      </c>
+      <c r="F31" s="18">
+        <v>57207.211481968698</v>
+      </c>
+      <c r="G31" s="18">
+        <v>1021036.0206725434</v>
+      </c>
+      <c r="H31" s="18">
+        <v>676946.86904733058</v>
+      </c>
+      <c r="I31" s="18">
+        <v>778165.22164902079</v>
+      </c>
+      <c r="J31" s="18">
+        <v>676946.86904733058</v>
+      </c>
+      <c r="K31" s="18">
+        <v>-101218.35260169022</v>
+      </c>
+      <c r="L31" s="17">
+        <v>0</v>
+      </c>
+      <c r="M31" s="21">
+        <v>7.4074008664308382</v>
+      </c>
+      <c r="N31" s="21">
+        <v>30.326294546977831</v>
+      </c>
+      <c r="O31" s="21">
+        <v>39.728368199179599</v>
+      </c>
+      <c r="P31" s="21">
+        <v>11.522147242574292</v>
+      </c>
+      <c r="Q31" s="1">
         <v>1</v>
       </c>
     </row>
@@ -20629,7 +21061,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ30"/>
+  <dimension ref="A1:AJ31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20670,7 +21102,7 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -20682,10 +21114,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>24</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -22116,6 +22548,50 @@
         <v>-148724.7855929248</v>
       </c>
       <c r="N30" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="15">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="31">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="16">
+        <v>18.770000459999999</v>
+      </c>
+      <c r="D31" s="17">
+        <v>28.372122106405978</v>
+      </c>
+      <c r="E31" s="17">
+        <v>3279702</v>
+      </c>
+      <c r="F31" s="17">
+        <v>4151158.042563708</v>
+      </c>
+      <c r="G31" s="17">
+        <v>287737.60169032536</v>
+      </c>
+      <c r="H31" s="18">
+        <v>433993.37416421372</v>
+      </c>
+      <c r="I31" s="18">
+        <v>3251762.2672107206</v>
+      </c>
+      <c r="J31" s="18">
+        <v>2155918.3428461198</v>
+      </c>
+      <c r="K31" s="18">
+        <v>2366634.0857381918</v>
+      </c>
+      <c r="L31" s="18">
+        <v>2155918.3428461198</v>
+      </c>
+      <c r="M31" s="18">
+        <v>-210715.74289207207</v>
+      </c>
+      <c r="N31" s="17">
         <v>0</v>
       </c>
     </row>
@@ -22135,7 +22611,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG30"/>
+  <dimension ref="A1:AG31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23448,6 +23924,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="31" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="15">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="31">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="16">
+        <v>18.770000459999999</v>
+      </c>
+      <c r="D31" s="17">
+        <v>28.372122106405978</v>
+      </c>
+      <c r="E31" s="17">
+        <v>364192.92344389425</v>
+      </c>
+      <c r="F31" s="18">
+        <v>549310.60370153643</v>
+      </c>
+      <c r="G31" s="18">
+        <v>8140570.9026549701</v>
+      </c>
+      <c r="H31" s="18">
+        <v>5397198.4075353509</v>
+      </c>
+      <c r="I31" s="18">
+        <v>6068134.445580963</v>
+      </c>
+      <c r="J31" s="18">
+        <v>5397198.4075353509</v>
+      </c>
+      <c r="K31" s="18">
+        <v>-670936.03804561216</v>
+      </c>
+      <c r="L31" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ)cn.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="31">
   <si>
     <t>in practice</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -125,6 +125,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>每年投入本金</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -158,6 +162,10 @@
   </si>
   <si>
     <t>标志</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>深创100ETF</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -644,7 +652,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -731,6 +739,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -740,7 +754,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -827,6 +841,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>771292.18841627764</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>811194.36685398582</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>850637.83985309303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -869,7 +889,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -956,6 +976,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -965,7 +991,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1052,6 +1078,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>671193.30721299967</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>698947.22599237598</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>731948.744248776</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1094,7 +1126,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1181,6 +1213,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1190,7 +1228,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1277,6 +1315,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-100098.88120327797</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-112247.14086160983</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-118689.09560431703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1298,11 +1342,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="476616960"/>
-        <c:axId val="480075136"/>
+        <c:axId val="435876608"/>
+        <c:axId val="435878528"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="476616960"/>
+        <c:axId val="435876608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1345,14 +1389,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480075136"/>
+        <c:crossAx val="435878528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="480075136"/>
+        <c:axId val="435878528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1403,7 +1447,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476616960"/>
+        <c:crossAx val="435876608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1594,7 +1638,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1681,6 +1725,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>37928.380503303619</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>39902.178437708179</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>39443.472999107165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1695,8 +1745,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="481670656"/>
-        <c:axId val="481669120"/>
+        <c:axId val="490400000"/>
+        <c:axId val="490398464"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1721,7 +1771,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1808,6 +1858,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1817,7 +1873,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1904,6 +1960,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.66299998760223389</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65100002288818359</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64499998092651367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1920,11 +1982,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="481563392"/>
-        <c:axId val="481564928"/>
+        <c:axId val="650888704"/>
+        <c:axId val="650890240"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="481563392"/>
+        <c:axId val="650888704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1967,14 +2029,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481564928"/>
+        <c:crossAx val="650890240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="481564928"/>
+        <c:axId val="650890240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2025,12 +2087,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481563392"/>
+        <c:crossAx val="650888704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="481669120"/>
+        <c:axId val="490398464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2067,12 +2129,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481670656"/>
+        <c:crossAx val="490400000"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="481670656"/>
+        <c:axId val="490400000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2081,7 +2143,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="481669120"/>
+        <c:crossAx val="490398464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2260,7 +2322,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2347,6 +2409,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2356,7 +2424,7 @@
               <c:f>'模型二 (2)PE副本成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2443,6 +2511,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>2366634.0857381918</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2702955.2864984185</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3237177.7389902929</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2485,7 +2559,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2572,6 +2646,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2581,7 +2661,7 @@
               <c:f>'模型二 (2)PE副本成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2668,6 +2748,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>2155918.3428461198</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2453218.5111413379</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2964830.4974419973</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2710,7 +2796,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2797,6 +2883,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2806,7 +2898,7 @@
               <c:f>'模型二 (2)PE副本成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2893,6 +2985,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-210715.74289207207</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-249736.77535708062</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-272347.2415482956</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2914,11 +3012,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="481727232"/>
-        <c:axId val="481728768"/>
+        <c:axId val="493409792"/>
+        <c:axId val="493411328"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="481727232"/>
+        <c:axId val="493409792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2961,14 +3059,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481728768"/>
+        <c:crossAx val="493411328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="481728768"/>
+        <c:axId val="493411328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3019,7 +3117,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481727232"/>
+        <c:crossAx val="493409792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3210,7 +3308,7 @@
               <c:f>'模型二 (2)PE副本成交量'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3297,6 +3395,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>287737.60169032536</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>336321.20076022681</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>534222.45249187434</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3311,8 +3415,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="483980416"/>
-        <c:axId val="483970432"/>
+        <c:axId val="526043008"/>
+        <c:axId val="526041472"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3337,7 +3441,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3424,6 +3528,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3433,7 +3543,7 @@
               <c:f>'模型二 (2)PE副本成交量'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3520,6 +3630,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.66299998760223389</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65100002288818359</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64499998092651367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3536,11 +3652,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="483967360"/>
-        <c:axId val="483968896"/>
+        <c:axId val="496551040"/>
+        <c:axId val="496552576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="483967360"/>
+        <c:axId val="496551040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3583,14 +3699,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483968896"/>
+        <c:crossAx val="496552576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="483968896"/>
+        <c:axId val="496552576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3641,12 +3757,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483967360"/>
+        <c:crossAx val="496551040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="483970432"/>
+        <c:axId val="526041472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3683,12 +3799,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483980416"/>
+        <c:crossAx val="526043008"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="483980416"/>
+        <c:axId val="526043008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3697,7 +3813,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="483970432"/>
+        <c:crossAx val="526041472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3876,7 +3992,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3963,6 +4079,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3972,7 +4094,7 @@
               <c:f>'模型二 (2)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4059,6 +4181,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>6068134.445580963</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6471218.9630682301</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6865089.2319875453</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4101,7 +4229,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4188,6 +4316,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4197,7 +4331,7 @@
               <c:f>'模型二 (2)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4284,6 +4418,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>5397198.4075353509</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5702596.3614385333</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6043907.7728215661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4326,7 +4466,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4413,6 +4553,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4422,7 +4568,7 @@
               <c:f>'模型二 (2)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4509,6 +4655,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-670936.03804561216</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-768622.60162969679</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-821181.45916597918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4530,11 +4682,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="484160256"/>
-        <c:axId val="484161792"/>
+        <c:axId val="526067200"/>
+        <c:axId val="526068736"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="484160256"/>
+        <c:axId val="526067200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4577,14 +4729,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484161792"/>
+        <c:crossAx val="526068736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="484161792"/>
+        <c:axId val="526068736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4635,7 +4787,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484160256"/>
+        <c:crossAx val="526067200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4826,7 +4978,7 @@
               <c:f>'模型二 (2)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4913,6 +5065,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>364192.92344389425</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>403084.51748726668</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>393870.26891931542</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4927,8 +5085,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="494404736"/>
-        <c:axId val="494382464"/>
+        <c:axId val="550934400"/>
+        <c:axId val="550932864"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4953,7 +5111,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5040,6 +5198,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5049,7 +5213,7 @@
               <c:f>'模型二 (2)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5136,6 +5300,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.66299998760223389</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65100002288818359</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64499998092651367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5152,11 +5322,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="494379392"/>
-        <c:axId val="494380928"/>
+        <c:axId val="550925440"/>
+        <c:axId val="550926976"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="494379392"/>
+        <c:axId val="550925440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5199,14 +5369,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494380928"/>
+        <c:crossAx val="550926976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="494380928"/>
+        <c:axId val="550926976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5257,12 +5427,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494379392"/>
+        <c:crossAx val="550925440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="494382464"/>
+        <c:axId val="550932864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5299,12 +5469,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494404736"/>
+        <c:crossAx val="550934400"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="494404736"/>
+        <c:axId val="550934400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5313,7 +5483,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="494382464"/>
+        <c:crossAx val="550932864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5475,7 +5645,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5562,6 +5732,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>37928.380503303619</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>39902.178437708179</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>39443.472999107165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5576,8 +5752,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="483936896"/>
-        <c:axId val="483934976"/>
+        <c:axId val="564204672"/>
+        <c:axId val="563059712"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5602,7 +5778,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5689,6 +5865,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5698,7 +5880,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5785,6 +5967,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.66299998760223389</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65100002288818359</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64499998092651367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5801,11 +5989,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="483924992"/>
-        <c:axId val="483931648"/>
+        <c:axId val="562427008"/>
+        <c:axId val="562428544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="483924992"/>
+        <c:axId val="562427008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5848,14 +6036,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483931648"/>
+        <c:crossAx val="562428544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="483931648"/>
+        <c:axId val="562428544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5906,12 +6094,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483924992"/>
+        <c:crossAx val="562427008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="483934976"/>
+        <c:axId val="563059712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5948,12 +6136,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483936896"/>
+        <c:crossAx val="564204672"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="483936896"/>
+        <c:axId val="564204672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5962,7 +6150,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="483934976"/>
+        <c:crossAx val="563059712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6141,7 +6329,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6228,6 +6416,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6237,7 +6431,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6324,6 +6518,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>935147.86044393829</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>973054.9299597611</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1010526.2293089129</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6366,7 +6566,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6453,6 +6653,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6462,7 +6668,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6549,6 +6755,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>802448.50434369978</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>825831.66146581084</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>855691.55613315117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6591,7 +6803,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6678,6 +6890,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6687,7 +6905,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6774,6 +6992,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-132699.35610023851</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-147223.26849395025</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-154834.67317576171</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6795,11 +7019,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="484012800"/>
-        <c:axId val="484014336"/>
+        <c:axId val="564248960"/>
+        <c:axId val="564250880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="484012800"/>
+        <c:axId val="564248960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6842,14 +7066,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484014336"/>
+        <c:crossAx val="564250880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="484014336"/>
+        <c:axId val="564250880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6900,7 +7124,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484012800"/>
+        <c:crossAx val="564248960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7100,7 +7324,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7187,6 +7411,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>36031.961478138437</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>37907.069515822768</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37471.299349151806</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7201,8 +7431,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="494314240"/>
-        <c:axId val="494308352"/>
+        <c:axId val="566760576"/>
+        <c:axId val="566688384"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7227,7 +7457,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7314,6 +7544,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7323,7 +7559,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7410,6 +7646,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.66299998760223389</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65100002288818359</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64499998092651367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7426,11 +7668,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="484068352"/>
-        <c:axId val="494306432"/>
+        <c:axId val="566647808"/>
+        <c:axId val="566686464"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="484068352"/>
+        <c:axId val="566647808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7473,14 +7715,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494306432"/>
+        <c:crossAx val="566686464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="494306432"/>
+        <c:axId val="566686464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7531,12 +7773,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484068352"/>
+        <c:crossAx val="566647808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="494308352"/>
+        <c:axId val="566688384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7573,12 +7815,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494314240"/>
+        <c:crossAx val="566760576"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="494314240"/>
+        <c:axId val="566760576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7587,7 +7829,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="494308352"/>
+        <c:crossAx val="566688384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7766,7 +8008,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7853,6 +8095,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7862,7 +8110,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7949,6 +8197,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>7381454.0731783099</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7764384.3647912135</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8138561.1202645628</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7991,7 +8245,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8078,6 +8332,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8087,7 +8347,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8174,6 +8434,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>6495573.6328314869</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6760937.3243703991</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7072800.859843432</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8216,7 +8482,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8303,6 +8569,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8312,7 +8584,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8399,6 +8671,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-885880.44034682307</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1003447.0404208144</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1065760.2604211308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8420,11 +8698,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="496444928"/>
-        <c:axId val="496446464"/>
+        <c:axId val="567580160"/>
+        <c:axId val="567581696"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="496444928"/>
+        <c:axId val="567580160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8467,14 +8745,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496446464"/>
+        <c:crossAx val="567581696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="496446464"/>
+        <c:axId val="567581696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8525,7 +8803,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496444928"/>
+        <c:crossAx val="567580160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8725,7 +9003,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8812,6 +9090,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>345983.27727169951</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>382930.29161290335</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>374176.75547334965</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8826,8 +9110,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="594108416"/>
-        <c:axId val="592705792"/>
+        <c:axId val="568055680"/>
+        <c:axId val="568051200"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8852,7 +9136,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8939,6 +9223,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8948,7 +9238,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9035,6 +9325,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.66299998760223389</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65100002288818359</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64499998092651367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9051,11 +9347,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="589767424"/>
-        <c:axId val="592704256"/>
+        <c:axId val="567865728"/>
+        <c:axId val="567868800"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="589767424"/>
+        <c:axId val="567865728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9098,14 +9394,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="592704256"/>
+        <c:crossAx val="567868800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="592704256"/>
+        <c:axId val="567868800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9156,12 +9452,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="589767424"/>
+        <c:crossAx val="567865728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="592705792"/>
+        <c:axId val="568051200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9198,12 +9494,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="594108416"/>
+        <c:crossAx val="568055680"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="594108416"/>
+        <c:axId val="568055680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9212,7 +9508,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="592705792"/>
+        <c:crossAx val="568051200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9391,7 +9687,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9478,6 +9774,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9487,7 +9789,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9574,6 +9876,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>370915.43015253264</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>415403.48772144876</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>486069.62225993088</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9616,7 +9924,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9703,6 +10011,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9712,7 +10026,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9799,6 +10113,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>334926.73729592608</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>373352.79018234083</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>440577.86123566027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9841,7 +10161,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9928,6 +10248,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9937,7 +10263,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10024,6 +10350,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-35988.692856606562</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-42050.697539107932</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-45491.761024270614</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10045,11 +10377,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="595199104"/>
-        <c:axId val="595201408"/>
+        <c:axId val="568162176"/>
+        <c:axId val="568188928"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="595199104"/>
+        <c:axId val="568162176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10092,14 +10424,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="595201408"/>
+        <c:crossAx val="568188928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="595201408"/>
+        <c:axId val="568188928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10150,7 +10482,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="595199104"/>
+        <c:crossAx val="568162176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10341,7 +10673,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10428,6 +10760,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>38061.492881821512</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44488.057568916091</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>70666.134538482103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10442,8 +10780,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="600585344"/>
-        <c:axId val="598498688"/>
+        <c:axId val="571687680"/>
+        <c:axId val="568237056"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10468,7 +10806,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10555,6 +10893,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10564,7 +10908,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -10651,6 +10995,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.66299998760223389</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65100002288818359</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64499998092651367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10667,11 +11017,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="598495232"/>
-        <c:axId val="598497152"/>
+        <c:axId val="568208768"/>
+        <c:axId val="568235136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="598495232"/>
+        <c:axId val="568208768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10714,14 +11064,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="598497152"/>
+        <c:crossAx val="568235136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="598497152"/>
+        <c:axId val="568235136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10772,12 +11122,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="598495232"/>
+        <c:crossAx val="568208768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="598498688"/>
+        <c:axId val="568237056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10814,12 +11164,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="600585344"/>
+        <c:crossAx val="571687680"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="600585344"/>
+        <c:axId val="571687680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10828,7 +11178,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="598498688"/>
+        <c:crossAx val="568237056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11007,7 +11357,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11094,6 +11444,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11103,7 +11459,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11190,6 +11546,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>778165.22164902079</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>818067.40008672897</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>857510.87308583618</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11232,7 +11594,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11319,6 +11681,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11328,7 +11696,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11415,6 +11783,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>676946.86904733058</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>704596.65126519394</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>737546.10072358395</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11457,7 +11831,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11544,6 +11918,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11553,7 +11933,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11640,6 +12020,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-101218.35260169022</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-113470.74882153503</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-119964.77236225223</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11661,11 +12047,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="601959808"/>
-        <c:axId val="670348032"/>
+        <c:axId val="649801088"/>
+        <c:axId val="650323072"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="601959808"/>
+        <c:axId val="649801088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11708,14 +12094,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="670348032"/>
+        <c:crossAx val="650323072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="670348032"/>
+        <c:axId val="650323072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11766,7 +12152,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="601959808"/>
+        <c:crossAx val="649801088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12618,7 +13004,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG31"/>
+  <dimension ref="A1:AG33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12755,28 +13141,28 @@
       </c>
       <c r="M3" s="27"/>
       <c r="P3" s="45" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="Q3" s="46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R3" s="46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S3" s="46" t="s">
         <v>10</v>
       </c>
       <c r="T3" s="46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U3" s="47" t="s">
         <v>12</v>
       </c>
       <c r="V3" s="46" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W3" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y3" s="42">
         <v>44561</v>
@@ -13966,6 +14352,82 @@
         <v>-100098.88120327797</v>
       </c>
       <c r="L31" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="32">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="31">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="31">
+        <v>17.93000031</v>
+      </c>
+      <c r="D32" s="29">
+        <v>28.031817636002071</v>
+      </c>
+      <c r="E32" s="29">
+        <v>39902.178437708179</v>
+      </c>
+      <c r="F32" s="30">
+        <v>61293.666720134381</v>
+      </c>
+      <c r="G32" s="30">
+        <v>1073651.6150820903</v>
+      </c>
+      <c r="H32" s="30">
+        <v>698947.22599237598</v>
+      </c>
+      <c r="I32" s="30">
+        <v>811194.36685398582</v>
+      </c>
+      <c r="J32" s="30">
+        <v>698947.22599237598</v>
+      </c>
+      <c r="K32" s="30">
+        <v>-112247.14086160983</v>
+      </c>
+      <c r="L32" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="32">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="31">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="31">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D33" s="29">
+        <v>27.695688446862572</v>
+      </c>
+      <c r="E33" s="29">
+        <v>39443.472999107165</v>
+      </c>
+      <c r="F33" s="30">
+        <v>61152.673124809051</v>
+      </c>
+      <c r="G33" s="30">
+        <v>1134804.2882068993</v>
+      </c>
+      <c r="H33" s="30">
+        <v>731948.744248776</v>
+      </c>
+      <c r="I33" s="30">
+        <v>850637.83985309303</v>
+      </c>
+      <c r="J33" s="30">
+        <v>731948.744248776</v>
+      </c>
+      <c r="K33" s="30">
+        <v>-118689.09560431703</v>
+      </c>
+      <c r="L33" s="29">
         <v>0</v>
       </c>
     </row>
@@ -13985,7 +14447,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH31"/>
+  <dimension ref="A1:AH33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14026,7 +14488,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -14062,16 +14524,16 @@
         <v>12</v>
       </c>
       <c r="M1" s="44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N1" s="44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O1" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -14133,28 +14595,28 @@
       </c>
       <c r="M3" s="21"/>
       <c r="Q3" s="45" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="R3" s="46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S3" s="46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T3" s="46" t="s">
         <v>10</v>
       </c>
       <c r="U3" s="46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="V3" s="47" t="s">
         <v>12</v>
       </c>
       <c r="W3" s="46" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="X3" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Z3" s="42">
         <v>44561</v>
@@ -15653,15 +16115,115 @@
         <v>0</v>
       </c>
       <c r="M31" s="22">
-        <v>9.5075559982442139E-3</v>
+        <v>7.9229633318701771E-3</v>
       </c>
       <c r="N31" s="22">
-        <v>3.0498309977585816E-2</v>
+        <v>2.9081927444980161E-2</v>
       </c>
       <c r="O31" s="22">
-        <v>31.174042119814576</v>
+        <v>27.24359775279531</v>
       </c>
       <c r="P31" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="15">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="31">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="16">
+        <v>17.93000031</v>
+      </c>
+      <c r="D32" s="17">
+        <v>28.031817636002071</v>
+      </c>
+      <c r="E32" s="17">
+        <v>37907.069515822768</v>
+      </c>
+      <c r="F32" s="18">
+        <v>58228.983384127656</v>
+      </c>
+      <c r="G32" s="18">
+        <v>1268558.5751625334</v>
+      </c>
+      <c r="H32" s="18">
+        <v>825831.66146581084</v>
+      </c>
+      <c r="I32" s="18">
+        <v>973054.9299597611</v>
+      </c>
+      <c r="J32" s="18">
+        <v>825831.66146581084</v>
+      </c>
+      <c r="K32" s="18">
+        <v>-147223.26849395025</v>
+      </c>
+      <c r="L32" s="17">
+        <v>0</v>
+      </c>
+      <c r="M32" s="22">
+        <v>6.6024694432251473E-3</v>
+      </c>
+      <c r="N32" s="22">
+        <v>2.6234933656491849E-2</v>
+      </c>
+      <c r="O32" s="22">
+        <v>25.166709127893537</v>
+      </c>
+      <c r="P32" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="15">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="31">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="16">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D33" s="17">
+        <v>27.695688446862572</v>
+      </c>
+      <c r="E33" s="17">
+        <v>37471.299349151806</v>
+      </c>
+      <c r="F33" s="18">
+        <v>58095.039468568604</v>
+      </c>
+      <c r="G33" s="18">
+        <v>1326653.614631102</v>
+      </c>
+      <c r="H33" s="18">
+        <v>855691.55613315117</v>
+      </c>
+      <c r="I33" s="18">
+        <v>1010526.2293089129</v>
+      </c>
+      <c r="J33" s="18">
+        <v>855691.55613315117</v>
+      </c>
+      <c r="K33" s="18">
+        <v>-154834.67317576171</v>
+      </c>
+      <c r="L33" s="17">
+        <v>0</v>
+      </c>
+      <c r="M33" s="22">
+        <v>6.6024694432251473E-3</v>
+      </c>
+      <c r="N33" s="22">
+        <v>2.6234933656491849E-2</v>
+      </c>
+      <c r="O33" s="22">
+        <v>25.166709127893537</v>
+      </c>
+      <c r="P33" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -15681,7 +16243,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH31"/>
+  <dimension ref="A1:AH33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15722,7 +16284,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -15758,16 +16320,16 @@
         <v>12</v>
       </c>
       <c r="M1" s="44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N1" s="44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O1" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -15829,28 +16391,28 @@
       </c>
       <c r="M3" s="21"/>
       <c r="Q3" s="45" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="R3" s="46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S3" s="46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T3" s="46" t="s">
         <v>10</v>
       </c>
       <c r="U3" s="46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="V3" s="47" t="s">
         <v>12</v>
       </c>
       <c r="W3" s="46" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="X3" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Z3" s="42">
         <v>44561</v>
@@ -17349,15 +17911,115 @@
         <v>0</v>
       </c>
       <c r="M31" s="22">
-        <v>9.5075559982442139E-3</v>
+        <v>7.9229633318701771E-3</v>
       </c>
       <c r="N31" s="22">
-        <v>3.0498309977585816E-2</v>
+        <v>2.9081927444980161E-2</v>
       </c>
       <c r="O31" s="22">
-        <v>31.174042119814576</v>
+        <v>27.24359775279531</v>
       </c>
       <c r="P31" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="15">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="31">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="16">
+        <v>17.93000031</v>
+      </c>
+      <c r="D32" s="17">
+        <v>28.031817636002071</v>
+      </c>
+      <c r="E32" s="17">
+        <v>382930.29161290335</v>
+      </c>
+      <c r="F32" s="18">
+        <v>588218.55322526745</v>
+      </c>
+      <c r="G32" s="18">
+        <v>10385464.034817191</v>
+      </c>
+      <c r="H32" s="18">
+        <v>6760937.3243703991</v>
+      </c>
+      <c r="I32" s="18">
+        <v>7764384.3647912135</v>
+      </c>
+      <c r="J32" s="18">
+        <v>6760937.3243703991</v>
+      </c>
+      <c r="K32" s="18">
+        <v>-1003447.0404208144</v>
+      </c>
+      <c r="L32" s="17">
+        <v>0</v>
+      </c>
+      <c r="M32" s="22">
+        <v>6.6024694432251473E-3</v>
+      </c>
+      <c r="N32" s="22">
+        <v>2.6234933656491849E-2</v>
+      </c>
+      <c r="O32" s="22">
+        <v>25.166709127893537</v>
+      </c>
+      <c r="P32" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="15">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="31">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="16">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D33" s="17">
+        <v>27.695688446862572</v>
+      </c>
+      <c r="E33" s="17">
+        <v>374176.75547334965</v>
+      </c>
+      <c r="F33" s="18">
+        <v>580119.01788874704</v>
+      </c>
+      <c r="G33" s="18">
+        <v>10965583.052705938</v>
+      </c>
+      <c r="H33" s="18">
+        <v>7072800.859843432</v>
+      </c>
+      <c r="I33" s="18">
+        <v>8138561.1202645628</v>
+      </c>
+      <c r="J33" s="18">
+        <v>7072800.859843432</v>
+      </c>
+      <c r="K33" s="18">
+        <v>-1065760.2604211308</v>
+      </c>
+      <c r="L33" s="17">
+        <v>0</v>
+      </c>
+      <c r="M33" s="22">
+        <v>6.6024694432251473E-3</v>
+      </c>
+      <c r="N33" s="22">
+        <v>2.6234933656491849E-2</v>
+      </c>
+      <c r="O33" s="22">
+        <v>25.166709127893537</v>
+      </c>
+      <c r="P33" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -17377,7 +18039,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ31"/>
+  <dimension ref="A1:AJ33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17418,7 +18080,7 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -17430,10 +18092,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -17460,16 +18122,16 @@
         <v>12</v>
       </c>
       <c r="O1" s="44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P1" s="44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q1" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -17543,28 +18205,28 @@
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
       <c r="S3" s="45" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="T3" s="46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="U3" s="46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V3" s="46" t="s">
         <v>10</v>
       </c>
       <c r="W3" s="46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="X3" s="47" t="s">
         <v>12</v>
       </c>
       <c r="Y3" s="46" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Z3" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AB3" s="42">
         <v>44561</v>
@@ -19231,15 +19893,127 @@
         <v>0</v>
       </c>
       <c r="O31" s="22">
-        <v>9.5075559982442139E-3</v>
+        <v>7.9229633318701771E-3</v>
       </c>
       <c r="P31" s="22">
-        <v>3.0498309977585816E-2</v>
+        <v>2.9081927444980161E-2</v>
       </c>
       <c r="Q31" s="22">
-        <v>31.174042119814576</v>
+        <v>27.24359775279531</v>
       </c>
       <c r="R31" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="15">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="31">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="16">
+        <v>17.93000031</v>
+      </c>
+      <c r="D32" s="17">
+        <v>28.031817636002071</v>
+      </c>
+      <c r="E32" s="17">
+        <v>3444800</v>
+      </c>
+      <c r="F32" s="17">
+        <v>4128629.2469860404</v>
+      </c>
+      <c r="G32" s="17">
+        <v>44488.057568916091</v>
+      </c>
+      <c r="H32" s="18">
+        <v>68338.027657116385</v>
+      </c>
+      <c r="I32" s="18">
+        <v>573506.56997821375</v>
+      </c>
+      <c r="J32" s="18">
+        <v>373352.79018234083</v>
+      </c>
+      <c r="K32" s="18">
+        <v>415403.48772144876</v>
+      </c>
+      <c r="L32" s="18">
+        <v>373352.79018234083</v>
+      </c>
+      <c r="M32" s="18">
+        <v>-42050.697539107932</v>
+      </c>
+      <c r="N32" s="17">
+        <v>0</v>
+      </c>
+      <c r="O32" s="22">
+        <v>6.6024694432251473E-3</v>
+      </c>
+      <c r="P32" s="22">
+        <v>2.6234933656491849E-2</v>
+      </c>
+      <c r="Q32" s="22">
+        <v>25.166709127893537</v>
+      </c>
+      <c r="R32" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="15">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="31">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="16">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D33" s="17">
+        <v>27.695688446862572</v>
+      </c>
+      <c r="E33" s="17">
+        <v>5609700</v>
+      </c>
+      <c r="F33" s="17">
+        <v>4135906.376174428</v>
+      </c>
+      <c r="G33" s="17">
+        <v>70666.134538482103</v>
+      </c>
+      <c r="H33" s="18">
+        <v>109559.90174910294</v>
+      </c>
+      <c r="I33" s="18">
+        <v>683066.47172731673</v>
+      </c>
+      <c r="J33" s="18">
+        <v>440577.86123566027</v>
+      </c>
+      <c r="K33" s="18">
+        <v>486069.62225993088</v>
+      </c>
+      <c r="L33" s="18">
+        <v>440577.86123566027</v>
+      </c>
+      <c r="M33" s="18">
+        <v>-45491.761024270614</v>
+      </c>
+      <c r="N33" s="17">
+        <v>0</v>
+      </c>
+      <c r="O33" s="22">
+        <v>6.6024694432251473E-3</v>
+      </c>
+      <c r="P33" s="22">
+        <v>2.6234933656491849E-2</v>
+      </c>
+      <c r="Q33" s="22">
+        <v>25.166709127893537</v>
+      </c>
+      <c r="R33" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -19259,7 +20033,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ31"/>
+  <dimension ref="A1:AJ33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19300,7 +20074,7 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -19336,19 +20110,19 @@
         <v>12</v>
       </c>
       <c r="M1" s="48" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N1" s="48" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="O1" s="48" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P1" s="48" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -19426,28 +20200,28 @@
         <v>1</v>
       </c>
       <c r="S3" s="45" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="T3" s="46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="U3" s="46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V3" s="46" t="s">
         <v>10</v>
       </c>
       <c r="W3" s="46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="X3" s="47" t="s">
         <v>12</v>
       </c>
       <c r="Y3" s="46" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Z3" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AB3" s="42">
         <v>44561</v>
@@ -21030,18 +21804,124 @@
         <v>0</v>
       </c>
       <c r="M31" s="21">
-        <v>7.4074008664308382</v>
+        <v>16.766465783542337</v>
       </c>
       <c r="N31" s="21">
-        <v>30.326294546977831</v>
+        <v>25.806351625832665</v>
       </c>
       <c r="O31" s="21">
-        <v>39.728368199179599</v>
+        <v>35.087696008063951</v>
       </c>
       <c r="P31" s="21">
-        <v>11.522147242574292</v>
+        <v>7.2436628613700975</v>
       </c>
       <c r="Q31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="15">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="31">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="16">
+        <v>17.93000031</v>
+      </c>
+      <c r="D32" s="17">
+        <v>28.031817636002071</v>
+      </c>
+      <c r="E32" s="17">
+        <v>39902.178437708179</v>
+      </c>
+      <c r="F32" s="18">
+        <v>61293.666720134381</v>
+      </c>
+      <c r="G32" s="18">
+        <v>1082329.6873926779</v>
+      </c>
+      <c r="H32" s="18">
+        <v>704596.65126519394</v>
+      </c>
+      <c r="I32" s="18">
+        <v>818067.40008672897</v>
+      </c>
+      <c r="J32" s="18">
+        <v>704596.65126519394</v>
+      </c>
+      <c r="K32" s="18">
+        <v>-113470.74882153503</v>
+      </c>
+      <c r="L32" s="17">
+        <v>0</v>
+      </c>
+      <c r="M32" s="21">
+        <v>10.457536880796289</v>
+      </c>
+      <c r="N32" s="21">
+        <v>20.690080044153873</v>
+      </c>
+      <c r="O32" s="21">
+        <v>30.288490686760593</v>
+      </c>
+      <c r="P32" s="21">
+        <v>1.4932587589404349</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="15">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="31">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="16">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D33" s="17">
+        <v>27.695688446862572</v>
+      </c>
+      <c r="E33" s="17">
+        <v>39443.472999107165</v>
+      </c>
+      <c r="F33" s="18">
+        <v>61152.673124809051</v>
+      </c>
+      <c r="G33" s="18">
+        <v>1143482.3605174869</v>
+      </c>
+      <c r="H33" s="18">
+        <v>737546.10072358395</v>
+      </c>
+      <c r="I33" s="18">
+        <v>857510.87308583618</v>
+      </c>
+      <c r="J33" s="18">
+        <v>737546.10072358395</v>
+      </c>
+      <c r="K33" s="18">
+        <v>-119964.77236225223</v>
+      </c>
+      <c r="L33" s="17">
+        <v>0</v>
+      </c>
+      <c r="M33" s="21">
+        <v>10.457536880796289</v>
+      </c>
+      <c r="N33" s="21">
+        <v>20.690080044153873</v>
+      </c>
+      <c r="O33" s="21">
+        <v>30.288490686760593</v>
+      </c>
+      <c r="P33" s="21">
+        <v>1.4932587589404349</v>
+      </c>
+      <c r="Q33" s="1">
         <v>1</v>
       </c>
     </row>
@@ -21061,7 +21941,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ31"/>
+  <dimension ref="A1:AJ33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21105,7 +21985,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>3</v>
@@ -21114,10 +21994,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -21213,28 +22093,28 @@
       </c>
       <c r="O3" s="7"/>
       <c r="S3" s="45" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="T3" s="46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="U3" s="46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V3" s="46" t="s">
         <v>10</v>
       </c>
       <c r="W3" s="46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="X3" s="47" t="s">
         <v>12</v>
       </c>
       <c r="Y3" s="46" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Z3" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AB3" s="42">
         <v>44561</v>
@@ -22592,6 +23472,94 @@
         <v>-210715.74289207207</v>
       </c>
       <c r="N31" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="15">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="31">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="16">
+        <v>17.93000031</v>
+      </c>
+      <c r="D32" s="17">
+        <v>28.031817636002071</v>
+      </c>
+      <c r="E32" s="17">
+        <v>3444800</v>
+      </c>
+      <c r="F32" s="17">
+        <v>4128629.2469860404</v>
+      </c>
+      <c r="G32" s="17">
+        <v>336321.20076022681</v>
+      </c>
+      <c r="H32" s="18">
+        <v>516622.41003944428</v>
+      </c>
+      <c r="I32" s="18">
+        <v>3768384.677250165</v>
+      </c>
+      <c r="J32" s="18">
+        <v>2453218.5111413379</v>
+      </c>
+      <c r="K32" s="18">
+        <v>2702955.2864984185</v>
+      </c>
+      <c r="L32" s="18">
+        <v>2453218.5111413379</v>
+      </c>
+      <c r="M32" s="18">
+        <v>-249736.77535708062</v>
+      </c>
+      <c r="N32" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="15">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="31">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="16">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D33" s="17">
+        <v>27.695688446862572</v>
+      </c>
+      <c r="E33" s="17">
+        <v>5609700</v>
+      </c>
+      <c r="F33" s="17">
+        <v>4135906.376174428</v>
+      </c>
+      <c r="G33" s="17">
+        <v>534222.45249187434</v>
+      </c>
+      <c r="H33" s="18">
+        <v>828251.88882096962</v>
+      </c>
+      <c r="I33" s="18">
+        <v>4596636.566071135</v>
+      </c>
+      <c r="J33" s="18">
+        <v>2964830.4974419973</v>
+      </c>
+      <c r="K33" s="18">
+        <v>3237177.7389902929</v>
+      </c>
+      <c r="L33" s="18">
+        <v>2964830.4974419973</v>
+      </c>
+      <c r="M33" s="18">
+        <v>-272347.2415482956</v>
+      </c>
+      <c r="N33" s="17">
         <v>0</v>
       </c>
     </row>
@@ -22611,7 +23579,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG31"/>
+  <dimension ref="A1:AG33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22748,28 +23716,28 @@
       </c>
       <c r="M3" s="7"/>
       <c r="P3" s="45" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="Q3" s="46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R3" s="46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S3" s="46" t="s">
         <v>10</v>
       </c>
       <c r="T3" s="46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U3" s="47" t="s">
         <v>12</v>
       </c>
       <c r="V3" s="46" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W3" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y3" s="42">
         <v>44561</v>
@@ -23959,6 +24927,82 @@
         <v>-670936.03804561216</v>
       </c>
       <c r="L31" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="15">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="31">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="16">
+        <v>17.93000031</v>
+      </c>
+      <c r="D32" s="17">
+        <v>28.031817636002071</v>
+      </c>
+      <c r="E32" s="17">
+        <v>403084.51748726668</v>
+      </c>
+      <c r="F32" s="18">
+        <v>619177.42444764997</v>
+      </c>
+      <c r="G32" s="18">
+        <v>8759748.3271026202</v>
+      </c>
+      <c r="H32" s="18">
+        <v>5702596.3614385333</v>
+      </c>
+      <c r="I32" s="18">
+        <v>6471218.9630682301</v>
+      </c>
+      <c r="J32" s="18">
+        <v>5702596.3614385333</v>
+      </c>
+      <c r="K32" s="18">
+        <v>-768622.60162969679</v>
+      </c>
+      <c r="L32" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="15">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="31">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="16">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D33" s="17">
+        <v>27.695688446862572</v>
+      </c>
+      <c r="E33" s="17">
+        <v>393870.26891931542</v>
+      </c>
+      <c r="F33" s="18">
+        <v>610651.59777762846</v>
+      </c>
+      <c r="G33" s="18">
+        <v>9370399.9248802494</v>
+      </c>
+      <c r="H33" s="18">
+        <v>6043907.7728215661</v>
+      </c>
+      <c r="I33" s="18">
+        <v>6865089.2319875453</v>
+      </c>
+      <c r="J33" s="18">
+        <v>6043907.7728215661</v>
+      </c>
+      <c r="K33" s="18">
+        <v>-821181.45916597918</v>
+      </c>
+      <c r="L33" s="17">
         <v>0</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ)cn.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="30">
   <si>
     <t>in practice</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -125,10 +125,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>每年投入本金</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -165,7 +161,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>深创100ETF</t>
+    <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -652,7 +648,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -745,6 +741,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -754,7 +753,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -847,6 +846,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>850637.83985309303</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>897866.50568122428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -889,7 +891,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -982,6 +984,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -991,7 +996,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1084,6 +1089,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>731948.744248776</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>683853.85960763111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1126,7 +1134,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1219,6 +1227,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1228,7 +1239,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1321,6 +1332,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-118689.09560431703</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-214012.64607359318</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1342,11 +1356,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="435876608"/>
-        <c:axId val="435878528"/>
+        <c:axId val="493425024"/>
+        <c:axId val="493426560"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="435876608"/>
+        <c:axId val="493425024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1389,14 +1403,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435878528"/>
+        <c:crossAx val="493426560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="435878528"/>
+        <c:axId val="493426560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1447,7 +1461,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435876608"/>
+        <c:crossAx val="493425024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1638,7 +1652,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1731,6 +1745,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>39443.472999107165</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>47228.665828131299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1745,8 +1762,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="490400000"/>
-        <c:axId val="490398464"/>
+        <c:axId val="162164096"/>
+        <c:axId val="162162560"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1771,7 +1788,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1864,6 +1881,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1873,7 +1893,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1966,6 +1986,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.64499998092651367</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.56099998950958252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1982,11 +2005,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="650888704"/>
-        <c:axId val="650890240"/>
+        <c:axId val="162159232"/>
+        <c:axId val="162161024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="650888704"/>
+        <c:axId val="162159232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2029,14 +2052,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="650890240"/>
+        <c:crossAx val="162161024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="650890240"/>
+        <c:axId val="162161024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2087,12 +2110,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="650888704"/>
+        <c:crossAx val="162159232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="490398464"/>
+        <c:axId val="162162560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2129,12 +2152,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490400000"/>
+        <c:crossAx val="162164096"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="490400000"/>
+        <c:axId val="162164096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2143,7 +2166,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="490398464"/>
+        <c:crossAx val="162162560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2322,7 +2345,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2415,6 +2438,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2424,7 +2450,7 @@
               <c:f>'模型二 (2)PE副本成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2517,6 +2543,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>3237177.7389902929</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4686429.8676799433</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2559,7 +2588,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2652,6 +2681,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2661,7 +2693,7 @@
               <c:f>'模型二 (2)PE副本成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2754,6 +2786,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>2964830.4974419973</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4027965.1940349205</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2796,7 +2831,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2889,6 +2924,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2898,7 +2936,7 @@
               <c:f>'模型二 (2)PE副本成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2991,6 +3029,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-272347.2415482956</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-658464.67364502279</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3012,11 +3053,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="493409792"/>
-        <c:axId val="493411328"/>
+        <c:axId val="371202688"/>
+        <c:axId val="371212672"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="493409792"/>
+        <c:axId val="371202688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3059,14 +3100,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493411328"/>
+        <c:crossAx val="371212672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="493411328"/>
+        <c:axId val="371212672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3117,7 +3158,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493409792"/>
+        <c:crossAx val="371202688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3308,7 +3349,7 @@
               <c:f>'模型二 (2)PE副本成交量'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3401,6 +3442,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>534222.45249187434</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1449252.1286896502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3415,8 +3459,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="526043008"/>
-        <c:axId val="526041472"/>
+        <c:axId val="371231744"/>
+        <c:axId val="371230208"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3441,7 +3485,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3534,6 +3578,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3543,7 +3590,7 @@
               <c:f>'模型二 (2)PE副本成交量'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3636,6 +3683,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.64499998092651367</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.56099998950958252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3652,11 +3702,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="496551040"/>
-        <c:axId val="496552576"/>
+        <c:axId val="371222784"/>
+        <c:axId val="371228672"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="496551040"/>
+        <c:axId val="371222784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3699,14 +3749,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496552576"/>
+        <c:crossAx val="371228672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="496552576"/>
+        <c:axId val="371228672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3757,12 +3807,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496551040"/>
+        <c:crossAx val="371222784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="526041472"/>
+        <c:axId val="371230208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3799,12 +3849,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="526043008"/>
+        <c:crossAx val="371231744"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="526043008"/>
+        <c:axId val="371231744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3813,7 +3863,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="526041472"/>
+        <c:crossAx val="371230208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3992,7 +4042,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4085,6 +4135,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4094,7 +4147,7 @@
               <c:f>'模型二 (2)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4187,6 +4240,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>6865089.2319875453</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7429784.6436091401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4229,7 +4285,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4322,6 +4378,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4331,7 +4390,7 @@
               <c:f>'模型二 (2)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4424,6 +4483,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>6043907.7728215661</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5821489.671180008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4466,7 +4528,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4559,6 +4621,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4568,7 +4633,7 @@
               <c:f>'模型二 (2)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4661,6 +4726,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-821181.45916597918</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1608294.9724291321</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4682,11 +4750,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="526067200"/>
-        <c:axId val="526068736"/>
+        <c:axId val="371243648"/>
+        <c:axId val="371253632"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="526067200"/>
+        <c:axId val="371243648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4729,14 +4797,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="526068736"/>
+        <c:crossAx val="371253632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="526068736"/>
+        <c:axId val="371253632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4787,7 +4855,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="526067200"/>
+        <c:crossAx val="371243648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4978,7 +5046,7 @@
               <c:f>'模型二 (2)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5071,6 +5139,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>393870.26891931542</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>564695.41162159434</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5085,8 +5156,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="550934400"/>
-        <c:axId val="550932864"/>
+        <c:axId val="390085632"/>
+        <c:axId val="390084096"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5111,7 +5182,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5204,6 +5275,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5213,7 +5287,7 @@
               <c:f>'模型二 (2)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5306,6 +5380,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.64499998092651367</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.56099998950958252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5322,11 +5399,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="550925440"/>
-        <c:axId val="550926976"/>
+        <c:axId val="390080768"/>
+        <c:axId val="390082560"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="550925440"/>
+        <c:axId val="390080768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5369,14 +5446,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="550926976"/>
+        <c:crossAx val="390082560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="550926976"/>
+        <c:axId val="390082560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5427,12 +5504,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="550925440"/>
+        <c:crossAx val="390080768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="550932864"/>
+        <c:axId val="390084096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5469,12 +5546,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="550934400"/>
+        <c:crossAx val="390085632"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="550934400"/>
+        <c:axId val="390085632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5483,7 +5560,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="550932864"/>
+        <c:crossAx val="390084096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5645,7 +5722,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5738,6 +5815,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>39443.472999107165</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>47228.665828131299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5752,8 +5832,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="564204672"/>
-        <c:axId val="563059712"/>
+        <c:axId val="494794624"/>
+        <c:axId val="494793088"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5778,7 +5858,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5871,6 +5951,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5880,7 +5963,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5973,6 +6056,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.64499998092651367</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.56099998950958252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5989,11 +6075,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="562427008"/>
-        <c:axId val="562428544"/>
+        <c:axId val="494776704"/>
+        <c:axId val="494778624"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="562427008"/>
+        <c:axId val="494776704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6036,14 +6122,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="562428544"/>
+        <c:crossAx val="494778624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="562428544"/>
+        <c:axId val="494778624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6094,12 +6180,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="562427008"/>
+        <c:crossAx val="494776704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="563059712"/>
+        <c:axId val="494793088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6136,12 +6222,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564204672"/>
+        <c:crossAx val="494794624"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="564204672"/>
+        <c:axId val="494794624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6150,7 +6236,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="563059712"/>
+        <c:crossAx val="494793088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6329,7 +6415,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6422,6 +6508,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6431,7 +6520,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6524,6 +6613,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>1010526.2293089129</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1055393.4618456375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6566,7 +6658,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6659,6 +6751,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6668,7 +6763,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6761,6 +6856,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>855691.55613315117</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>789119.89642762265</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6803,7 +6901,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6896,6 +6994,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6905,7 +7006,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6998,6 +7099,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-154834.67317576171</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-266273.56541801488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7019,11 +7123,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="564248960"/>
-        <c:axId val="564250880"/>
+        <c:axId val="497691264"/>
+        <c:axId val="497693056"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="564248960"/>
+        <c:axId val="497691264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7066,14 +7170,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564250880"/>
+        <c:crossAx val="497693056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="564250880"/>
+        <c:axId val="497693056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7124,7 +7228,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564248960"/>
+        <c:crossAx val="497691264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7324,7 +7428,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7417,6 +7521,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>37471.299349151806</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44867.232536724732</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7431,8 +7538,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="566760576"/>
-        <c:axId val="566688384"/>
+        <c:axId val="497956736"/>
+        <c:axId val="497955200"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7457,7 +7564,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7550,6 +7657,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7559,7 +7669,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7652,6 +7762,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.64499998092651367</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.56099998950958252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7668,11 +7781,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="566647808"/>
-        <c:axId val="566686464"/>
+        <c:axId val="497787264"/>
+        <c:axId val="497789184"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="566647808"/>
+        <c:axId val="497787264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7715,14 +7828,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="566686464"/>
+        <c:crossAx val="497789184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="566686464"/>
+        <c:axId val="497789184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7773,12 +7886,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="566647808"/>
+        <c:crossAx val="497787264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="566688384"/>
+        <c:axId val="497955200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7815,12 +7928,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="566760576"/>
+        <c:crossAx val="497956736"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="566760576"/>
+        <c:axId val="497956736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7829,7 +7942,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="566688384"/>
+        <c:crossAx val="497955200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8008,7 +8121,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8101,6 +8214,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8110,7 +8226,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8203,6 +8319,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>8138561.1202645628</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8675021.761305077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8245,7 +8364,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8338,6 +8457,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8347,7 +8469,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8440,6 +8562,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>7072800.859843432</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6688152.6185750011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8482,7 +8607,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8575,6 +8700,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8584,7 +8712,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8677,6 +8805,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-1065760.2604211308</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1986869.1427300759</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8698,11 +8829,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="567580160"/>
-        <c:axId val="567581696"/>
+        <c:axId val="498122752"/>
+        <c:axId val="498125440"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="567580160"/>
+        <c:axId val="498122752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8745,14 +8876,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="567581696"/>
+        <c:crossAx val="498125440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="567581696"/>
+        <c:axId val="498125440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8803,7 +8934,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="567580160"/>
+        <c:crossAx val="498122752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9003,7 +9134,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9096,6 +9227,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>374176.75547334965</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>536460.64104051457</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9110,8 +9244,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="568055680"/>
-        <c:axId val="568051200"/>
+        <c:axId val="498550656"/>
+        <c:axId val="498519040"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9136,7 +9270,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9229,6 +9363,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9238,7 +9375,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9331,6 +9468,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.64499998092651367</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.56099998950958252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9347,11 +9487,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="567865728"/>
-        <c:axId val="567868800"/>
+        <c:axId val="498515968"/>
+        <c:axId val="498517504"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="567865728"/>
+        <c:axId val="498515968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9394,14 +9534,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="567868800"/>
+        <c:crossAx val="498517504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="567868800"/>
+        <c:axId val="498517504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9452,12 +9592,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="567865728"/>
+        <c:crossAx val="498515968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="568051200"/>
+        <c:axId val="498519040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9494,12 +9634,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="568055680"/>
+        <c:crossAx val="498550656"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="568055680"/>
+        <c:axId val="498550656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9508,7 +9648,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="568051200"/>
+        <c:crossAx val="498519040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9687,7 +9827,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9780,6 +9920,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9789,7 +9932,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9882,6 +10025,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>486069.62225993088</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>677774.49244735925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9924,7 +10070,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10017,6 +10163,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10026,7 +10175,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10119,6 +10268,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>440577.86123566027</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>574905.15366080066</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10161,7 +10313,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10254,6 +10406,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10263,7 +10418,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10356,6 +10511,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-45491.761024270614</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-102869.3387865586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10377,11 +10535,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="568162176"/>
-        <c:axId val="568188928"/>
+        <c:axId val="498768896"/>
+        <c:axId val="498770688"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="568162176"/>
+        <c:axId val="498768896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10424,14 +10582,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="568188928"/>
+        <c:crossAx val="498770688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="568188928"/>
+        <c:axId val="498770688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10482,7 +10640,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="568162176"/>
+        <c:crossAx val="498768896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10673,7 +10831,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10766,6 +10924,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>70666.134538482103</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>191704.8701874284</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10780,8 +10941,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="571687680"/>
-        <c:axId val="568237056"/>
+        <c:axId val="565934336"/>
+        <c:axId val="565932800"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10806,7 +10967,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10899,6 +11060,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10908,7 +11072,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -11001,6 +11165,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.64499998092651367</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.56099998950958252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11017,11 +11184,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="568208768"/>
-        <c:axId val="568235136"/>
+        <c:axId val="553402368"/>
+        <c:axId val="555677184"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="568208768"/>
+        <c:axId val="553402368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11064,14 +11231,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="568235136"/>
+        <c:crossAx val="555677184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="568235136"/>
+        <c:axId val="555677184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11122,12 +11289,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="568208768"/>
+        <c:crossAx val="553402368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="568237056"/>
+        <c:axId val="565932800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11164,12 +11331,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="571687680"/>
+        <c:crossAx val="565934336"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="571687680"/>
+        <c:axId val="565934336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11178,7 +11345,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="568237056"/>
+        <c:crossAx val="565932800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11357,7 +11524,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11450,6 +11617,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11459,7 +11629,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11552,6 +11722,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>857510.87308583618</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>904739.53891396744</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11594,7 +11767,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11687,6 +11860,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11696,7 +11872,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11789,6 +11965,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>737546.10072358395</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>688722.25808283407</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11831,7 +12010,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11924,6 +12103,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11933,7 +12115,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12026,6 +12208,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-119964.77236225223</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-216017.28083113336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12047,11 +12232,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="649801088"/>
-        <c:axId val="650323072"/>
+        <c:axId val="110033920"/>
+        <c:axId val="162136832"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="649801088"/>
+        <c:axId val="110033920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12094,14 +12279,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="650323072"/>
+        <c:crossAx val="162136832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="650323072"/>
+        <c:axId val="162136832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12152,7 +12337,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="649801088"/>
+        <c:crossAx val="110033920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13004,7 +13189,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG33"/>
+  <dimension ref="A1:AG34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13141,28 +13326,28 @@
       </c>
       <c r="M3" s="27"/>
       <c r="P3" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="46" t="s">
+      <c r="R3" s="46" t="s">
         <v>14</v>
-      </c>
-      <c r="R3" s="46" t="s">
-        <v>15</v>
       </c>
       <c r="S3" s="46" t="s">
         <v>10</v>
       </c>
       <c r="T3" s="46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U3" s="47" t="s">
         <v>12</v>
       </c>
       <c r="V3" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="W3" s="46" t="s">
         <v>17</v>
-      </c>
-      <c r="W3" s="46" t="s">
-        <v>18</v>
       </c>
       <c r="Y3" s="42">
         <v>44561</v>
@@ -14428,6 +14613,44 @@
         <v>-118689.09560431703</v>
       </c>
       <c r="L33" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="32">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="31">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="31">
+        <v>15.380000109999999</v>
+      </c>
+      <c r="D34" s="29">
+        <v>27.336624370286405</v>
+      </c>
+      <c r="E34" s="29">
+        <v>47228.665828131299</v>
+      </c>
+      <c r="F34" s="30">
+        <v>84186.571677867352</v>
+      </c>
+      <c r="G34" s="30">
+        <v>1218990.8598847666</v>
+      </c>
+      <c r="H34" s="30">
+        <v>683853.85960763111</v>
+      </c>
+      <c r="I34" s="30">
+        <v>897866.50568122428</v>
+      </c>
+      <c r="J34" s="30">
+        <v>683853.85960763111</v>
+      </c>
+      <c r="K34" s="30">
+        <v>-214012.64607359318</v>
+      </c>
+      <c r="L34" s="29">
         <v>0</v>
       </c>
     </row>
@@ -14447,7 +14670,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH33"/>
+  <dimension ref="A1:AH34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14488,7 +14711,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -14524,16 +14747,16 @@
         <v>12</v>
       </c>
       <c r="M1" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="O1" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="P1" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -14595,28 +14818,28 @@
       </c>
       <c r="M3" s="21"/>
       <c r="Q3" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="46" t="s">
+      <c r="S3" s="46" t="s">
         <v>14</v>
-      </c>
-      <c r="S3" s="46" t="s">
-        <v>15</v>
       </c>
       <c r="T3" s="46" t="s">
         <v>10</v>
       </c>
       <c r="U3" s="46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V3" s="47" t="s">
         <v>12</v>
       </c>
       <c r="W3" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="X3" s="46" t="s">
         <v>17</v>
-      </c>
-      <c r="X3" s="46" t="s">
-        <v>18</v>
       </c>
       <c r="Z3" s="42">
         <v>44561</v>
@@ -16224,6 +16447,56 @@
         <v>25.166709127893537</v>
       </c>
       <c r="P33" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="15">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="31">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="16">
+        <v>15.380000109999999</v>
+      </c>
+      <c r="D34" s="17">
+        <v>27.336624370286405</v>
+      </c>
+      <c r="E34" s="17">
+        <v>44867.232536724732</v>
+      </c>
+      <c r="F34" s="18">
+        <v>79977.243093973972</v>
+      </c>
+      <c r="G34" s="18">
+        <v>1406630.8577250759</v>
+      </c>
+      <c r="H34" s="18">
+        <v>789119.89642762265</v>
+      </c>
+      <c r="I34" s="18">
+        <v>1055393.4618456375</v>
+      </c>
+      <c r="J34" s="18">
+        <v>789119.89642762265</v>
+      </c>
+      <c r="K34" s="18">
+        <v>-266273.56541801488</v>
+      </c>
+      <c r="L34" s="17">
+        <v>0</v>
+      </c>
+      <c r="M34" s="22">
+        <v>5.5020578693542902E-3</v>
+      </c>
+      <c r="N34" s="22">
+        <v>2.2862451707354861E-2</v>
+      </c>
+      <c r="O34" s="22">
+        <v>24.065913576470347</v>
+      </c>
+      <c r="P34" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -16243,7 +16516,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH33"/>
+  <dimension ref="A1:AH34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16284,7 +16557,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -16320,16 +16593,16 @@
         <v>12</v>
       </c>
       <c r="M1" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="O1" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="P1" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -16391,28 +16664,28 @@
       </c>
       <c r="M3" s="21"/>
       <c r="Q3" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="46" t="s">
+      <c r="S3" s="46" t="s">
         <v>14</v>
-      </c>
-      <c r="S3" s="46" t="s">
-        <v>15</v>
       </c>
       <c r="T3" s="46" t="s">
         <v>10</v>
       </c>
       <c r="U3" s="46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V3" s="47" t="s">
         <v>12</v>
       </c>
       <c r="W3" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="X3" s="46" t="s">
         <v>17</v>
-      </c>
-      <c r="X3" s="46" t="s">
-        <v>18</v>
       </c>
       <c r="Z3" s="42">
         <v>44561</v>
@@ -18020,6 +18293,56 @@
         <v>25.166709127893537</v>
       </c>
       <c r="P33" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="15">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="31">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="16">
+        <v>15.380000109999999</v>
+      </c>
+      <c r="D34" s="17">
+        <v>27.336624370286405</v>
+      </c>
+      <c r="E34" s="17">
+        <v>536460.64104051457</v>
+      </c>
+      <c r="F34" s="18">
+        <v>956257.84504823282</v>
+      </c>
+      <c r="G34" s="18">
+        <v>11921840.89775417</v>
+      </c>
+      <c r="H34" s="18">
+        <v>6688152.6185750011</v>
+      </c>
+      <c r="I34" s="18">
+        <v>8675021.761305077</v>
+      </c>
+      <c r="J34" s="18">
+        <v>6688152.6185750011</v>
+      </c>
+      <c r="K34" s="18">
+        <v>-1986869.1427300759</v>
+      </c>
+      <c r="L34" s="17">
+        <v>0</v>
+      </c>
+      <c r="M34" s="22">
+        <v>5.5020578693542902E-3</v>
+      </c>
+      <c r="N34" s="22">
+        <v>2.2862451707354861E-2</v>
+      </c>
+      <c r="O34" s="22">
+        <v>24.065913576470347</v>
+      </c>
+      <c r="P34" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -18039,7 +18362,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ33"/>
+  <dimension ref="A1:AJ34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18080,7 +18403,7 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -18092,10 +18415,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>25</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -18122,16 +18445,16 @@
         <v>12</v>
       </c>
       <c r="O1" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="44" t="s">
+      <c r="Q1" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="48" t="s">
+      <c r="R1" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="R1" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -18205,28 +18528,28 @@
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
       <c r="S3" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="T3" s="46" t="s">
+      <c r="U3" s="46" t="s">
         <v>14</v>
-      </c>
-      <c r="U3" s="46" t="s">
-        <v>15</v>
       </c>
       <c r="V3" s="46" t="s">
         <v>10</v>
       </c>
       <c r="W3" s="46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="X3" s="47" t="s">
         <v>12</v>
       </c>
       <c r="Y3" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z3" s="46" t="s">
         <v>17</v>
-      </c>
-      <c r="Z3" s="46" t="s">
-        <v>18</v>
       </c>
       <c r="AB3" s="42">
         <v>44561</v>
@@ -20014,6 +20337,62 @@
         <v>25.166709127893537</v>
       </c>
       <c r="R33" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="15">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="31">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="16">
+        <v>15.380000109999999</v>
+      </c>
+      <c r="D34" s="17">
+        <v>27.336624370286405</v>
+      </c>
+      <c r="E34" s="17">
+        <v>10787006</v>
+      </c>
+      <c r="F34" s="17">
+        <v>4203114.608389196</v>
+      </c>
+      <c r="G34" s="17">
+        <v>191704.8701874284</v>
+      </c>
+      <c r="H34" s="18">
+        <v>341719.91759752762</v>
+      </c>
+      <c r="I34" s="18">
+        <v>1024786.3893248443</v>
+      </c>
+      <c r="J34" s="18">
+        <v>574905.15366080066</v>
+      </c>
+      <c r="K34" s="18">
+        <v>677774.49244735925</v>
+      </c>
+      <c r="L34" s="18">
+        <v>574905.15366080066</v>
+      </c>
+      <c r="M34" s="18">
+        <v>-102869.3387865586</v>
+      </c>
+      <c r="N34" s="17">
+        <v>0</v>
+      </c>
+      <c r="O34" s="22">
+        <v>5.5020578693542902E-3</v>
+      </c>
+      <c r="P34" s="22">
+        <v>2.2862451707354861E-2</v>
+      </c>
+      <c r="Q34" s="22">
+        <v>24.065913576470347</v>
+      </c>
+      <c r="R34" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -20033,7 +20412,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ33"/>
+  <dimension ref="A1:AJ34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20074,7 +20453,7 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -20110,19 +20489,19 @@
         <v>12</v>
       </c>
       <c r="M1" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="48" t="s">
+      <c r="O1" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="P1" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="48" t="s">
+      <c r="Q1" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -20200,28 +20579,28 @@
         <v>1</v>
       </c>
       <c r="S3" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="T3" s="46" t="s">
+      <c r="U3" s="46" t="s">
         <v>14</v>
-      </c>
-      <c r="U3" s="46" t="s">
-        <v>15</v>
       </c>
       <c r="V3" s="46" t="s">
         <v>10</v>
       </c>
       <c r="W3" s="46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="X3" s="47" t="s">
         <v>12</v>
       </c>
       <c r="Y3" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z3" s="46" t="s">
         <v>17</v>
-      </c>
-      <c r="Z3" s="46" t="s">
-        <v>18</v>
       </c>
       <c r="AB3" s="42">
         <v>44561</v>
@@ -21922,6 +22301,59 @@
         <v>1.4932587589404349</v>
       </c>
       <c r="Q33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="15">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="31">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="16">
+        <v>15.380000109999999</v>
+      </c>
+      <c r="D34" s="17">
+        <v>27.336624370286405</v>
+      </c>
+      <c r="E34" s="17">
+        <v>47228.665828131299</v>
+      </c>
+      <c r="F34" s="18">
+        <v>84186.571677867352</v>
+      </c>
+      <c r="G34" s="18">
+        <v>1227668.9321953543</v>
+      </c>
+      <c r="H34" s="18">
+        <v>688722.25808283407</v>
+      </c>
+      <c r="I34" s="18">
+        <v>904739.53891396744</v>
+      </c>
+      <c r="J34" s="18">
+        <v>688722.25808283407</v>
+      </c>
+      <c r="K34" s="18">
+        <v>-216017.28083113336</v>
+      </c>
+      <c r="L34" s="17">
+        <v>0</v>
+      </c>
+      <c r="M34" s="21">
+        <v>18.749994445931186</v>
+      </c>
+      <c r="N34" s="21">
+        <v>20.04338484474631</v>
+      </c>
+      <c r="O34" s="21">
+        <v>26.873455406089164</v>
+      </c>
+      <c r="P34" s="21">
+        <v>6.3832437220605982</v>
+      </c>
+      <c r="Q34" s="1">
         <v>1</v>
       </c>
     </row>
@@ -21941,7 +22373,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ33"/>
+  <dimension ref="A1:AJ34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21982,10 +22414,10 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>3</v>
@@ -21994,10 +22426,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>25</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -22093,28 +22525,28 @@
       </c>
       <c r="O3" s="7"/>
       <c r="S3" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="T3" s="46" t="s">
+      <c r="U3" s="46" t="s">
         <v>14</v>
-      </c>
-      <c r="U3" s="46" t="s">
-        <v>15</v>
       </c>
       <c r="V3" s="46" t="s">
         <v>10</v>
       </c>
       <c r="W3" s="46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="X3" s="47" t="s">
         <v>12</v>
       </c>
       <c r="Y3" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z3" s="46" t="s">
         <v>17</v>
-      </c>
-      <c r="Z3" s="46" t="s">
-        <v>18</v>
       </c>
       <c r="AB3" s="42">
         <v>44561</v>
@@ -23560,6 +23992,50 @@
         <v>-272347.2415482956</v>
       </c>
       <c r="N33" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="15">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="31">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="16">
+        <v>15.380000109999999</v>
+      </c>
+      <c r="D34" s="17">
+        <v>27.336624370286405</v>
+      </c>
+      <c r="E34" s="17">
+        <v>10787006</v>
+      </c>
+      <c r="F34" s="17">
+        <v>4203114.608389196</v>
+      </c>
+      <c r="G34" s="17">
+        <v>1449252.1286896502</v>
+      </c>
+      <c r="H34" s="18">
+        <v>2583337.1760961423</v>
+      </c>
+      <c r="I34" s="18">
+        <v>7179973.7421672773</v>
+      </c>
+      <c r="J34" s="18">
+        <v>4027965.1940349205</v>
+      </c>
+      <c r="K34" s="18">
+        <v>4686429.8676799433</v>
+      </c>
+      <c r="L34" s="18">
+        <v>4027965.1940349205</v>
+      </c>
+      <c r="M34" s="18">
+        <v>-658464.67364502279</v>
+      </c>
+      <c r="N34" s="17">
         <v>0</v>
       </c>
     </row>
@@ -23579,7 +24055,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG33"/>
+  <dimension ref="A1:AG34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23716,28 +24192,28 @@
       </c>
       <c r="M3" s="7"/>
       <c r="P3" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="46" t="s">
+      <c r="R3" s="46" t="s">
         <v>14</v>
-      </c>
-      <c r="R3" s="46" t="s">
-        <v>15</v>
       </c>
       <c r="S3" s="46" t="s">
         <v>10</v>
       </c>
       <c r="T3" s="46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U3" s="47" t="s">
         <v>12</v>
       </c>
       <c r="V3" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="W3" s="46" t="s">
         <v>17</v>
-      </c>
-      <c r="W3" s="46" t="s">
-        <v>18</v>
       </c>
       <c r="Y3" s="42">
         <v>44561</v>
@@ -25003,6 +25479,44 @@
         <v>-821181.45916597918</v>
       </c>
       <c r="L33" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="15">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="31">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="16">
+        <v>15.380000109999999</v>
+      </c>
+      <c r="D34" s="17">
+        <v>27.336624370286405</v>
+      </c>
+      <c r="E34" s="17">
+        <v>564695.41162159434</v>
+      </c>
+      <c r="F34" s="18">
+        <v>1006587.2053139294</v>
+      </c>
+      <c r="G34" s="18">
+        <v>10376987.13019418</v>
+      </c>
+      <c r="H34" s="18">
+        <v>5821489.671180008</v>
+      </c>
+      <c r="I34" s="18">
+        <v>7429784.6436091401</v>
+      </c>
+      <c r="J34" s="18">
+        <v>5821489.671180008</v>
+      </c>
+      <c r="K34" s="18">
+        <v>-1608294.9724291321</v>
+      </c>
+      <c r="L34" s="17">
         <v>0</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ)cn.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="32">
   <si>
     <t>in practice</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -145,6 +145,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>SMA之MAX</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -161,7 +165,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
+    <t>深创100ETF</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -170,6 +174,10 @@
   </si>
   <si>
     <t>成交均量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -648,7 +656,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -744,6 +752,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -753,7 +764,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -849,6 +860,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>897866.50568122428</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>935891.00400915544</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -891,7 +905,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -987,6 +1001,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -996,7 +1013,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1092,6 +1109,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>683853.85960763111</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>815740.68088465545</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1134,7 +1154,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1230,6 +1250,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1239,7 +1262,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1335,6 +1358,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-214012.64607359318</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-120150.32312449999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1356,11 +1382,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="493425024"/>
-        <c:axId val="493426560"/>
+        <c:axId val="489313408"/>
+        <c:axId val="489314944"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="493425024"/>
+        <c:axId val="489313408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1403,14 +1429,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493426560"/>
+        <c:crossAx val="489314944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="493426560"/>
+        <c:axId val="489314944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1461,7 +1487,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493425024"/>
+        <c:crossAx val="489313408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1652,7 +1678,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1748,6 +1774,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>47228.665828131299</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45629.397993517334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1762,8 +1791,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="162164096"/>
-        <c:axId val="162162560"/>
+        <c:axId val="420288000"/>
+        <c:axId val="420286464"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1788,7 +1817,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1884,6 +1913,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1893,7 +1925,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1989,6 +2021,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.56099998950958252</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2005,11 +2040,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="162159232"/>
-        <c:axId val="162161024"/>
+        <c:axId val="394699520"/>
+        <c:axId val="394701056"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="162159232"/>
+        <c:axId val="394699520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2052,14 +2087,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162161024"/>
+        <c:crossAx val="394701056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="162161024"/>
+        <c:axId val="394701056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2110,12 +2145,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162159232"/>
+        <c:crossAx val="394699520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="162162560"/>
+        <c:axId val="420286464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2152,12 +2187,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162164096"/>
+        <c:crossAx val="420288000"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="162164096"/>
+        <c:axId val="420288000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2166,7 +2201,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162162560"/>
+        <c:crossAx val="420286464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2345,7 +2380,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2441,6 +2476,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2450,7 +2488,7 @@
               <c:f>'模型二 (2)PE副本成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2546,6 +2584,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>4686429.8676799433</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5769332.1165007073</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2588,7 +2629,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2684,6 +2725,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2693,7 +2737,7 @@
               <c:f>'模型二 (2)PE副本成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2789,6 +2833,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>4027965.1940349205</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5663725.5784917651</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2831,7 +2878,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2927,6 +2974,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2936,7 +2986,7 @@
               <c:f>'模型二 (2)PE副本成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3032,6 +3082,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-658464.67364502279</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-105606.53800894227</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3053,11 +3106,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="371202688"/>
-        <c:axId val="371212672"/>
+        <c:axId val="420311808"/>
+        <c:axId val="420313344"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="371202688"/>
+        <c:axId val="420311808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3100,14 +3153,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371212672"/>
+        <c:crossAx val="420313344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="371212672"/>
+        <c:axId val="420313344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3158,7 +3211,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371202688"/>
+        <c:crossAx val="420311808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3349,7 +3402,7 @@
               <c:f>'模型二 (2)PE副本成交量'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3445,6 +3498,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>1449252.1286896502</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1082902.248820764</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3459,8 +3515,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="371231744"/>
-        <c:axId val="371230208"/>
+        <c:axId val="420340864"/>
+        <c:axId val="420330880"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3485,7 +3541,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3581,6 +3637,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3590,7 +3649,7 @@
               <c:f>'模型二 (2)PE副本成交量'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3686,6 +3745,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.56099998950958252</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3702,11 +3764,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="371222784"/>
-        <c:axId val="371228672"/>
+        <c:axId val="420327808"/>
+        <c:axId val="420329344"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="371222784"/>
+        <c:axId val="420327808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3749,14 +3811,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371228672"/>
+        <c:crossAx val="420329344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="371228672"/>
+        <c:axId val="420329344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3807,12 +3869,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371222784"/>
+        <c:crossAx val="420327808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="371230208"/>
+        <c:axId val="420330880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3849,12 +3911,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371231744"/>
+        <c:crossAx val="420340864"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="371231744"/>
+        <c:axId val="420340864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3863,7 +3925,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="371230208"/>
+        <c:crossAx val="420330880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4042,7 +4104,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4138,6 +4200,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4147,7 +4212,7 @@
               <c:f>'模型二 (2)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4243,6 +4308,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>7429784.6436091401</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7795825.7760371994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4285,7 +4353,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4381,6 +4449,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4390,7 +4461,7 @@
               <c:f>'模型二 (2)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4486,6 +4557,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>5821489.671180008</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6986559.0402471395</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4528,7 +4602,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4624,6 +4698,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4633,7 +4710,7 @@
               <c:f>'模型二 (2)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4729,6 +4806,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-1608294.9724291321</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-809266.7357900599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4750,11 +4830,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="371243648"/>
-        <c:axId val="371253632"/>
+        <c:axId val="422138624"/>
+        <c:axId val="422140160"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="371243648"/>
+        <c:axId val="422138624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4797,14 +4877,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371253632"/>
+        <c:crossAx val="422140160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="371253632"/>
+        <c:axId val="422140160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4855,7 +4935,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371243648"/>
+        <c:crossAx val="422138624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5046,7 +5126,7 @@
               <c:f>'模型二 (2)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5142,6 +5222,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>564695.41162159434</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>366041.13242805976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5156,8 +5239,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="390085632"/>
-        <c:axId val="390084096"/>
+        <c:axId val="425530496"/>
+        <c:axId val="422169984"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5182,7 +5265,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5278,6 +5361,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5287,7 +5373,7 @@
               <c:f>'模型二 (2)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5383,6 +5469,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.56099998950958252</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5399,11 +5488,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="390080768"/>
-        <c:axId val="390082560"/>
+        <c:axId val="422166912"/>
+        <c:axId val="422168448"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="390080768"/>
+        <c:axId val="422166912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5446,14 +5535,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390082560"/>
+        <c:crossAx val="422168448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="390082560"/>
+        <c:axId val="422168448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5504,12 +5593,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390080768"/>
+        <c:crossAx val="422166912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="390084096"/>
+        <c:axId val="422169984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5546,12 +5635,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390085632"/>
+        <c:crossAx val="425530496"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="390085632"/>
+        <c:axId val="425530496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5560,7 +5649,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="390084096"/>
+        <c:crossAx val="422169984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5722,7 +5811,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5818,6 +5907,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>47228.665828131299</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>38024.498327931113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5832,8 +5924,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="494794624"/>
-        <c:axId val="494793088"/>
+        <c:axId val="490595456"/>
+        <c:axId val="490517632"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5858,7 +5950,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5954,6 +6046,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5963,7 +6058,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6059,6 +6154,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.56099998950958252</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6075,11 +6173,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="494776704"/>
-        <c:axId val="494778624"/>
+        <c:axId val="489330176"/>
+        <c:axId val="489332096"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="494776704"/>
+        <c:axId val="489330176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6122,14 +6220,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494778624"/>
+        <c:crossAx val="489332096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="494778624"/>
+        <c:axId val="489332096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6180,12 +6278,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494776704"/>
+        <c:crossAx val="489330176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="494793088"/>
+        <c:axId val="490517632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6222,12 +6320,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494794624"/>
+        <c:crossAx val="490595456"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="494794624"/>
+        <c:axId val="490595456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6236,7 +6334,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="494793088"/>
+        <c:crossAx val="490517632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6415,7 +6513,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6511,6 +6609,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6520,7 +6621,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6616,6 +6717,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>1055393.4618456375</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1093417.9601735687</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6658,7 +6762,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6754,6 +6858,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6763,7 +6870,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6859,6 +6966,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>789119.89642762265</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>935455.00165414216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6901,7 +7011,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6997,6 +7107,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7006,7 +7119,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7102,6 +7215,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-266273.56541801488</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-157962.95851942652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7123,11 +7239,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="497691264"/>
-        <c:axId val="497693056"/>
+        <c:axId val="490962944"/>
+        <c:axId val="490964480"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="497691264"/>
+        <c:axId val="490962944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7170,14 +7286,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497693056"/>
+        <c:crossAx val="490964480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="497693056"/>
+        <c:axId val="490964480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7228,7 +7344,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497691264"/>
+        <c:crossAx val="490962944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7428,7 +7544,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7524,6 +7640,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>44867.232536724732</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>38024.498327931113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7538,8 +7657,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="497956736"/>
-        <c:axId val="497955200"/>
+        <c:axId val="490995072"/>
+        <c:axId val="490993152"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7564,7 +7683,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7660,6 +7779,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7669,7 +7791,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7765,6 +7887,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.56099998950958252</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7781,11 +7906,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="497787264"/>
-        <c:axId val="497789184"/>
+        <c:axId val="490984576"/>
+        <c:axId val="490986880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="497787264"/>
+        <c:axId val="490984576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7828,14 +7953,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497789184"/>
+        <c:crossAx val="490986880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="497789184"/>
+        <c:axId val="490986880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7886,12 +8011,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497787264"/>
+        <c:crossAx val="490984576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="497955200"/>
+        <c:axId val="490993152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7928,12 +8053,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497956736"/>
+        <c:crossAx val="490995072"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="497956736"/>
+        <c:axId val="490995072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7942,7 +8067,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="497955200"/>
+        <c:crossAx val="490993152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8121,7 +8246,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8217,6 +8342,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8226,7 +8354,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8322,6 +8450,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>8675021.761305077</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9041062.8937331364</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8364,7 +8495,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8460,6 +8591,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8469,7 +8603,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8565,6 +8699,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>6688152.6185750011</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7972175.7616298608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8607,7 +8744,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8703,6 +8840,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8712,7 +8852,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8808,6 +8948,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-1986869.1427300759</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1068887.1321032755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8829,11 +8972,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="498122752"/>
-        <c:axId val="498125440"/>
+        <c:axId val="493168128"/>
+        <c:axId val="493170048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="498122752"/>
+        <c:axId val="493168128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8876,14 +9019,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="498125440"/>
+        <c:crossAx val="493170048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="498125440"/>
+        <c:axId val="493170048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8934,7 +9077,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="498122752"/>
+        <c:crossAx val="493168128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9134,7 +9277,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9230,6 +9373,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>536460.64104051457</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>366041.13242805976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9244,8 +9390,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="498550656"/>
-        <c:axId val="498519040"/>
+        <c:axId val="493330816"/>
+        <c:axId val="493222528"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9270,7 +9416,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9366,6 +9512,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9375,7 +9524,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9471,6 +9620,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.56099998950958252</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9487,11 +9639,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="498515968"/>
-        <c:axId val="498517504"/>
+        <c:axId val="493214720"/>
+        <c:axId val="493220992"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="498515968"/>
+        <c:axId val="493214720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9534,14 +9686,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="498517504"/>
+        <c:crossAx val="493220992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="498517504"/>
+        <c:axId val="493220992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9592,12 +9744,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="498515968"/>
+        <c:crossAx val="493214720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="498519040"/>
+        <c:axId val="493222528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9634,12 +9786,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="498550656"/>
+        <c:crossAx val="493330816"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="498550656"/>
+        <c:axId val="493330816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9648,7 +9800,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="498519040"/>
+        <c:crossAx val="493222528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9827,7 +9979,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9923,6 +10075,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9932,7 +10087,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10028,6 +10183,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>677774.49244735925</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>828558.34987809858</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10070,7 +10228,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10166,6 +10324,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10175,7 +10336,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10271,6 +10432,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>574905.15366080066</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>804597.58554773952</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10313,7 +10477,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10409,6 +10573,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10418,7 +10585,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10514,6 +10681,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-102869.3387865586</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-23960.764330359059</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10535,11 +10705,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="498768896"/>
-        <c:axId val="498770688"/>
+        <c:axId val="493745280"/>
+        <c:axId val="493746816"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="498768896"/>
+        <c:axId val="493745280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10582,14 +10752,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="498770688"/>
+        <c:crossAx val="493746816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="498770688"/>
+        <c:axId val="493746816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10640,7 +10810,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="498768896"/>
+        <c:crossAx val="493745280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10831,7 +11001,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10927,6 +11097,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>191704.8701874284</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>150783.8574307393</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10941,8 +11114,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="565934336"/>
-        <c:axId val="565932800"/>
+        <c:axId val="497786880"/>
+        <c:axId val="494635264"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10967,7 +11140,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11063,6 +11236,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11072,7 +11248,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -11168,6 +11344,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.56099998950958252</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11184,11 +11363,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="553402368"/>
-        <c:axId val="555677184"/>
+        <c:axId val="493934848"/>
+        <c:axId val="494633728"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="553402368"/>
+        <c:axId val="493934848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11231,14 +11410,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555677184"/>
+        <c:crossAx val="494633728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="555677184"/>
+        <c:axId val="494633728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11289,12 +11468,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="553402368"/>
+        <c:crossAx val="493934848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="565932800"/>
+        <c:axId val="494635264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11331,12 +11510,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="565934336"/>
+        <c:crossAx val="497786880"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="565934336"/>
+        <c:axId val="497786880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11345,7 +11524,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="565932800"/>
+        <c:crossAx val="494635264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11524,7 +11703,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11620,6 +11799,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11629,7 +11811,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11725,6 +11907,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>904739.53891396744</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>950368.93690748478</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11767,7 +11952,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11863,6 +12048,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11872,7 +12060,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11968,6 +12156,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>688722.25808283407</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>828882.19078370929</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12010,7 +12201,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12106,6 +12297,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12115,7 +12309,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12211,6 +12405,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-216017.28083113336</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-121486.74612377549</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12232,11 +12429,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="110033920"/>
-        <c:axId val="162136832"/>
+        <c:axId val="559930752"/>
+        <c:axId val="572091392"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="110033920"/>
+        <c:axId val="559930752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12279,14 +12476,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162136832"/>
+        <c:crossAx val="572091392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="162136832"/>
+        <c:axId val="572091392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12337,7 +12534,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110033920"/>
+        <c:crossAx val="559930752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13189,7 +13386,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG34"/>
+  <dimension ref="A1:AG35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14654,6 +14851,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="32">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="31">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="31">
+        <v>17.479999540000001</v>
+      </c>
+      <c r="D35" s="29">
+        <v>27.106454812893954</v>
+      </c>
+      <c r="E35" s="29">
+        <v>38024.498327931113</v>
+      </c>
+      <c r="F35" s="30">
+        <v>59599.526090703235</v>
+      </c>
+      <c r="G35" s="30">
+        <v>1278590.3859754698</v>
+      </c>
+      <c r="H35" s="30">
+        <v>815740.68088465545</v>
+      </c>
+      <c r="I35" s="30">
+        <v>935891.00400915544</v>
+      </c>
+      <c r="J35" s="30">
+        <v>815740.68088465545</v>
+      </c>
+      <c r="K35" s="30">
+        <v>-120150.32312449999</v>
+      </c>
+      <c r="L35" s="29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -14670,7 +14905,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH34"/>
+  <dimension ref="A1:AH35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14747,16 +14982,16 @@
         <v>12</v>
       </c>
       <c r="M1" s="44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N1" s="44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O1" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -16498,6 +16733,56 @@
       </c>
       <c r="P34" s="1">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="15">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="31">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="16">
+        <v>17.479999540000001</v>
+      </c>
+      <c r="D35" s="17">
+        <v>27.106454812893954</v>
+      </c>
+      <c r="E35" s="17">
+        <v>38024.498327931113</v>
+      </c>
+      <c r="F35" s="18">
+        <v>59599.526090703235</v>
+      </c>
+      <c r="G35" s="18">
+        <v>1466230.3838157791</v>
+      </c>
+      <c r="H35" s="18">
+        <v>935455.00165414216</v>
+      </c>
+      <c r="I35" s="18">
+        <v>1093417.9601735687</v>
+      </c>
+      <c r="J35" s="18">
+        <v>935455.00165414216</v>
+      </c>
+      <c r="K35" s="18">
+        <v>-157962.95851942652</v>
+      </c>
+      <c r="L35" s="17">
+        <v>0</v>
+      </c>
+      <c r="M35" s="22">
+        <v>4.5850482244619087E-3</v>
+      </c>
+      <c r="N35" s="22">
+        <v>3.3052041658950905E-2</v>
+      </c>
+      <c r="O35" s="22">
+        <v>13.872208778425705</v>
+      </c>
+      <c r="P35" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -16516,7 +16801,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH34"/>
+  <dimension ref="A1:AH35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16593,16 +16878,16 @@
         <v>12</v>
       </c>
       <c r="M1" s="44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N1" s="44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O1" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -18344,6 +18629,56 @@
       </c>
       <c r="P34" s="1">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="15">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="31">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="16">
+        <v>17.479999540000001</v>
+      </c>
+      <c r="D35" s="17">
+        <v>27.106454812893954</v>
+      </c>
+      <c r="E35" s="17">
+        <v>366041.13242805976</v>
+      </c>
+      <c r="F35" s="18">
+        <v>573732.17219783086</v>
+      </c>
+      <c r="G35" s="18">
+        <v>12495573.069952</v>
+      </c>
+      <c r="H35" s="18">
+        <v>7972175.7616298608</v>
+      </c>
+      <c r="I35" s="18">
+        <v>9041062.8937331364</v>
+      </c>
+      <c r="J35" s="18">
+        <v>7972175.7616298608</v>
+      </c>
+      <c r="K35" s="18">
+        <v>-1068887.1321032755</v>
+      </c>
+      <c r="L35" s="17">
+        <v>0</v>
+      </c>
+      <c r="M35" s="22">
+        <v>4.5850482244619087E-3</v>
+      </c>
+      <c r="N35" s="22">
+        <v>3.3052041658950905E-2</v>
+      </c>
+      <c r="O35" s="22">
+        <v>13.872208778425705</v>
+      </c>
+      <c r="P35" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -18362,7 +18697,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ34"/>
+  <dimension ref="A1:AJ35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18403,22 +18738,22 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -18445,16 +18780,16 @@
         <v>12</v>
       </c>
       <c r="O1" s="44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P1" s="44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q1" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -20394,6 +20729,62 @@
       </c>
       <c r="R34" s="1">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="15">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="31">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="16">
+        <v>17.479999540000001</v>
+      </c>
+      <c r="D35" s="17">
+        <v>27.106454812893954</v>
+      </c>
+      <c r="E35" s="17">
+        <v>12736000</v>
+      </c>
+      <c r="F35" s="17">
+        <v>4305005.2464849772</v>
+      </c>
+      <c r="G35" s="17">
+        <v>150783.8574307393</v>
+      </c>
+      <c r="H35" s="18">
+        <v>236338.33029163285</v>
+      </c>
+      <c r="I35" s="18">
+        <v>1261124.7196164771</v>
+      </c>
+      <c r="J35" s="18">
+        <v>804597.58554773952</v>
+      </c>
+      <c r="K35" s="18">
+        <v>828558.34987809858</v>
+      </c>
+      <c r="L35" s="18">
+        <v>804597.58554773952</v>
+      </c>
+      <c r="M35" s="18">
+        <v>-23960.764330359059</v>
+      </c>
+      <c r="N35" s="17">
+        <v>0</v>
+      </c>
+      <c r="O35" s="22">
+        <v>4.5850482244619087E-3</v>
+      </c>
+      <c r="P35" s="22">
+        <v>3.3052041658950905E-2</v>
+      </c>
+      <c r="Q35" s="22">
+        <v>13.872208778425705</v>
+      </c>
+      <c r="R35" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -20412,7 +20803,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ34"/>
+  <dimension ref="A1:AJ35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20489,19 +20880,19 @@
         <v>12</v>
       </c>
       <c r="M1" s="48" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N1" s="48" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O1" s="48" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P1" s="48" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -22355,6 +22746,59 @@
       </c>
       <c r="Q34" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="15">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="31">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="16">
+        <v>17.479999540000001</v>
+      </c>
+      <c r="D35" s="17">
+        <v>27.106454812893954</v>
+      </c>
+      <c r="E35" s="17">
+        <v>45629.397993517334</v>
+      </c>
+      <c r="F35" s="18">
+        <v>71519.431308843879</v>
+      </c>
+      <c r="G35" s="18">
+        <v>1299188.3635041981</v>
+      </c>
+      <c r="H35" s="18">
+        <v>828882.19078370929</v>
+      </c>
+      <c r="I35" s="18">
+        <v>950368.93690748478</v>
+      </c>
+      <c r="J35" s="18">
+        <v>828882.19078370929</v>
+      </c>
+      <c r="K35" s="18">
+        <v>-121486.74612377549</v>
+      </c>
+      <c r="L35" s="17">
+        <v>0</v>
+      </c>
+      <c r="M35" s="21">
+        <v>0.93022069523420603</v>
+      </c>
+      <c r="N35" s="21">
+        <v>13.672330128242274</v>
+      </c>
+      <c r="O35" s="21">
+        <v>22.473080313473535</v>
+      </c>
+      <c r="P35" s="21">
+        <v>-3.9291702422202448</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>
@@ -22373,7 +22817,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ34"/>
+  <dimension ref="A1:AJ35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22414,10 +22858,10 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>3</v>
@@ -22426,10 +22870,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -24036,6 +24480,50 @@
         <v>-658464.67364502279</v>
       </c>
       <c r="N34" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="15">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="31">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="16">
+        <v>17.479999540000001</v>
+      </c>
+      <c r="D35" s="17">
+        <v>27.106454812893954</v>
+      </c>
+      <c r="E35" s="17">
+        <v>12736000</v>
+      </c>
+      <c r="F35" s="17">
+        <v>4305005.2464849772</v>
+      </c>
+      <c r="G35" s="17">
+        <v>1082902.248820764</v>
+      </c>
+      <c r="H35" s="18">
+        <v>1697338.9175489994</v>
+      </c>
+      <c r="I35" s="18">
+        <v>8877312.6597162765</v>
+      </c>
+      <c r="J35" s="18">
+        <v>5663725.5784917651</v>
+      </c>
+      <c r="K35" s="18">
+        <v>5769332.1165007073</v>
+      </c>
+      <c r="L35" s="18">
+        <v>5663725.5784917651</v>
+      </c>
+      <c r="M35" s="18">
+        <v>-105606.53800894227</v>
+      </c>
+      <c r="N35" s="17">
         <v>0</v>
       </c>
     </row>
@@ -24055,7 +24543,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG34"/>
+  <dimension ref="A1:AG35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -24096,7 +24584,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -25517,6 +26005,44 @@
         <v>-1608294.9724291321</v>
       </c>
       <c r="L34" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="15">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="31">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="16">
+        <v>17.479999540000001</v>
+      </c>
+      <c r="D35" s="17">
+        <v>27.106454812893954</v>
+      </c>
+      <c r="E35" s="17">
+        <v>366041.13242805976</v>
+      </c>
+      <c r="F35" s="18">
+        <v>573732.17219783086</v>
+      </c>
+      <c r="G35" s="18">
+        <v>10950719.30239201</v>
+      </c>
+      <c r="H35" s="18">
+        <v>6986559.0402471395</v>
+      </c>
+      <c r="I35" s="18">
+        <v>7795825.7760371994</v>
+      </c>
+      <c r="J35" s="18">
+        <v>6986559.0402471395</v>
+      </c>
+      <c r="K35" s="18">
+        <v>-809266.7357900599</v>
+      </c>
+      <c r="L35" s="17">
         <v>0</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ)cn.xlsx
@@ -149,6 +149,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>SMA之MAX</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -174,10 +178,6 @@
   </si>
   <si>
     <t>成交均量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -656,7 +656,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -755,6 +755,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -764,7 +767,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -863,6 +866,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>935891.00400915544</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>972150.5019069548</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -905,7 +911,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1004,6 +1010,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1013,7 +1022,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1112,6 +1121,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>815740.68088465545</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>862228.92259935837</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1154,7 +1166,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1253,6 +1265,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1262,7 +1277,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1361,6 +1376,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-120150.32312449999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-109921.57930759643</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1382,11 +1400,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="489313408"/>
-        <c:axId val="489314944"/>
+        <c:axId val="510372480"/>
+        <c:axId val="510378368"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="489313408"/>
+        <c:axId val="510372480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1429,14 +1447,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489314944"/>
+        <c:crossAx val="510378368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="489314944"/>
+        <c:axId val="510378368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1487,7 +1505,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489313408"/>
+        <c:crossAx val="510372480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1678,7 +1696,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1777,6 +1795,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45629.397993517334</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>36259.497897799316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1791,8 +1812,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="420288000"/>
-        <c:axId val="420286464"/>
+        <c:axId val="484201600"/>
+        <c:axId val="484162944"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1817,7 +1838,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1916,6 +1937,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1925,7 +1949,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2024,6 +2048,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.6380000114440918</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.64600002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2040,11 +2067,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="394699520"/>
-        <c:axId val="394701056"/>
+        <c:axId val="484159872"/>
+        <c:axId val="484161408"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="394699520"/>
+        <c:axId val="484159872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2087,14 +2114,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="394701056"/>
+        <c:crossAx val="484161408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="394701056"/>
+        <c:axId val="484161408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2145,12 +2172,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="394699520"/>
+        <c:crossAx val="484159872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="420286464"/>
+        <c:axId val="484162944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2187,12 +2214,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420288000"/>
+        <c:crossAx val="484201600"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="420288000"/>
+        <c:axId val="484201600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2201,7 +2228,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="420286464"/>
+        <c:crossAx val="484162944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2380,7 +2407,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2479,6 +2506,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2488,7 +2518,7 @@
               <c:f>'模型二 (2)PE副本成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2587,6 +2617,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>5769332.1165007073</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6412356.9407751895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2629,7 +2662,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2728,6 +2761,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2737,7 +2773,7 @@
               <c:f>'模型二 (2)PE副本成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2836,6 +2872,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>5663725.5784917651</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6377769.0479670847</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2878,7 +2917,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2977,6 +3016,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2986,7 +3028,7 @@
               <c:f>'模型二 (2)PE副本成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3085,6 +3127,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-105606.53800894227</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-34587.892808104865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3106,11 +3151,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="420311808"/>
-        <c:axId val="420313344"/>
+        <c:axId val="484270464"/>
+        <c:axId val="484272000"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="420311808"/>
+        <c:axId val="484270464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3153,14 +3198,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420313344"/>
+        <c:crossAx val="484272000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="420313344"/>
+        <c:axId val="484272000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3211,7 +3256,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420311808"/>
+        <c:crossAx val="484270464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3402,7 +3447,7 @@
               <c:f>'模型二 (2)PE副本成交量'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3501,6 +3546,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>1082902.248820764</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>643024.82427448209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3515,8 +3563,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="420340864"/>
-        <c:axId val="420330880"/>
+        <c:axId val="484299520"/>
+        <c:axId val="484289536"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3541,7 +3589,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3640,6 +3688,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3649,7 +3700,7 @@
               <c:f>'模型二 (2)PE副本成交量'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3748,6 +3799,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.6380000114440918</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.64600002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3764,11 +3818,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="420327808"/>
-        <c:axId val="420329344"/>
+        <c:axId val="484286464"/>
+        <c:axId val="484288000"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="420327808"/>
+        <c:axId val="484286464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3811,14 +3865,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420329344"/>
+        <c:crossAx val="484288000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="420329344"/>
+        <c:axId val="484288000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3869,12 +3923,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420327808"/>
+        <c:crossAx val="484286464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="420330880"/>
+        <c:axId val="484289536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3911,12 +3965,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420340864"/>
+        <c:crossAx val="484299520"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="420340864"/>
+        <c:axId val="484299520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3925,7 +3979,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="420330880"/>
+        <c:crossAx val="484289536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4104,7 +4158,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4203,6 +4257,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4212,7 +4269,7 @@
               <c:f>'模型二 (2)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4311,6 +4368,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>7795825.7760371994</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8128674.1780120125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4353,7 +4413,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4452,6 +4512,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4461,7 +4524,7 @@
               <c:f>'模型二 (2)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4560,6 +4623,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>6986559.0402471395</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7407013.3741792245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4602,7 +4668,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4701,6 +4767,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4710,7 +4779,7 @@
               <c:f>'模型二 (2)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4809,6 +4878,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-809266.7357900599</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-721660.80383278802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4830,11 +4902,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="422138624"/>
-        <c:axId val="422140160"/>
+        <c:axId val="484344192"/>
+        <c:axId val="484345728"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="422138624"/>
+        <c:axId val="484344192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4877,14 +4949,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="422140160"/>
+        <c:crossAx val="484345728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="422140160"/>
+        <c:axId val="484345728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4935,7 +5007,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="422138624"/>
+        <c:crossAx val="484344192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5126,7 +5198,7 @@
               <c:f>'模型二 (2)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5225,6 +5297,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>366041.13242805976</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>332848.40197481349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5239,8 +5314,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="425530496"/>
-        <c:axId val="422169984"/>
+        <c:axId val="484401920"/>
+        <c:axId val="484383744"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5265,7 +5340,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5364,6 +5439,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5373,7 +5451,7 @@
               <c:f>'模型二 (2)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5472,6 +5550,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.6380000114440918</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.64600002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5488,11 +5569,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="422166912"/>
-        <c:axId val="422168448"/>
+        <c:axId val="484380672"/>
+        <c:axId val="484382208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="422166912"/>
+        <c:axId val="484380672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5535,14 +5616,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="422168448"/>
+        <c:crossAx val="484382208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="422168448"/>
+        <c:axId val="484382208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5593,12 +5674,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="422166912"/>
+        <c:crossAx val="484380672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="422169984"/>
+        <c:axId val="484383744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5635,12 +5716,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425530496"/>
+        <c:crossAx val="484401920"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="425530496"/>
+        <c:axId val="484401920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5649,7 +5730,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="422169984"/>
+        <c:crossAx val="484383744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5811,7 +5892,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5910,6 +5991,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>38024.498327931113</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>36259.497897799316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5924,8 +6008,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="490595456"/>
-        <c:axId val="490517632"/>
+        <c:axId val="513102976"/>
+        <c:axId val="513091072"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5950,7 +6034,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6049,6 +6133,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6058,7 +6145,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6157,6 +6244,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.6380000114440918</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.64600002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6173,11 +6263,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="489330176"/>
-        <c:axId val="489332096"/>
+        <c:axId val="510917248"/>
+        <c:axId val="513089536"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="489330176"/>
+        <c:axId val="510917248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6220,14 +6310,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489332096"/>
+        <c:crossAx val="513089536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="489332096"/>
+        <c:axId val="513089536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6278,12 +6368,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489330176"/>
+        <c:crossAx val="510917248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="490517632"/>
+        <c:axId val="513091072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6320,12 +6410,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490595456"/>
+        <c:crossAx val="513102976"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="490595456"/>
+        <c:axId val="513102976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6334,7 +6424,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="490517632"/>
+        <c:crossAx val="513091072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6513,7 +6603,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6612,6 +6702,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6621,7 +6714,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6720,6 +6813,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>1093417.9601735687</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1165936.9559691674</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6762,7 +6858,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6861,6 +6957,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6870,7 +6969,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6969,6 +7068,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>935455.00165414216</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1019703.8642914734</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7011,7 +7113,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7110,6 +7212,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7119,7 +7224,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7218,6 +7323,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-157962.95851942652</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-146233.091677694</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7239,11 +7347,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="490962944"/>
-        <c:axId val="490964480"/>
+        <c:axId val="513163264"/>
+        <c:axId val="513165184"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="490962944"/>
+        <c:axId val="513163264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7286,14 +7394,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490964480"/>
+        <c:crossAx val="513165184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="490964480"/>
+        <c:axId val="513165184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7344,7 +7452,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490962944"/>
+        <c:crossAx val="513163264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7544,7 +7652,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7643,6 +7751,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>38024.498327931113</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>72518.995795598632</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7657,8 +7768,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="490995072"/>
-        <c:axId val="490993152"/>
+        <c:axId val="515397888"/>
+        <c:axId val="515396352"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7683,7 +7794,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7782,6 +7893,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7791,7 +7905,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7890,6 +8004,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.6380000114440918</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.64600002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7906,11 +8023,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="490984576"/>
-        <c:axId val="490986880"/>
+        <c:axId val="515380736"/>
+        <c:axId val="515382272"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="490984576"/>
+        <c:axId val="515380736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7953,14 +8070,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490986880"/>
+        <c:crossAx val="515382272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="490986880"/>
+        <c:axId val="515382272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8011,12 +8128,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490984576"/>
+        <c:crossAx val="515380736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="490993152"/>
+        <c:axId val="515396352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8053,12 +8170,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490995072"/>
+        <c:crossAx val="515397888"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="490995072"/>
+        <c:axId val="515397888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8067,7 +8184,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="490993152"/>
+        <c:crossAx val="515396352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8246,7 +8363,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8345,6 +8462,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8354,7 +8474,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8453,6 +8573,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>9041062.8937331364</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9706759.6976827625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8495,7 +8618,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8594,6 +8717,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8603,7 +8729,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8702,6 +8828,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>7972175.7616298608</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8737837.3527231254</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8744,7 +8873,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8843,6 +8972,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8852,7 +8984,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8951,6 +9083,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-1068887.1321032755</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-968922.34495963715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8972,11 +9107,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="493168128"/>
-        <c:axId val="493170048"/>
+        <c:axId val="515431808"/>
+        <c:axId val="515454080"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="493168128"/>
+        <c:axId val="515431808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9019,14 +9154,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493170048"/>
+        <c:crossAx val="515454080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="493170048"/>
+        <c:axId val="515454080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9077,7 +9212,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493168128"/>
+        <c:crossAx val="515431808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9277,7 +9412,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9376,6 +9511,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>366041.13242805976</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>665696.80394962698</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9390,8 +9528,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="493330816"/>
-        <c:axId val="493222528"/>
+        <c:axId val="515959040"/>
+        <c:axId val="515957120"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9416,7 +9554,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9515,6 +9653,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9524,7 +9665,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9623,6 +9764,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.6380000114440918</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.64600002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9639,11 +9783,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="493214720"/>
-        <c:axId val="493220992"/>
+        <c:axId val="515570688"/>
+        <c:axId val="515577728"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="493214720"/>
+        <c:axId val="515570688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9686,14 +9830,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493220992"/>
+        <c:crossAx val="515577728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="493220992"/>
+        <c:axId val="515577728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9744,12 +9888,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493214720"/>
+        <c:crossAx val="515570688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="493222528"/>
+        <c:axId val="515957120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9786,12 +9930,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493330816"/>
+        <c:crossAx val="515959040"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="493330816"/>
+        <c:axId val="515959040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9800,7 +9944,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="493222528"/>
+        <c:crossAx val="515957120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9979,7 +10123,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10078,6 +10222,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10087,7 +10234,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10186,6 +10333,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>828558.34987809858</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1007628.5541064353</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10228,7 +10378,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10327,6 +10477,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10336,7 +10489,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10435,6 +10588,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>804597.58554773952</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>993756.80797894648</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10477,7 +10633,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10576,6 +10732,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10585,7 +10744,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10684,6 +10843,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-23960.764330359059</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-13871.74612748879</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10705,11 +10867,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="493745280"/>
-        <c:axId val="493746816"/>
+        <c:axId val="516431872"/>
+        <c:axId val="516433792"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="493745280"/>
+        <c:axId val="516431872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10752,14 +10914,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493746816"/>
+        <c:crossAx val="516433792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="493746816"/>
+        <c:axId val="516433792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10810,7 +10972,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493745280"/>
+        <c:crossAx val="516431872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11001,7 +11163,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11100,6 +11262,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>150783.8574307393</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>179070.20422833675</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11114,8 +11279,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="497786880"/>
-        <c:axId val="494635264"/>
+        <c:axId val="516668800"/>
+        <c:axId val="516666880"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -11140,7 +11305,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11239,6 +11404,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11248,7 +11416,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -11347,6 +11515,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.6380000114440918</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.64600002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11363,11 +11534,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="493934848"/>
-        <c:axId val="494633728"/>
+        <c:axId val="516658304"/>
+        <c:axId val="516665344"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="493934848"/>
+        <c:axId val="516658304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11410,14 +11581,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494633728"/>
+        <c:crossAx val="516665344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="494633728"/>
+        <c:axId val="516665344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11468,12 +11639,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493934848"/>
+        <c:crossAx val="516658304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="494635264"/>
+        <c:axId val="516666880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11510,12 +11681,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497786880"/>
+        <c:crossAx val="516668800"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="497786880"/>
+        <c:axId val="516668800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11524,7 +11695,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="494635264"/>
+        <c:crossAx val="516666880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11703,7 +11874,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11802,6 +11973,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11811,7 +11985,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11910,6 +12084,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>950368.93690748478</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>986628.43480528414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11952,7 +12129,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12051,6 +12228,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12060,7 +12240,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12159,6 +12339,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>828882.19078370929</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>875535.21665258589</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12201,7 +12384,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12300,6 +12483,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12309,7 +12495,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12408,6 +12594,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-121486.74612377549</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-111093.21815269825</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12429,11 +12618,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="559930752"/>
-        <c:axId val="572091392"/>
+        <c:axId val="484098816"/>
+        <c:axId val="484100352"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="559930752"/>
+        <c:axId val="484098816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12476,14 +12665,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="572091392"/>
+        <c:crossAx val="484100352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="572091392"/>
+        <c:axId val="484100352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12534,7 +12723,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="559930752"/>
+        <c:crossAx val="484098816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13386,7 +13575,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG35"/>
+  <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14889,6 +15078,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="32">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="31">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="31">
+        <v>17.659999849999998</v>
+      </c>
+      <c r="D36" s="29">
+        <v>26.839619570961851</v>
+      </c>
+      <c r="E36" s="29">
+        <v>36259.497897799316</v>
+      </c>
+      <c r="F36" s="30">
+        <v>56129.251308757863</v>
+      </c>
+      <c r="G36" s="30">
+        <v>1334719.6372842276</v>
+      </c>
+      <c r="H36" s="30">
+        <v>862228.92259935837</v>
+      </c>
+      <c r="I36" s="30">
+        <v>972150.5019069548</v>
+      </c>
+      <c r="J36" s="30">
+        <v>862228.92259935837</v>
+      </c>
+      <c r="K36" s="30">
+        <v>-109921.57930759643</v>
+      </c>
+      <c r="L36" s="29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -14905,7 +15132,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH35"/>
+  <dimension ref="A1:AH36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14946,7 +15173,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -14982,16 +15209,16 @@
         <v>12</v>
       </c>
       <c r="M1" s="44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N1" s="44" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O1" s="48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -16783,6 +17010,56 @@
       </c>
       <c r="P35" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="15">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="31">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="16">
+        <v>17.659999849999998</v>
+      </c>
+      <c r="D36" s="17">
+        <v>26.839619570961851</v>
+      </c>
+      <c r="E36" s="17">
+        <v>72518.995795598632</v>
+      </c>
+      <c r="F36" s="18">
+        <v>112258.50261751573</v>
+      </c>
+      <c r="G36" s="18">
+        <v>1578488.8864332947</v>
+      </c>
+      <c r="H36" s="18">
+        <v>1019703.8642914734</v>
+      </c>
+      <c r="I36" s="18">
+        <v>1165936.9559691674</v>
+      </c>
+      <c r="J36" s="18">
+        <v>1019703.8642914734</v>
+      </c>
+      <c r="K36" s="18">
+        <v>-146233.091677694</v>
+      </c>
+      <c r="L36" s="17">
+        <v>0</v>
+      </c>
+      <c r="M36" s="22">
+        <v>1.6654210509469802E-2</v>
+      </c>
+      <c r="N36" s="22">
+        <v>4.0376705038210635E-2</v>
+      </c>
+      <c r="O36" s="22">
+        <v>41.247076733252584</v>
+      </c>
+      <c r="P36" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -16801,7 +17078,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH35"/>
+  <dimension ref="A1:AH36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16842,7 +17119,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -16878,16 +17155,16 @@
         <v>12</v>
       </c>
       <c r="M1" s="44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N1" s="44" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O1" s="48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -18679,6 +18956,56 @@
       </c>
       <c r="P35" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="15">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="31">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="16">
+        <v>17.659999849999998</v>
+      </c>
+      <c r="D36" s="17">
+        <v>26.839619570961851</v>
+      </c>
+      <c r="E36" s="17">
+        <v>665696.80394962698</v>
+      </c>
+      <c r="F36" s="18">
+        <v>1030490.3644733953</v>
+      </c>
+      <c r="G36" s="18">
+        <v>13526063.434425395</v>
+      </c>
+      <c r="H36" s="18">
+        <v>8737837.3527231254</v>
+      </c>
+      <c r="I36" s="18">
+        <v>9706759.6976827625</v>
+      </c>
+      <c r="J36" s="18">
+        <v>8737837.3527231254</v>
+      </c>
+      <c r="K36" s="18">
+        <v>-968922.34495963715</v>
+      </c>
+      <c r="L36" s="17">
+        <v>0</v>
+      </c>
+      <c r="M36" s="22">
+        <v>1.6654210509469802E-2</v>
+      </c>
+      <c r="N36" s="22">
+        <v>4.0376705038210635E-2</v>
+      </c>
+      <c r="O36" s="22">
+        <v>41.247076733252584</v>
+      </c>
+      <c r="P36" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -18697,7 +19024,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ35"/>
+  <dimension ref="A1:AJ36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18738,22 +19065,22 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -18780,16 +19107,16 @@
         <v>12</v>
       </c>
       <c r="O1" s="44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P1" s="44" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q1" s="48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -20785,6 +21112,62 @@
       </c>
       <c r="R35" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="15">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="31">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="16">
+        <v>17.659999849999998</v>
+      </c>
+      <c r="D36" s="17">
+        <v>26.839619570961851</v>
+      </c>
+      <c r="E36" s="17">
+        <v>8545319</v>
+      </c>
+      <c r="F36" s="17">
+        <v>4423306.3268190296</v>
+      </c>
+      <c r="G36" s="17">
+        <v>179070.20422833675</v>
+      </c>
+      <c r="H36" s="18">
+        <v>277198.44669037557</v>
+      </c>
+      <c r="I36" s="18">
+        <v>1538323.1663068528</v>
+      </c>
+      <c r="J36" s="18">
+        <v>993756.80797894648</v>
+      </c>
+      <c r="K36" s="18">
+        <v>1007628.5541064353</v>
+      </c>
+      <c r="L36" s="18">
+        <v>993756.80797894648</v>
+      </c>
+      <c r="M36" s="18">
+        <v>-13871.74612748879</v>
+      </c>
+      <c r="N36" s="17">
+        <v>0</v>
+      </c>
+      <c r="O36" s="22">
+        <v>1.6654210509469802E-2</v>
+      </c>
+      <c r="P36" s="22">
+        <v>4.0376705038210635E-2</v>
+      </c>
+      <c r="Q36" s="22">
+        <v>41.247076733252584</v>
+      </c>
+      <c r="R36" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -20803,7 +21186,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ35"/>
+  <dimension ref="A1:AJ36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22801,6 +23184,59 @@
         <v>1.2</v>
       </c>
     </row>
+    <row r="36" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="15">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="31">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="16">
+        <v>17.659999849999998</v>
+      </c>
+      <c r="D36" s="17">
+        <v>26.839619570961851</v>
+      </c>
+      <c r="E36" s="17">
+        <v>36259.497897799316</v>
+      </c>
+      <c r="F36" s="18">
+        <v>56129.251308757863</v>
+      </c>
+      <c r="G36" s="18">
+        <v>1355317.614812956</v>
+      </c>
+      <c r="H36" s="18">
+        <v>875535.21665258589</v>
+      </c>
+      <c r="I36" s="18">
+        <v>986628.43480528414</v>
+      </c>
+      <c r="J36" s="18">
+        <v>875535.21665258589</v>
+      </c>
+      <c r="K36" s="18">
+        <v>-111093.21815269825</v>
+      </c>
+      <c r="L36" s="17">
+        <v>0</v>
+      </c>
+      <c r="M36" s="21">
+        <v>42.857146434852993</v>
+      </c>
+      <c r="N36" s="21">
+        <v>23.400602230445845</v>
+      </c>
+      <c r="O36" s="21">
+        <v>22.782254285797638</v>
+      </c>
+      <c r="P36" s="21">
+        <v>24.637298119742262</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -22817,7 +23253,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ35"/>
+  <dimension ref="A1:AJ36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22861,7 +23297,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>3</v>
@@ -22870,10 +23306,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -24524,6 +24960,50 @@
         <v>-105606.53800894227</v>
       </c>
       <c r="N35" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="15">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="31">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="16">
+        <v>17.659999849999998</v>
+      </c>
+      <c r="D36" s="17">
+        <v>26.839619570961851</v>
+      </c>
+      <c r="E36" s="17">
+        <v>8545319</v>
+      </c>
+      <c r="F36" s="17">
+        <v>4423306.3268190296</v>
+      </c>
+      <c r="G36" s="17">
+        <v>643024.82427448209</v>
+      </c>
+      <c r="H36" s="18">
+        <v>995394.42220634886</v>
+      </c>
+      <c r="I36" s="18">
+        <v>9872707.0819226261</v>
+      </c>
+      <c r="J36" s="18">
+        <v>6377769.0479670847</v>
+      </c>
+      <c r="K36" s="18">
+        <v>6412356.9407751895</v>
+      </c>
+      <c r="L36" s="18">
+        <v>6377769.0479670847</v>
+      </c>
+      <c r="M36" s="18">
+        <v>-34587.892808104865</v>
+      </c>
+      <c r="N36" s="17">
         <v>0</v>
       </c>
     </row>
@@ -24543,7 +25023,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG35"/>
+  <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -26046,6 +26526,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="15">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="31">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="16">
+        <v>17.659999849999998</v>
+      </c>
+      <c r="D36" s="17">
+        <v>26.839619570961851</v>
+      </c>
+      <c r="E36" s="17">
+        <v>332848.40197481349</v>
+      </c>
+      <c r="F36" s="18">
+        <v>515245.18223669764</v>
+      </c>
+      <c r="G36" s="18">
+        <v>11465964.484628707</v>
+      </c>
+      <c r="H36" s="18">
+        <v>7407013.3741792245</v>
+      </c>
+      <c r="I36" s="18">
+        <v>8128674.1780120125</v>
+      </c>
+      <c r="J36" s="18">
+        <v>7407013.3741792245</v>
+      </c>
+      <c r="K36" s="18">
+        <v>-721660.80383278802</v>
+      </c>
+      <c r="L36" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ)cn.xlsx
@@ -169,7 +169,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>深创100ETF</t>
+    <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -656,7 +656,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -758,6 +758,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -767,7 +770,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -869,6 +872,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>972150.5019069548</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1005663.5411852957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -911,7 +917,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1013,6 +1019,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1022,7 +1031,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1124,6 +1133,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>862228.92259935837</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>919766.84470354044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1166,7 +1178,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1268,6 +1280,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1277,7 +1292,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1379,6 +1394,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-109921.57930759643</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-85896.696481755236</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1400,11 +1418,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="510372480"/>
-        <c:axId val="510378368"/>
+        <c:axId val="540447488"/>
+        <c:axId val="540449024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="510372480"/>
+        <c:axId val="540447488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1447,14 +1465,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510378368"/>
+        <c:crossAx val="540449024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="510378368"/>
+        <c:axId val="540449024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1505,7 +1523,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510372480"/>
+        <c:crossAx val="540447488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1696,7 +1714,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1798,6 +1816,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>36259.497897799316</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>33513.039278340933</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1812,8 +1833,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="484201600"/>
-        <c:axId val="484162944"/>
+        <c:axId val="630903168"/>
+        <c:axId val="630884224"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1838,7 +1859,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1940,6 +1961,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1949,7 +1973,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2051,6 +2075,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.64600002765655518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66399997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2067,11 +2094,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="484159872"/>
-        <c:axId val="484161408"/>
+        <c:axId val="603042560"/>
+        <c:axId val="629110656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="484159872"/>
+        <c:axId val="603042560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2114,14 +2141,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484161408"/>
+        <c:crossAx val="629110656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="484161408"/>
+        <c:axId val="629110656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2172,12 +2199,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484159872"/>
+        <c:crossAx val="603042560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="484162944"/>
+        <c:axId val="630884224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2214,12 +2241,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484201600"/>
+        <c:crossAx val="630903168"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="484201600"/>
+        <c:axId val="630903168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2228,7 +2255,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="484162944"/>
+        <c:crossAx val="630884224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2407,7 +2434,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2509,6 +2536,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2518,7 +2548,7 @@
               <c:f>'模型二 (2)PE副本成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2619,7 +2649,10 @@
                   <c:v>5769332.1165007073</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6412356.9407751895</c:v>
+                  <c:v>6406772.7851211149</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6734665.0460232133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2662,7 +2695,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2764,6 +2797,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2773,7 +2809,7 @@
               <c:f>'模型二 (2)PE副本成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2874,7 +2910,10 @@
                   <c:v>5663725.5784917651</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6377769.0479670847</c:v>
+                  <c:v>6372184.8923130101</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6877629.7629337581</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2917,7 +2956,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3019,6 +3058,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3028,7 +3070,7 @@
               <c:f>'模型二 (2)PE副本成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3130,6 +3172,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-34587.892808104865</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>142964.71691054478</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3151,11 +3196,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="484270464"/>
-        <c:axId val="484272000"/>
+        <c:axId val="630979584"/>
+        <c:axId val="630998144"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="484270464"/>
+        <c:axId val="630979584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3198,14 +3243,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484272000"/>
+        <c:crossAx val="630998144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="484272000"/>
+        <c:axId val="630998144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3256,7 +3301,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484270464"/>
+        <c:crossAx val="630979584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3447,7 +3492,7 @@
               <c:f>'模型二 (2)PE副本成交量'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3548,7 +3593,10 @@
                   <c:v>1082902.248820764</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>643024.82427448209</c:v>
+                  <c:v>637440.66862040793</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>327892.26090209873</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3563,8 +3611,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="484299520"/>
-        <c:axId val="484289536"/>
+        <c:axId val="632078336"/>
+        <c:axId val="631359360"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3589,7 +3637,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3691,6 +3739,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3700,7 +3751,7 @@
               <c:f>'模型二 (2)PE副本成交量'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3802,6 +3853,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.64600002765655518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66399997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3818,11 +3872,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="484286464"/>
-        <c:axId val="484288000"/>
+        <c:axId val="631200384"/>
+        <c:axId val="631357824"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="484286464"/>
+        <c:axId val="631200384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3865,14 +3919,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484288000"/>
+        <c:crossAx val="631357824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="484288000"/>
+        <c:axId val="631357824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3923,12 +3977,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484286464"/>
+        <c:crossAx val="631200384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="484289536"/>
+        <c:axId val="631359360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3965,12 +4019,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484299520"/>
+        <c:crossAx val="632078336"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="484299520"/>
+        <c:axId val="632078336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3979,7 +4033,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="484289536"/>
+        <c:crossAx val="631359360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4158,7 +4212,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4260,6 +4314,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4269,7 +4326,7 @@
               <c:f>'模型二 (2)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4371,6 +4428,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>8128674.1780120125</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8413009.3176757134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4413,7 +4473,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4515,6 +4575,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4524,7 +4587,7 @@
               <c:f>'模型二 (2)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4626,6 +4689,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>7407013.3741792245</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7897735.2676850744</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4668,7 +4734,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4770,6 +4836,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4779,7 +4848,7 @@
               <c:f>'模型二 (2)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4881,6 +4950,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-721660.80383278802</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-515274.04999063909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4902,11 +4974,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="484344192"/>
-        <c:axId val="484345728"/>
+        <c:axId val="480645120"/>
+        <c:axId val="480646656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="484344192"/>
+        <c:axId val="480645120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4949,14 +5021,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484345728"/>
+        <c:crossAx val="480646656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="484345728"/>
+        <c:axId val="480646656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5007,7 +5079,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484344192"/>
+        <c:crossAx val="480645120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5198,7 +5270,7 @@
               <c:f>'模型二 (2)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5300,6 +5372,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>332848.40197481349</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>284335.13966370182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5314,8 +5389,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="484401920"/>
-        <c:axId val="484383744"/>
+        <c:axId val="491147648"/>
+        <c:axId val="491141760"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5340,7 +5415,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5442,6 +5517,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5451,7 +5529,7 @@
               <c:f>'模型二 (2)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5553,6 +5631,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.64600002765655518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66399997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5569,11 +5650,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="484380672"/>
-        <c:axId val="484382208"/>
+        <c:axId val="480664960"/>
+        <c:axId val="491140224"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="484380672"/>
+        <c:axId val="480664960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5616,14 +5697,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484382208"/>
+        <c:crossAx val="491140224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="484382208"/>
+        <c:axId val="491140224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5674,12 +5755,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484380672"/>
+        <c:crossAx val="480664960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="484383744"/>
+        <c:axId val="491141760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5716,12 +5797,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484401920"/>
+        <c:crossAx val="491147648"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="484401920"/>
+        <c:axId val="491147648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5730,7 +5811,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="484383744"/>
+        <c:crossAx val="491141760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5892,7 +5973,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5994,6 +6075,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>36259.497897799316</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>33513.039278340933</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6008,8 +6092,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="513102976"/>
-        <c:axId val="513091072"/>
+        <c:axId val="544419200"/>
+        <c:axId val="544416128"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6034,7 +6118,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6136,6 +6220,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6145,7 +6232,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6247,6 +6334,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.64600002765655518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66399997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6263,11 +6353,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="510917248"/>
-        <c:axId val="513089536"/>
+        <c:axId val="544408320"/>
+        <c:axId val="544410240"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="510917248"/>
+        <c:axId val="544408320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6310,14 +6400,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513089536"/>
+        <c:crossAx val="544410240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="513089536"/>
+        <c:axId val="544410240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6368,12 +6458,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510917248"/>
+        <c:crossAx val="544408320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="513091072"/>
+        <c:axId val="544416128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6410,12 +6500,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513102976"/>
+        <c:crossAx val="544419200"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="513102976"/>
+        <c:axId val="544419200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6424,7 +6514,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="513091072"/>
+        <c:crossAx val="544416128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6603,7 +6693,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6705,6 +6795,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6714,7 +6807,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6816,6 +6909,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>1165936.9559691674</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1197774.3432835913</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6858,7 +6954,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6960,6 +7056,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6969,7 +7068,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7071,6 +7170,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>1019703.8642914734</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1079953.9680139774</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7113,7 +7215,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7215,6 +7317,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7224,7 +7329,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7326,6 +7431,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-146233.091677694</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-117820.37526961393</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7347,11 +7455,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="513163264"/>
-        <c:axId val="513165184"/>
+        <c:axId val="544461952"/>
+        <c:axId val="544463488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="513163264"/>
+        <c:axId val="544461952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7394,14 +7502,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513165184"/>
+        <c:crossAx val="544463488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="513165184"/>
+        <c:axId val="544463488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7452,7 +7560,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513163264"/>
+        <c:crossAx val="544461952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7652,7 +7760,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7754,6 +7862,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>72518.995795598632</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>31837.387314423886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7768,8 +7879,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="515397888"/>
-        <c:axId val="515396352"/>
+        <c:axId val="544591872"/>
+        <c:axId val="544585984"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7794,7 +7905,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7896,6 +8007,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7905,7 +8019,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8007,6 +8121,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.64600002765655518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66399997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8023,11 +8140,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="515380736"/>
-        <c:axId val="515382272"/>
+        <c:axId val="544549504"/>
+        <c:axId val="544584064"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="515380736"/>
+        <c:axId val="544549504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8070,14 +8187,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515382272"/>
+        <c:crossAx val="544584064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="515382272"/>
+        <c:axId val="544584064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8128,12 +8245,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515380736"/>
+        <c:crossAx val="544549504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="515396352"/>
+        <c:axId val="544585984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8170,12 +8287,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515397888"/>
+        <c:crossAx val="544591872"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="515397888"/>
+        <c:axId val="544591872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8184,7 +8301,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="515396352"/>
+        <c:crossAx val="544585984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8363,7 +8480,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8465,6 +8582,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8474,7 +8594,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8576,6 +8696,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>9706759.6976827625</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9976878.0803632792</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8618,7 +8741,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8720,6 +8843,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8729,7 +8855,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8831,6 +8957,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>8737837.3527231254</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9251424.1613033079</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8873,7 +9002,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8975,6 +9104,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8984,7 +9116,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9086,6 +9218,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-968922.34495963715</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-725453.91905997135</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9107,11 +9242,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="515431808"/>
-        <c:axId val="515454080"/>
+        <c:axId val="545276672"/>
+        <c:axId val="545278208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="515431808"/>
+        <c:axId val="545276672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9154,14 +9289,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515454080"/>
+        <c:crossAx val="545278208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="515454080"/>
+        <c:axId val="545278208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9212,7 +9347,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515431808"/>
+        <c:crossAx val="545276672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9412,7 +9547,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9514,6 +9649,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>665696.80394962698</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>270118.38268051669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9528,8 +9666,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="515959040"/>
-        <c:axId val="515957120"/>
+        <c:axId val="545805056"/>
+        <c:axId val="545487872"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9554,7 +9692,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9656,6 +9794,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9665,7 +9806,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9767,6 +9908,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.64600002765655518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66399997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9783,11 +9927,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="515570688"/>
-        <c:axId val="515577728"/>
+        <c:axId val="545434624"/>
+        <c:axId val="545485568"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="515570688"/>
+        <c:axId val="545434624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9830,14 +9974,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515577728"/>
+        <c:crossAx val="545485568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="515577728"/>
+        <c:axId val="545485568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9888,12 +10032,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515570688"/>
+        <c:crossAx val="545434624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="515957120"/>
+        <c:axId val="545487872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9930,12 +10074,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515959040"/>
+        <c:crossAx val="545805056"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="515959040"/>
+        <c:axId val="545805056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9944,7 +10088,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="515957120"/>
+        <c:crossAx val="545487872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10123,7 +10267,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10225,6 +10369,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10234,7 +10381,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10335,7 +10482,10 @@
                   <c:v>828558.34987809858</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1007628.5541064353</c:v>
+                  <c:v>1006073.4727850476</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1049446.5629929835</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10378,7 +10528,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10480,6 +10630,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10489,7 +10642,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10590,7 +10743,10 @@
                   <c:v>804597.58554773952</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>993756.80797894648</c:v>
+                  <c:v>992201.7266575587</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1063221.2221271994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10633,7 +10789,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10735,6 +10891,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10744,7 +10903,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10845,7 +11004,10 @@
                   <c:v>-23960.764330359059</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-13871.74612748879</c:v>
+                  <c:v>-13871.746127488906</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13774.659134215908</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10867,11 +11029,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="516431872"/>
-        <c:axId val="516433792"/>
+        <c:axId val="546023680"/>
+        <c:axId val="546144256"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="516431872"/>
+        <c:axId val="546023680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10914,14 +11076,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516433792"/>
+        <c:crossAx val="546144256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="516433792"/>
+        <c:axId val="546144256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10972,7 +11134,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516431872"/>
+        <c:crossAx val="546023680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11163,7 +11325,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11264,7 +11426,10 @@
                   <c:v>150783.8574307393</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>179070.20422833675</c:v>
+                  <c:v>177515.12290694905</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43373.090207935842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11279,8 +11444,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="516668800"/>
-        <c:axId val="516666880"/>
+        <c:axId val="546345728"/>
+        <c:axId val="546310400"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -11305,7 +11470,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11407,6 +11572,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11416,7 +11584,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -11518,6 +11686,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.64600002765655518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66399997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11534,11 +11705,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="516658304"/>
-        <c:axId val="516665344"/>
+        <c:axId val="546176000"/>
+        <c:axId val="546308864"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="516658304"/>
+        <c:axId val="546176000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11581,14 +11752,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516665344"/>
+        <c:crossAx val="546308864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="516665344"/>
+        <c:axId val="546308864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11639,12 +11810,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516658304"/>
+        <c:crossAx val="546176000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="516666880"/>
+        <c:axId val="546310400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11681,12 +11852,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516668800"/>
+        <c:crossAx val="546345728"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="516668800"/>
+        <c:axId val="546345728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11695,7 +11866,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="516666880"/>
+        <c:crossAx val="546310400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11874,7 +12045,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11976,6 +12147,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11985,7 +12159,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12087,6 +12261,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>986628.43480528414</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1020141.474083625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12129,7 +12306,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12231,6 +12408,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12240,7 +12420,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12342,6 +12522,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>875535.21665258589</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>933443.90126205632</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12384,7 +12567,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12486,6 +12669,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12495,7 +12681,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12597,6 +12783,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-111093.21815269825</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-86697.572821568698</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12618,11 +12807,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="484098816"/>
-        <c:axId val="484100352"/>
+        <c:axId val="547744384"/>
+        <c:axId val="555200896"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="484098816"/>
+        <c:axId val="547744384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12665,14 +12854,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484100352"/>
+        <c:crossAx val="555200896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="484100352"/>
+        <c:axId val="555200896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12723,7 +12912,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484098816"/>
+        <c:crossAx val="547744384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13575,7 +13764,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG36"/>
+  <dimension ref="A1:AG37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15116,6 +15305,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="32">
+        <v>45412</v>
+      </c>
+      <c r="B37" s="31">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="C37" s="31">
+        <v>18.11000061</v>
+      </c>
+      <c r="D37" s="29">
+        <v>26.594314351352136</v>
+      </c>
+      <c r="E37" s="29">
+        <v>33513.039278340933</v>
+      </c>
+      <c r="F37" s="30">
+        <v>50471.446617280082</v>
+      </c>
+      <c r="G37" s="30">
+        <v>1385191.0839015078</v>
+      </c>
+      <c r="H37" s="30">
+        <v>919766.84470354044</v>
+      </c>
+      <c r="I37" s="30">
+        <v>1005663.5411852957</v>
+      </c>
+      <c r="J37" s="30">
+        <v>919766.84470354044</v>
+      </c>
+      <c r="K37" s="30">
+        <v>-85896.696481755236</v>
+      </c>
+      <c r="L37" s="29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -15132,7 +15359,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH36"/>
+  <dimension ref="A1:AH37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17062,6 +17289,56 @@
         <v>2</v>
       </c>
     </row>
+    <row r="37" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="15">
+        <v>45412</v>
+      </c>
+      <c r="B37" s="31">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="C37" s="16">
+        <v>18.11000061</v>
+      </c>
+      <c r="D37" s="17">
+        <v>26.594314351352136</v>
+      </c>
+      <c r="E37" s="17">
+        <v>31837.387314423886</v>
+      </c>
+      <c r="F37" s="18">
+        <v>47947.874286416081</v>
+      </c>
+      <c r="G37" s="18">
+        <v>1626436.7607197107</v>
+      </c>
+      <c r="H37" s="18">
+        <v>1079953.9680139774</v>
+      </c>
+      <c r="I37" s="18">
+        <v>1197774.3432835913</v>
+      </c>
+      <c r="J37" s="18">
+        <v>1079953.9680139774</v>
+      </c>
+      <c r="K37" s="18">
+        <v>-117820.37526961393</v>
+      </c>
+      <c r="L37" s="17">
+        <v>0</v>
+      </c>
+      <c r="M37" s="22">
+        <v>1.5211844793302065E-2</v>
+      </c>
+      <c r="N37" s="22">
+        <v>3.4980590233919424E-2</v>
+      </c>
+      <c r="O37" s="22">
+        <v>43.48652979146042</v>
+      </c>
+      <c r="P37" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -17078,7 +17355,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH36"/>
+  <dimension ref="A1:AH37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17119,7 +17396,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -19006,6 +19283,56 @@
       </c>
       <c r="P36" s="1">
         <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="15">
+        <v>45412</v>
+      </c>
+      <c r="B37" s="31">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="C37" s="16">
+        <v>18.11000061</v>
+      </c>
+      <c r="D37" s="17">
+        <v>26.594314351352136</v>
+      </c>
+      <c r="E37" s="17">
+        <v>270118.38268051669</v>
+      </c>
+      <c r="F37" s="18">
+        <v>406804.8086768646</v>
+      </c>
+      <c r="G37" s="18">
+        <v>13932868.24310226</v>
+      </c>
+      <c r="H37" s="18">
+        <v>9251424.1613033079</v>
+      </c>
+      <c r="I37" s="18">
+        <v>9976878.0803632792</v>
+      </c>
+      <c r="J37" s="18">
+        <v>9251424.1613033079</v>
+      </c>
+      <c r="K37" s="18">
+        <v>-725453.91905997135</v>
+      </c>
+      <c r="L37" s="17">
+        <v>0</v>
+      </c>
+      <c r="M37" s="22">
+        <v>1.5211844793302065E-2</v>
+      </c>
+      <c r="N37" s="22">
+        <v>3.4980590233919424E-2</v>
+      </c>
+      <c r="O37" s="22">
+        <v>43.48652979146042</v>
+      </c>
+      <c r="P37" s="1">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -19024,7 +19351,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ36"/>
+  <dimension ref="A1:AJ37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21122,10 +21449,10 @@
         <v>0.64600002765655518</v>
       </c>
       <c r="C36" s="16">
-        <v>17.659999849999998</v>
+        <v>17.700000760000002</v>
       </c>
       <c r="D36" s="17">
-        <v>26.839619570961851</v>
+        <v>26.839674744630816</v>
       </c>
       <c r="E36" s="17">
         <v>8545319</v>
@@ -21134,25 +21461,25 @@
         <v>4423306.3268190296</v>
       </c>
       <c r="G36" s="17">
-        <v>179070.20422833675</v>
+        <v>177515.12290694905</v>
       </c>
       <c r="H36" s="18">
-        <v>277198.44669037557</v>
+        <v>274791.20016589947</v>
       </c>
       <c r="I36" s="18">
-        <v>1538323.1663068528</v>
+        <v>1535915.9197823766</v>
       </c>
       <c r="J36" s="18">
-        <v>993756.80797894648</v>
+        <v>992201.7266575587</v>
       </c>
       <c r="K36" s="18">
-        <v>1007628.5541064353</v>
+        <v>1006073.4727850476</v>
       </c>
       <c r="L36" s="18">
-        <v>993756.80797894648</v>
+        <v>992201.7266575587</v>
       </c>
       <c r="M36" s="18">
-        <v>-13871.74612748879</v>
+        <v>-13871.746127488906</v>
       </c>
       <c r="N36" s="17">
         <v>0</v>
@@ -21168,6 +21495,62 @@
       </c>
       <c r="R36" s="1">
         <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="15">
+        <v>45412</v>
+      </c>
+      <c r="B37" s="31">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="C37" s="16">
+        <v>18.11000061</v>
+      </c>
+      <c r="D37" s="17">
+        <v>26.594314351352136</v>
+      </c>
+      <c r="E37" s="17">
+        <v>5195700</v>
+      </c>
+      <c r="F37" s="17">
+        <v>4505504.5858242754</v>
+      </c>
+      <c r="G37" s="17">
+        <v>43373.090207935842</v>
+      </c>
+      <c r="H37" s="18">
+        <v>65320.921474021532</v>
+      </c>
+      <c r="I37" s="18">
+        <v>1601236.8412563982</v>
+      </c>
+      <c r="J37" s="18">
+        <v>1063221.2221271994</v>
+      </c>
+      <c r="K37" s="18">
+        <v>1049446.5629929835</v>
+      </c>
+      <c r="L37" s="18">
+        <v>1063221.2221271994</v>
+      </c>
+      <c r="M37" s="18">
+        <v>13774.659134215908</v>
+      </c>
+      <c r="N37" s="17">
+        <v>0</v>
+      </c>
+      <c r="O37" s="22">
+        <v>1.5211844793302065E-2</v>
+      </c>
+      <c r="P37" s="22">
+        <v>3.4980590233919424E-2</v>
+      </c>
+      <c r="Q37" s="22">
+        <v>43.48652979146042</v>
+      </c>
+      <c r="R37" s="1">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -21186,7 +21569,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ36"/>
+  <dimension ref="A1:AJ37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23237,6 +23620,59 @@
         <v>1</v>
       </c>
     </row>
+    <row r="37" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="15">
+        <v>45412</v>
+      </c>
+      <c r="B37" s="31">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="C37" s="16">
+        <v>18.11000061</v>
+      </c>
+      <c r="D37" s="17">
+        <v>26.594314351352136</v>
+      </c>
+      <c r="E37" s="17">
+        <v>33513.039278340933</v>
+      </c>
+      <c r="F37" s="18">
+        <v>50471.446617280082</v>
+      </c>
+      <c r="G37" s="18">
+        <v>1405789.0614302361</v>
+      </c>
+      <c r="H37" s="18">
+        <v>933443.90126205632</v>
+      </c>
+      <c r="I37" s="18">
+        <v>1020141.474083625</v>
+      </c>
+      <c r="J37" s="18">
+        <v>933443.90126205632</v>
+      </c>
+      <c r="K37" s="18">
+        <v>-86697.572821568698</v>
+      </c>
+      <c r="L37" s="17">
+        <v>0</v>
+      </c>
+      <c r="M37" s="21">
+        <v>46.808513876214093</v>
+      </c>
+      <c r="N37" s="21">
+        <v>31.203239445701929</v>
+      </c>
+      <c r="O37" s="21">
+        <v>25.589249339099069</v>
+      </c>
+      <c r="P37" s="21">
+        <v>42.431219658907651</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -23253,7 +23689,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ36"/>
+  <dimension ref="A1:AJ37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23294,10 +23730,10 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>3</v>
@@ -24971,10 +25407,10 @@
         <v>0.64600002765655518</v>
       </c>
       <c r="C36" s="16">
-        <v>17.659999849999998</v>
+        <v>17.700000760000002</v>
       </c>
       <c r="D36" s="17">
-        <v>26.839619570961851</v>
+        <v>26.839674744630816</v>
       </c>
       <c r="E36" s="17">
         <v>8545319</v>
@@ -24983,27 +25419,71 @@
         <v>4423306.3268190296</v>
       </c>
       <c r="G36" s="17">
-        <v>643024.82427448209</v>
+        <v>637440.66862040793</v>
       </c>
       <c r="H36" s="18">
-        <v>995394.42220634886</v>
+        <v>986750.21877754806</v>
       </c>
       <c r="I36" s="18">
-        <v>9872707.0819226261</v>
+        <v>9864062.878493825</v>
       </c>
       <c r="J36" s="18">
-        <v>6377769.0479670847</v>
+        <v>6372184.8923130101</v>
       </c>
       <c r="K36" s="18">
-        <v>6412356.9407751895</v>
+        <v>6406772.7851211149</v>
       </c>
       <c r="L36" s="18">
-        <v>6377769.0479670847</v>
+        <v>6372184.8923130101</v>
       </c>
       <c r="M36" s="18">
         <v>-34587.892808104865</v>
       </c>
       <c r="N36" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="15">
+        <v>45412</v>
+      </c>
+      <c r="B37" s="31">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="C37" s="16">
+        <v>18.11000061</v>
+      </c>
+      <c r="D37" s="17">
+        <v>26.594314351352136</v>
+      </c>
+      <c r="E37" s="17">
+        <v>5195700</v>
+      </c>
+      <c r="F37" s="17">
+        <v>4505504.5858242754</v>
+      </c>
+      <c r="G37" s="17">
+        <v>327892.26090209873</v>
+      </c>
+      <c r="H37" s="18">
+        <v>493813.66473183746</v>
+      </c>
+      <c r="I37" s="18">
+        <v>10357876.543225663</v>
+      </c>
+      <c r="J37" s="18">
+        <v>6877629.7629337581</v>
+      </c>
+      <c r="K37" s="18">
+        <v>6734665.0460232133</v>
+      </c>
+      <c r="L37" s="18">
+        <v>6877629.7629337581</v>
+      </c>
+      <c r="M37" s="18">
+        <v>142964.71691054478</v>
+      </c>
+      <c r="N37" s="17">
         <v>0</v>
       </c>
     </row>
@@ -25023,7 +25503,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG36"/>
+  <dimension ref="A1:AG37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -26564,6 +27044,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="15">
+        <v>45412</v>
+      </c>
+      <c r="B37" s="31">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="C37" s="16">
+        <v>18.11000061</v>
+      </c>
+      <c r="D37" s="17">
+        <v>26.594314351352136</v>
+      </c>
+      <c r="E37" s="17">
+        <v>284335.13966370182</v>
+      </c>
+      <c r="F37" s="18">
+        <v>428215.58808091015</v>
+      </c>
+      <c r="G37" s="18">
+        <v>11894180.072709618</v>
+      </c>
+      <c r="H37" s="18">
+        <v>7897735.2676850744</v>
+      </c>
+      <c r="I37" s="18">
+        <v>8413009.3176757134</v>
+      </c>
+      <c r="J37" s="18">
+        <v>7897735.2676850744</v>
+      </c>
+      <c r="K37" s="18">
+        <v>-515274.04999063909</v>
+      </c>
+      <c r="L37" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ)cn.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="34">
   <si>
     <t>in practice</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -169,11 +169,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>PE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>成交量</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>成交均量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标志</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1414,11 +1426,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="502385664"/>
-        <c:axId val="502387456"/>
+        <c:axId val="502156288"/>
+        <c:axId val="502162944"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="502385664"/>
+        <c:axId val="502156288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1461,14 +1473,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502387456"/>
+        <c:crossAx val="502162944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="502387456"/>
+        <c:axId val="502162944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1519,7 +1531,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502385664"/>
+        <c:crossAx val="502156288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1829,8 +1841,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="504264960"/>
-        <c:axId val="504263424"/>
+        <c:axId val="504092544"/>
+        <c:axId val="504091008"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2090,11 +2102,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="502687232"/>
-        <c:axId val="502688768"/>
+        <c:axId val="504083584"/>
+        <c:axId val="504085120"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="502687232"/>
+        <c:axId val="504083584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2137,14 +2149,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502688768"/>
+        <c:crossAx val="504085120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="502688768"/>
+        <c:axId val="504085120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2195,12 +2207,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502687232"/>
+        <c:crossAx val="504083584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="504263424"/>
+        <c:axId val="504091008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2237,12 +2249,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504264960"/>
+        <c:crossAx val="504092544"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="504264960"/>
+        <c:axId val="504092544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2251,7 +2263,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="504263424"/>
+        <c:crossAx val="504091008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3192,11 +3204,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="504288768"/>
-        <c:axId val="504290304"/>
+        <c:axId val="508433536"/>
+        <c:axId val="508435072"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="504288768"/>
+        <c:axId val="508433536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3239,14 +3251,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504290304"/>
+        <c:crossAx val="508435072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="504290304"/>
+        <c:axId val="508435072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3297,7 +3309,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504288768"/>
+        <c:crossAx val="508433536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3607,8 +3619,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="504825728"/>
-        <c:axId val="504824192"/>
+        <c:axId val="508560896"/>
+        <c:axId val="508559360"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3868,11 +3880,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="504808576"/>
-        <c:axId val="504810112"/>
+        <c:axId val="508490496"/>
+        <c:axId val="508492032"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="504808576"/>
+        <c:axId val="508490496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3915,14 +3927,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504810112"/>
+        <c:crossAx val="508492032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="504810112"/>
+        <c:axId val="508492032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3973,12 +3985,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504808576"/>
+        <c:crossAx val="508490496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="504824192"/>
+        <c:axId val="508559360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4015,12 +4027,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504825728"/>
+        <c:crossAx val="508560896"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="504825728"/>
+        <c:axId val="508560896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4029,7 +4041,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="504824192"/>
+        <c:crossAx val="508559360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4970,11 +4982,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="504882304"/>
-        <c:axId val="504883840"/>
+        <c:axId val="508580608"/>
+        <c:axId val="508582144"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="504882304"/>
+        <c:axId val="508580608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5017,14 +5029,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504883840"/>
+        <c:crossAx val="508582144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="504883840"/>
+        <c:axId val="508582144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5075,7 +5087,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504882304"/>
+        <c:crossAx val="508580608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5385,8 +5397,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="504915456"/>
-        <c:axId val="504913920"/>
+        <c:axId val="508621952"/>
+        <c:axId val="508616064"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5646,11 +5658,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="504910592"/>
-        <c:axId val="504912128"/>
+        <c:axId val="508612992"/>
+        <c:axId val="508614528"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="504910592"/>
+        <c:axId val="508612992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5693,14 +5705,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504912128"/>
+        <c:crossAx val="508614528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="504912128"/>
+        <c:axId val="508614528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5751,12 +5763,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504910592"/>
+        <c:crossAx val="508612992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="504913920"/>
+        <c:axId val="508616064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5793,12 +5805,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504915456"/>
+        <c:crossAx val="508621952"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="504915456"/>
+        <c:axId val="508621952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5807,7 +5819,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="504913920"/>
+        <c:crossAx val="508616064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6088,8 +6100,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="548284288"/>
-        <c:axId val="548282368"/>
+        <c:axId val="502192000"/>
+        <c:axId val="502190080"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6349,11 +6361,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="537916544"/>
-        <c:axId val="537918080"/>
+        <c:axId val="502184960"/>
+        <c:axId val="502188288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="537916544"/>
+        <c:axId val="502184960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6396,14 +6408,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537918080"/>
+        <c:crossAx val="502188288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="537918080"/>
+        <c:axId val="502188288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6454,12 +6466,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537916544"/>
+        <c:crossAx val="502184960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="548282368"/>
+        <c:axId val="502190080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6496,12 +6508,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548284288"/>
+        <c:crossAx val="502192000"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="548284288"/>
+        <c:axId val="502192000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6510,7 +6522,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="548282368"/>
+        <c:crossAx val="502190080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7451,11 +7463,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="548342784"/>
-        <c:axId val="548356864"/>
+        <c:axId val="521691136"/>
+        <c:axId val="531329408"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="548342784"/>
+        <c:axId val="521691136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7498,14 +7510,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548356864"/>
+        <c:crossAx val="531329408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="548356864"/>
+        <c:axId val="531329408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7556,7 +7568,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548342784"/>
+        <c:crossAx val="521691136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7875,8 +7887,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="548461184"/>
-        <c:axId val="548458496"/>
+        <c:axId val="536912640"/>
+        <c:axId val="536910848"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8136,11 +8148,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="548406016"/>
-        <c:axId val="548407552"/>
+        <c:axId val="536907136"/>
+        <c:axId val="536908928"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="548406016"/>
+        <c:axId val="536907136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8183,14 +8195,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548407552"/>
+        <c:crossAx val="536908928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="548407552"/>
+        <c:axId val="536908928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8241,12 +8253,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548406016"/>
+        <c:crossAx val="536907136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="548458496"/>
+        <c:axId val="536910848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8283,12 +8295,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548461184"/>
+        <c:crossAx val="536912640"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="548461184"/>
+        <c:axId val="536912640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8297,7 +8309,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="548458496"/>
+        <c:crossAx val="536910848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9238,11 +9250,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="548847616"/>
-        <c:axId val="548849152"/>
+        <c:axId val="536938368"/>
+        <c:axId val="536939904"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="548847616"/>
+        <c:axId val="536938368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9285,14 +9297,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548849152"/>
+        <c:crossAx val="536939904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="548849152"/>
+        <c:axId val="536939904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9343,7 +9355,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548847616"/>
+        <c:crossAx val="536938368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9662,8 +9674,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="549048320"/>
-        <c:axId val="549029760"/>
+        <c:axId val="543266304"/>
+        <c:axId val="543217920"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9923,11 +9935,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="548940416"/>
-        <c:axId val="549028224"/>
+        <c:axId val="543210496"/>
+        <c:axId val="543216384"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="548940416"/>
+        <c:axId val="543210496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9970,14 +9982,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="549028224"/>
+        <c:crossAx val="543216384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="549028224"/>
+        <c:axId val="543216384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10028,12 +10040,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548940416"/>
+        <c:crossAx val="543210496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="549029760"/>
+        <c:axId val="543217920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10070,12 +10082,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="549048320"/>
+        <c:crossAx val="543266304"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="549048320"/>
+        <c:axId val="543266304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10084,7 +10096,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="549029760"/>
+        <c:crossAx val="543217920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11025,11 +11037,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="549447168"/>
-        <c:axId val="556630016"/>
+        <c:axId val="544138752"/>
+        <c:axId val="544140672"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="549447168"/>
+        <c:axId val="544138752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11072,14 +11084,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556630016"/>
+        <c:crossAx val="544140672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="556630016"/>
+        <c:axId val="544140672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11130,7 +11142,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="549447168"/>
+        <c:crossAx val="544138752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11440,8 +11452,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="501332608"/>
-        <c:axId val="501331072"/>
+        <c:axId val="502180096"/>
+        <c:axId val="502178560"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -11701,11 +11713,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="633936896"/>
-        <c:axId val="637287808"/>
+        <c:axId val="502130176"/>
+        <c:axId val="502131712"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="633936896"/>
+        <c:axId val="502130176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11748,14 +11760,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="637287808"/>
+        <c:crossAx val="502131712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="637287808"/>
+        <c:axId val="502131712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11806,12 +11818,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="633936896"/>
+        <c:crossAx val="502130176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="501331072"/>
+        <c:axId val="502178560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11848,12 +11860,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501332608"/>
+        <c:crossAx val="502180096"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="501332608"/>
+        <c:axId val="502180096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11862,7 +11874,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="501331072"/>
+        <c:crossAx val="502178560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12803,11 +12815,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="502253440"/>
-        <c:axId val="502254976"/>
+        <c:axId val="502425088"/>
+        <c:axId val="502426624"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="502253440"/>
+        <c:axId val="502425088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12850,14 +12862,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502254976"/>
+        <c:crossAx val="502426624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="502254976"/>
+        <c:axId val="502426624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12908,7 +12920,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502253440"/>
+        <c:crossAx val="502425088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19388,22 +19400,22 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -19439,7 +19451,7 @@
         <v>20</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -21642,19 +21654,19 @@
         <v>12</v>
       </c>
       <c r="M1" s="48" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N1" s="48" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O1" s="48" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="P1" s="48" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -23732,16 +23744,16 @@
         <v>23</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ)cn.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="30">
   <si>
     <t>in practice</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -145,6 +145,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>SMA之MAX</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -161,31 +165,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>深创100ETF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>成交量</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>成交均量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>标志</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -363,7 +347,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -451,6 +435,8 @@
     <xf numFmtId="176" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -664,7 +650,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -769,6 +755,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -778,7 +767,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -883,6 +872,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>1005505.7452450263</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1037341.6312729785</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -925,7 +917,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1030,6 +1022,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1039,7 +1034,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1144,6 +1139,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>919604.65511358727</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>932051.28760826006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1186,7 +1184,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1291,6 +1289,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1300,7 +1301,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1405,6 +1406,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-85901.090131439036</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-105290.34366471844</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1426,11 +1430,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="502156288"/>
-        <c:axId val="502162944"/>
+        <c:axId val="527304576"/>
+        <c:axId val="527331328"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="502156288"/>
+        <c:axId val="527304576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1473,14 +1477,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502162944"/>
+        <c:crossAx val="527331328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="502162944"/>
+        <c:axId val="527331328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1531,7 +1535,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502156288"/>
+        <c:crossAx val="527304576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1722,7 +1726,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1817,16 +1821,19 @@
                   <c:v>39443.473005789252</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>47228.66583411934</c:v>
+                  <c:v>56674.399000943209</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>45629.398010733668</c:v>
+                  <c:v>38024.498342278057</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>36101.712250310709</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>33513.039299013537</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>31835.886027952234</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1841,8 +1848,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="504092544"/>
-        <c:axId val="504091008"/>
+        <c:axId val="490651008"/>
+        <c:axId val="490649472"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1867,7 +1874,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1972,6 +1979,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1981,7 +1991,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2086,6 +2096,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0.66399997472763062</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.64999997615814209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2102,11 +2115,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="504083584"/>
-        <c:axId val="504085120"/>
+        <c:axId val="490637952"/>
+        <c:axId val="490647936"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="504083584"/>
+        <c:axId val="490637952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2149,14 +2162,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504085120"/>
+        <c:crossAx val="490647936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="504085120"/>
+        <c:axId val="490647936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2207,12 +2220,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504083584"/>
+        <c:crossAx val="490637952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="504091008"/>
+        <c:axId val="490649472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2249,12 +2262,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504092544"/>
+        <c:crossAx val="490651008"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="504092544"/>
+        <c:axId val="490651008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2263,7 +2276,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="504091008"/>
+        <c:crossAx val="490649472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2442,7 +2455,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2547,6 +2560,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2556,7 +2572,7 @@
               <c:f>'模型二 (2)PE副本成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2661,6 +2677,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>6734665.0196119556</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7100439.0272066677</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2703,7 +2722,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2808,6 +2827,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2817,7 +2839,7 @@
               <c:f>'模型二 (2)PE副本成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2922,6 +2944,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>6877629.7419754015</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7098393.4932239084</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2964,7 +2989,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3069,6 +3094,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3078,7 +3106,7 @@
               <c:f>'模型二 (2)PE副本成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3183,6 +3211,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>142964.72236344591</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-2045.5339827593416</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3204,11 +3235,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="508433536"/>
-        <c:axId val="508435072"/>
+        <c:axId val="490723968"/>
+        <c:axId val="490725760"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="508433536"/>
+        <c:axId val="490723968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3251,14 +3282,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508435072"/>
+        <c:crossAx val="490725760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="508435072"/>
+        <c:axId val="490725760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3309,7 +3340,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508433536"/>
+        <c:crossAx val="490723968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3500,7 +3531,7 @@
               <c:f>'模型二 (2)PE副本成交量'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3605,6 +3636,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>327892.26130662102</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>365774.00759471167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3619,8 +3653,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="508560896"/>
-        <c:axId val="508559360"/>
+        <c:axId val="490830848"/>
+        <c:axId val="490829312"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3645,7 +3679,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3750,6 +3784,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3759,7 +3796,7 @@
               <c:f>'模型二 (2)PE副本成交量'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3864,6 +3901,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0.66399997472763062</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.64999997615814209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3880,11 +3920,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="508490496"/>
-        <c:axId val="508492032"/>
+        <c:axId val="490817792"/>
+        <c:axId val="490827776"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="508490496"/>
+        <c:axId val="490817792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3927,14 +3967,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508492032"/>
+        <c:crossAx val="490827776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="508492032"/>
+        <c:axId val="490827776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3985,12 +4025,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508490496"/>
+        <c:crossAx val="490817792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="508559360"/>
+        <c:axId val="490829312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4027,12 +4067,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508560896"/>
+        <c:crossAx val="490830848"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="508560896"/>
+        <c:axId val="490830848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4041,7 +4081,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="508559360"/>
+        <c:crossAx val="490829312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4220,7 +4260,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4325,6 +4365,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4334,7 +4377,7 @@
               <c:f>'模型二 (2)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4439,6 +4482,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>8410118.6915784068</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8666706.9546631575</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4481,7 +4527,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4586,6 +4632,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4595,7 +4644,7 @@
               <c:f>'模型二 (2)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4700,6 +4749,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>7894764.1240472868</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7984896.5277196188</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4742,7 +4794,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4847,6 +4899,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4856,7 +4911,7 @@
               <c:f>'模型二 (2)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4961,6 +5016,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-515354.56753112003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-681810.42694353871</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4982,11 +5040,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="508580608"/>
-        <c:axId val="508582144"/>
+        <c:axId val="490842368"/>
+        <c:axId val="490848256"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="508580608"/>
+        <c:axId val="490842368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5029,14 +5087,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508582144"/>
+        <c:crossAx val="490848256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="508582144"/>
+        <c:axId val="490848256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5087,7 +5145,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508580608"/>
+        <c:crossAx val="490842368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5278,7 +5336,7 @@
               <c:f>'模型二 (2)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5383,6 +5441,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>284335.14001448749</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>256588.26308475045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5397,8 +5458,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="508621952"/>
-        <c:axId val="508616064"/>
+        <c:axId val="491080320"/>
+        <c:axId val="491078784"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5423,7 +5484,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5528,6 +5589,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5537,7 +5601,7 @@
               <c:f>'模型二 (2)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5642,6 +5706,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0.66399997472763062</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.64999997615814209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5658,11 +5725,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="508612992"/>
-        <c:axId val="508614528"/>
+        <c:axId val="491071360"/>
+        <c:axId val="491072896"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="508612992"/>
+        <c:axId val="491071360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5705,14 +5772,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508614528"/>
+        <c:crossAx val="491072896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="508614528"/>
+        <c:axId val="491072896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5763,12 +5830,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508612992"/>
+        <c:crossAx val="491071360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="508616064"/>
+        <c:axId val="491078784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5805,12 +5872,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508621952"/>
+        <c:crossAx val="491080320"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="508621952"/>
+        <c:axId val="491080320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5819,7 +5886,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="508616064"/>
+        <c:crossAx val="491078784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5981,7 +6048,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6086,6 +6153,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>33513.039299013537</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>31835.886027952234</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6100,8 +6170,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="502192000"/>
-        <c:axId val="502190080"/>
+        <c:axId val="527423744"/>
+        <c:axId val="527421824"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6126,7 +6196,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6231,6 +6301,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6240,7 +6313,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6345,6 +6418,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0.66399997472763062</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.64999997615814209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6361,11 +6437,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="502184960"/>
-        <c:axId val="502188288"/>
+        <c:axId val="527416320"/>
+        <c:axId val="527419264"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="502184960"/>
+        <c:axId val="527416320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6408,14 +6484,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502188288"/>
+        <c:crossAx val="527419264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="502188288"/>
+        <c:axId val="527419264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6466,12 +6542,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502184960"/>
+        <c:crossAx val="527416320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="502190080"/>
+        <c:axId val="527421824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6508,12 +6584,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502192000"/>
+        <c:crossAx val="527423744"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="502192000"/>
+        <c:axId val="527423744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6522,7 +6598,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="502190080"/>
+        <c:crossAx val="527421824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6701,7 +6777,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6806,6 +6882,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6815,7 +6894,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6910,16 +6989,19 @@
                   <c:v>1010526.2196699666</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1055393.45221238</c:v>
+                  <c:v>1057754.885504086</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1093417.950554658</c:v>
+                  <c:v>1133803.8821886422</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1165621.3750552793</c:v>
+                  <c:v>1168100.5088264374</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1197458.7623893423</c:v>
+                  <c:v>1199937.8961605004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1230181.9878870549</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6962,7 +7044,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7067,6 +7149,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7076,7 +7161,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7171,16 +7256,19 @@
                   <c:v>855691.54938569851</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>789119.89056459663</c:v>
+                  <c:v>791481.32385630254</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>935454.99500073388</c:v>
+                  <c:v>976165.04502804822</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1019388.2862596593</c:v>
+                  <c:v>1022702.0102962272</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1079629.5968321024</c:v>
+                  <c:v>1083035.6534611047</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1090444.657572814</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7223,7 +7311,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7328,6 +7416,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7337,7 +7428,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7432,16 +7523,19 @@
                   <c:v>-154834.6702842681</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-266273.56164778338</c:v>
+                  <c:v>-266273.5616477835</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-157962.95555392408</c:v>
+                  <c:v>-157638.83716059395</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-146233.08879562002</c:v>
+                  <c:v>-145398.49853021023</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-117829.1655572399</c:v>
+                  <c:v>-116902.24269939563</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-139737.33031424088</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7463,11 +7557,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="521691136"/>
-        <c:axId val="531329408"/>
+        <c:axId val="536715648"/>
+        <c:axId val="536717568"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="521691136"/>
+        <c:axId val="536715648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7510,14 +7604,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="531329408"/>
+        <c:crossAx val="536717568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="531329408"/>
+        <c:axId val="536717568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7568,7 +7662,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521691136"/>
+        <c:crossAx val="536715648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7768,7 +7862,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7863,16 +7957,19 @@
                   <c:v>37471.299355499788</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44867.232542413374</c:v>
+                  <c:v>47228.66583411934</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>38024.498342278057</c:v>
+                  <c:v>76048.996684556114</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>72203.424500621419</c:v>
+                  <c:v>34296.626637795169</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>31837.38733406286</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>30244.09172655462</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7887,8 +7984,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="536912640"/>
-        <c:axId val="536910848"/>
+        <c:axId val="536979712"/>
+        <c:axId val="536975232"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7913,7 +8010,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8018,6 +8115,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8027,7 +8127,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8132,6 +8232,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0.66399997472763062</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.64999997615814209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8148,11 +8251,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="536907136"/>
-        <c:axId val="536908928"/>
+        <c:axId val="536951424"/>
+        <c:axId val="536973696"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="536907136"/>
+        <c:axId val="536951424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8195,14 +8298,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536908928"/>
+        <c:crossAx val="536973696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="536908928"/>
+        <c:axId val="536973696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8253,12 +8356,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536907136"/>
+        <c:crossAx val="536951424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="536910848"/>
+        <c:axId val="536975232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8295,12 +8398,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536912640"/>
+        <c:crossAx val="536979712"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="536912640"/>
+        <c:axId val="536979712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8309,7 +8412,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="536910848"/>
+        <c:crossAx val="536975232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8488,7 +8591,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8593,6 +8696,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8602,7 +8708,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8697,16 +8803,19 @@
                   <c:v>8138561.0247232979</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8675021.6658998467</c:v>
+                  <c:v>8703256.4364880864</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9041062.798604127</c:v>
+                  <c:v>9435338.701896647</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9700978.559315132</c:v>
+                  <c:v>9748798.6882343739</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>9971096.9423288945</c:v>
+                  <c:v>10018917.071248136</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10262675.92117865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8749,7 +8858,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8854,6 +8963,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8863,7 +8975,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8958,16 +9070,19 @@
                   <c:v>7072800.7878068425</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6688152.5560559547</c:v>
+                  <c:v>6716387.3266441943</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7972175.6908059875</c:v>
+                  <c:v>8370326.9559438992</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8732056.2377725523</c:v>
+                  <c:v>8788744.2309180368</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>9245481.9634682313</c:v>
+                  <c:v>9303749.493506128</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9351344.9630789924</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9010,7 +9125,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9115,6 +9230,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9124,7 +9242,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9222,13 +9340,16 @@
                   <c:v>-1986869.109843892</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-1068887.1077981396</c:v>
+                  <c:v>-1065011.7459527478</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-968922.32154257968</c:v>
+                  <c:v>-960054.45731633715</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-725614.97886066325</c:v>
+                  <c:v>-715167.57774200849</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-911330.95809965767</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9250,11 +9371,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="536938368"/>
-        <c:axId val="536939904"/>
+        <c:axId val="537206784"/>
+        <c:axId val="537208320"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="536938368"/>
+        <c:axId val="537206784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9297,14 +9418,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536939904"/>
+        <c:crossAx val="537208320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="536939904"/>
+        <c:axId val="537208320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9355,7 +9476,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536938368"/>
+        <c:crossAx val="537206784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9555,7 +9676,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9650,16 +9771,19 @@
                   <c:v>374176.75560012757</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>536460.6411765482</c:v>
+                  <c:v>564695.41176478763</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>366041.1327042802</c:v>
+                  <c:v>732082.2654085604</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>659915.76071100484</c:v>
+                  <c:v>313459.98633772728</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>270118.38301376312</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>243758.84993051292</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9674,8 +9798,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="543266304"/>
-        <c:axId val="543217920"/>
+        <c:axId val="537301376"/>
+        <c:axId val="537282816"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9700,7 +9824,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9805,6 +9929,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9814,7 +9941,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9919,6 +10046,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0.66399997472763062</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.64999997615814209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9935,11 +10065,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="543210496"/>
-        <c:axId val="543216384"/>
+        <c:axId val="537275008"/>
+        <c:axId val="537280896"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="543210496"/>
+        <c:axId val="537275008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9982,14 +10112,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543216384"/>
+        <c:crossAx val="537280896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="543216384"/>
+        <c:axId val="537280896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10040,12 +10170,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543210496"/>
+        <c:crossAx val="537275008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="543217920"/>
+        <c:axId val="537282816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10082,12 +10212,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543266304"/>
+        <c:crossAx val="537301376"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="543266304"/>
+        <c:axId val="537301376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10096,7 +10226,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="543217920"/>
+        <c:crossAx val="537282816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10275,7 +10405,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10380,6 +10510,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10389,7 +10522,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10484,16 +10617,19 @@
                   <c:v>486069.61866649543</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>677774.48890253564</c:v>
+                  <c:v>687864.21891495888</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>828558.34644705884</c:v>
+                  <c:v>989431.93400400528</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1006073.4694623705</c:v>
+                  <c:v>1073751.6174362784</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1049446.5597238159</c:v>
+                  <c:v>1117124.7076977238</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1165508.7378162649</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10536,7 +10672,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10641,6 +10777,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10650,7 +10789,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10745,16 +10884,19 @@
                   <c:v>440577.85841508594</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>574905.15125616861</c:v>
+                  <c:v>584994.88126859185</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>804597.5829268439</c:v>
+                  <c:v>966856.03580785019</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>992201.72411216167</c:v>
+                  <c:v>1063299.3302477051</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1063221.2195643878</c:v>
+                  <c:v>1136299.8676388341</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1160725.7695541636</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10797,7 +10939,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10902,6 +11044,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10911,7 +11056,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11009,13 +11154,16 @@
                   <c:v>-102869.33764636703</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-23960.763520214939</c:v>
+                  <c:v>-22575.898196155089</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-13871.745350208832</c:v>
+                  <c:v>-10452.287188573275</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>13774.659840571927</c:v>
+                  <c:v>19175.159941110294</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-4782.9682621012907</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11037,11 +11185,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="544138752"/>
-        <c:axId val="544140672"/>
+        <c:axId val="538035328"/>
+        <c:axId val="538036864"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="544138752"/>
+        <c:axId val="538035328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11084,14 +11232,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544140672"/>
+        <c:crossAx val="538036864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="544140672"/>
+        <c:axId val="538036864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11142,7 +11290,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544138752"/>
+        <c:crossAx val="538035328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11333,7 +11481,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11428,16 +11576,19 @@
                   <c:v>70666.134562425083</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>191704.87023604018</c:v>
+                  <c:v>201794.60024846339</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>150783.85754452317</c:v>
+                  <c:v>301567.71508904634</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>177515.12301531172</c:v>
+                  <c:v>84319.683432273057</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>43373.090261445432</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>48384.030118540977</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11452,8 +11603,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="502180096"/>
-        <c:axId val="502178560"/>
+        <c:axId val="490455040"/>
+        <c:axId val="490449152"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -11478,7 +11629,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11583,6 +11734,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11592,7 +11746,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -11697,6 +11851,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0.66399997472763062</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.64999997615814209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11713,11 +11870,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="502130176"/>
-        <c:axId val="502131712"/>
+        <c:axId val="490445824"/>
+        <c:axId val="490447616"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="502130176"/>
+        <c:axId val="490445824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11760,14 +11917,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502131712"/>
+        <c:crossAx val="490447616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="502131712"/>
+        <c:axId val="490447616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11818,12 +11975,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502130176"/>
+        <c:crossAx val="490445824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="502178560"/>
+        <c:axId val="490449152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11860,12 +12017,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502180096"/>
+        <c:crossAx val="490455040"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="502180096"/>
+        <c:axId val="490455040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11874,7 +12031,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="502178560"/>
+        <c:crossAx val="490449152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12053,7 +12210,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12158,6 +12315,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12167,7 +12327,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12262,16 +12422,19 @@
                   <c:v>857510.86276580952</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>904739.52859992883</c:v>
+                  <c:v>914185.26176675269</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>950368.92661066249</c:v>
+                  <c:v>952209.76010903076</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>986470.63886097318</c:v>
+                  <c:v>988311.47235934145</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1019983.6781599867</c:v>
+                  <c:v>1021824.511658355</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1053660.3976863073</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12314,7 +12477,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12419,6 +12582,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12428,7 +12594,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12523,16 +12689,19 @@
                   <c:v>737546.09345506981</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>688722.25176690519</c:v>
+                  <c:v>698167.98493372917</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>828882.18361810432</c:v>
+                  <c:v>832019.49068979442</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>875377.4237496414</c:v>
+                  <c:v>878554.07017397531</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>933281.71168662712</c:v>
+                  <c:v>936546.87121475919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>948636.28833261249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12575,7 +12744,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12680,6 +12849,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12689,7 +12861,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12784,16 +12956,19 @@
                   <c:v>-119964.76931073971</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-216017.27683302364</c:v>
+                  <c:v>-216017.27683302353</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-121486.74299255817</c:v>
+                  <c:v>-120190.26941923634</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-111093.21511133178</c:v>
+                  <c:v>-109757.40218536614</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-86701.966473359615</c:v>
+                  <c:v>-85277.640443595825</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-105024.10935369483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12815,11 +12990,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="502425088"/>
-        <c:axId val="502426624"/>
+        <c:axId val="490605568"/>
+        <c:axId val="490607360"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="502425088"/>
+        <c:axId val="490605568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12862,14 +13037,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502426624"/>
+        <c:crossAx val="490607360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="502426624"/>
+        <c:axId val="490607360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12920,7 +13095,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502425088"/>
+        <c:crossAx val="490605568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13772,7 +13947,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG37"/>
+  <dimension ref="A1:AG39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13942,6 +14117,16 @@
         <f>-Z3</f>
         <v>-71470.226080923632</v>
       </c>
+      <c r="AB3" s="42">
+        <v>44561</v>
+      </c>
+      <c r="AC3" s="24">
+        <v>71470.218956071636</v>
+      </c>
+      <c r="AD3" s="24">
+        <f>-AC3</f>
+        <v>-71470.218956071636</v>
+      </c>
     </row>
     <row r="4" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="32">
@@ -14015,9 +14200,16 @@
         <f>-Z4</f>
         <v>-401953.44834350183</v>
       </c>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="27"/>
-      <c r="AD4" s="27"/>
+      <c r="AB4" s="42">
+        <v>44925</v>
+      </c>
+      <c r="AC4" s="27">
+        <v>401953.44479283423</v>
+      </c>
+      <c r="AD4" s="27">
+        <f>-AC4</f>
+        <v>-401953.44479283423</v>
+      </c>
       <c r="AE4" s="19"/>
       <c r="AF4" s="27"/>
       <c r="AG4" s="27"/>
@@ -14091,9 +14283,16 @@
       <c r="AA5" s="27">
         <v>436532.87606210314</v>
       </c>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="27"/>
-      <c r="AD5" s="27"/>
+      <c r="AB5" s="42">
+        <v>45289</v>
+      </c>
+      <c r="AC5" s="27">
+        <v>377214.1657703988</v>
+      </c>
+      <c r="AD5" s="27">
+        <f>-AC5</f>
+        <v>-377214.1657703988</v>
+      </c>
       <c r="AE5" s="19"/>
       <c r="AF5" s="27"/>
       <c r="AG5" s="27"/>
@@ -14136,14 +14335,42 @@
         <v>0</v>
       </c>
       <c r="M6" s="27"/>
+      <c r="P6" s="42">
+        <v>45289</v>
+      </c>
+      <c r="Q6" s="35">
+        <v>377214.1657703988</v>
+      </c>
+      <c r="R6" s="34">
+        <v>850637.82951930468</v>
+      </c>
+      <c r="S6" s="34">
+        <v>731948.73696905444</v>
+      </c>
+      <c r="T6" s="34">
+        <v>-118689.09255025024</v>
+      </c>
+      <c r="U6" s="34">
+        <v>0</v>
+      </c>
+      <c r="V6" s="33">
+        <v>-0.13952952529435639</v>
+      </c>
+      <c r="W6" s="33">
+        <v>-8.8470898848600599E-2</v>
+      </c>
       <c r="Y6" s="27"/>
       <c r="Z6" s="27"/>
       <c r="AA6" s="28">
         <v>-6.8314848168957498E-2</v>
       </c>
-      <c r="AB6" s="27"/>
+      <c r="AB6" s="42">
+        <v>45289</v>
+      </c>
       <c r="AC6" s="27"/>
-      <c r="AD6" s="28"/>
+      <c r="AD6" s="28">
+        <v>731948.73696905444</v>
+      </c>
       <c r="AE6" s="19"/>
     </row>
     <row r="7" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -14187,6 +14414,9 @@
       <c r="Y7" s="27"/>
       <c r="Z7" s="27"/>
       <c r="AA7" s="27"/>
+      <c r="AD7" s="25">
+        <v>-8.8470898848600599E-2</v>
+      </c>
       <c r="AG7" s="25"/>
     </row>
     <row r="8" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -15350,6 +15580,47 @@
       <c r="L37" s="29">
         <v>0</v>
       </c>
+    </row>
+    <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="32">
+        <v>45443</v>
+      </c>
+      <c r="B38" s="31">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="C38" s="31">
+        <v>18.329999919999999</v>
+      </c>
+      <c r="D38" s="29">
+        <v>26.389717901760058</v>
+      </c>
+      <c r="E38" s="29">
+        <v>31835.886027952234</v>
+      </c>
+      <c r="F38" s="30">
+        <v>48978.287993362486</v>
+      </c>
+      <c r="G38" s="30">
+        <v>1433925.1104549211</v>
+      </c>
+      <c r="H38" s="30">
+        <v>932051.28760826006</v>
+      </c>
+      <c r="I38" s="30">
+        <v>1037341.6312729785</v>
+      </c>
+      <c r="J38" s="30">
+        <v>932051.28760826006</v>
+      </c>
+      <c r="K38" s="30">
+        <v>-105290.34366471844</v>
+      </c>
+      <c r="L38" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A39" s="49"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -15367,7 +15638,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH37"/>
+  <dimension ref="A1:AH39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15444,16 +15715,16 @@
         <v>12</v>
       </c>
       <c r="M1" s="44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N1" s="44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O1" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -15548,6 +15819,16 @@
         <f>-AA3</f>
         <v>-111243.64621869735</v>
       </c>
+      <c r="AC3" s="42">
+        <v>44561</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>111243.6393122976</v>
+      </c>
+      <c r="AE3" s="1">
+        <f>-AD3</f>
+        <v>-111243.6393122976</v>
+      </c>
     </row>
     <row r="4" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
@@ -15629,9 +15910,16 @@
         <f>-AA4</f>
         <v>-560921.33809150185</v>
       </c>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
+      <c r="AC4" s="42">
+        <v>44925</v>
+      </c>
+      <c r="AD4" s="7">
+        <v>560921.33505378838</v>
+      </c>
+      <c r="AE4" s="7">
+        <f>-AD4</f>
+        <v>-560921.33505378838</v>
+      </c>
       <c r="AF4" s="6"/>
       <c r="AG4" s="7"/>
       <c r="AH4" s="7"/>
@@ -15716,9 +16004,16 @@
       <c r="AB5" s="7">
         <v>613380.59488827921</v>
       </c>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
+      <c r="AC5" s="42">
+        <v>45289</v>
+      </c>
+      <c r="AD5" s="7">
+        <v>338361.24530388066</v>
+      </c>
+      <c r="AE5" s="7">
+        <f>-AD5</f>
+        <v>-338361.24530388066</v>
+      </c>
       <c r="AF5" s="19"/>
       <c r="AG5" s="7"/>
       <c r="AH5" s="7"/>
@@ -15772,14 +16067,42 @@
       <c r="P6" s="1">
         <v>2</v>
       </c>
+      <c r="Q6" s="42">
+        <v>45289</v>
+      </c>
+      <c r="R6" s="10">
+        <v>338361.24530388066</v>
+      </c>
+      <c r="S6" s="4">
+        <v>1010526.2196699666</v>
+      </c>
+      <c r="T6" s="4">
+        <v>855691.54938569851</v>
+      </c>
+      <c r="U6" s="4">
+        <v>-154834.6702842681</v>
+      </c>
+      <c r="V6" s="4">
+        <v>0</v>
+      </c>
+      <c r="W6" s="9">
+        <v>-0.15322182370966725</v>
+      </c>
+      <c r="X6" s="9">
+        <v>-9.0333955811988886E-2</v>
+      </c>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
       <c r="AB6" s="8">
         <v>-7.5853723579241916E-2</v>
       </c>
-      <c r="AC6" s="7"/>
+      <c r="AC6" s="42">
+        <v>45289</v>
+      </c>
       <c r="AD6" s="7"/>
-      <c r="AE6" s="8"/>
+      <c r="AE6" s="8">
+        <v>855691.54938569851</v>
+      </c>
       <c r="AF6" s="19"/>
     </row>
     <row r="7" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -15834,6 +16157,9 @@
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
       <c r="AB7" s="7"/>
+      <c r="AE7" s="2">
+        <v>-9.0333955811988886E-2</v>
+      </c>
       <c r="AH7" s="2"/>
     </row>
     <row r="8" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -17135,13 +17461,13 @@
         <v>0</v>
       </c>
       <c r="M33" s="22">
-        <v>6.6024694432251473E-3</v>
+        <v>5.5020578693542902E-3</v>
       </c>
       <c r="N33" s="22">
-        <v>2.6234933656491849E-2</v>
+        <v>2.2862451707354861E-2</v>
       </c>
       <c r="O33" s="22">
-        <v>25.166709127893537</v>
+        <v>24.065913576470347</v>
       </c>
       <c r="P33" s="1">
         <v>0.95</v>
@@ -17161,40 +17487,40 @@
         <v>27.336624376243282</v>
       </c>
       <c r="E34" s="17">
-        <v>44867.232542413374</v>
+        <v>47228.66583411934</v>
       </c>
       <c r="F34" s="18">
-        <v>79977.243104114154</v>
+        <v>84186.571688541211</v>
       </c>
       <c r="G34" s="18">
-        <v>1406630.847274049</v>
+        <v>1410840.175858476</v>
       </c>
       <c r="H34" s="18">
-        <v>789119.89056459663</v>
+        <v>791481.32385630254</v>
       </c>
       <c r="I34" s="18">
-        <v>1055393.45221238</v>
+        <v>1057754.885504086</v>
       </c>
       <c r="J34" s="18">
-        <v>789119.89056459663</v>
+        <v>791481.32385630254</v>
       </c>
       <c r="K34" s="18">
-        <v>-266273.56164778338</v>
+        <v>-266273.5616477835</v>
       </c>
       <c r="L34" s="17">
         <v>0</v>
       </c>
       <c r="M34" s="22">
-        <v>5.5020578693542902E-3</v>
+        <v>4.5850482244619087E-3</v>
       </c>
       <c r="N34" s="22">
-        <v>2.2862451707354861E-2</v>
+        <v>3.3052041658950905E-2</v>
       </c>
       <c r="O34" s="22">
-        <v>24.065913576470347</v>
+        <v>13.872208778425705</v>
       </c>
       <c r="P34" s="1">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
@@ -17211,40 +17537,40 @@
         <v>27.106454818762419</v>
       </c>
       <c r="E35" s="17">
-        <v>38024.498342278057</v>
+        <v>76048.996684556114</v>
       </c>
       <c r="F35" s="18">
-        <v>59599.526113190608</v>
+        <v>119199.05222638122</v>
       </c>
       <c r="G35" s="18">
-        <v>1466230.3733872396</v>
+        <v>1530039.2280848571</v>
       </c>
       <c r="H35" s="18">
-        <v>935454.99500073388</v>
+        <v>976165.04502804822</v>
       </c>
       <c r="I35" s="18">
-        <v>1093417.950554658</v>
+        <v>1133803.8821886422</v>
       </c>
       <c r="J35" s="18">
-        <v>935454.99500073388</v>
+        <v>976165.04502804822</v>
       </c>
       <c r="K35" s="18">
-        <v>-157962.95555392408</v>
+        <v>-157638.83716059395</v>
       </c>
       <c r="L35" s="17">
         <v>0</v>
       </c>
       <c r="M35" s="22">
-        <v>4.5850482244619087E-3</v>
+        <v>1.6654210509469802E-2</v>
       </c>
       <c r="N35" s="22">
-        <v>3.3052041658950905E-2</v>
+        <v>4.0376705038210635E-2</v>
       </c>
       <c r="O35" s="22">
-        <v>13.872208778425705</v>
+        <v>41.247076733252584</v>
       </c>
       <c r="P35" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
@@ -17261,40 +17587,40 @@
         <v>26.839674750359887</v>
       </c>
       <c r="E36" s="17">
-        <v>72203.424500621419</v>
+        <v>34296.626637795169</v>
       </c>
       <c r="F36" s="18">
-        <v>111770.00218180833</v>
+        <v>53090.751036358954</v>
       </c>
       <c r="G36" s="18">
-        <v>1578000.3755690479</v>
+        <v>1583129.9791212161</v>
       </c>
       <c r="H36" s="18">
-        <v>1019388.2862596593</v>
+        <v>1022702.0102962272</v>
       </c>
       <c r="I36" s="18">
-        <v>1165621.3750552793</v>
+        <v>1168100.5088264374</v>
       </c>
       <c r="J36" s="18">
-        <v>1019388.2862596593</v>
+        <v>1022702.0102962272</v>
       </c>
       <c r="K36" s="18">
-        <v>-146233.08879562002</v>
+        <v>-145398.49853021023</v>
       </c>
       <c r="L36" s="17">
         <v>0</v>
       </c>
       <c r="M36" s="22">
-        <v>1.6654210509469802E-2</v>
+        <v>1.5211844793302065E-2</v>
       </c>
       <c r="N36" s="22">
-        <v>4.0376705038210635E-2</v>
+        <v>3.4980590233919424E-2</v>
       </c>
       <c r="O36" s="22">
-        <v>41.247076733252584</v>
+        <v>43.48652979146042</v>
       </c>
       <c r="P36" s="1">
-        <v>2</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
@@ -17317,35 +17643,88 @@
         <v>47947.874315992849</v>
       </c>
       <c r="G37" s="18">
-        <v>1625948.2498850408</v>
+        <v>1631077.853437209</v>
       </c>
       <c r="H37" s="18">
-        <v>1079629.5968321024</v>
+        <v>1083035.6534611047</v>
       </c>
       <c r="I37" s="18">
-        <v>1197458.7623893423</v>
+        <v>1199937.8961605004</v>
       </c>
       <c r="J37" s="18">
-        <v>1079629.5968321024</v>
+        <v>1083035.6534611047</v>
       </c>
       <c r="K37" s="18">
-        <v>-117829.1655572399</v>
+        <v>-116902.24269939563</v>
       </c>
       <c r="L37" s="17">
         <v>0</v>
       </c>
       <c r="M37" s="22">
-        <v>1.5211844793302065E-2</v>
+        <v>1.5676528506264293E-2</v>
       </c>
       <c r="N37" s="22">
-        <v>3.4980590233919424E-2</v>
+        <v>3.2150483040112095E-2</v>
       </c>
       <c r="O37" s="22">
-        <v>43.48652979146042</v>
+        <v>48.759853737518327</v>
       </c>
       <c r="P37" s="1">
         <v>0.95</v>
       </c>
+    </row>
+    <row r="38" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="15">
+        <v>45443</v>
+      </c>
+      <c r="B38" s="31">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="C38" s="16">
+        <v>18.329999919999999</v>
+      </c>
+      <c r="D38" s="17">
+        <v>26.389717901760058</v>
+      </c>
+      <c r="E38" s="17">
+        <v>30244.09172655462</v>
+      </c>
+      <c r="F38" s="18">
+        <v>46529.373593694356</v>
+      </c>
+      <c r="G38" s="18">
+        <v>1677607.2270309033</v>
+      </c>
+      <c r="H38" s="18">
+        <v>1090444.657572814</v>
+      </c>
+      <c r="I38" s="18">
+        <v>1230181.9878870549</v>
+      </c>
+      <c r="J38" s="18">
+        <v>1090444.657572814</v>
+      </c>
+      <c r="K38" s="18">
+        <v>-139737.33031424088</v>
+      </c>
+      <c r="L38" s="17">
+        <v>0</v>
+      </c>
+      <c r="M38" s="22">
+        <v>1.3063773755220243E-2</v>
+      </c>
+      <c r="N38" s="22">
+        <v>2.9125402295008165E-2</v>
+      </c>
+      <c r="O38" s="22">
+        <v>44.853539267539169</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A39" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -17363,7 +17742,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH37"/>
+  <dimension ref="A1:AH39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17440,16 +17819,16 @@
         <v>12</v>
       </c>
       <c r="M1" s="44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N1" s="44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O1" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -17544,6 +17923,16 @@
         <f>-AA3</f>
         <v>-391166.0852938749</v>
       </c>
+      <c r="AC3" s="42">
+        <v>44561</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>391166.03767330461</v>
+      </c>
+      <c r="AE3" s="1">
+        <f>-AD3</f>
+        <v>-391166.03767330461</v>
+      </c>
     </row>
     <row r="4" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
@@ -17625,9 +18014,16 @@
         <f>-AA4</f>
         <v>-4936141.2228610869</v>
       </c>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
+      <c r="AC4" s="42">
+        <v>44925</v>
+      </c>
+      <c r="AD4" s="7">
+        <v>4936141.1701060347</v>
+      </c>
+      <c r="AE4" s="7">
+        <f>-AD4</f>
+        <v>-4936141.1701060347</v>
+      </c>
       <c r="AF4" s="6"/>
       <c r="AG4" s="7"/>
       <c r="AH4" s="7"/>
@@ -17712,9 +18108,16 @@
       <c r="AB5" s="7">
         <v>5021488.7754730703</v>
       </c>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
+      <c r="AC5" s="42">
+        <v>45289</v>
+      </c>
+      <c r="AD5" s="7">
+        <v>2811253.8169439584</v>
+      </c>
+      <c r="AE5" s="7">
+        <f>-AD5</f>
+        <v>-2811253.8169439584</v>
+      </c>
       <c r="AF5" s="19"/>
       <c r="AG5" s="7"/>
       <c r="AH5" s="7"/>
@@ -17768,14 +18171,42 @@
       <c r="P6" s="1">
         <v>2</v>
       </c>
+      <c r="Q6" s="42">
+        <v>45289</v>
+      </c>
+      <c r="R6" s="10">
+        <v>2811253.8169439584</v>
+      </c>
+      <c r="S6" s="4">
+        <v>8138561.0247232979</v>
+      </c>
+      <c r="T6" s="4">
+        <v>7072800.7878068425</v>
+      </c>
+      <c r="U6" s="4">
+        <v>-1065760.2369164554</v>
+      </c>
+      <c r="V6" s="4">
+        <v>0</v>
+      </c>
+      <c r="W6" s="9">
+        <v>-0.13095192549136045</v>
+      </c>
+      <c r="X6" s="9">
+        <v>-7.9697327658813766E-2</v>
+      </c>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
       <c r="AB6" s="8">
         <v>-5.3676131859731302E-2</v>
       </c>
-      <c r="AC6" s="7"/>
+      <c r="AC6" s="42">
+        <v>45289</v>
+      </c>
       <c r="AD6" s="7"/>
-      <c r="AE6" s="8"/>
+      <c r="AE6" s="8">
+        <v>7072800.7878068425</v>
+      </c>
       <c r="AF6" s="19"/>
     </row>
     <row r="7" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -17830,6 +18261,9 @@
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
       <c r="AB7" s="7"/>
+      <c r="AE7" s="2">
+        <v>-7.9697327658813766E-2</v>
+      </c>
       <c r="AH7" s="2"/>
     </row>
     <row r="8" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -19131,13 +19565,13 @@
         <v>0</v>
       </c>
       <c r="M33" s="22">
-        <v>6.6024694432251473E-3</v>
+        <v>5.5020578693542902E-3</v>
       </c>
       <c r="N33" s="22">
-        <v>2.6234933656491849E-2</v>
+        <v>2.2862451707354861E-2</v>
       </c>
       <c r="O33" s="22">
-        <v>25.166709127893537</v>
+        <v>24.065913576470347</v>
       </c>
       <c r="P33" s="1">
         <v>0.95</v>
@@ -19157,22 +19591,22 @@
         <v>27.336624376243282</v>
       </c>
       <c r="E34" s="17">
-        <v>536460.6411765482</v>
+        <v>564695.41176478763</v>
       </c>
       <c r="F34" s="18">
-        <v>956257.84529071697</v>
+        <v>1006587.2055691759</v>
       </c>
       <c r="G34" s="18">
-        <v>11921840.786312018</v>
+        <v>11972170.146590477</v>
       </c>
       <c r="H34" s="18">
-        <v>6688152.5560559547</v>
+        <v>6716387.3266441943</v>
       </c>
       <c r="I34" s="18">
-        <v>8675021.6658998467</v>
+        <v>8703256.4364880864</v>
       </c>
       <c r="J34" s="18">
-        <v>6688152.5560559547</v>
+        <v>6716387.3266441943</v>
       </c>
       <c r="K34" s="18">
         <v>-1986869.109843892</v>
@@ -19181,16 +19615,16 @@
         <v>0</v>
       </c>
       <c r="M34" s="22">
-        <v>5.5020578693542902E-3</v>
+        <v>4.5850482244619087E-3</v>
       </c>
       <c r="N34" s="22">
-        <v>2.2862451707354861E-2</v>
+        <v>3.3052041658950905E-2</v>
       </c>
       <c r="O34" s="22">
-        <v>24.065913576470347</v>
+        <v>13.872208778425705</v>
       </c>
       <c r="P34" s="1">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
@@ -19207,40 +19641,40 @@
         <v>27.106454818762419</v>
       </c>
       <c r="E35" s="17">
-        <v>366041.1327042802</v>
+        <v>732082.2654085604</v>
       </c>
       <c r="F35" s="18">
-        <v>573732.17263077828</v>
+        <v>1147464.3452615566</v>
       </c>
       <c r="G35" s="18">
-        <v>12495572.958942795</v>
+        <v>13119634.491852034</v>
       </c>
       <c r="H35" s="18">
-        <v>7972175.6908059875</v>
+        <v>8370326.9559438992</v>
       </c>
       <c r="I35" s="18">
-        <v>9041062.798604127</v>
+        <v>9435338.701896647</v>
       </c>
       <c r="J35" s="18">
-        <v>7972175.6908059875</v>
+        <v>8370326.9559438992</v>
       </c>
       <c r="K35" s="18">
-        <v>-1068887.1077981396</v>
+        <v>-1065011.7459527478</v>
       </c>
       <c r="L35" s="17">
         <v>0</v>
       </c>
       <c r="M35" s="22">
-        <v>4.5850482244619087E-3</v>
+        <v>1.6654210509469802E-2</v>
       </c>
       <c r="N35" s="22">
-        <v>3.3052041658950905E-2</v>
+        <v>4.0376705038210635E-2</v>
       </c>
       <c r="O35" s="22">
-        <v>13.872208778425705</v>
+        <v>41.247076733252584</v>
       </c>
       <c r="P35" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
@@ -19257,40 +19691,40 @@
         <v>26.839674750359887</v>
       </c>
       <c r="E36" s="17">
-        <v>659915.76071100484</v>
+        <v>313459.98633772728</v>
       </c>
       <c r="F36" s="18">
-        <v>1021541.3815149989</v>
+        <v>485232.15621962445</v>
       </c>
       <c r="G36" s="18">
-        <v>13517114.340457793</v>
+        <v>13604866.648071658</v>
       </c>
       <c r="H36" s="18">
-        <v>8732056.2377725523</v>
+        <v>8788744.2309180368</v>
       </c>
       <c r="I36" s="18">
-        <v>9700978.559315132</v>
+        <v>9748798.6882343739</v>
       </c>
       <c r="J36" s="18">
-        <v>8732056.2377725523</v>
+        <v>8788744.2309180368</v>
       </c>
       <c r="K36" s="18">
-        <v>-968922.32154257968</v>
+        <v>-960054.45731633715</v>
       </c>
       <c r="L36" s="17">
         <v>0</v>
       </c>
       <c r="M36" s="22">
-        <v>1.6654210509469802E-2</v>
+        <v>1.5211844793302065E-2</v>
       </c>
       <c r="N36" s="22">
-        <v>4.0376705038210635E-2</v>
+        <v>3.4980590233919424E-2</v>
       </c>
       <c r="O36" s="22">
-        <v>41.247076733252584</v>
+        <v>43.48652979146042</v>
       </c>
       <c r="P36" s="1">
-        <v>2</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
@@ -19313,35 +19747,88 @@
         <v>406804.80917874177</v>
       </c>
       <c r="G37" s="18">
-        <v>13923919.149636535</v>
+        <v>14011671.4572504</v>
       </c>
       <c r="H37" s="18">
-        <v>9245481.9634682313</v>
+        <v>9303749.493506128</v>
       </c>
       <c r="I37" s="18">
-        <v>9971096.9423288945</v>
+        <v>10018917.071248136</v>
       </c>
       <c r="J37" s="18">
-        <v>9245481.9634682313</v>
+        <v>9303749.493506128</v>
       </c>
       <c r="K37" s="18">
-        <v>-725614.97886066325</v>
+        <v>-715167.57774200849</v>
       </c>
       <c r="L37" s="17">
         <v>0</v>
       </c>
       <c r="M37" s="22">
-        <v>1.5211844793302065E-2</v>
+        <v>1.5676528506264293E-2</v>
       </c>
       <c r="N37" s="22">
-        <v>3.4980590233919424E-2</v>
+        <v>3.2150483040112095E-2</v>
       </c>
       <c r="O37" s="22">
-        <v>43.48652979146042</v>
+        <v>48.759853737518327</v>
       </c>
       <c r="P37" s="1">
         <v>0.95</v>
       </c>
+    </row>
+    <row r="38" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="15">
+        <v>45443</v>
+      </c>
+      <c r="B38" s="31">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="C38" s="16">
+        <v>18.329999919999999</v>
+      </c>
+      <c r="D38" s="17">
+        <v>26.389717901760058</v>
+      </c>
+      <c r="E38" s="17">
+        <v>243758.84993051292</v>
+      </c>
+      <c r="F38" s="18">
+        <v>375013.62903313013</v>
+      </c>
+      <c r="G38" s="18">
+        <v>14386685.086283529</v>
+      </c>
+      <c r="H38" s="18">
+        <v>9351344.9630789924</v>
+      </c>
+      <c r="I38" s="18">
+        <v>10262675.92117865</v>
+      </c>
+      <c r="J38" s="18">
+        <v>9351344.9630789924</v>
+      </c>
+      <c r="K38" s="18">
+        <v>-911330.95809965767</v>
+      </c>
+      <c r="L38" s="17">
+        <v>0</v>
+      </c>
+      <c r="M38" s="22">
+        <v>1.3063773755220243E-2</v>
+      </c>
+      <c r="N38" s="22">
+        <v>2.9125402295008165E-2</v>
+      </c>
+      <c r="O38" s="22">
+        <v>44.853539267539169</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A39" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -19359,7 +19846,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ37"/>
+  <dimension ref="A1:AJ39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19400,22 +19887,22 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -19442,16 +19929,16 @@
         <v>12</v>
       </c>
       <c r="O1" s="44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P1" s="44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q1" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -19558,6 +20045,16 @@
         <f>-AC3</f>
         <v>-10976.009614458515</v>
       </c>
+      <c r="AE3" s="42">
+        <v>44561</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>10976.008183548318</v>
+      </c>
+      <c r="AG3" s="1">
+        <f>-AF3</f>
+        <v>-10976.008183548318</v>
+      </c>
     </row>
     <row r="4" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
@@ -19645,9 +20142,16 @@
         <f>-AC4</f>
         <v>-211828.47506570001</v>
       </c>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
+      <c r="AE4" s="42">
+        <v>44925</v>
+      </c>
+      <c r="AF4" s="7">
+        <v>211828.4724995298</v>
+      </c>
+      <c r="AG4" s="7">
+        <f>-AF4</f>
+        <v>-211828.4724995298</v>
+      </c>
       <c r="AH4" s="6"/>
       <c r="AI4" s="7"/>
       <c r="AJ4" s="7"/>
@@ -19738,9 +20242,16 @@
       <c r="AD5" s="7">
         <v>215120.83805649204</v>
       </c>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
+      <c r="AE5" s="42">
+        <v>45289</v>
+      </c>
+      <c r="AF5" s="7">
+        <v>263265.13798341731</v>
+      </c>
+      <c r="AG5" s="7">
+        <f>-AF5</f>
+        <v>-263265.13798341731</v>
+      </c>
       <c r="AH5" s="19"/>
       <c r="AI5" s="7"/>
       <c r="AJ5" s="7"/>
@@ -19800,14 +20311,42 @@
       <c r="R6" s="1">
         <v>2</v>
       </c>
+      <c r="S6" s="42">
+        <v>45289</v>
+      </c>
+      <c r="T6" s="10">
+        <v>263265.13798341731</v>
+      </c>
+      <c r="U6" s="4">
+        <v>486069.61866649543</v>
+      </c>
+      <c r="V6" s="4">
+        <v>440577.85841508594</v>
+      </c>
+      <c r="W6" s="4">
+        <v>-45491.760251409491</v>
+      </c>
+      <c r="X6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>-9.3591038206036342E-2</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>-6.4611465400573387E-2</v>
+      </c>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="8">
         <v>-3.2917802017357722E-2</v>
       </c>
-      <c r="AE6" s="7"/>
+      <c r="AE6" s="42">
+        <v>45289</v>
+      </c>
       <c r="AF6" s="7"/>
-      <c r="AG6" s="8"/>
+      <c r="AG6" s="8">
+        <v>440577.85841508594</v>
+      </c>
       <c r="AH6" s="19"/>
     </row>
     <row r="7" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -19868,6 +20407,9 @@
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
+      <c r="AG7" s="2">
+        <v>-6.4611465400573387E-2</v>
+      </c>
       <c r="AJ7" s="2"/>
     </row>
     <row r="8" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -21325,13 +21867,13 @@
         <v>0</v>
       </c>
       <c r="O33" s="22">
-        <v>6.6024694432251473E-3</v>
+        <v>5.5020578693542902E-3</v>
       </c>
       <c r="P33" s="22">
-        <v>2.6234933656491849E-2</v>
+        <v>2.2862451707354861E-2</v>
       </c>
       <c r="Q33" s="22">
-        <v>25.166709127893537</v>
+        <v>24.065913576470347</v>
       </c>
       <c r="R33" s="1">
         <v>0.95</v>
@@ -21357,22 +21899,22 @@
         <v>4203114.608389196</v>
       </c>
       <c r="G34" s="17">
-        <v>191704.87023604018</v>
+        <v>201794.60024846339</v>
       </c>
       <c r="H34" s="18">
-        <v>341719.91768417961</v>
+        <v>359705.17650966288</v>
       </c>
       <c r="I34" s="18">
-        <v>1024786.3850385128</v>
+        <v>1042771.643863996</v>
       </c>
       <c r="J34" s="18">
-        <v>574905.15125616861</v>
+        <v>584994.88126859185</v>
       </c>
       <c r="K34" s="18">
-        <v>677774.48890253564</v>
+        <v>687864.21891495888</v>
       </c>
       <c r="L34" s="18">
-        <v>574905.15125616861</v>
+        <v>584994.88126859185</v>
       </c>
       <c r="M34" s="18">
         <v>-102869.33764636703</v>
@@ -21381,16 +21923,16 @@
         <v>0</v>
       </c>
       <c r="O34" s="22">
-        <v>5.5020578693542902E-3</v>
+        <v>4.5850482244619087E-3</v>
       </c>
       <c r="P34" s="22">
-        <v>2.2862451707354861E-2</v>
+        <v>3.3052041658950905E-2</v>
       </c>
       <c r="Q34" s="22">
-        <v>24.065913576470347</v>
+        <v>13.872208778425705</v>
       </c>
       <c r="R34" s="1">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
@@ -21413,40 +21955,40 @@
         <v>4305005.2464849772</v>
       </c>
       <c r="G35" s="17">
-        <v>150783.85754452317</v>
+        <v>301567.71508904634</v>
       </c>
       <c r="H35" s="18">
-        <v>236338.33046997746</v>
+        <v>472676.66093995492</v>
       </c>
       <c r="I35" s="18">
-        <v>1261124.7155084903</v>
+        <v>1515448.3048039509</v>
       </c>
       <c r="J35" s="18">
-        <v>804597.5829268439</v>
+        <v>966856.03580785019</v>
       </c>
       <c r="K35" s="18">
-        <v>828558.34644705884</v>
+        <v>989431.93400400528</v>
       </c>
       <c r="L35" s="18">
-        <v>804597.5829268439</v>
+        <v>966856.03580785019</v>
       </c>
       <c r="M35" s="18">
-        <v>-23960.763520214939</v>
+        <v>-22575.898196155089</v>
       </c>
       <c r="N35" s="17">
         <v>0</v>
       </c>
       <c r="O35" s="22">
-        <v>4.5850482244619087E-3</v>
+        <v>1.6654210509469802E-2</v>
       </c>
       <c r="P35" s="22">
-        <v>3.3052041658950905E-2</v>
+        <v>4.0376705038210635E-2</v>
       </c>
       <c r="Q35" s="22">
-        <v>13.872208778425705</v>
+        <v>41.247076733252584</v>
       </c>
       <c r="R35" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
@@ -21469,40 +22011,40 @@
         <v>4423306.3268190296</v>
       </c>
       <c r="G36" s="17">
-        <v>177515.12301531172</v>
+        <v>84319.683432273057</v>
       </c>
       <c r="H36" s="18">
-        <v>274791.20033364353</v>
+        <v>130525.82015848067</v>
       </c>
       <c r="I36" s="18">
-        <v>1535915.9158421338</v>
+        <v>1645974.1249624316</v>
       </c>
       <c r="J36" s="18">
-        <v>992201.72411216167</v>
+        <v>1063299.3302477051</v>
       </c>
       <c r="K36" s="18">
-        <v>1006073.4694623705</v>
+        <v>1073751.6174362784</v>
       </c>
       <c r="L36" s="18">
-        <v>992201.72411216167</v>
+        <v>1063299.3302477051</v>
       </c>
       <c r="M36" s="18">
-        <v>-13871.745350208832</v>
+        <v>-10452.287188573275</v>
       </c>
       <c r="N36" s="17">
         <v>0</v>
       </c>
       <c r="O36" s="22">
-        <v>1.6654210509469802E-2</v>
+        <v>1.5211844793302065E-2</v>
       </c>
       <c r="P36" s="22">
-        <v>4.0376705038210635E-2</v>
+        <v>3.4980590233919424E-2</v>
       </c>
       <c r="Q36" s="22">
-        <v>41.247076733252584</v>
+        <v>43.48652979146042</v>
       </c>
       <c r="R36" s="1">
-        <v>2</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
@@ -21531,35 +22073,94 @@
         <v>65320.921554608271</v>
       </c>
       <c r="I37" s="18">
-        <v>1601236.8373967421</v>
+        <v>1711295.0465170399</v>
       </c>
       <c r="J37" s="18">
-        <v>1063221.2195643878</v>
+        <v>1136299.8676388341</v>
       </c>
       <c r="K37" s="18">
-        <v>1049446.5597238159</v>
+        <v>1117124.7076977238</v>
       </c>
       <c r="L37" s="18">
-        <v>1063221.2195643878</v>
+        <v>1136299.8676388341</v>
       </c>
       <c r="M37" s="18">
-        <v>13774.659840571927</v>
+        <v>19175.159941110294</v>
       </c>
       <c r="N37" s="17">
         <v>0</v>
       </c>
       <c r="O37" s="22">
-        <v>1.5211844793302065E-2</v>
+        <v>1.5676528506264293E-2</v>
       </c>
       <c r="P37" s="22">
-        <v>3.4980590233919424E-2</v>
+        <v>3.2150483040112095E-2</v>
       </c>
       <c r="Q37" s="22">
-        <v>43.48652979146042</v>
+        <v>48.759853737518327</v>
       </c>
       <c r="R37" s="1">
         <v>0.95</v>
       </c>
+    </row>
+    <row r="38" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="15">
+        <v>45443</v>
+      </c>
+      <c r="B38" s="31">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="C38" s="16">
+        <v>18.329999919999999</v>
+      </c>
+      <c r="D38" s="17">
+        <v>26.389717901760058</v>
+      </c>
+      <c r="E38" s="17">
+        <v>6567000</v>
+      </c>
+      <c r="F38" s="17">
+        <v>4606710.9436179576</v>
+      </c>
+      <c r="G38" s="17">
+        <v>48384.030118540977</v>
+      </c>
+      <c r="H38" s="18">
+        <v>74436.972143471838</v>
+      </c>
+      <c r="I38" s="18">
+        <v>1785732.0186605118</v>
+      </c>
+      <c r="J38" s="18">
+        <v>1160725.7695541636</v>
+      </c>
+      <c r="K38" s="18">
+        <v>1165508.7378162649</v>
+      </c>
+      <c r="L38" s="18">
+        <v>1160725.7695541636</v>
+      </c>
+      <c r="M38" s="18">
+        <v>-4782.9682621012907</v>
+      </c>
+      <c r="N38" s="17">
+        <v>0</v>
+      </c>
+      <c r="O38" s="22">
+        <v>1.3063773755220243E-2</v>
+      </c>
+      <c r="P38" s="22">
+        <v>2.9125402295008165E-2</v>
+      </c>
+      <c r="Q38" s="22">
+        <v>44.853539267539169</v>
+      </c>
+      <c r="R38" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A39" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -21577,7 +22178,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ37"/>
+  <dimension ref="A1:AJ39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21654,19 +22255,19 @@
         <v>12</v>
       </c>
       <c r="M1" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="N1" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="P1" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -21777,6 +22378,16 @@
         <f>-AC3</f>
         <v>-71470.226080923632</v>
       </c>
+      <c r="AE3" s="42">
+        <v>44561</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>71470.218956071636</v>
+      </c>
+      <c r="AG3" s="1">
+        <f>-AF3</f>
+        <v>-71470.218956071636</v>
+      </c>
     </row>
     <row r="4" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
@@ -21864,9 +22475,16 @@
         <f>-AC4</f>
         <v>-408826.48157624499</v>
       </c>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
+      <c r="AE4" s="42">
+        <v>44925</v>
+      </c>
+      <c r="AF4" s="7">
+        <v>408826.47803933907</v>
+      </c>
+      <c r="AG4" s="7">
+        <f>-AF4</f>
+        <v>-408826.47803933907</v>
+      </c>
       <c r="AH4" s="6"/>
       <c r="AI4" s="7"/>
       <c r="AJ4" s="7"/>
@@ -21954,9 +22572,16 @@
       <c r="AD5" s="7">
         <v>442807.12225575943</v>
       </c>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
+      <c r="AE5" s="42">
+        <v>45289</v>
+      </c>
+      <c r="AF5" s="7">
+        <v>377214.1657703988</v>
+      </c>
+      <c r="AG5" s="7">
+        <f>-AF5</f>
+        <v>-377214.1657703988</v>
+      </c>
       <c r="AH5" s="19"/>
       <c r="AI5" s="7"/>
       <c r="AJ5" s="7"/>
@@ -22013,14 +22638,42 @@
       <c r="Q6" s="1">
         <v>1</v>
       </c>
+      <c r="S6" s="42">
+        <v>45289</v>
+      </c>
+      <c r="T6" s="10">
+        <v>377214.1657703988</v>
+      </c>
+      <c r="U6" s="4">
+        <v>857510.86276580952</v>
+      </c>
+      <c r="V6" s="4">
+        <v>737546.09345506981</v>
+      </c>
+      <c r="W6" s="4">
+        <v>-119964.76931073971</v>
+      </c>
+      <c r="X6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>-0.1398988333789804</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>-8.8558045934028273E-2</v>
+      </c>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="8">
         <v>-6.8553336011149546E-2</v>
       </c>
-      <c r="AE6" s="7"/>
+      <c r="AE6" s="42">
+        <v>45289</v>
+      </c>
       <c r="AF6" s="7"/>
-      <c r="AG6" s="8"/>
+      <c r="AG6" s="8">
+        <v>737546.09345506981</v>
+      </c>
       <c r="AH6" s="19"/>
     </row>
     <row r="7" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -22078,6 +22731,9 @@
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
+      <c r="AG7" s="2">
+        <v>-8.8558045934028273E-2</v>
+      </c>
       <c r="AJ7" s="2"/>
     </row>
     <row r="8" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -23454,16 +24110,16 @@
         <v>0</v>
       </c>
       <c r="M33" s="21">
-        <v>10.457536880796289</v>
+        <v>18.749994445931186</v>
       </c>
       <c r="N33" s="21">
-        <v>20.690080044153873</v>
+        <v>20.04338484474631</v>
       </c>
       <c r="O33" s="21">
-        <v>30.288490686760593</v>
+        <v>26.873455406089164</v>
       </c>
       <c r="P33" s="21">
-        <v>1.4932587589404349</v>
+        <v>6.3832437220605982</v>
       </c>
       <c r="Q33" s="1">
         <v>1</v>
@@ -23483,43 +24139,43 @@
         <v>27.336624376243282</v>
       </c>
       <c r="E34" s="17">
-        <v>47228.66583411934</v>
+        <v>56674.399000943209</v>
       </c>
       <c r="F34" s="18">
-        <v>84186.571688541211</v>
+        <v>101023.88602624946</v>
       </c>
       <c r="G34" s="18">
-        <v>1227668.9209370138</v>
+        <v>1244506.2352747221</v>
       </c>
       <c r="H34" s="18">
-        <v>688722.25176690519</v>
+        <v>698167.98493372917</v>
       </c>
       <c r="I34" s="18">
-        <v>904739.52859992883</v>
+        <v>914185.26176675269</v>
       </c>
       <c r="J34" s="18">
-        <v>688722.25176690519</v>
+        <v>698167.98493372917</v>
       </c>
       <c r="K34" s="18">
-        <v>-216017.27683302364</v>
+        <v>-216017.27683302353</v>
       </c>
       <c r="L34" s="17">
         <v>0</v>
       </c>
       <c r="M34" s="21">
-        <v>18.749994445931186</v>
+        <v>0.93022069523420603</v>
       </c>
       <c r="N34" s="21">
-        <v>20.04338484474631</v>
+        <v>13.672330128242274</v>
       </c>
       <c r="O34" s="21">
-        <v>26.873455406089164</v>
+        <v>22.473080313473535</v>
       </c>
       <c r="P34" s="21">
-        <v>6.3832437220605982</v>
+        <v>-3.9291702422202448</v>
       </c>
       <c r="Q34" s="1">
-        <v>1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
@@ -23536,43 +24192,43 @@
         <v>27.106454818762419</v>
       </c>
       <c r="E35" s="17">
-        <v>45629.398010733668</v>
+        <v>38024.498342278057</v>
       </c>
       <c r="F35" s="18">
-        <v>71519.431335828733</v>
+        <v>59599.526113190608</v>
       </c>
       <c r="G35" s="18">
-        <v>1299188.3522728425</v>
+        <v>1304105.7613879128</v>
       </c>
       <c r="H35" s="18">
-        <v>828882.18361810432</v>
+        <v>832019.49068979442</v>
       </c>
       <c r="I35" s="18">
-        <v>950368.92661066249</v>
+        <v>952209.76010903076</v>
       </c>
       <c r="J35" s="18">
-        <v>828882.18361810432</v>
+        <v>832019.49068979442</v>
       </c>
       <c r="K35" s="18">
-        <v>-121486.74299255817</v>
+        <v>-120190.26941923634</v>
       </c>
       <c r="L35" s="17">
         <v>0</v>
       </c>
       <c r="M35" s="21">
-        <v>0.93022069523420603</v>
+        <v>42.857146434852993</v>
       </c>
       <c r="N35" s="21">
-        <v>13.672330128242274</v>
+        <v>23.400602230445845</v>
       </c>
       <c r="O35" s="21">
-        <v>22.473080313473535</v>
+        <v>22.782254285797638</v>
       </c>
       <c r="P35" s="21">
-        <v>-3.9291702422202448</v>
+        <v>24.637298119742262</v>
       </c>
       <c r="Q35" s="1">
-        <v>1.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
@@ -23595,34 +24251,34 @@
         <v>55885.001090904167</v>
       </c>
       <c r="G36" s="18">
-        <v>1355073.3533637468</v>
+        <v>1359990.762478817</v>
       </c>
       <c r="H36" s="18">
-        <v>875377.4237496414</v>
+        <v>878554.07017397531</v>
       </c>
       <c r="I36" s="18">
-        <v>986470.63886097318</v>
+        <v>988311.47235934145</v>
       </c>
       <c r="J36" s="18">
-        <v>875377.4237496414</v>
+        <v>878554.07017397531</v>
       </c>
       <c r="K36" s="18">
-        <v>-111093.21511133178</v>
+        <v>-109757.40218536614</v>
       </c>
       <c r="L36" s="17">
         <v>0</v>
       </c>
       <c r="M36" s="21">
-        <v>42.857146434852993</v>
+        <v>46.808513876214093</v>
       </c>
       <c r="N36" s="21">
-        <v>23.400602230445845</v>
+        <v>31.203239445701929</v>
       </c>
       <c r="O36" s="21">
-        <v>22.782254285797638</v>
+        <v>25.589249339099069</v>
       </c>
       <c r="P36" s="21">
-        <v>24.637298119742262</v>
+        <v>42.431219658907651</v>
       </c>
       <c r="Q36" s="1">
         <v>1</v>
@@ -23648,38 +24304,94 @@
         <v>50471.446648413526</v>
       </c>
       <c r="G37" s="18">
-        <v>1405544.8000121603</v>
+        <v>1410462.2091272306</v>
       </c>
       <c r="H37" s="18">
-        <v>933281.71168662712</v>
+        <v>936546.87121475919</v>
       </c>
       <c r="I37" s="18">
-        <v>1019983.6781599867</v>
+        <v>1021824.511658355</v>
       </c>
       <c r="J37" s="18">
-        <v>933281.71168662712</v>
+        <v>936546.87121475919</v>
       </c>
       <c r="K37" s="18">
-        <v>-86701.966473359615</v>
+        <v>-85277.640443595825</v>
       </c>
       <c r="L37" s="17">
         <v>0</v>
       </c>
       <c r="M37" s="21">
-        <v>46.808513876214093</v>
+        <v>54.700845774743321</v>
       </c>
       <c r="N37" s="21">
-        <v>31.203239445701929</v>
+        <v>39.035774888715729</v>
       </c>
       <c r="O37" s="21">
-        <v>25.589249339099069</v>
+        <v>30.071424522304625</v>
       </c>
       <c r="P37" s="21">
-        <v>42.431219658907651</v>
+        <v>56.964475621537929</v>
       </c>
       <c r="Q37" s="1">
         <v>1</v>
       </c>
+    </row>
+    <row r="38" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="15">
+        <v>45443</v>
+      </c>
+      <c r="B38" s="31">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="C38" s="16">
+        <v>18.329999919999999</v>
+      </c>
+      <c r="D38" s="17">
+        <v>26.389717901760058</v>
+      </c>
+      <c r="E38" s="17">
+        <v>31835.886027952234</v>
+      </c>
+      <c r="F38" s="18">
+        <v>48978.287993362486</v>
+      </c>
+      <c r="G38" s="18">
+        <v>1459440.497120593</v>
+      </c>
+      <c r="H38" s="18">
+        <v>948636.28833261249</v>
+      </c>
+      <c r="I38" s="18">
+        <v>1053660.3976863073</v>
+      </c>
+      <c r="J38" s="18">
+        <v>948636.28833261249</v>
+      </c>
+      <c r="K38" s="18">
+        <v>-105024.10935369483</v>
+      </c>
+      <c r="L38" s="17">
+        <v>0</v>
+      </c>
+      <c r="M38" s="21">
+        <v>59.999981177480358</v>
+      </c>
+      <c r="N38" s="21">
+        <v>46.023843651637272</v>
+      </c>
+      <c r="O38" s="21">
+        <v>35.388897565415505</v>
+      </c>
+      <c r="P38" s="21">
+        <v>67.293735824080812</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A39" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -23697,7 +24409,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ37"/>
+  <dimension ref="A1:AJ39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23738,22 +24450,22 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -23882,6 +24594,16 @@
         <f>-AC3</f>
         <v>-50321.468377949655</v>
       </c>
+      <c r="AE3" s="42">
+        <v>44561</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>50321.457799113727</v>
+      </c>
+      <c r="AG3" s="1">
+        <f>-AF3</f>
+        <v>-50321.457799113727</v>
+      </c>
     </row>
     <row r="4" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
@@ -23961,9 +24683,16 @@
         <f>-AC4</f>
         <v>-1176285.4859441661</v>
       </c>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
+      <c r="AE4" s="42">
+        <v>44925</v>
+      </c>
+      <c r="AF4" s="7">
+        <v>1176285.4650423238</v>
+      </c>
+      <c r="AG4" s="7">
+        <f>-AF4</f>
+        <v>-1176285.4650423238</v>
+      </c>
       <c r="AH4" s="6"/>
       <c r="AI4" s="7"/>
       <c r="AJ4" s="7"/>
@@ -24043,9 +24772,16 @@
       <c r="AD5" s="7">
         <v>1196905.1748881412</v>
       </c>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
+      <c r="AE5" s="42">
+        <v>45289</v>
+      </c>
+      <c r="AF5" s="7">
+        <v>2010570.7877592836</v>
+      </c>
+      <c r="AG5" s="7">
+        <f>-AF5</f>
+        <v>-2010570.7877592836</v>
+      </c>
       <c r="AH5" s="19"/>
       <c r="AI5" s="7"/>
       <c r="AJ5" s="7"/>
@@ -24094,14 +24830,42 @@
         <v>0</v>
       </c>
       <c r="O6" s="7"/>
+      <c r="S6" s="42">
+        <v>45289</v>
+      </c>
+      <c r="T6" s="10">
+        <v>2010570.7877592836</v>
+      </c>
+      <c r="U6" s="4">
+        <v>3237177.7106007212</v>
+      </c>
+      <c r="V6" s="4">
+        <v>2964830.4750532256</v>
+      </c>
+      <c r="W6" s="4">
+        <v>-272347.23554749554</v>
+      </c>
+      <c r="X6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>-8.4131073390146444E-2</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>-6.1439790124808824E-2</v>
+      </c>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="8">
         <v>-2.3281693018024185E-2</v>
       </c>
-      <c r="AE6" s="7"/>
+      <c r="AE6" s="42">
+        <v>45289</v>
+      </c>
       <c r="AF6" s="7"/>
-      <c r="AG6" s="8"/>
+      <c r="AG6" s="8">
+        <v>2964830.4750532256</v>
+      </c>
       <c r="AH6" s="19"/>
     </row>
     <row r="7" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -24151,6 +24915,9 @@
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
+      <c r="AG7" s="2">
+        <v>-6.1439790124808824E-2</v>
+      </c>
       <c r="AJ7" s="2"/>
     </row>
     <row r="8" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -25494,6 +26261,53 @@
       <c r="N37" s="17">
         <v>0</v>
       </c>
+    </row>
+    <row r="38" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="15">
+        <v>45443</v>
+      </c>
+      <c r="B38" s="31">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="C38" s="16">
+        <v>18.329999919999999</v>
+      </c>
+      <c r="D38" s="17">
+        <v>26.389717901760058</v>
+      </c>
+      <c r="E38" s="17">
+        <v>6567000</v>
+      </c>
+      <c r="F38" s="17">
+        <v>4606710.9436179576</v>
+      </c>
+      <c r="G38" s="17">
+        <v>365774.00759471167</v>
+      </c>
+      <c r="H38" s="18">
+        <v>562729.26309418888</v>
+      </c>
+      <c r="I38" s="18">
+        <v>10920605.774756061</v>
+      </c>
+      <c r="J38" s="18">
+        <v>7098393.4932239084</v>
+      </c>
+      <c r="K38" s="18">
+        <v>7100439.0272066677</v>
+      </c>
+      <c r="L38" s="18">
+        <v>7098393.4932239084</v>
+      </c>
+      <c r="M38" s="18">
+        <v>-2045.5339827593416</v>
+      </c>
+      <c r="N38" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A39" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -25511,7 +26325,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG37"/>
+  <dimension ref="A1:AG39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -25552,7 +26366,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -25681,6 +26495,16 @@
         <f>-Z3</f>
         <v>-245217.81577195294</v>
       </c>
+      <c r="AB3" s="42">
+        <v>44561</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>245217.76659387304</v>
+      </c>
+      <c r="AD3" s="1">
+        <f>-AC3</f>
+        <v>-245217.76659387304</v>
+      </c>
     </row>
     <row r="4" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
@@ -25754,9 +26578,16 @@
         <f>-Z4</f>
         <v>-3518640.0716485097</v>
       </c>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
+      <c r="AB4" s="42">
+        <v>44925</v>
+      </c>
+      <c r="AC4" s="7">
+        <v>3518640.0102128703</v>
+      </c>
+      <c r="AD4" s="7">
+        <f>-AC4</f>
+        <v>-3518640.0102128703</v>
+      </c>
       <c r="AE4" s="6"/>
       <c r="AF4" s="7"/>
       <c r="AG4" s="7"/>
@@ -25830,9 +26661,16 @@
       <c r="AA5" s="7">
         <v>3580619.3649953026</v>
       </c>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
+      <c r="AB5" s="42">
+        <v>45289</v>
+      </c>
+      <c r="AC5" s="7">
+        <v>3101231.3499326059</v>
+      </c>
+      <c r="AD5" s="7">
+        <f>-AC5</f>
+        <v>-3101231.3499326059</v>
+      </c>
       <c r="AE5" s="19"/>
       <c r="AF5" s="7"/>
       <c r="AG5" s="7"/>
@@ -25875,14 +26713,42 @@
         <v>0</v>
       </c>
       <c r="M6" s="7"/>
+      <c r="P6" s="42">
+        <v>45289</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>3101231.3499326059</v>
+      </c>
+      <c r="R6" s="4">
+        <v>6865089.1267393492</v>
+      </c>
+      <c r="S6" s="4">
+        <v>6043907.692957717</v>
+      </c>
+      <c r="T6" s="4">
+        <v>-821181.43378163222</v>
+      </c>
+      <c r="U6" s="4">
+        <v>0</v>
+      </c>
+      <c r="V6" s="9">
+        <v>-0.11961700986271995</v>
+      </c>
+      <c r="W6" s="9">
+        <v>-7.7878942670306261E-2</v>
+      </c>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
       <c r="AA6" s="8">
         <v>-4.5834423753382425E-2</v>
       </c>
-      <c r="AB6" s="7"/>
+      <c r="AB6" s="42">
+        <v>45289</v>
+      </c>
       <c r="AC6" s="7"/>
-      <c r="AD6" s="8"/>
+      <c r="AD6" s="8">
+        <v>6043907.692957717</v>
+      </c>
       <c r="AE6" s="19"/>
     </row>
     <row r="7" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -25926,6 +26792,9 @@
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
+      <c r="AD7" s="2">
+        <v>-7.7878942670306261E-2</v>
+      </c>
       <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -27089,6 +27958,47 @@
       <c r="L37" s="17">
         <v>0</v>
       </c>
+    </row>
+    <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="15">
+        <v>45443</v>
+      </c>
+      <c r="B38" s="31">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="C38" s="16">
+        <v>18.329999919999999</v>
+      </c>
+      <c r="D38" s="17">
+        <v>26.389717901760058</v>
+      </c>
+      <c r="E38" s="17">
+        <v>256588.26308475045</v>
+      </c>
+      <c r="F38" s="18">
+        <v>394751.18845592643</v>
+      </c>
+      <c r="G38" s="18">
+        <v>12284456.647082906</v>
+      </c>
+      <c r="H38" s="18">
+        <v>7984896.5277196188</v>
+      </c>
+      <c r="I38" s="18">
+        <v>8666706.9546631575</v>
+      </c>
+      <c r="J38" s="18">
+        <v>7984896.5277196188</v>
+      </c>
+      <c r="K38" s="18">
+        <v>-681810.42694353871</v>
+      </c>
+      <c r="L38" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A39" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ)cn.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="29">
   <si>
     <t>in practice</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -142,10 +142,6 @@
   </si>
   <si>
     <t>年化收益率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -347,7 +343,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -435,8 +431,6 @@
     <xf numFmtId="176" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -650,7 +644,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -758,6 +752,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -767,7 +764,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -875,6 +872,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>1037341.6312729785</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1070260.4159355557</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -917,7 +917,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1025,6 +1025,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1034,7 +1037,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1142,6 +1145,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>932051.28760826006</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>944895.12277571461</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1184,7 +1190,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1292,6 +1298,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1301,7 +1310,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1409,6 +1418,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-105290.34366471844</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-125365.29315984109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1430,11 +1442,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="527304576"/>
-        <c:axId val="527331328"/>
+        <c:axId val="506551296"/>
+        <c:axId val="506553088"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="527304576"/>
+        <c:axId val="506551296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1477,14 +1489,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527331328"/>
+        <c:crossAx val="506553088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="527331328"/>
+        <c:axId val="506553088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1535,7 +1547,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527304576"/>
+        <c:crossAx val="506551296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1726,7 +1738,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1834,6 +1846,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>31835.886027952234</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>32918.784662577113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1848,8 +1863,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="490651008"/>
-        <c:axId val="490649472"/>
+        <c:axId val="506562432"/>
+        <c:axId val="506560896"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1874,7 +1889,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1982,6 +1997,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1991,7 +2009,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2099,6 +2117,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.64999997615814209</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.63599997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2115,11 +2136,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="490637952"/>
-        <c:axId val="490647936"/>
+        <c:axId val="506537088"/>
+        <c:axId val="506538624"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="490637952"/>
+        <c:axId val="506537088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2162,14 +2183,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490647936"/>
+        <c:crossAx val="506538624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="490647936"/>
+        <c:axId val="506538624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2220,12 +2241,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490637952"/>
+        <c:crossAx val="506537088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="490649472"/>
+        <c:axId val="506560896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2262,12 +2283,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490651008"/>
+        <c:crossAx val="506562432"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="490651008"/>
+        <c:axId val="506562432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2276,7 +2297,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="490649472"/>
+        <c:crossAx val="506560896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2455,7 +2476,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2563,6 +2584,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2572,7 +2596,7 @@
               <c:f>'模型二 (2)PE副本成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2680,6 +2704,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>7100439.0272066677</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7595668.795410092</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2722,7 +2749,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2830,6 +2857,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2839,7 +2869,7 @@
               <c:f>'模型二 (2)PE副本成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2947,6 +2977,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>7098393.4932239084</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7440734.7962027993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2989,7 +3022,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3097,6 +3130,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3106,7 +3142,7 @@
               <c:f>'模型二 (2)PE副本成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3214,6 +3250,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-2045.5339827593416</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-154933.99920729268</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3235,11 +3274,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="490723968"/>
-        <c:axId val="490725760"/>
+        <c:axId val="507815040"/>
+        <c:axId val="507816576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="490723968"/>
+        <c:axId val="507815040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3282,14 +3321,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490725760"/>
+        <c:crossAx val="507816576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="490725760"/>
+        <c:axId val="507816576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3340,7 +3379,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490723968"/>
+        <c:crossAx val="507815040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3531,7 +3570,7 @@
               <c:f>'模型二 (2)PE副本成交量'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3639,6 +3678,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>365774.00759471167</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>495229.76820342394</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3653,8 +3695,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="490830848"/>
-        <c:axId val="490829312"/>
+        <c:axId val="507934208"/>
+        <c:axId val="507932672"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3679,7 +3721,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3787,6 +3829,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3796,7 +3841,7 @@
               <c:f>'模型二 (2)PE副本成交量'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3904,6 +3949,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.64999997615814209</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.63599997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3920,11 +3968,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="490817792"/>
-        <c:axId val="490827776"/>
+        <c:axId val="507925248"/>
+        <c:axId val="507926784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="490817792"/>
+        <c:axId val="507925248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3967,14 +4015,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490827776"/>
+        <c:crossAx val="507926784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="490827776"/>
+        <c:axId val="507926784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4025,12 +4073,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490817792"/>
+        <c:crossAx val="507925248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="490829312"/>
+        <c:axId val="507932672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4067,12 +4115,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490830848"/>
+        <c:crossAx val="507934208"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="490830848"/>
+        <c:axId val="507934208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4081,7 +4129,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="490829312"/>
+        <c:crossAx val="507932672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4260,7 +4308,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4368,6 +4416,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4377,7 +4428,7 @@
               <c:f>'模型二 (2)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4485,6 +4536,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>8666706.9546631575</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8941047.8112862259</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4527,7 +4581,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4635,6 +4689,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4644,7 +4701,7 @@
               <c:f>'模型二 (2)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4752,6 +4809,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>7984896.5277196188</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8087255.0088565843</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4794,7 +4854,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4902,6 +4962,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4911,7 +4974,7 @@
               <c:f>'模型二 (2)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5019,6 +5082,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-681810.42694353871</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-853792.8024296416</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5040,11 +5106,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="490842368"/>
-        <c:axId val="490848256"/>
+        <c:axId val="507962496"/>
+        <c:axId val="507964032"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="490842368"/>
+        <c:axId val="507962496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5087,14 +5153,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490848256"/>
+        <c:crossAx val="507964032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="490848256"/>
+        <c:axId val="507964032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5145,7 +5211,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490842368"/>
+        <c:crossAx val="507962496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5336,7 +5402,7 @@
               <c:f>'模型二 (2)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5444,6 +5510,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>256588.26308475045</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>274340.85662306892</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5458,8 +5527,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="491080320"/>
-        <c:axId val="491078784"/>
+        <c:axId val="508093952"/>
+        <c:axId val="508092416"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5484,7 +5553,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5592,6 +5661,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5601,7 +5673,7 @@
               <c:f>'模型二 (2)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5709,6 +5781,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.64999997615814209</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.63599997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5725,11 +5800,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="491071360"/>
-        <c:axId val="491072896"/>
+        <c:axId val="508084992"/>
+        <c:axId val="508086528"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="491071360"/>
+        <c:axId val="508084992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5772,14 +5847,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491072896"/>
+        <c:crossAx val="508086528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="491072896"/>
+        <c:axId val="508086528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5830,12 +5905,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491071360"/>
+        <c:crossAx val="508084992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="491078784"/>
+        <c:axId val="508092416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5872,12 +5947,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491080320"/>
+        <c:crossAx val="508093952"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="491080320"/>
+        <c:axId val="508093952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5886,7 +5961,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="491078784"/>
+        <c:crossAx val="508092416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6048,7 +6123,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6156,6 +6231,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>31835.886027952234</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>32918.784662577113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6170,8 +6248,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="527423744"/>
-        <c:axId val="527421824"/>
+        <c:axId val="570685312"/>
+        <c:axId val="570662272"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6196,7 +6274,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6304,6 +6382,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6313,7 +6394,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6421,6 +6502,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.64999997615814209</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.63599997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6437,11 +6521,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="527416320"/>
-        <c:axId val="527419264"/>
+        <c:axId val="570658816"/>
+        <c:axId val="570660352"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="527416320"/>
+        <c:axId val="570658816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6484,14 +6568,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527419264"/>
+        <c:crossAx val="570660352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="527419264"/>
+        <c:axId val="570660352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6542,12 +6626,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527416320"/>
+        <c:crossAx val="570658816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="527421824"/>
+        <c:axId val="570662272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6584,12 +6668,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527423744"/>
+        <c:crossAx val="570685312"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="527423744"/>
+        <c:axId val="570685312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6598,7 +6682,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="527421824"/>
+        <c:crossAx val="570662272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6777,7 +6861,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6885,6 +6969,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6894,7 +6981,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7002,6 +7089,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>1230181.9878870549</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1261454.8333165031</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7044,7 +7134,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7152,6 +7242,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7161,7 +7254,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7269,6 +7362,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>1090444.657572814</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1098231.0042236659</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7311,7 +7407,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7419,6 +7515,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7428,7 +7527,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7536,6 +7635,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-139737.33031424088</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-163223.82909283717</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7557,11 +7659,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="536715648"/>
-        <c:axId val="536717568"/>
+        <c:axId val="572612992"/>
+        <c:axId val="572614528"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="536715648"/>
+        <c:axId val="572612992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7604,14 +7706,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536717568"/>
+        <c:crossAx val="572614528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="536717568"/>
+        <c:axId val="572614528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7662,7 +7764,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536715648"/>
+        <c:crossAx val="572612992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7862,7 +7964,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7970,6 +8072,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>30244.09172655462</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>31272.845429448254</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7984,8 +8089,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="536979712"/>
-        <c:axId val="536975232"/>
+        <c:axId val="572639488"/>
+        <c:axId val="572637184"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8010,7 +8115,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8118,6 +8223,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8127,7 +8235,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8235,6 +8343,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.64999997615814209</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.63599997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8251,11 +8362,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="536951424"/>
-        <c:axId val="536973696"/>
+        <c:axId val="572629376"/>
+        <c:axId val="572631296"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="536951424"/>
+        <c:axId val="572629376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8298,14 +8409,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536973696"/>
+        <c:crossAx val="572631296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="536973696"/>
+        <c:axId val="572631296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8356,12 +8467,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536951424"/>
+        <c:crossAx val="572629376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="536975232"/>
+        <c:axId val="572637184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8398,12 +8509,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536979712"/>
+        <c:crossAx val="572639488"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="536979712"/>
+        <c:axId val="572639488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8412,7 +8523,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="536975232"/>
+        <c:crossAx val="572637184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8591,7 +8702,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8699,6 +8810,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8708,7 +8822,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8816,6 +8930,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>10262675.92117865</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10523299.734970566</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8858,7 +8975,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8966,6 +9083,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8975,7 +9095,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9083,6 +9203,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>9351344.9630789924</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9410555.2062432561</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9125,7 +9248,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9233,6 +9356,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9242,7 +9368,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9350,6 +9476,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-911330.95809965767</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1112744.5287273098</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9371,11 +9500,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="537206784"/>
-        <c:axId val="537208320"/>
+        <c:axId val="572688640"/>
+        <c:axId val="572773120"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="537206784"/>
+        <c:axId val="572688640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9418,14 +9547,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537208320"/>
+        <c:crossAx val="572773120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="537208320"/>
+        <c:axId val="572773120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9476,7 +9605,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537206784"/>
+        <c:crossAx val="572688640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9676,7 +9805,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9784,6 +9913,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>243758.84993051292</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>260623.81379191545</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9798,8 +9930,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="537301376"/>
-        <c:axId val="537282816"/>
+        <c:axId val="573135872"/>
+        <c:axId val="573133952"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9824,7 +9956,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9932,6 +10064,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9941,7 +10076,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -10049,6 +10184,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.64999997615814209</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.63599997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10065,11 +10203,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="537275008"/>
-        <c:axId val="537280896"/>
+        <c:axId val="572884864"/>
+        <c:axId val="572886400"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="537275008"/>
+        <c:axId val="572884864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10112,14 +10250,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537280896"/>
+        <c:crossAx val="572886400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="537280896"/>
+        <c:axId val="572886400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10170,12 +10308,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537275008"/>
+        <c:crossAx val="572884864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="537282816"/>
+        <c:axId val="573133952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10212,12 +10350,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537301376"/>
+        <c:crossAx val="573135872"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="537301376"/>
+        <c:axId val="573135872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10226,7 +10364,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="537282816"/>
+        <c:crossAx val="573133952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10405,7 +10543,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10513,6 +10651,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10522,7 +10663,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10630,6 +10771,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>1165508.7378162649</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1231016.9793064645</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10672,7 +10816,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10780,6 +10924,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10789,7 +10936,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10897,6 +11044,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>1160725.7695541636</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1201233.7653376264</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10939,7 +11089,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11047,6 +11197,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11056,7 +11209,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11164,6 +11317,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-4782.9682621012907</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-29783.213968838099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11185,11 +11341,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="538035328"/>
-        <c:axId val="538036864"/>
+        <c:axId val="574346368"/>
+        <c:axId val="574347904"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="538035328"/>
+        <c:axId val="574346368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11232,14 +11388,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538036864"/>
+        <c:crossAx val="574347904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="538036864"/>
+        <c:axId val="574347904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11290,7 +11446,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538035328"/>
+        <c:crossAx val="574346368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11481,7 +11637,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11589,6 +11745,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>48384.030118540977</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>65508.241490199747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11603,8 +11762,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="490455040"/>
-        <c:axId val="490449152"/>
+        <c:axId val="648230400"/>
+        <c:axId val="648195072"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -11629,7 +11788,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11737,6 +11896,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11746,7 +11908,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -11854,6 +12016,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.64999997615814209</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.63599997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11870,11 +12035,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="490445824"/>
-        <c:axId val="490447616"/>
+        <c:axId val="647015808"/>
+        <c:axId val="648193536"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="490445824"/>
+        <c:axId val="647015808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11917,14 +12082,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490447616"/>
+        <c:crossAx val="648193536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="490447616"/>
+        <c:axId val="648193536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11975,12 +12140,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490445824"/>
+        <c:crossAx val="647015808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="490449152"/>
+        <c:axId val="648195072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12017,12 +12182,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490455040"/>
+        <c:crossAx val="648230400"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="490455040"/>
+        <c:axId val="648230400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12031,7 +12196,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="490449152"/>
+        <c:crossAx val="648195072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12210,7 +12375,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12318,6 +12483,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12327,7 +12495,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12435,6 +12603,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>1053660.3976863073</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1086579.1823488844</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12477,7 +12648,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12585,6 +12756,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12594,7 +12768,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12702,6 +12876,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>948636.28833261249</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>961122.90812324767</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12744,7 +12921,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12852,6 +13029,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12861,7 +13041,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12969,6 +13149,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-105024.10935369483</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-125456.27422563673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12990,11 +13173,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="490605568"/>
-        <c:axId val="490607360"/>
+        <c:axId val="506418688"/>
+        <c:axId val="506420224"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="490605568"/>
+        <c:axId val="506418688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13037,14 +13220,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490607360"/>
+        <c:crossAx val="506420224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="490607360"/>
+        <c:axId val="506420224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13095,7 +13278,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490605568"/>
+        <c:crossAx val="506418688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15619,8 +15802,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A39" s="49"/>
+    <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="32">
+        <v>45471</v>
+      </c>
+      <c r="B39" s="31">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="C39" s="31">
+        <v>17.86000061</v>
+      </c>
+      <c r="D39" s="29">
+        <v>26.193870144829649</v>
+      </c>
+      <c r="E39" s="29">
+        <v>32918.784662577113</v>
+      </c>
+      <c r="F39" s="30">
+        <v>51759.097205295868</v>
+      </c>
+      <c r="G39" s="30">
+        <v>1485684.2076602171</v>
+      </c>
+      <c r="H39" s="30">
+        <v>944895.12277571461</v>
+      </c>
+      <c r="I39" s="30">
+        <v>1070260.4159355557</v>
+      </c>
+      <c r="J39" s="30">
+        <v>944895.12277571461</v>
+      </c>
+      <c r="K39" s="30">
+        <v>-125365.29315984109</v>
+      </c>
+      <c r="L39" s="29">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -15715,16 +15933,16 @@
         <v>12</v>
       </c>
       <c r="M1" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="O1" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="P1" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -17723,8 +17941,55 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A39" s="50"/>
+    <row r="39" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="15">
+        <v>45471</v>
+      </c>
+      <c r="B39" s="31">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="C39" s="16">
+        <v>17.86000061</v>
+      </c>
+      <c r="D39" s="17">
+        <v>26.193870144829649</v>
+      </c>
+      <c r="E39" s="17">
+        <v>31272.845429448254</v>
+      </c>
+      <c r="F39" s="18">
+        <v>49171.142345031069</v>
+      </c>
+      <c r="G39" s="18">
+        <v>1726778.3693759344</v>
+      </c>
+      <c r="H39" s="18">
+        <v>1098231.0042236659</v>
+      </c>
+      <c r="I39" s="18">
+        <v>1261454.8333165031</v>
+      </c>
+      <c r="J39" s="18">
+        <v>1098231.0042236659</v>
+      </c>
+      <c r="K39" s="18">
+        <v>-163223.82909283717</v>
+      </c>
+      <c r="L39" s="17">
+        <v>0</v>
+      </c>
+      <c r="M39" s="22">
+        <v>1.3063773755220243E-2</v>
+      </c>
+      <c r="N39" s="22">
+        <v>2.9125402295008165E-2</v>
+      </c>
+      <c r="O39" s="22">
+        <v>44.853539267539169</v>
+      </c>
+      <c r="P39" s="1">
+        <v>0.95</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -17819,16 +18084,16 @@
         <v>12</v>
       </c>
       <c r="M1" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="O1" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="P1" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -19827,8 +20092,55 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A39" s="50"/>
+    <row r="39" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="15">
+        <v>45471</v>
+      </c>
+      <c r="B39" s="31">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="C39" s="16">
+        <v>17.86000061</v>
+      </c>
+      <c r="D39" s="17">
+        <v>26.193870144829649</v>
+      </c>
+      <c r="E39" s="17">
+        <v>260623.81379191545</v>
+      </c>
+      <c r="F39" s="18">
+        <v>409785.88518202654</v>
+      </c>
+      <c r="G39" s="18">
+        <v>14796470.971465556</v>
+      </c>
+      <c r="H39" s="18">
+        <v>9410555.2062432561</v>
+      </c>
+      <c r="I39" s="18">
+        <v>10523299.734970566</v>
+      </c>
+      <c r="J39" s="18">
+        <v>9410555.2062432561</v>
+      </c>
+      <c r="K39" s="18">
+        <v>-1112744.5287273098</v>
+      </c>
+      <c r="L39" s="17">
+        <v>0</v>
+      </c>
+      <c r="M39" s="22">
+        <v>1.3063773755220243E-2</v>
+      </c>
+      <c r="N39" s="22">
+        <v>2.9125402295008165E-2</v>
+      </c>
+      <c r="O39" s="22">
+        <v>44.853539267539169</v>
+      </c>
+      <c r="P39" s="1">
+        <v>0.95</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -19899,10 +20211,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>24</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -19929,16 +20241,16 @@
         <v>12</v>
       </c>
       <c r="O1" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="44" t="s">
+      <c r="Q1" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="48" t="s">
+      <c r="R1" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="R1" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -22159,8 +22471,61 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A39" s="50"/>
+    <row r="39" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="15">
+        <v>45471</v>
+      </c>
+      <c r="B39" s="31">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="C39" s="16">
+        <v>17.86000061</v>
+      </c>
+      <c r="D39" s="17">
+        <v>26.193870144829649</v>
+      </c>
+      <c r="E39" s="17">
+        <v>8456200</v>
+      </c>
+      <c r="F39" s="17">
+        <v>4684454.1679955423</v>
+      </c>
+      <c r="G39" s="17">
+        <v>65508.241490199747</v>
+      </c>
+      <c r="H39" s="18">
+        <v>103000.38333109595</v>
+      </c>
+      <c r="I39" s="18">
+        <v>1888732.4019916079</v>
+      </c>
+      <c r="J39" s="18">
+        <v>1201233.7653376264</v>
+      </c>
+      <c r="K39" s="18">
+        <v>1231016.9793064645</v>
+      </c>
+      <c r="L39" s="18">
+        <v>1201233.7653376264</v>
+      </c>
+      <c r="M39" s="18">
+        <v>-29783.213968838099</v>
+      </c>
+      <c r="N39" s="17">
+        <v>0</v>
+      </c>
+      <c r="O39" s="22">
+        <v>1.3063773755220243E-2</v>
+      </c>
+      <c r="P39" s="22">
+        <v>2.9125402295008165E-2</v>
+      </c>
+      <c r="Q39" s="22">
+        <v>44.853539267539169</v>
+      </c>
+      <c r="R39" s="1">
+        <v>0.95</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -22255,19 +22620,19 @@
         <v>12</v>
       </c>
       <c r="M1" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="48" t="s">
+      <c r="O1" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="P1" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="48" t="s">
+      <c r="Q1" s="11" t="s">
         <v>28</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -24390,8 +24755,58 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A39" s="50"/>
+    <row r="39" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="15">
+        <v>45471</v>
+      </c>
+      <c r="B39" s="31">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="C39" s="16">
+        <v>17.86000061</v>
+      </c>
+      <c r="D39" s="17">
+        <v>26.193870144829649</v>
+      </c>
+      <c r="E39" s="17">
+        <v>32918.784662577113</v>
+      </c>
+      <c r="F39" s="18">
+        <v>51759.097205295868</v>
+      </c>
+      <c r="G39" s="18">
+        <v>1511199.5943258889</v>
+      </c>
+      <c r="H39" s="18">
+        <v>961122.90812324767</v>
+      </c>
+      <c r="I39" s="18">
+        <v>1086579.1823488844</v>
+      </c>
+      <c r="J39" s="18">
+        <v>961122.90812324767</v>
+      </c>
+      <c r="K39" s="18">
+        <v>-125456.27422563673</v>
+      </c>
+      <c r="L39" s="17">
+        <v>0</v>
+      </c>
+      <c r="M39" s="21">
+        <v>59.999981177480358</v>
+      </c>
+      <c r="N39" s="21">
+        <v>46.023843651637272</v>
+      </c>
+      <c r="O39" s="21">
+        <v>35.388897565415505</v>
+      </c>
+      <c r="P39" s="21">
+        <v>67.293735824080812</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -24450,7 +24865,7 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -24462,10 +24877,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>24</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -26306,8 +26721,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A39" s="50"/>
+    <row r="39" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="15">
+        <v>45471</v>
+      </c>
+      <c r="B39" s="31">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="C39" s="16">
+        <v>17.86000061</v>
+      </c>
+      <c r="D39" s="17">
+        <v>26.193870144829649</v>
+      </c>
+      <c r="E39" s="17">
+        <v>8456200</v>
+      </c>
+      <c r="F39" s="17">
+        <v>4684454.1679955423</v>
+      </c>
+      <c r="G39" s="17">
+        <v>495229.76820342394</v>
+      </c>
+      <c r="H39" s="18">
+        <v>778663.18499106029</v>
+      </c>
+      <c r="I39" s="18">
+        <v>11699268.959747121</v>
+      </c>
+      <c r="J39" s="18">
+        <v>7440734.7962027993</v>
+      </c>
+      <c r="K39" s="18">
+        <v>7595668.795410092</v>
+      </c>
+      <c r="L39" s="18">
+        <v>7440734.7962027993</v>
+      </c>
+      <c r="M39" s="18">
+        <v>-154933.99920729268</v>
+      </c>
+      <c r="N39" s="17">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -26366,7 +26822,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -27997,8 +28453,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A39" s="50"/>
+    <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="15">
+        <v>45471</v>
+      </c>
+      <c r="B39" s="31">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="C39" s="16">
+        <v>17.86000061</v>
+      </c>
+      <c r="D39" s="17">
+        <v>26.193870144829649</v>
+      </c>
+      <c r="E39" s="17">
+        <v>274340.85662306892</v>
+      </c>
+      <c r="F39" s="18">
+        <v>431353.5633495017</v>
+      </c>
+      <c r="G39" s="18">
+        <v>12715810.210432408</v>
+      </c>
+      <c r="H39" s="18">
+        <v>8087255.0088565843</v>
+      </c>
+      <c r="I39" s="18">
+        <v>8941047.8112862259</v>
+      </c>
+      <c r="J39" s="18">
+        <v>8087255.0088565843</v>
+      </c>
+      <c r="K39" s="18">
+        <v>-853792.8024296416</v>
+      </c>
+      <c r="L39" s="17">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ)cn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="530" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="530" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="模型二 (1)PE副本" sheetId="14" r:id="rId1"/>
@@ -587,7 +587,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1442,11 +1441,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="506551296"/>
-        <c:axId val="506553088"/>
+        <c:axId val="149933056"/>
+        <c:axId val="149981056"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="506551296"/>
+        <c:axId val="149933056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1489,14 +1488,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506553088"/>
+        <c:crossAx val="149981056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="506553088"/>
+        <c:axId val="149981056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1547,7 +1546,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506551296"/>
+        <c:crossAx val="149933056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1561,7 +1560,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1703,7 +1701,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1863,8 +1860,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="506562432"/>
-        <c:axId val="506560896"/>
+        <c:axId val="149134336"/>
+        <c:axId val="149132800"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2136,11 +2133,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="506537088"/>
-        <c:axId val="506538624"/>
+        <c:axId val="149125376"/>
+        <c:axId val="149131264"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="506537088"/>
+        <c:axId val="149125376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2183,14 +2180,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506538624"/>
+        <c:crossAx val="149131264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="506538624"/>
+        <c:axId val="149131264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2241,12 +2238,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506537088"/>
+        <c:crossAx val="149125376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="506560896"/>
+        <c:axId val="149132800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2283,12 +2280,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506562432"/>
+        <c:crossAx val="149134336"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="506562432"/>
+        <c:axId val="149134336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2297,7 +2294,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="506560896"/>
+        <c:crossAx val="149132800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2419,7 +2416,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3274,11 +3270,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="507815040"/>
-        <c:axId val="507816576"/>
+        <c:axId val="149215488"/>
+        <c:axId val="149217280"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="507815040"/>
+        <c:axId val="149215488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3321,14 +3317,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507816576"/>
+        <c:crossAx val="149217280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="507816576"/>
+        <c:axId val="149217280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3379,7 +3375,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507815040"/>
+        <c:crossAx val="149215488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3393,7 +3389,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3535,7 +3530,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3695,8 +3689,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="507934208"/>
-        <c:axId val="507932672"/>
+        <c:axId val="149301888"/>
+        <c:axId val="149300352"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3968,11 +3962,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="507925248"/>
-        <c:axId val="507926784"/>
+        <c:axId val="149292928"/>
+        <c:axId val="149294464"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="507925248"/>
+        <c:axId val="149292928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4015,14 +4009,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507926784"/>
+        <c:crossAx val="149294464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="507926784"/>
+        <c:axId val="149294464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4073,12 +4067,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507925248"/>
+        <c:crossAx val="149292928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="507932672"/>
+        <c:axId val="149300352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4115,12 +4109,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507934208"/>
+        <c:crossAx val="149301888"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="507934208"/>
+        <c:axId val="149301888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4129,7 +4123,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="507932672"/>
+        <c:crossAx val="149300352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5106,11 +5100,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="507962496"/>
-        <c:axId val="507964032"/>
+        <c:axId val="149358464"/>
+        <c:axId val="149360000"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="507962496"/>
+        <c:axId val="149358464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5153,14 +5147,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507964032"/>
+        <c:crossAx val="149360000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="507964032"/>
+        <c:axId val="149360000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5211,7 +5205,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507962496"/>
+        <c:crossAx val="149358464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5367,7 +5361,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5527,8 +5520,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="508093952"/>
-        <c:axId val="508092416"/>
+        <c:axId val="149416192"/>
+        <c:axId val="149414656"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5800,11 +5793,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="508084992"/>
-        <c:axId val="508086528"/>
+        <c:axId val="149386752"/>
+        <c:axId val="149388288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="508084992"/>
+        <c:axId val="149386752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5847,14 +5840,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508086528"/>
+        <c:crossAx val="149388288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="508086528"/>
+        <c:axId val="149388288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5905,12 +5898,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508084992"/>
+        <c:crossAx val="149386752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="508092416"/>
+        <c:axId val="149414656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5947,12 +5940,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508093952"/>
+        <c:crossAx val="149416192"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="508093952"/>
+        <c:axId val="149416192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5961,7 +5954,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="508092416"/>
+        <c:crossAx val="149414656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6088,7 +6081,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6248,8 +6240,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="570685312"/>
-        <c:axId val="570662272"/>
+        <c:axId val="391579520"/>
+        <c:axId val="391577984"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6521,11 +6513,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="570658816"/>
-        <c:axId val="570660352"/>
+        <c:axId val="391561216"/>
+        <c:axId val="391563520"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="570658816"/>
+        <c:axId val="391561216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6568,14 +6560,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="570660352"/>
+        <c:crossAx val="391563520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="570660352"/>
+        <c:axId val="391563520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6626,12 +6618,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="570658816"/>
+        <c:crossAx val="391561216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="570662272"/>
+        <c:axId val="391577984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6668,12 +6660,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="570685312"/>
+        <c:crossAx val="391579520"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="570685312"/>
+        <c:axId val="391579520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6682,7 +6674,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="570662272"/>
+        <c:crossAx val="391577984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7659,11 +7651,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="572612992"/>
-        <c:axId val="572614528"/>
+        <c:axId val="147573760"/>
+        <c:axId val="147583744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="572612992"/>
+        <c:axId val="147573760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7706,14 +7698,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="572614528"/>
+        <c:crossAx val="147583744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="572614528"/>
+        <c:axId val="147583744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7764,7 +7756,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="572612992"/>
+        <c:crossAx val="147573760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7920,7 +7912,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8089,8 +8080,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="572639488"/>
-        <c:axId val="572637184"/>
+        <c:axId val="147857408"/>
+        <c:axId val="147781888"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8362,11 +8353,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="572629376"/>
-        <c:axId val="572631296"/>
+        <c:axId val="147778560"/>
+        <c:axId val="147780352"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="572629376"/>
+        <c:axId val="147778560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8409,14 +8400,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="572631296"/>
+        <c:crossAx val="147780352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="572631296"/>
+        <c:axId val="147780352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8467,12 +8458,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="572629376"/>
+        <c:crossAx val="147778560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="572637184"/>
+        <c:axId val="147781888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8509,12 +8500,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="572639488"/>
+        <c:crossAx val="147857408"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="572639488"/>
+        <c:axId val="147857408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8523,7 +8514,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="572637184"/>
+        <c:crossAx val="147781888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9500,11 +9491,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="572688640"/>
-        <c:axId val="572773120"/>
+        <c:axId val="148098048"/>
+        <c:axId val="148108032"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="572688640"/>
+        <c:axId val="148098048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9547,14 +9538,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="572773120"/>
+        <c:crossAx val="148108032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="572773120"/>
+        <c:axId val="148108032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9605,7 +9596,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="572688640"/>
+        <c:crossAx val="148098048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9761,7 +9752,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9930,8 +9920,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="573135872"/>
-        <c:axId val="573133952"/>
+        <c:axId val="148131840"/>
+        <c:axId val="148130048"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10203,11 +10193,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="572884864"/>
-        <c:axId val="572886400"/>
+        <c:axId val="148126720"/>
+        <c:axId val="148128512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="572884864"/>
+        <c:axId val="148126720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10250,14 +10240,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="572886400"/>
+        <c:crossAx val="148128512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="572886400"/>
+        <c:axId val="148128512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10308,12 +10298,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="572884864"/>
+        <c:crossAx val="148126720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="573133952"/>
+        <c:axId val="148130048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10350,12 +10340,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="573135872"/>
+        <c:crossAx val="148131840"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="573135872"/>
+        <c:axId val="148131840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10364,7 +10354,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="573133952"/>
+        <c:crossAx val="148130048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11341,11 +11331,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="574346368"/>
-        <c:axId val="574347904"/>
+        <c:axId val="149023744"/>
+        <c:axId val="149029632"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="574346368"/>
+        <c:axId val="149023744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11388,14 +11378,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="574347904"/>
+        <c:crossAx val="149029632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="574347904"/>
+        <c:axId val="149029632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11446,7 +11436,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="574346368"/>
+        <c:crossAx val="149023744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11602,7 +11592,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11762,8 +11751,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="648230400"/>
-        <c:axId val="648195072"/>
+        <c:axId val="149060992"/>
+        <c:axId val="149059456"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -12035,11 +12024,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="647015808"/>
-        <c:axId val="648193536"/>
+        <c:axId val="149052032"/>
+        <c:axId val="149057920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="647015808"/>
+        <c:axId val="149052032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12082,14 +12071,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="648193536"/>
+        <c:crossAx val="149057920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="648193536"/>
+        <c:axId val="149057920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12140,12 +12129,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="647015808"/>
+        <c:crossAx val="149052032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="648195072"/>
+        <c:axId val="149059456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12182,12 +12171,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="648230400"/>
+        <c:crossAx val="149060992"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="648230400"/>
+        <c:axId val="149060992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12196,7 +12185,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="648195072"/>
+        <c:crossAx val="149059456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13173,11 +13162,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="506418688"/>
-        <c:axId val="506420224"/>
+        <c:axId val="149105280"/>
+        <c:axId val="149107072"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="506418688"/>
+        <c:axId val="149105280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13220,14 +13209,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506420224"/>
+        <c:crossAx val="149107072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="506420224"/>
+        <c:axId val="149107072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13278,7 +13267,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506418688"/>
+        <c:crossAx val="149105280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15858,7 +15847,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:AH39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -17979,13 +17968,13 @@
         <v>0</v>
       </c>
       <c r="M39" s="22">
-        <v>1.3063773755220243E-2</v>
+        <v>1.0886478129350202E-2</v>
       </c>
       <c r="N39" s="22">
-        <v>2.9125402295008165E-2</v>
+        <v>2.6604501674088222E-2</v>
       </c>
       <c r="O39" s="22">
-        <v>44.853539267539169</v>
+        <v>40.919684430523347</v>
       </c>
       <c r="P39" s="1">
         <v>0.95</v>
@@ -20130,13 +20119,13 @@
         <v>0</v>
       </c>
       <c r="M39" s="22">
-        <v>1.3063773755220243E-2</v>
+        <v>1.0886478129350202E-2</v>
       </c>
       <c r="N39" s="22">
-        <v>2.9125402295008165E-2</v>
+        <v>2.6604501674088222E-2</v>
       </c>
       <c r="O39" s="22">
-        <v>44.853539267539169</v>
+        <v>40.919684430523347</v>
       </c>
       <c r="P39" s="1">
         <v>0.95</v>
@@ -20161,7 +20150,7 @@
   <dimension ref="A1:AJ39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -22515,13 +22504,13 @@
         <v>0</v>
       </c>
       <c r="O39" s="22">
-        <v>1.3063773755220243E-2</v>
+        <v>1.0886478129350202E-2</v>
       </c>
       <c r="P39" s="22">
-        <v>2.9125402295008165E-2</v>
+        <v>2.6604501674088222E-2</v>
       </c>
       <c r="Q39" s="22">
-        <v>44.853539267539169</v>
+        <v>40.919684430523347</v>
       </c>
       <c r="R39" s="1">
         <v>0.95</v>
@@ -24793,16 +24782,16 @@
         <v>0</v>
       </c>
       <c r="M39" s="21">
-        <v>59.999981177480358</v>
+        <v>62.893067379123451</v>
       </c>
       <c r="N39" s="21">
-        <v>46.023843651637272</v>
+        <v>51.646918227465996</v>
       </c>
       <c r="O39" s="21">
-        <v>35.388897565415505</v>
+        <v>40.808237786098999</v>
       </c>
       <c r="P39" s="21">
-        <v>67.293735824080812</v>
+        <v>73.324279110199996</v>
       </c>
       <c r="Q39" s="1">
         <v>1</v>
@@ -26783,7 +26772,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AG39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ)cn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="530" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="530" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="模型二 (1)PE副本" sheetId="14" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="31">
   <si>
     <t>in practice</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -142,6 +142,14 @@
   </si>
   <si>
     <t>年化收益率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>深创100ETF</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -587,6 +595,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -643,7 +652,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -754,6 +763,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -763,7 +775,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -874,6 +886,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>1070260.4159355557</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1102813.3837142217</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -916,7 +931,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1027,6 +1042,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1036,7 +1054,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1147,6 +1165,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>944895.12277571461</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>972991.0953141842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1189,7 +1210,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1300,6 +1321,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1309,7 +1333,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1420,6 +1444,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-125365.29315984109</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-129822.28840003745</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1441,11 +1468,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="149933056"/>
-        <c:axId val="149981056"/>
+        <c:axId val="455244416"/>
+        <c:axId val="455250304"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="149933056"/>
+        <c:axId val="455244416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1488,14 +1515,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149981056"/>
+        <c:crossAx val="455250304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="149981056"/>
+        <c:axId val="455250304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1546,7 +1573,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149933056"/>
+        <c:crossAx val="455244416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1560,6 +1587,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1701,6 +1729,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1735,7 +1764,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1846,6 +1875,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>32918.784662577113</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>32552.967778666007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1860,8 +1892,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="149134336"/>
-        <c:axId val="149132800"/>
+        <c:axId val="490391808"/>
+        <c:axId val="490390272"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1886,7 +1918,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1997,6 +2029,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2006,7 +2041,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2117,6 +2152,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.63599997758865356</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.63300001621246338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2133,11 +2171,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="149125376"/>
-        <c:axId val="149131264"/>
+        <c:axId val="490386944"/>
+        <c:axId val="490388480"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="149125376"/>
+        <c:axId val="490386944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2180,14 +2218,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149131264"/>
+        <c:crossAx val="490388480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="149131264"/>
+        <c:axId val="490388480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2238,12 +2276,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149125376"/>
+        <c:crossAx val="490386944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="149132800"/>
+        <c:axId val="490390272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2280,12 +2318,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149134336"/>
+        <c:crossAx val="490391808"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="149134336"/>
+        <c:axId val="490391808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2294,7 +2332,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149132800"/>
+        <c:crossAx val="490390272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2416,6 +2454,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2472,7 +2511,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2583,6 +2622,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2592,7 +2634,7 @@
               <c:f>'模型二 (2)PE副本成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2703,6 +2745,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>7595668.795410092</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8103103.269966363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2745,7 +2790,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2856,6 +2901,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2865,7 +2913,7 @@
               <c:f>'模型二 (2)PE副本成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2976,6 +3024,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>7440734.7962027993</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7913071.9157501683</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3018,7 +3069,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3129,6 +3180,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3138,7 +3192,7 @@
               <c:f>'模型二 (2)PE副本成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3249,6 +3303,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-154933.99920729268</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-190031.35421619471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3270,11 +3327,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="149215488"/>
-        <c:axId val="149217280"/>
+        <c:axId val="491361792"/>
+        <c:axId val="491363328"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="149215488"/>
+        <c:axId val="491361792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3317,14 +3374,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149217280"/>
+        <c:crossAx val="491363328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="149217280"/>
+        <c:axId val="491363328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3375,7 +3432,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149215488"/>
+        <c:crossAx val="491361792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3389,6 +3446,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3530,6 +3588,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3564,7 +3623,7 @@
               <c:f>'模型二 (2)PE副本成交量'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3675,6 +3734,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>495229.76820342394</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>507434.47455627128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3689,8 +3751,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="149301888"/>
-        <c:axId val="149300352"/>
+        <c:axId val="491616128"/>
+        <c:axId val="491614592"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3715,7 +3777,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3826,6 +3888,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3835,7 +3900,7 @@
               <c:f>'模型二 (2)PE副本成交量'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3946,6 +4011,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.63599997758865356</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.63300001621246338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3962,11 +4030,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="149292928"/>
-        <c:axId val="149294464"/>
+        <c:axId val="491607168"/>
+        <c:axId val="491608704"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="149292928"/>
+        <c:axId val="491607168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4009,14 +4077,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149294464"/>
+        <c:crossAx val="491608704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="149294464"/>
+        <c:axId val="491608704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4067,12 +4135,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149292928"/>
+        <c:crossAx val="491607168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="149300352"/>
+        <c:axId val="491614592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4109,12 +4177,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149301888"/>
+        <c:crossAx val="491616128"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="149301888"/>
+        <c:axId val="491616128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4123,7 +4191,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149300352"/>
+        <c:crossAx val="491614592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4302,7 +4370,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4413,6 +4481,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4422,7 +4493,7 @@
               <c:f>'模型二 (2)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4533,6 +4604,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>8941047.8112862259</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9209325.2065264452</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4575,7 +4649,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4686,6 +4760,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4695,7 +4772,7 @@
               <c:f>'模型二 (2)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4806,6 +4883,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>8087255.0088565843</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8317385.4645985421</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4848,7 +4928,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4959,6 +5039,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4968,7 +5051,7 @@
               <c:f>'模型二 (2)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5079,6 +5162,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-853792.8024296416</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-891939.74192790315</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5100,11 +5186,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="149358464"/>
-        <c:axId val="149360000"/>
+        <c:axId val="492319872"/>
+        <c:axId val="492321408"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="149358464"/>
+        <c:axId val="492319872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5147,14 +5233,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149360000"/>
+        <c:crossAx val="492321408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="149360000"/>
+        <c:axId val="492321408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5205,7 +5291,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149358464"/>
+        <c:crossAx val="492319872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5361,6 +5447,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5395,7 +5482,7 @@
               <c:f>'模型二 (2)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5506,6 +5593,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>274340.85662306892</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>268277.3952402196</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5520,8 +5610,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="149416192"/>
-        <c:axId val="149414656"/>
+        <c:axId val="493815296"/>
+        <c:axId val="493813760"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5546,7 +5636,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5657,6 +5747,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5666,7 +5759,7 @@
               <c:f>'模型二 (2)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5777,6 +5870,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.63599997758865356</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.63300001621246338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5793,11 +5889,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="149386752"/>
-        <c:axId val="149388288"/>
+        <c:axId val="492368640"/>
+        <c:axId val="492370176"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="149386752"/>
+        <c:axId val="492368640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5840,14 +5936,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149388288"/>
+        <c:crossAx val="492370176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="149388288"/>
+        <c:axId val="492370176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5898,12 +5994,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149386752"/>
+        <c:crossAx val="492368640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="149414656"/>
+        <c:axId val="493813760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5940,12 +6036,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149416192"/>
+        <c:crossAx val="493815296"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="149416192"/>
+        <c:axId val="493815296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5954,7 +6050,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149414656"/>
+        <c:crossAx val="493813760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6081,6 +6177,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6115,7 +6212,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6226,6 +6323,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>32918.784662577113</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>32552.967778666007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6240,8 +6340,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="391579520"/>
-        <c:axId val="391577984"/>
+        <c:axId val="545981568"/>
+        <c:axId val="533956096"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6266,7 +6366,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6377,6 +6477,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6386,7 +6489,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6497,6 +6600,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.63599997758865356</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.63300001621246338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6513,11 +6619,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="391561216"/>
-        <c:axId val="391563520"/>
+        <c:axId val="491329024"/>
+        <c:axId val="492083072"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="391561216"/>
+        <c:axId val="491329024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6560,14 +6666,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391563520"/>
+        <c:crossAx val="492083072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="391563520"/>
+        <c:axId val="492083072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6618,12 +6724,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391561216"/>
+        <c:crossAx val="491329024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="391577984"/>
+        <c:axId val="533956096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6660,12 +6766,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391579520"/>
+        <c:crossAx val="545981568"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="391579520"/>
+        <c:axId val="545981568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6674,7 +6780,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="391577984"/>
+        <c:crossAx val="533956096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6853,7 +6959,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6964,6 +7070,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6973,7 +7082,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7084,6 +7193,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>1261454.8333165031</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1292380.1527062359</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7126,7 +7238,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7237,6 +7349,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7246,7 +7361,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7357,6 +7472,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>1098231.0042236659</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1123976.0552000301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7399,7 +7517,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7510,6 +7628,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7519,7 +7640,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7630,6 +7751,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-163223.82909283717</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-168404.09750620578</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7651,11 +7775,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="147573760"/>
-        <c:axId val="147583744"/>
+        <c:axId val="602504576"/>
+        <c:axId val="602523136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="147573760"/>
+        <c:axId val="602504576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7698,14 +7822,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147583744"/>
+        <c:crossAx val="602523136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="147583744"/>
+        <c:axId val="602523136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7756,7 +7880,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147573760"/>
+        <c:crossAx val="602504576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7912,6 +8036,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7955,7 +8080,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8066,6 +8191,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>31272.845429448254</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>30925.319389732704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8080,8 +8208,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="147857408"/>
-        <c:axId val="147781888"/>
+        <c:axId val="607417088"/>
+        <c:axId val="607362048"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8106,7 +8234,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8217,6 +8345,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8226,7 +8357,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8337,6 +8468,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.63599997758865356</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.63300001621246338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8353,11 +8487,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="147778560"/>
-        <c:axId val="147780352"/>
+        <c:axId val="607333760"/>
+        <c:axId val="607360512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="147778560"/>
+        <c:axId val="607333760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8400,14 +8534,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147780352"/>
+        <c:crossAx val="607360512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="147780352"/>
+        <c:axId val="607360512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8458,12 +8592,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147778560"/>
+        <c:crossAx val="607333760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="147781888"/>
+        <c:axId val="607362048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8500,12 +8634,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147857408"/>
+        <c:crossAx val="607417088"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="147857408"/>
+        <c:axId val="607417088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8514,7 +8648,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147781888"/>
+        <c:crossAx val="607362048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8693,7 +8827,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8804,6 +8938,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8813,7 +8950,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8924,6 +9061,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>10523299.734970566</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10778163.260448774</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8966,7 +9106,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9077,6 +9217,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9086,7 +9229,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9197,6 +9340,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>9410555.2062432561</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9621029.8903031498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9239,7 +9385,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9350,6 +9496,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9359,7 +9508,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9470,6 +9619,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-1112744.5287273098</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1157133.3701456245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9491,11 +9643,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="148098048"/>
-        <c:axId val="148108032"/>
+        <c:axId val="607885568"/>
+        <c:axId val="607899648"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="148098048"/>
+        <c:axId val="607885568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9538,14 +9690,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148108032"/>
+        <c:crossAx val="607899648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="148108032"/>
+        <c:axId val="607899648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9596,7 +9748,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148098048"/>
+        <c:crossAx val="607885568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9752,6 +9904,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9795,7 +9948,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9906,6 +10059,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>260623.81379191545</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>254863.52547820861</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9920,8 +10076,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="148131840"/>
-        <c:axId val="148130048"/>
+        <c:axId val="608347264"/>
+        <c:axId val="608345472"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9946,7 +10102,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10057,6 +10213,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10066,7 +10225,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -10177,6 +10336,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.63599997758865356</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.63300001621246338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10193,11 +10355,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="148126720"/>
-        <c:axId val="148128512"/>
+        <c:axId val="607935872"/>
+        <c:axId val="608343552"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="148126720"/>
+        <c:axId val="607935872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10240,14 +10402,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148128512"/>
+        <c:crossAx val="608343552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="148128512"/>
+        <c:axId val="608343552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10298,12 +10460,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148126720"/>
+        <c:crossAx val="607935872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="148130048"/>
+        <c:axId val="608345472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10340,12 +10502,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148131840"/>
+        <c:crossAx val="608347264"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="148131840"/>
+        <c:axId val="608347264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10354,7 +10516,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148130048"/>
+        <c:crossAx val="608345472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10533,7 +10695,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10644,6 +10806,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10653,7 +10818,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10764,6 +10929,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>1231016.9793064645</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1298139.6408142245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10806,7 +10974,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10917,6 +11085,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10926,7 +11097,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11037,6 +11208,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>1201233.7653376264</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1262690.3025894526</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11079,7 +11253,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11190,6 +11364,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11199,7 +11376,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11310,6 +11487,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-29783.213968838099</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-35449.338224771898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11331,11 +11511,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="149023744"/>
-        <c:axId val="149029632"/>
+        <c:axId val="608422912"/>
+        <c:axId val="608428800"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="149023744"/>
+        <c:axId val="608422912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11378,14 +11558,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149029632"/>
+        <c:crossAx val="608428800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="149029632"/>
+        <c:axId val="608428800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11436,7 +11616,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149023744"/>
+        <c:crossAx val="608422912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11592,6 +11772,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11626,7 +11807,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11737,6 +11918,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>65508.241490199747</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>67122.661507759942</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11751,8 +11935,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="149060992"/>
-        <c:axId val="149059456"/>
+        <c:axId val="455260800"/>
+        <c:axId val="455259264"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -11777,7 +11961,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11888,6 +12072,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11897,7 +12084,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -12008,6 +12195,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.63599997758865356</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.63300001621246338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12024,11 +12214,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="149052032"/>
-        <c:axId val="149057920"/>
+        <c:axId val="612797056"/>
+        <c:axId val="662268160"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="149052032"/>
+        <c:axId val="612797056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12071,14 +12261,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149057920"/>
+        <c:crossAx val="662268160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="149057920"/>
+        <c:axId val="662268160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12129,12 +12319,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149052032"/>
+        <c:crossAx val="612797056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="149059456"/>
+        <c:axId val="455259264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12171,12 +12361,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149060992"/>
+        <c:crossAx val="455260800"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="149060992"/>
+        <c:axId val="455260800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12185,7 +12375,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149059456"/>
+        <c:crossAx val="455259264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12364,7 +12554,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12475,6 +12665,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12484,7 +12677,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12595,6 +12788,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>1086579.1823488844</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1119132.1501275504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12637,7 +12833,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12748,6 +12944,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12757,7 +12956,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12868,6 +13067,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>961122.90812324767</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>989142.33548722172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12910,7 +13112,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -13021,6 +13223,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13030,7 +13235,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13141,6 +13346,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-125456.27422563673</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-129989.81464032864</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13162,11 +13370,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="149105280"/>
-        <c:axId val="149107072"/>
+        <c:axId val="482629504"/>
+        <c:axId val="482631040"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="149105280"/>
+        <c:axId val="482629504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13209,14 +13417,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149107072"/>
+        <c:crossAx val="482631040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="149107072"/>
+        <c:axId val="482631040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13267,7 +13475,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149105280"/>
+        <c:crossAx val="482629504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14119,7 +14327,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG39"/>
+  <dimension ref="A1:AG40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15829,6 +16037,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="40" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="32">
+        <v>45504</v>
+      </c>
+      <c r="B40" s="31">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="C40" s="31">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D40" s="29">
+        <v>25.951256745485065</v>
+      </c>
+      <c r="E40" s="29">
+        <v>32552.967778666007</v>
+      </c>
+      <c r="F40" s="30">
+        <v>51426.488064638157</v>
+      </c>
+      <c r="G40" s="30">
+        <v>1537110.6957248552</v>
+      </c>
+      <c r="H40" s="30">
+        <v>972991.0953141842</v>
+      </c>
+      <c r="I40" s="30">
+        <v>1102813.3837142217</v>
+      </c>
+      <c r="J40" s="30">
+        <v>972991.0953141842</v>
+      </c>
+      <c r="K40" s="30">
+        <v>-129822.28840003745</v>
+      </c>
+      <c r="L40" s="29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -15845,9 +16091,9 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH39"/>
+  <dimension ref="A1:AH40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -15886,10 +16132,10 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>3</v>
@@ -15922,16 +16168,16 @@
         <v>12</v>
       </c>
       <c r="M1" s="44" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N1" s="44" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O1" s="48" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -17977,6 +18223,56 @@
         <v>40.919684430523347</v>
       </c>
       <c r="P39" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="15">
+        <v>45504</v>
+      </c>
+      <c r="B40" s="31">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="C40" s="16">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D40" s="17">
+        <v>25.951256745485065</v>
+      </c>
+      <c r="E40" s="17">
+        <v>30925.319389732704</v>
+      </c>
+      <c r="F40" s="18">
+        <v>48855.163661406245</v>
+      </c>
+      <c r="G40" s="18">
+        <v>1775633.5330373405</v>
+      </c>
+      <c r="H40" s="18">
+        <v>1123976.0552000301</v>
+      </c>
+      <c r="I40" s="18">
+        <v>1292380.1527062359</v>
+      </c>
+      <c r="J40" s="18">
+        <v>1123976.0552000301</v>
+      </c>
+      <c r="K40" s="18">
+        <v>-168404.09750620578</v>
+      </c>
+      <c r="L40" s="17">
+        <v>0</v>
+      </c>
+      <c r="M40" s="22">
+        <v>9.0720651077918352E-3</v>
+      </c>
+      <c r="N40" s="22">
+        <v>2.2670411624438547E-2</v>
+      </c>
+      <c r="O40" s="22">
+        <v>40.017205060415456</v>
+      </c>
+      <c r="P40" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -17996,7 +18292,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH39"/>
+  <dimension ref="A1:AH40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18073,16 +18369,16 @@
         <v>12</v>
       </c>
       <c r="M1" s="44" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N1" s="44" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O1" s="48" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -20128,6 +20424,56 @@
         <v>40.919684430523347</v>
       </c>
       <c r="P39" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="15">
+        <v>45504</v>
+      </c>
+      <c r="B40" s="31">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="C40" s="16">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D40" s="17">
+        <v>25.951256745485065</v>
+      </c>
+      <c r="E40" s="17">
+        <v>254863.52547820861</v>
+      </c>
+      <c r="F40" s="18">
+        <v>402627.99202309171</v>
+      </c>
+      <c r="G40" s="18">
+        <v>15199098.963488648</v>
+      </c>
+      <c r="H40" s="18">
+        <v>9621029.8903031498</v>
+      </c>
+      <c r="I40" s="18">
+        <v>10778163.260448774</v>
+      </c>
+      <c r="J40" s="18">
+        <v>9621029.8903031498</v>
+      </c>
+      <c r="K40" s="18">
+        <v>-1157133.3701456245</v>
+      </c>
+      <c r="L40" s="17">
+        <v>0</v>
+      </c>
+      <c r="M40" s="22">
+        <v>9.0720651077918352E-3</v>
+      </c>
+      <c r="N40" s="22">
+        <v>2.2670411624438547E-2</v>
+      </c>
+      <c r="O40" s="22">
+        <v>40.017205060415456</v>
+      </c>
+      <c r="P40" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -20147,10 +20493,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ39"/>
+  <dimension ref="A1:AJ40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -20200,10 +20546,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -20230,16 +20576,16 @@
         <v>12</v>
       </c>
       <c r="O1" s="44" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P1" s="44" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q1" s="48" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -22513,6 +22859,62 @@
         <v>40.919684430523347</v>
       </c>
       <c r="R39" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="15">
+        <v>45504</v>
+      </c>
+      <c r="B40" s="31">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="C40" s="16">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D40" s="17">
+        <v>25.951256745485065</v>
+      </c>
+      <c r="E40" s="17">
+        <v>9012202</v>
+      </c>
+      <c r="F40" s="17">
+        <v>4764694.1608626992</v>
+      </c>
+      <c r="G40" s="17">
+        <v>67122.661507759942</v>
+      </c>
+      <c r="H40" s="18">
+        <v>106038.95701201775</v>
+      </c>
+      <c r="I40" s="18">
+        <v>1994771.3590036256</v>
+      </c>
+      <c r="J40" s="18">
+        <v>1262690.3025894526</v>
+      </c>
+      <c r="K40" s="18">
+        <v>1298139.6408142245</v>
+      </c>
+      <c r="L40" s="18">
+        <v>1262690.3025894526</v>
+      </c>
+      <c r="M40" s="18">
+        <v>-35449.338224771898</v>
+      </c>
+      <c r="N40" s="17">
+        <v>0</v>
+      </c>
+      <c r="O40" s="22">
+        <v>9.0720651077918352E-3</v>
+      </c>
+      <c r="P40" s="22">
+        <v>2.2670411624438547E-2</v>
+      </c>
+      <c r="Q40" s="22">
+        <v>40.017205060415456</v>
+      </c>
+      <c r="R40" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -22532,7 +22934,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ39"/>
+  <dimension ref="A1:AJ40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22573,10 +22975,10 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>3</v>
@@ -22609,19 +23011,19 @@
         <v>12</v>
       </c>
       <c r="M1" s="48" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N1" s="48" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="O1" s="48" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P1" s="48" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -24794,6 +25196,59 @@
         <v>73.324279110199996</v>
       </c>
       <c r="Q39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="15">
+        <v>45504</v>
+      </c>
+      <c r="B40" s="31">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="C40" s="16">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D40" s="17">
+        <v>25.951256745485065</v>
+      </c>
+      <c r="E40" s="17">
+        <v>32552.967778666007</v>
+      </c>
+      <c r="F40" s="18">
+        <v>51426.488064638157</v>
+      </c>
+      <c r="G40" s="18">
+        <v>1562626.082390527</v>
+      </c>
+      <c r="H40" s="18">
+        <v>989142.33548722172</v>
+      </c>
+      <c r="I40" s="18">
+        <v>1119132.1501275504</v>
+      </c>
+      <c r="J40" s="18">
+        <v>989142.33548722172</v>
+      </c>
+      <c r="K40" s="18">
+        <v>-129989.81464032864</v>
+      </c>
+      <c r="L40" s="17">
+        <v>0</v>
+      </c>
+      <c r="M40" s="21">
+        <v>65.986389868671111</v>
+      </c>
+      <c r="N40" s="21">
+        <v>56.426742107867703</v>
+      </c>
+      <c r="O40" s="21">
+        <v>46.014405893355239</v>
+      </c>
+      <c r="P40" s="21">
+        <v>77.251414536892625</v>
+      </c>
+      <c r="Q40" s="1">
         <v>1</v>
       </c>
     </row>
@@ -24813,7 +25268,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ39"/>
+  <dimension ref="A1:AJ40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -24866,10 +25321,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -26751,6 +27206,50 @@
         <v>-154933.99920729268</v>
       </c>
       <c r="N39" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="15">
+        <v>45504</v>
+      </c>
+      <c r="B40" s="31">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="C40" s="16">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D40" s="17">
+        <v>25.951256745485065</v>
+      </c>
+      <c r="E40" s="17">
+        <v>9012202</v>
+      </c>
+      <c r="F40" s="17">
+        <v>4764694.1608626992</v>
+      </c>
+      <c r="G40" s="17">
+        <v>507434.47455627128</v>
+      </c>
+      <c r="H40" s="18">
+        <v>801634.22047362686</v>
+      </c>
+      <c r="I40" s="18">
+        <v>12500903.180220747</v>
+      </c>
+      <c r="J40" s="18">
+        <v>7913071.9157501683</v>
+      </c>
+      <c r="K40" s="18">
+        <v>8103103.269966363</v>
+      </c>
+      <c r="L40" s="18">
+        <v>7913071.9157501683</v>
+      </c>
+      <c r="M40" s="18">
+        <v>-190031.35421619471</v>
+      </c>
+      <c r="N40" s="17">
         <v>0</v>
       </c>
     </row>
@@ -26770,9 +27269,9 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG39"/>
+  <dimension ref="A1:AG40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -28480,6 +28979,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="40" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="15">
+        <v>45504</v>
+      </c>
+      <c r="B40" s="31">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="C40" s="16">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D40" s="17">
+        <v>25.951256745485065</v>
+      </c>
+      <c r="E40" s="17">
+        <v>268277.3952402196</v>
+      </c>
+      <c r="F40" s="18">
+        <v>423818.93897167547</v>
+      </c>
+      <c r="G40" s="18">
+        <v>13139629.149404084</v>
+      </c>
+      <c r="H40" s="18">
+        <v>8317385.4645985421</v>
+      </c>
+      <c r="I40" s="18">
+        <v>9209325.2065264452</v>
+      </c>
+      <c r="J40" s="18">
+        <v>8317385.4645985421</v>
+      </c>
+      <c r="K40" s="18">
+        <v>-891939.74192790315</v>
+      </c>
+      <c r="L40" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ)cn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="530" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="530" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="模型二 (1)PE副本" sheetId="14" r:id="rId1"/>
@@ -145,14 +145,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>深创100ETF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SMA之MAX</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -166,6 +158,14 @@
   </si>
   <si>
     <t>标志</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>深创100ETF</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -652,7 +652,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -766,6 +766,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -775,7 +778,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -889,6 +892,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>1102813.3837142217</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1123194.2613669224</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -931,7 +937,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1045,6 +1051,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1054,7 +1063,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1168,6 +1177,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>972991.0953141842</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>958018.42403340735</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1210,7 +1222,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1324,6 +1336,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1333,7 +1348,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1447,6 +1462,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-129822.28840003745</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-165175.83733351505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1468,11 +1486,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="455244416"/>
-        <c:axId val="455250304"/>
+        <c:axId val="486185216"/>
+        <c:axId val="527648640"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="455244416"/>
+        <c:axId val="486185216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1515,14 +1533,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455250304"/>
+        <c:crossAx val="527648640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="455250304"/>
+        <c:axId val="527648640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1573,7 +1591,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455244416"/>
+        <c:crossAx val="486185216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1764,7 +1782,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1878,6 +1896,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>32552.967778666007</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20380.877652700809</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1892,8 +1913,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="490391808"/>
-        <c:axId val="490390272"/>
+        <c:axId val="486869632"/>
+        <c:axId val="486868096"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1918,7 +1939,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2032,6 +2053,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2041,7 +2065,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2155,6 +2179,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0.63300001621246338</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.61000001430511475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2171,11 +2198,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="490386944"/>
-        <c:axId val="490388480"/>
+        <c:axId val="486266752"/>
+        <c:axId val="486268288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="490386944"/>
+        <c:axId val="486266752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2218,14 +2245,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490388480"/>
+        <c:crossAx val="486268288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="490388480"/>
+        <c:axId val="486268288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2276,12 +2303,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490386944"/>
+        <c:crossAx val="486266752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="490390272"/>
+        <c:axId val="486868096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2318,12 +2345,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490391808"/>
+        <c:crossAx val="486869632"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="490391808"/>
+        <c:axId val="486869632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2332,7 +2359,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="490390272"/>
+        <c:crossAx val="486868096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2511,7 +2538,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2625,6 +2652,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2634,7 +2664,7 @@
               <c:f>'模型二 (2)PE副本成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2748,6 +2778,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>8103103.269966363</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8256379.9279247131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2790,7 +2823,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2904,6 +2937,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2913,7 +2949,7 @@
               <c:f>'模型二 (2)PE副本成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3027,6 +3063,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>7913071.9157501683</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7778827.7767198598</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3069,7 +3108,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3183,6 +3222,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3192,7 +3234,7 @@
               <c:f>'模型二 (2)PE副本成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3306,6 +3348,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-190031.35421619471</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-477552.15120485332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3327,11 +3372,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="491361792"/>
-        <c:axId val="491363328"/>
+        <c:axId val="486901632"/>
+        <c:axId val="486903168"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="491361792"/>
+        <c:axId val="486901632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3374,14 +3419,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491363328"/>
+        <c:crossAx val="486903168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="491363328"/>
+        <c:axId val="486903168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3432,7 +3477,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491361792"/>
+        <c:crossAx val="486901632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3623,7 +3668,7 @@
               <c:f>'模型二 (2)PE副本成交量'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3737,6 +3782,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>507434.47455627128</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>153276.65795835006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3751,8 +3799,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="491616128"/>
-        <c:axId val="491614592"/>
+        <c:axId val="487270656"/>
+        <c:axId val="487269120"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3777,7 +3825,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3891,6 +3939,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3900,7 +3951,7 @@
               <c:f>'模型二 (2)PE副本成交量'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4014,6 +4065,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0.63300001621246338</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.61000001430511475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4030,11 +4084,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="491607168"/>
-        <c:axId val="491608704"/>
+        <c:axId val="486929920"/>
+        <c:axId val="486931456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="491607168"/>
+        <c:axId val="486929920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4077,14 +4131,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491608704"/>
+        <c:crossAx val="486931456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="491608704"/>
+        <c:axId val="486931456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4135,12 +4189,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491607168"/>
+        <c:crossAx val="486929920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="491614592"/>
+        <c:axId val="487269120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4177,12 +4231,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491616128"/>
+        <c:crossAx val="487270656"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="491616128"/>
+        <c:axId val="487270656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4191,7 +4245,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="491614592"/>
+        <c:crossAx val="487269120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4370,7 +4424,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4484,6 +4538,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4493,7 +4550,7 @@
               <c:f>'模型二 (2)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4607,6 +4664,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>9209325.2065264452</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9314484.7442212198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4649,7 +4709,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4763,6 +4823,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4772,7 +4835,7 @@
               <c:f>'模型二 (2)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4886,6 +4949,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>8317385.4645985421</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8120333.5067951689</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4928,7 +4994,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5042,6 +5108,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5051,7 +5120,7 @@
               <c:f>'模型二 (2)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5165,6 +5234,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-891939.74192790315</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1194151.2374260509</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5186,11 +5258,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="492319872"/>
-        <c:axId val="492321408"/>
+        <c:axId val="488130048"/>
+        <c:axId val="488131584"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="492319872"/>
+        <c:axId val="488130048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5233,14 +5305,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492321408"/>
+        <c:crossAx val="488131584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="492321408"/>
+        <c:axId val="488131584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5291,7 +5363,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492319872"/>
+        <c:crossAx val="488130048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5482,7 +5554,7 @@
               <c:f>'模型二 (2)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5596,6 +5668,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>268277.3952402196</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>105159.53769477447</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5610,8 +5685,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="493815296"/>
-        <c:axId val="493813760"/>
+        <c:axId val="488150912"/>
+        <c:axId val="488149376"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5636,7 +5711,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5750,6 +5825,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5759,7 +5837,7 @@
               <c:f>'模型二 (2)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5873,6 +5951,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0.63300001621246338</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.61000001430511475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5889,11 +5970,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="492368640"/>
-        <c:axId val="492370176"/>
+        <c:axId val="488146048"/>
+        <c:axId val="488147584"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="492368640"/>
+        <c:axId val="488146048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5936,14 +6017,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492370176"/>
+        <c:crossAx val="488147584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="492370176"/>
+        <c:axId val="488147584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5994,12 +6075,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492368640"/>
+        <c:crossAx val="488146048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="493813760"/>
+        <c:axId val="488149376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6036,12 +6117,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493815296"/>
+        <c:crossAx val="488150912"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="493815296"/>
+        <c:axId val="488150912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6050,7 +6131,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="493813760"/>
+        <c:crossAx val="488149376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6212,7 +6293,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6326,6 +6407,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>32552.967778666007</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20380.877652700809</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6340,8 +6424,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="545981568"/>
-        <c:axId val="533956096"/>
+        <c:axId val="585880320"/>
+        <c:axId val="585874432"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6366,7 +6450,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6480,6 +6564,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6489,7 +6576,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6603,6 +6690,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0.63300001621246338</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.61000001430511475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6619,11 +6709,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="491329024"/>
-        <c:axId val="492083072"/>
+        <c:axId val="585862528"/>
+        <c:axId val="585872512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="491329024"/>
+        <c:axId val="585862528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6666,14 +6756,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492083072"/>
+        <c:crossAx val="585872512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="492083072"/>
+        <c:axId val="585872512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6724,12 +6814,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491329024"/>
+        <c:crossAx val="585862528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="533956096"/>
+        <c:axId val="585874432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6766,12 +6856,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="545981568"/>
+        <c:crossAx val="585880320"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="545981568"/>
+        <c:axId val="585880320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6780,7 +6870,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="533956096"/>
+        <c:crossAx val="585874432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6959,7 +7049,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7073,6 +7163,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7082,7 +7175,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7196,6 +7289,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>1292380.1527062359</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1311741.9864763017</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7238,7 +7334,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7352,6 +7448,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7361,7 +7460,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7475,6 +7574,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>1123976.0552000301</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1102498.3143234849</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7517,7 +7619,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7631,6 +7733,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7640,7 +7745,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7754,6 +7859,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-168404.09750620578</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-209243.67215281678</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7775,11 +7883,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="602504576"/>
-        <c:axId val="602523136"/>
+        <c:axId val="600749952"/>
+        <c:axId val="600751488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="602504576"/>
+        <c:axId val="600749952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7822,14 +7930,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="602523136"/>
+        <c:crossAx val="600751488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="602523136"/>
+        <c:axId val="600751488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7880,7 +7988,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="602504576"/>
+        <c:crossAx val="600749952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8080,7 +8188,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8194,6 +8302,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>30925.319389732704</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19361.833770065768</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8208,8 +8319,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="607417088"/>
-        <c:axId val="607362048"/>
+        <c:axId val="600809472"/>
+        <c:axId val="600799104"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8234,7 +8345,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8348,6 +8459,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8357,7 +8471,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8471,6 +8585,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0.63300001621246338</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.61000001430511475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8487,11 +8604,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="607333760"/>
-        <c:axId val="607360512"/>
+        <c:axId val="600778624"/>
+        <c:axId val="600797568"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="607333760"/>
+        <c:axId val="600778624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8534,14 +8651,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="607360512"/>
+        <c:crossAx val="600797568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="607360512"/>
+        <c:axId val="600797568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8592,12 +8709,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="607333760"/>
+        <c:crossAx val="600778624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="607362048"/>
+        <c:axId val="600799104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8634,12 +8751,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="607417088"/>
+        <c:crossAx val="600809472"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="607417088"/>
+        <c:axId val="600809472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8648,7 +8765,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="607362048"/>
+        <c:crossAx val="600799104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8827,7 +8944,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8941,6 +9058,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8950,7 +9070,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9064,6 +9184,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>10778163.260448774</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10878064.821258809</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9106,7 +9229,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9220,6 +9343,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9229,7 +9355,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9343,6 +9469,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>9621029.8903031498</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9371352.1459629666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9385,7 +9514,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9499,6 +9628,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9508,7 +9640,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9622,6 +9754,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-1157133.3701456245</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1506712.6752958428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9643,11 +9778,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="607885568"/>
-        <c:axId val="607899648"/>
+        <c:axId val="600831104"/>
+        <c:axId val="600833024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="607885568"/>
+        <c:axId val="600831104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9690,14 +9825,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="607899648"/>
+        <c:crossAx val="600833024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="607899648"/>
+        <c:axId val="600833024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9748,7 +9883,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="607885568"/>
+        <c:crossAx val="600831104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9948,7 +10083,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10062,6 +10197,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>254863.52547820861</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>99901.560810035735</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10076,8 +10214,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="608347264"/>
-        <c:axId val="608345472"/>
+        <c:axId val="626198400"/>
+        <c:axId val="600944000"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10102,7 +10240,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10216,6 +10354,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10225,7 +10366,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -10339,6 +10480,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0.63300001621246338</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.61000001430511475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10355,11 +10499,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="607935872"/>
-        <c:axId val="608343552"/>
+        <c:axId val="600940544"/>
+        <c:axId val="600942464"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="607935872"/>
+        <c:axId val="600940544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10402,14 +10546,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="608343552"/>
+        <c:crossAx val="600942464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="608343552"/>
+        <c:axId val="600942464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10460,12 +10604,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="607935872"/>
+        <c:crossAx val="600940544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="608345472"/>
+        <c:axId val="600944000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10502,12 +10646,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="608347264"/>
+        <c:crossAx val="626198400"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="608347264"/>
+        <c:axId val="626198400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10516,7 +10660,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="608345472"/>
+        <c:crossAx val="600944000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10695,7 +10839,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10809,6 +10953,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10818,7 +10965,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10932,6 +11079,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>1298139.6408142245</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1318414.8443036517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10974,7 +11124,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11088,6 +11238,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11097,7 +11250,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11211,6 +11364,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>1262690.3025894526</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1237085.7610170722</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11253,7 +11409,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11367,6 +11523,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11376,7 +11535,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11490,6 +11649,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-35449.338224771898</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-81329.083286579465</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11511,11 +11673,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="608422912"/>
-        <c:axId val="608428800"/>
+        <c:axId val="627376128"/>
+        <c:axId val="627378048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="608422912"/>
+        <c:axId val="627376128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11558,14 +11720,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="608428800"/>
+        <c:crossAx val="627378048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="608428800"/>
+        <c:axId val="627378048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11616,7 +11778,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="608422912"/>
+        <c:crossAx val="627376128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11807,7 +11969,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11921,6 +12083,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>67122.661507759942</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20275.20348942732</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11935,8 +12100,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="455260800"/>
-        <c:axId val="455259264"/>
+        <c:axId val="727190912"/>
+        <c:axId val="712183808"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -11961,7 +12126,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12075,6 +12240,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12084,7 +12252,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -12198,6 +12366,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0.63300001621246338</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.61000001430511475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12214,11 +12385,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="612797056"/>
-        <c:axId val="662268160"/>
+        <c:axId val="627933952"/>
+        <c:axId val="627936256"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="612797056"/>
+        <c:axId val="627933952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12261,14 +12432,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="662268160"/>
+        <c:crossAx val="627936256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="662268160"/>
+        <c:axId val="627936256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12319,12 +12490,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="612797056"/>
+        <c:crossAx val="627933952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="455259264"/>
+        <c:axId val="712183808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12361,12 +12532,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455260800"/>
+        <c:crossAx val="727190912"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="455260800"/>
+        <c:axId val="727190912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12375,7 +12546,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="455259264"/>
+        <c:crossAx val="712183808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12554,7 +12725,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12668,6 +12839,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12677,7 +12851,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12791,6 +12965,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>1119132.1501275504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1139513.0277802511</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12833,7 +13010,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12947,6 +13124,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12956,7 +13136,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13070,6 +13250,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>989142.33548722172</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>973582.81026446761</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13112,7 +13295,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -13226,6 +13409,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13235,7 +13421,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13349,6 +13535,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-129989.81464032864</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-165930.2175157835</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13370,11 +13559,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="482629504"/>
-        <c:axId val="482631040"/>
+        <c:axId val="486234368"/>
+        <c:axId val="486240256"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="482629504"/>
+        <c:axId val="486234368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13417,14 +13606,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482631040"/>
+        <c:crossAx val="486240256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="482631040"/>
+        <c:axId val="486240256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13475,7 +13664,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482629504"/>
+        <c:crossAx val="486234368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14327,7 +14516,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG40"/>
+  <dimension ref="A1:AG41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16075,6 +16264,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="32">
+        <v>45534</v>
+      </c>
+      <c r="B41" s="31">
+        <v>0.61000001430511475</v>
+      </c>
+      <c r="C41" s="31">
+        <v>20.56999969</v>
+      </c>
+      <c r="D41" s="29">
+        <v>25.729715551443242</v>
+      </c>
+      <c r="E41" s="29">
+        <v>20380.877652700809</v>
+      </c>
+      <c r="F41" s="30">
+        <v>33411.274056965078</v>
+      </c>
+      <c r="G41" s="30">
+        <v>1570521.9697818202</v>
+      </c>
+      <c r="H41" s="30">
+        <v>958018.42403340735</v>
+      </c>
+      <c r="I41" s="30">
+        <v>1123194.2613669224</v>
+      </c>
+      <c r="J41" s="30">
+        <v>958018.42403340735</v>
+      </c>
+      <c r="K41" s="30">
+        <v>-165175.83733351505</v>
+      </c>
+      <c r="L41" s="29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -16091,7 +16318,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH40"/>
+  <dimension ref="A1:AH41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16132,10 +16359,10 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>3</v>
@@ -16168,16 +16395,16 @@
         <v>12</v>
       </c>
       <c r="M1" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="P1" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="O1" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -18273,6 +18500,56 @@
         <v>40.017205060415456</v>
       </c>
       <c r="P40" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="15">
+        <v>45534</v>
+      </c>
+      <c r="B41" s="31">
+        <v>0.61000001430511475</v>
+      </c>
+      <c r="C41" s="16">
+        <v>20.56999969</v>
+      </c>
+      <c r="D41" s="17">
+        <v>25.729715551443242</v>
+      </c>
+      <c r="E41" s="17">
+        <v>19361.833770065768</v>
+      </c>
+      <c r="F41" s="18">
+        <v>31740.710354116829</v>
+      </c>
+      <c r="G41" s="18">
+        <v>1807374.2433914572</v>
+      </c>
+      <c r="H41" s="18">
+        <v>1102498.3143234849</v>
+      </c>
+      <c r="I41" s="18">
+        <v>1311741.9864763017</v>
+      </c>
+      <c r="J41" s="18">
+        <v>1102498.3143234849</v>
+      </c>
+      <c r="K41" s="18">
+        <v>-209243.67215281678</v>
+      </c>
+      <c r="L41" s="17">
+        <v>0</v>
+      </c>
+      <c r="M41" s="22">
+        <v>9.0720651077918352E-3</v>
+      </c>
+      <c r="N41" s="22">
+        <v>2.2670411624438547E-2</v>
+      </c>
+      <c r="O41" s="22">
+        <v>40.017205060415456</v>
+      </c>
+      <c r="P41" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -18292,7 +18569,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH40"/>
+  <dimension ref="A1:AH41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18369,16 +18646,16 @@
         <v>12</v>
       </c>
       <c r="M1" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="P1" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="O1" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -20474,6 +20751,56 @@
         <v>40.017205060415456</v>
       </c>
       <c r="P40" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="15">
+        <v>45534</v>
+      </c>
+      <c r="B41" s="31">
+        <v>0.61000001430511475</v>
+      </c>
+      <c r="C41" s="16">
+        <v>20.56999969</v>
+      </c>
+      <c r="D41" s="17">
+        <v>25.729715551443242</v>
+      </c>
+      <c r="E41" s="17">
+        <v>99901.560810035735</v>
+      </c>
+      <c r="F41" s="18">
+        <v>163773.0466676123</v>
+      </c>
+      <c r="G41" s="18">
+        <v>15362872.010156261</v>
+      </c>
+      <c r="H41" s="18">
+        <v>9371352.1459629666</v>
+      </c>
+      <c r="I41" s="18">
+        <v>10878064.821258809</v>
+      </c>
+      <c r="J41" s="18">
+        <v>9371352.1459629666</v>
+      </c>
+      <c r="K41" s="18">
+        <v>-1506712.6752958428</v>
+      </c>
+      <c r="L41" s="17">
+        <v>0</v>
+      </c>
+      <c r="M41" s="22">
+        <v>9.0720651077918352E-3</v>
+      </c>
+      <c r="N41" s="22">
+        <v>2.2670411624438547E-2</v>
+      </c>
+      <c r="O41" s="22">
+        <v>40.017205060415456</v>
+      </c>
+      <c r="P41" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -20493,7 +20820,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ40"/>
+  <dimension ref="A1:AJ41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20576,16 +20903,16 @@
         <v>12</v>
       </c>
       <c r="O1" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="44" t="s">
+      <c r="R1" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="Q1" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="11" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -22915,6 +23242,62 @@
         <v>40.017205060415456</v>
       </c>
       <c r="R40" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="15">
+        <v>45534</v>
+      </c>
+      <c r="B41" s="31">
+        <v>0.61000001430511475</v>
+      </c>
+      <c r="C41" s="16">
+        <v>20.56999969</v>
+      </c>
+      <c r="D41" s="17">
+        <v>25.729715551443242</v>
+      </c>
+      <c r="E41" s="17">
+        <v>6956200</v>
+      </c>
+      <c r="F41" s="17">
+        <v>4772486.4689518735</v>
+      </c>
+      <c r="G41" s="17">
+        <v>20275.20348942732</v>
+      </c>
+      <c r="H41" s="18">
+        <v>33238.03772779242</v>
+      </c>
+      <c r="I41" s="18">
+        <v>2028009.3967314181</v>
+      </c>
+      <c r="J41" s="18">
+        <v>1237085.7610170722</v>
+      </c>
+      <c r="K41" s="18">
+        <v>1318414.8443036517</v>
+      </c>
+      <c r="L41" s="18">
+        <v>1237085.7610170722</v>
+      </c>
+      <c r="M41" s="18">
+        <v>-81329.083286579465</v>
+      </c>
+      <c r="N41" s="17">
+        <v>0</v>
+      </c>
+      <c r="O41" s="22">
+        <v>9.0720651077918352E-3</v>
+      </c>
+      <c r="P41" s="22">
+        <v>2.2670411624438547E-2</v>
+      </c>
+      <c r="Q41" s="22">
+        <v>40.017205060415456</v>
+      </c>
+      <c r="R41" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -22934,7 +23317,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ40"/>
+  <dimension ref="A1:AJ41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22975,10 +23358,10 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>3</v>
@@ -25249,6 +25632,59 @@
         <v>77.251414536892625</v>
       </c>
       <c r="Q40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="15">
+        <v>45534</v>
+      </c>
+      <c r="B41" s="31">
+        <v>0.61000001430511475</v>
+      </c>
+      <c r="C41" s="16">
+        <v>20.56999969</v>
+      </c>
+      <c r="D41" s="17">
+        <v>25.729715551443242</v>
+      </c>
+      <c r="E41" s="17">
+        <v>20380.877652700809</v>
+      </c>
+      <c r="F41" s="18">
+        <v>33411.274056965078</v>
+      </c>
+      <c r="G41" s="18">
+        <v>1596037.356447492</v>
+      </c>
+      <c r="H41" s="18">
+        <v>973582.81026446761</v>
+      </c>
+      <c r="I41" s="18">
+        <v>1139513.0277802511</v>
+      </c>
+      <c r="J41" s="18">
+        <v>973582.81026446761</v>
+      </c>
+      <c r="K41" s="18">
+        <v>-165930.2175157835</v>
+      </c>
+      <c r="L41" s="17">
+        <v>0</v>
+      </c>
+      <c r="M41" s="21">
+        <v>65.986389868671111</v>
+      </c>
+      <c r="N41" s="21">
+        <v>56.426742107867703</v>
+      </c>
+      <c r="O41" s="21">
+        <v>46.014405893355239</v>
+      </c>
+      <c r="P41" s="21">
+        <v>77.251414536892625</v>
+      </c>
+      <c r="Q41" s="1">
         <v>1</v>
       </c>
     </row>
@@ -25268,7 +25704,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ40"/>
+  <dimension ref="A1:AJ41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -25309,10 +25745,10 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>3</v>
@@ -27250,6 +27686,50 @@
         <v>-190031.35421619471</v>
       </c>
       <c r="N40" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="15">
+        <v>45534</v>
+      </c>
+      <c r="B41" s="31">
+        <v>0.61000001430511475</v>
+      </c>
+      <c r="C41" s="16">
+        <v>20.56999969</v>
+      </c>
+      <c r="D41" s="17">
+        <v>25.729715551443242</v>
+      </c>
+      <c r="E41" s="17">
+        <v>6956200</v>
+      </c>
+      <c r="F41" s="17">
+        <v>4772486.4689518735</v>
+      </c>
+      <c r="G41" s="17">
+        <v>153276.65795835006</v>
+      </c>
+      <c r="H41" s="18">
+        <v>251273.20387517713</v>
+      </c>
+      <c r="I41" s="18">
+        <v>12752176.384095924</v>
+      </c>
+      <c r="J41" s="18">
+        <v>7778827.7767198598</v>
+      </c>
+      <c r="K41" s="18">
+        <v>8256379.9279247131</v>
+      </c>
+      <c r="L41" s="18">
+        <v>7778827.7767198598</v>
+      </c>
+      <c r="M41" s="18">
+        <v>-477552.15120485332</v>
+      </c>
+      <c r="N41" s="17">
         <v>0</v>
       </c>
     </row>
@@ -27269,7 +27749,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG40"/>
+  <dimension ref="A1:AG41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -29017,6 +29497,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="15">
+        <v>45534</v>
+      </c>
+      <c r="B41" s="31">
+        <v>0.61000001430511475</v>
+      </c>
+      <c r="C41" s="16">
+        <v>20.56999969</v>
+      </c>
+      <c r="D41" s="17">
+        <v>25.729715551443242</v>
+      </c>
+      <c r="E41" s="17">
+        <v>105159.53769477447</v>
+      </c>
+      <c r="F41" s="18">
+        <v>172392.68070274981</v>
+      </c>
+      <c r="G41" s="18">
+        <v>13312021.830106834</v>
+      </c>
+      <c r="H41" s="18">
+        <v>8120333.5067951689</v>
+      </c>
+      <c r="I41" s="18">
+        <v>9314484.7442212198</v>
+      </c>
+      <c r="J41" s="18">
+        <v>8120333.5067951689</v>
+      </c>
+      <c r="K41" s="18">
+        <v>-1194151.2374260509</v>
+      </c>
+      <c r="L41" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ)cn.xlsx
@@ -71,9 +71,77 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="46">
   <si>
     <t>in practice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>深创100ETF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE均值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>买卖金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>买卖份数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>持有份数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>市值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计投入资金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总资产</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利润</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回收资金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每年投入本金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计投入本金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈利金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝对收益率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>年化收益率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -158,14 +226,6 @@
   </si>
   <si>
     <t>标志</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>深创100ETF</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -652,7 +712,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -769,6 +829,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -778,7 +841,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -895,6 +958,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>1123194.2613669224</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1124647.3973650639</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -937,7 +1003,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1054,6 +1120,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1063,7 +1132,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1180,6 +1249,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>958018.42403340735</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1206043.51752501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1222,7 +1294,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1339,6 +1411,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1348,7 +1423,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1465,6 +1540,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-165175.83733351505</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>81396.120159946149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1486,11 +1564,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="486185216"/>
-        <c:axId val="527648640"/>
+        <c:axId val="440674560"/>
+        <c:axId val="440680448"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="486185216"/>
+        <c:axId val="440674560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1533,14 +1611,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527648640"/>
+        <c:crossAx val="440680448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="527648640"/>
+        <c:axId val="440680448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1591,7 +1669,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486185216"/>
+        <c:crossAx val="440674560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1782,7 +1860,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1899,6 +1977,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>20380.877652700809</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1453.1359981414703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1913,8 +1994,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="486869632"/>
-        <c:axId val="486868096"/>
+        <c:axId val="473077248"/>
+        <c:axId val="473075712"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1939,7 +2020,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2056,6 +2137,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2065,7 +2149,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2182,6 +2266,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.61000001430511475</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.76700001955032349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2198,11 +2285,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="486266752"/>
-        <c:axId val="486268288"/>
+        <c:axId val="473072384"/>
+        <c:axId val="473073920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="486266752"/>
+        <c:axId val="473072384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2245,14 +2332,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486268288"/>
+        <c:crossAx val="473073920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="486268288"/>
+        <c:axId val="473073920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2303,12 +2390,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486266752"/>
+        <c:crossAx val="473072384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="486868096"/>
+        <c:axId val="473075712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2345,12 +2432,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486869632"/>
+        <c:crossAx val="473077248"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="486869632"/>
+        <c:axId val="473077248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2359,7 +2446,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="486868096"/>
+        <c:crossAx val="473075712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2538,7 +2625,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2655,6 +2742,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2664,7 +2754,7 @@
               <c:f>'模型二 (2)PE副本成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2781,6 +2871,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>8256379.9279247131</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8257762.5822041975</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2823,7 +2916,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2940,6 +3033,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2949,7 +3045,7 @@
               <c:f>'模型二 (2)PE副本成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3066,6 +3162,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>7778827.7767198598</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9782302.1901902314</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3108,7 +3207,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3225,6 +3324,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3234,7 +3336,7 @@
               <c:f>'模型二 (2)PE副本成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3351,6 +3453,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-477552.15120485332</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1524539.6079860339</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3372,11 +3477,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="486901632"/>
-        <c:axId val="486903168"/>
+        <c:axId val="473125632"/>
+        <c:axId val="473127168"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="486901632"/>
+        <c:axId val="473125632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3419,14 +3524,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486903168"/>
+        <c:crossAx val="473127168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="486903168"/>
+        <c:axId val="473127168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3477,7 +3582,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486901632"/>
+        <c:crossAx val="473125632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3668,7 +3773,7 @@
               <c:f>'模型二 (2)PE副本成交量'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3785,6 +3890,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>153276.65795835006</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1382.6542794842405</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3799,8 +3907,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="487270656"/>
-        <c:axId val="487269120"/>
+        <c:axId val="473150592"/>
+        <c:axId val="473148800"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3825,7 +3933,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3942,6 +4050,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3951,7 +4062,7 @@
               <c:f>'模型二 (2)PE副本成交量'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4068,6 +4179,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.61000001430511475</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.76700001955032349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4084,11 +4198,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="486929920"/>
-        <c:axId val="486931456"/>
+        <c:axId val="473145728"/>
+        <c:axId val="473147264"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="486929920"/>
+        <c:axId val="473145728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4131,14 +4245,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486931456"/>
+        <c:crossAx val="473147264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="486931456"/>
+        <c:axId val="473147264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4189,12 +4303,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486929920"/>
+        <c:crossAx val="473145728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="487269120"/>
+        <c:axId val="473148800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4231,12 +4345,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487270656"/>
+        <c:crossAx val="473150592"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="487270656"/>
+        <c:axId val="473150592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4245,7 +4359,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="487269120"/>
+        <c:crossAx val="473148800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4424,7 +4538,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4541,6 +4655,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4550,7 +4667,7 @@
               <c:f>'模型二 (2)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4667,6 +4784,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>9314484.7442212198</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9315019.3275703583</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4709,7 +4829,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4826,6 +4946,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4835,7 +4958,7 @@
               <c:f>'模型二 (2)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4952,6 +5075,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>8120333.5067951689</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10210855.587295413</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4994,7 +5120,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5111,6 +5237,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5120,7 +5249,7 @@
               <c:f>'模型二 (2)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5237,6 +5366,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-1194151.2374260509</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>895836.25972505473</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5258,11 +5390,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="488130048"/>
-        <c:axId val="488131584"/>
+        <c:axId val="474259840"/>
+        <c:axId val="474261376"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="488130048"/>
+        <c:axId val="474259840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5305,14 +5437,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488131584"/>
+        <c:crossAx val="474261376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="488131584"/>
+        <c:axId val="474261376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5363,7 +5495,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488130048"/>
+        <c:crossAx val="474259840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5554,7 +5686,7 @@
               <c:f>'模型二 (2)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5671,6 +5803,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>105159.53769477447</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>534.58334913787519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5685,8 +5820,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="488150912"/>
-        <c:axId val="488149376"/>
+        <c:axId val="474284800"/>
+        <c:axId val="474283008"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5711,7 +5846,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5828,6 +5963,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5837,7 +5975,7 @@
               <c:f>'模型二 (2)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5954,6 +6092,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.61000001430511475</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.76700001955032349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5970,11 +6111,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="488146048"/>
-        <c:axId val="488147584"/>
+        <c:axId val="474279936"/>
+        <c:axId val="474281472"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="488146048"/>
+        <c:axId val="474279936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6017,14 +6158,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488147584"/>
+        <c:crossAx val="474281472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="488147584"/>
+        <c:axId val="474281472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6075,12 +6216,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488146048"/>
+        <c:crossAx val="474279936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="488149376"/>
+        <c:axId val="474283008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6117,12 +6258,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488150912"/>
+        <c:crossAx val="474284800"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="488150912"/>
+        <c:axId val="474284800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6131,7 +6272,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="488149376"/>
+        <c:crossAx val="474283008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6293,7 +6434,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6410,6 +6551,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>20380.877652700809</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1453.1359981414703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6424,8 +6568,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="585880320"/>
-        <c:axId val="585874432"/>
+        <c:axId val="535668992"/>
+        <c:axId val="535667072"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6450,7 +6594,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6567,6 +6711,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6576,7 +6723,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6693,6 +6840,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.61000001430511475</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.76700001955032349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6709,11 +6859,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="585862528"/>
-        <c:axId val="585872512"/>
+        <c:axId val="535655552"/>
+        <c:axId val="535657088"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="585862528"/>
+        <c:axId val="535655552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6756,14 +6906,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="585872512"/>
+        <c:crossAx val="535657088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="585872512"/>
+        <c:axId val="535657088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6814,12 +6964,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="585862528"/>
+        <c:crossAx val="535655552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="585874432"/>
+        <c:axId val="535667072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6856,12 +7006,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="585880320"/>
+        <c:crossAx val="535668992"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="585880320"/>
+        <c:axId val="535668992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6870,7 +7020,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="585874432"/>
+        <c:crossAx val="535667072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7049,7 +7199,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7166,6 +7316,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7175,7 +7328,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7292,6 +7445,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>1311741.9864763017</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1313122.4656745361</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7334,7 +7490,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7451,6 +7607,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7460,7 +7619,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7577,6 +7736,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>1102498.3143234849</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1387636.5592142332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7619,7 +7781,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7736,6 +7898,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7745,7 +7910,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7862,6 +8027,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-209243.67215281678</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>74514.093539697118</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7883,11 +8051,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="600749952"/>
-        <c:axId val="600751488"/>
+        <c:axId val="535683840"/>
+        <c:axId val="535685376"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="600749952"/>
+        <c:axId val="535683840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7930,14 +8098,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="600751488"/>
+        <c:crossAx val="535685376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="600751488"/>
+        <c:axId val="535685376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7988,7 +8156,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="600749952"/>
+        <c:crossAx val="535683840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8188,7 +8356,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8305,6 +8473,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>19361.833770065768</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1380.4791982343968</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8319,8 +8490,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="600809472"/>
-        <c:axId val="600799104"/>
+        <c:axId val="537019904"/>
+        <c:axId val="536976768"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8345,7 +8516,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8462,6 +8633,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8471,7 +8645,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8588,6 +8762,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.61000001430511475</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.76700001955032349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8604,11 +8781,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="600778624"/>
-        <c:axId val="600797568"/>
+        <c:axId val="536950656"/>
+        <c:axId val="536975232"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="600778624"/>
+        <c:axId val="536950656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8651,14 +8828,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="600797568"/>
+        <c:crossAx val="536975232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="600797568"/>
+        <c:axId val="536975232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8709,12 +8886,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="600778624"/>
+        <c:crossAx val="536950656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="600799104"/>
+        <c:axId val="536976768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8751,12 +8928,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="600809472"/>
+        <c:crossAx val="537019904"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="600809472"/>
+        <c:axId val="537019904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8765,7 +8942,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="600799104"/>
+        <c:crossAx val="536976768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8944,7 +9121,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9061,6 +9238,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9070,7 +9250,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9187,6 +9367,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>10878064.821258809</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10878572.67544049</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9229,7 +9412,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9346,6 +9529,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9355,7 +9541,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9472,6 +9658,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>9371352.1459629666</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>11783830.98632065</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9514,7 +9703,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9631,6 +9820,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9640,7 +9832,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9757,6 +9949,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-1506712.6752958428</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>905258.31088015996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9778,11 +9973,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="600831104"/>
-        <c:axId val="600833024"/>
+        <c:axId val="537046016"/>
+        <c:axId val="537179648"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="600831104"/>
+        <c:axId val="537046016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9825,14 +10020,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="600833024"/>
+        <c:crossAx val="537179648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="600833024"/>
+        <c:axId val="537179648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9883,7 +10078,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="600831104"/>
+        <c:crossAx val="537046016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10083,7 +10278,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10200,6 +10395,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>99901.560810035735</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>507.85418168098141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10214,8 +10412,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="626198400"/>
-        <c:axId val="600944000"/>
+        <c:axId val="537358336"/>
+        <c:axId val="537327104"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10240,7 +10438,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10357,6 +10555,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10366,7 +10567,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -10483,6 +10684,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.61000001430511475</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.76700001955032349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10499,11 +10703,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="600940544"/>
-        <c:axId val="600942464"/>
+        <c:axId val="537323392"/>
+        <c:axId val="537325568"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="600940544"/>
+        <c:axId val="537323392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10546,14 +10750,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="600942464"/>
+        <c:crossAx val="537325568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="600942464"/>
+        <c:axId val="537325568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10604,12 +10808,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="600940544"/>
+        <c:crossAx val="537323392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="600944000"/>
+        <c:axId val="537327104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10646,12 +10850,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="626198400"/>
+        <c:crossAx val="537358336"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="626198400"/>
+        <c:axId val="537358336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10660,7 +10864,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="600944000"/>
+        <c:crossAx val="537327104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10839,7 +11043,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10956,6 +11160,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10965,7 +11172,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11082,6 +11289,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>1318414.8443036517</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1318597.7397115075</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11124,7 +11334,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11241,6 +11451,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11250,7 +11463,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11367,6 +11580,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>1237085.7610170722</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1555666.1423490932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11409,7 +11625,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11526,6 +11742,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11535,7 +11754,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11652,6 +11871,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-81329.083286579465</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>237068.40263758576</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11673,11 +11895,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="627376128"/>
-        <c:axId val="627378048"/>
+        <c:axId val="538286336"/>
+        <c:axId val="538357760"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="627376128"/>
+        <c:axId val="538286336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11720,14 +11942,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627378048"/>
+        <c:crossAx val="538357760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="627378048"/>
+        <c:axId val="538357760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11778,7 +12000,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627376128"/>
+        <c:crossAx val="538286336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11969,7 +12191,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12086,6 +12308,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>20275.20348942732</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>182.89540785582676</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12100,8 +12325,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="727190912"/>
-        <c:axId val="712183808"/>
+        <c:axId val="595125376"/>
+        <c:axId val="595108608"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -12126,7 +12351,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12243,6 +12468,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12252,7 +12480,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -12369,6 +12597,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.61000001430511475</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.76700001955032349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12385,11 +12616,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="627933952"/>
-        <c:axId val="627936256"/>
+        <c:axId val="591687680"/>
+        <c:axId val="592320000"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="627933952"/>
+        <c:axId val="591687680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12432,14 +12663,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627936256"/>
+        <c:crossAx val="592320000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="627936256"/>
+        <c:axId val="592320000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12490,12 +12721,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627933952"/>
+        <c:crossAx val="591687680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="712183808"/>
+        <c:axId val="595108608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12532,12 +12763,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="727190912"/>
+        <c:crossAx val="595125376"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="727190912"/>
+        <c:axId val="595125376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12546,7 +12777,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="712183808"/>
+        <c:crossAx val="595108608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12725,7 +12956,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12842,6 +13073,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12851,7 +13085,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12968,6 +13202,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>1139513.0277802511</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1140966.1637783926</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13010,7 +13247,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -13127,6 +13364,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13136,7 +13376,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13253,6 +13493,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>973582.81026446761</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1225613.8195964145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13295,7 +13538,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -13412,6 +13655,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13421,7 +13667,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13538,6 +13784,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-165930.2175157835</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>84647.655818021856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13559,11 +13808,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="486234368"/>
-        <c:axId val="486240256"/>
+        <c:axId val="597549056"/>
+        <c:axId val="597551360"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="486234368"/>
+        <c:axId val="597549056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13606,14 +13855,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486240256"/>
+        <c:crossAx val="597551360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="486240256"/>
+        <c:axId val="597551360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13664,7 +13913,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486234368"/>
+        <c:crossAx val="597549056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14516,7 +14765,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG41"/>
+  <dimension ref="A1:AG42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16302,6 +16551,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="42" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="32">
+        <v>45565</v>
+      </c>
+      <c r="B42" s="31">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="C42" s="31">
+        <v>25.239999770000001</v>
+      </c>
+      <c r="D42" s="29">
+        <v>25.607882301175056</v>
+      </c>
+      <c r="E42" s="29">
+        <v>1453.1359981414703</v>
+      </c>
+      <c r="F42" s="30">
+        <v>1894.5710053481021</v>
+      </c>
+      <c r="G42" s="30">
+        <v>1572416.5407871683</v>
+      </c>
+      <c r="H42" s="30">
+        <v>1206043.51752501</v>
+      </c>
+      <c r="I42" s="30">
+        <v>1124647.3973650639</v>
+      </c>
+      <c r="J42" s="30">
+        <v>1206043.51752501</v>
+      </c>
+      <c r="K42" s="30">
+        <v>81396.120159946149</v>
+      </c>
+      <c r="L42" s="29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -16318,7 +16605,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH41"/>
+  <dimension ref="A1:AH42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16395,16 +16682,16 @@
         <v>12</v>
       </c>
       <c r="M1" s="44" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="N1" s="44" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="O1" s="48" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -18541,15 +18828,65 @@
         <v>0</v>
       </c>
       <c r="M41" s="22">
-        <v>9.0720651077918352E-3</v>
+        <v>7.5600542564931957E-3</v>
       </c>
       <c r="N41" s="22">
-        <v>2.2670411624438547E-2</v>
+        <v>2.2725343338256893E-2</v>
       </c>
       <c r="O41" s="22">
-        <v>40.017205060415456</v>
+        <v>33.267062873220716</v>
       </c>
       <c r="P41" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="15">
+        <v>45565</v>
+      </c>
+      <c r="B42" s="31">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="C42" s="16">
+        <v>25.239999770000001</v>
+      </c>
+      <c r="D42" s="17">
+        <v>25.607882301175056</v>
+      </c>
+      <c r="E42" s="17">
+        <v>1380.4791982343968</v>
+      </c>
+      <c r="F42" s="18">
+        <v>1799.8424550806969</v>
+      </c>
+      <c r="G42" s="18">
+        <v>1809174.085846538</v>
+      </c>
+      <c r="H42" s="18">
+        <v>1387636.5592142332</v>
+      </c>
+      <c r="I42" s="18">
+        <v>1313122.4656745361</v>
+      </c>
+      <c r="J42" s="18">
+        <v>1387636.5592142332</v>
+      </c>
+      <c r="K42" s="18">
+        <v>74514.093539697118</v>
+      </c>
+      <c r="L42" s="17">
+        <v>0</v>
+      </c>
+      <c r="M42" s="22">
+        <v>3.2466712754612458E-2</v>
+      </c>
+      <c r="N42" s="22">
+        <v>4.5104453656082198E-2</v>
+      </c>
+      <c r="O42" s="22">
+        <v>71.981168427775472</v>
+      </c>
+      <c r="P42" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -18569,7 +18906,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH41"/>
+  <dimension ref="A1:AH42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18646,16 +18983,16 @@
         <v>12</v>
       </c>
       <c r="M1" s="44" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="N1" s="44" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="O1" s="48" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -20792,15 +21129,65 @@
         <v>0</v>
       </c>
       <c r="M41" s="22">
-        <v>9.0720651077918352E-3</v>
+        <v>7.5600542564931957E-3</v>
       </c>
       <c r="N41" s="22">
-        <v>2.2670411624438547E-2</v>
+        <v>2.2725343338256893E-2</v>
       </c>
       <c r="O41" s="22">
-        <v>40.017205060415456</v>
+        <v>33.267062873220716</v>
       </c>
       <c r="P41" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="15">
+        <v>45565</v>
+      </c>
+      <c r="B42" s="31">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="C42" s="16">
+        <v>25.239999770000001</v>
+      </c>
+      <c r="D42" s="17">
+        <v>25.607882301175056</v>
+      </c>
+      <c r="E42" s="17">
+        <v>507.85418168098141</v>
+      </c>
+      <c r="F42" s="18">
+        <v>662.13059809141339</v>
+      </c>
+      <c r="G42" s="18">
+        <v>15363534.140754351</v>
+      </c>
+      <c r="H42" s="18">
+        <v>11783830.98632065</v>
+      </c>
+      <c r="I42" s="18">
+        <v>10878572.67544049</v>
+      </c>
+      <c r="J42" s="18">
+        <v>11783830.98632065</v>
+      </c>
+      <c r="K42" s="18">
+        <v>905258.31088015996</v>
+      </c>
+      <c r="L42" s="17">
+        <v>0</v>
+      </c>
+      <c r="M42" s="22">
+        <v>3.2466712754612458E-2</v>
+      </c>
+      <c r="N42" s="22">
+        <v>4.5104453656082198E-2</v>
+      </c>
+      <c r="O42" s="22">
+        <v>71.981168427775472</v>
+      </c>
+      <c r="P42" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -20820,7 +21207,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ41"/>
+  <dimension ref="A1:AJ42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20873,10 +21260,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -20903,16 +21290,16 @@
         <v>12</v>
       </c>
       <c r="O1" s="44" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="P1" s="44" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q1" s="48" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -23289,15 +23676,71 @@
         <v>0</v>
       </c>
       <c r="O41" s="22">
-        <v>9.0720651077918352E-3</v>
+        <v>7.5600542564931957E-3</v>
       </c>
       <c r="P41" s="22">
-        <v>2.2670411624438547E-2</v>
+        <v>2.2725343338256893E-2</v>
       </c>
       <c r="Q41" s="22">
-        <v>40.017205060415456</v>
+        <v>33.267062873220716</v>
       </c>
       <c r="R41" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="15">
+        <v>45565</v>
+      </c>
+      <c r="B42" s="31">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="C42" s="16">
+        <v>25.239999770000001</v>
+      </c>
+      <c r="D42" s="17">
+        <v>25.607882301175056</v>
+      </c>
+      <c r="E42" s="17">
+        <v>12479809</v>
+      </c>
+      <c r="F42" s="17">
+        <v>4825138.2799101509</v>
+      </c>
+      <c r="G42" s="17">
+        <v>182.89540785582676</v>
+      </c>
+      <c r="H42" s="18">
+        <v>238.45554523330341</v>
+      </c>
+      <c r="I42" s="18">
+        <v>2028247.8522766514</v>
+      </c>
+      <c r="J42" s="18">
+        <v>1555666.1423490932</v>
+      </c>
+      <c r="K42" s="18">
+        <v>1318597.7397115075</v>
+      </c>
+      <c r="L42" s="18">
+        <v>1555666.1423490932</v>
+      </c>
+      <c r="M42" s="18">
+        <v>237068.40263758576</v>
+      </c>
+      <c r="N42" s="17">
+        <v>0</v>
+      </c>
+      <c r="O42" s="22">
+        <v>3.2466712754612458E-2</v>
+      </c>
+      <c r="P42" s="22">
+        <v>4.5104453656082198E-2</v>
+      </c>
+      <c r="Q42" s="22">
+        <v>71.981168427775472</v>
+      </c>
+      <c r="R42" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -23317,7 +23760,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ41"/>
+  <dimension ref="A1:AJ42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23394,19 +23837,19 @@
         <v>12</v>
       </c>
       <c r="M1" s="48" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="N1" s="48" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="O1" s="48" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="P1" s="48" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -25673,18 +26116,71 @@
         <v>0</v>
       </c>
       <c r="M41" s="21">
-        <v>65.986389868671111</v>
+        <v>50.340131641102225</v>
       </c>
       <c r="N41" s="21">
-        <v>56.426742107867703</v>
+        <v>54.39787195227921</v>
       </c>
       <c r="O41" s="21">
-        <v>46.014405893355239</v>
+        <v>48.808894579663225</v>
       </c>
       <c r="P41" s="21">
-        <v>77.251414536892625</v>
+        <v>65.575826697511175</v>
       </c>
       <c r="Q41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="15">
+        <v>45565</v>
+      </c>
+      <c r="B42" s="31">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="C42" s="16">
+        <v>25.239999770000001</v>
+      </c>
+      <c r="D42" s="17">
+        <v>25.607882301175056</v>
+      </c>
+      <c r="E42" s="17">
+        <v>1453.1359981414703</v>
+      </c>
+      <c r="F42" s="18">
+        <v>1894.5710053481021</v>
+      </c>
+      <c r="G42" s="18">
+        <v>1597931.9274528401</v>
+      </c>
+      <c r="H42" s="18">
+        <v>1225613.8195964145</v>
+      </c>
+      <c r="I42" s="18">
+        <v>1140966.1637783926</v>
+      </c>
+      <c r="J42" s="18">
+        <v>1225613.8195964145</v>
+      </c>
+      <c r="K42" s="18">
+        <v>84647.655818021856</v>
+      </c>
+      <c r="L42" s="17">
+        <v>0</v>
+      </c>
+      <c r="M42" s="21">
+        <v>100</v>
+      </c>
+      <c r="N42" s="21">
+        <v>69.598581301519474</v>
+      </c>
+      <c r="O42" s="21">
+        <v>55.738790153615305</v>
+      </c>
+      <c r="P42" s="21">
+        <v>97.318163597327825</v>
+      </c>
+      <c r="Q42" s="1">
         <v>1</v>
       </c>
     </row>
@@ -25704,7 +26200,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ41"/>
+  <dimension ref="A1:AJ42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -25745,10 +26241,10 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>3</v>
@@ -25757,10 +26253,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -27730,6 +28226,50 @@
         <v>-477552.15120485332</v>
       </c>
       <c r="N41" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="15">
+        <v>45565</v>
+      </c>
+      <c r="B42" s="31">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="C42" s="16">
+        <v>25.239999770000001</v>
+      </c>
+      <c r="D42" s="17">
+        <v>25.607882301175056</v>
+      </c>
+      <c r="E42" s="17">
+        <v>12479809</v>
+      </c>
+      <c r="F42" s="17">
+        <v>4825138.2799101509</v>
+      </c>
+      <c r="G42" s="17">
+        <v>1382.6542794842405</v>
+      </c>
+      <c r="H42" s="18">
+        <v>1802.6782845388486</v>
+      </c>
+      <c r="I42" s="18">
+        <v>12753979.062380463</v>
+      </c>
+      <c r="J42" s="18">
+        <v>9782302.1901902314</v>
+      </c>
+      <c r="K42" s="18">
+        <v>8257762.5822041975</v>
+      </c>
+      <c r="L42" s="18">
+        <v>9782302.1901902314</v>
+      </c>
+      <c r="M42" s="18">
+        <v>1524539.6079860339</v>
+      </c>
+      <c r="N42" s="17">
         <v>0</v>
       </c>
     </row>
@@ -27749,7 +28289,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG41"/>
+  <dimension ref="A1:AG42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -27790,40 +28330,40 @@
   <sheetData>
     <row r="1" spans="1:33" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="I1" s="41" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="J1" s="39" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="K1" s="43" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="L1" s="44" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="N1" s="12"/>
     </row>
@@ -27886,28 +28426,28 @@
       </c>
       <c r="M3" s="7"/>
       <c r="P3" s="45" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="Q3" s="46" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="R3" s="46" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="S3" s="46" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="T3" s="46" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="U3" s="47" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="V3" s="46" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="W3" s="46" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="Y3" s="42">
         <v>44561</v>
@@ -29532,6 +30072,44 @@
         <v>-1194151.2374260509</v>
       </c>
       <c r="L41" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="15">
+        <v>45565</v>
+      </c>
+      <c r="B42" s="31">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="C42" s="16">
+        <v>25.239999770000001</v>
+      </c>
+      <c r="D42" s="17">
+        <v>25.607882301175056</v>
+      </c>
+      <c r="E42" s="17">
+        <v>534.58334913787519</v>
+      </c>
+      <c r="F42" s="18">
+        <v>696.97957693832984</v>
+      </c>
+      <c r="G42" s="18">
+        <v>13312718.809683772</v>
+      </c>
+      <c r="H42" s="18">
+        <v>10210855.587295413</v>
+      </c>
+      <c r="I42" s="18">
+        <v>9315019.3275703583</v>
+      </c>
+      <c r="J42" s="18">
+        <v>10210855.587295413</v>
+      </c>
+      <c r="K42" s="18">
+        <v>895836.25972505473</v>
+      </c>
+      <c r="L42" s="17">
         <v>0</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ)cn.xlsx
@@ -71,77 +71,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="33">
   <si>
     <t>in practice</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>深创100ETF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PE均值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>买卖金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>买卖份数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>持有份数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>市值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计投入资金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总资产</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>利润</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>回收资金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每年投入本金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计投入本金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>盈利金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝对收益率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>年化收益率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -229,11 +161,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>成交量</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>成交均量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>深创100ETF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE均值</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -712,7 +660,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -832,6 +780,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -841,7 +792,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -961,6 +912,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1124647.3973650639</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1127257.6528514628</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1003,7 +957,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1123,6 +1077,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1132,7 +1089,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1252,6 +1209,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1206043.51752501</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1224377.923423548</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1294,7 +1254,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1414,6 +1374,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1423,7 +1386,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1543,6 +1506,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>81396.120159946149</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>97120.270572085166</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1564,11 +1530,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="440674560"/>
-        <c:axId val="440680448"/>
+        <c:axId val="505233792"/>
+        <c:axId val="505238656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="440674560"/>
+        <c:axId val="505233792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1611,14 +1577,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="440680448"/>
+        <c:crossAx val="505238656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="440680448"/>
+        <c:axId val="505238656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1669,7 +1635,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="440674560"/>
+        <c:crossAx val="505233792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1860,7 +1826,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1980,6 +1946,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1453.1359981414703</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2610.2554863989344</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1994,8 +1963,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="473077248"/>
-        <c:axId val="473075712"/>
+        <c:axId val="472776064"/>
+        <c:axId val="472774528"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2020,7 +1989,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2140,6 +2109,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2149,7 +2121,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2269,6 +2241,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.76700001955032349</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.77700001001358032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2285,11 +2260,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="473072384"/>
-        <c:axId val="473073920"/>
+        <c:axId val="472763008"/>
+        <c:axId val="472772992"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="473072384"/>
+        <c:axId val="472763008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2332,14 +2307,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="473073920"/>
+        <c:crossAx val="472772992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="473073920"/>
+        <c:axId val="472772992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2390,12 +2365,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="473072384"/>
+        <c:crossAx val="472763008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="473075712"/>
+        <c:axId val="472774528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2432,12 +2407,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="473077248"/>
+        <c:crossAx val="472776064"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="473077248"/>
+        <c:axId val="472776064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2446,7 +2421,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="473075712"/>
+        <c:crossAx val="472774528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2625,7 +2600,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2745,6 +2720,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2754,7 +2732,7 @@
               <c:f>'模型二 (2)PE副本成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2870,10 +2848,13 @@
                   <c:v>8103103.269966363</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8256379.9279247131</c:v>
+                  <c:v>8256379.9279411966</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8257762.5822041975</c:v>
+                  <c:v>8257762.5822227197</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8257762.5822227197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2916,7 +2897,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3036,6 +3017,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3045,7 +3029,7 @@
               <c:f>'模型二 (2)PE副本成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3161,10 +3145,13 @@
                   <c:v>7913071.9157501683</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7778827.7767198598</c:v>
+                  <c:v>7778827.7767363442</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9782302.1901902314</c:v>
+                  <c:v>9782302.1902129967</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9909841.8592056762</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3207,7 +3194,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3327,6 +3314,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3336,7 +3326,7 @@
               <c:f>'模型二 (2)PE副本成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3452,10 +3442,13 @@
                   <c:v>-190031.35421619471</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-477552.15120485332</c:v>
+                  <c:v>-477552.15120485239</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1524539.6079860339</c:v>
+                  <c:v>1524539.607990277</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1652079.2769829566</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3477,11 +3470,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="473125632"/>
-        <c:axId val="473127168"/>
+        <c:axId val="476464256"/>
+        <c:axId val="476465792"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="473125632"/>
+        <c:axId val="476464256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3524,14 +3517,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="473127168"/>
+        <c:crossAx val="476465792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="473127168"/>
+        <c:axId val="476465792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3582,7 +3575,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="473125632"/>
+        <c:crossAx val="476464256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3773,7 +3766,7 @@
               <c:f>'模型二 (2)PE副本成交量'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3889,10 +3882,13 @@
                   <c:v>507434.47455627128</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>153276.65795835006</c:v>
+                  <c:v>153276.65797483371</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1382.6542794842405</c:v>
+                  <c:v>1382.6542815230166</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3907,8 +3903,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="473150592"/>
-        <c:axId val="473148800"/>
+        <c:axId val="485886592"/>
+        <c:axId val="485885056"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3933,7 +3929,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4053,6 +4049,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4062,7 +4061,7 @@
               <c:f>'模型二 (2)PE副本成交量'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4182,6 +4181,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.76700001955032349</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.77700001001358032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4198,11 +4200,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="473145728"/>
-        <c:axId val="473147264"/>
+        <c:axId val="478279552"/>
+        <c:axId val="478281088"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="473145728"/>
+        <c:axId val="478279552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4245,14 +4247,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="473147264"/>
+        <c:crossAx val="478281088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="473147264"/>
+        <c:axId val="478281088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4303,12 +4305,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="473145728"/>
+        <c:crossAx val="478279552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="473148800"/>
+        <c:axId val="485885056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4345,12 +4347,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="473150592"/>
+        <c:crossAx val="485886592"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="473150592"/>
+        <c:axId val="485886592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4359,7 +4361,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="473148800"/>
+        <c:crossAx val="485885056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4538,7 +4540,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4658,6 +4660,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4667,7 +4672,7 @@
               <c:f>'模型二 (2)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4787,6 +4792,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>9315019.3275703583</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9316744.2474954911</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4829,7 +4837,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4949,6 +4957,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4958,7 +4969,7 @@
               <c:f>'模型二 (2)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5078,6 +5089,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>10210855.587295413</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10345707.568357404</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5120,7 +5134,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5240,6 +5254,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5249,7 +5266,7 @@
               <c:f>'模型二 (2)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5369,6 +5386,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>895836.25972505473</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1028963.3208619133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5390,11 +5410,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="474259840"/>
-        <c:axId val="474261376"/>
+        <c:axId val="485905152"/>
+        <c:axId val="485906688"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="474259840"/>
+        <c:axId val="485905152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5437,14 +5457,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474261376"/>
+        <c:crossAx val="485906688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="474261376"/>
+        <c:axId val="485906688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5495,7 +5515,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474259840"/>
+        <c:crossAx val="485905152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5686,7 +5706,7 @@
               <c:f>'模型二 (2)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5806,6 +5826,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>534.58334913787519</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1724.9199251330979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5820,8 +5843,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="474284800"/>
-        <c:axId val="474283008"/>
+        <c:axId val="485947648"/>
+        <c:axId val="485946112"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5846,7 +5869,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5966,6 +5989,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5975,7 +6001,7 @@
               <c:f>'模型二 (2)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6095,6 +6121,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.76700001955032349</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.77700001001358032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6111,11 +6140,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="474279936"/>
-        <c:axId val="474281472"/>
+        <c:axId val="485934592"/>
+        <c:axId val="485936128"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="474279936"/>
+        <c:axId val="485934592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6158,14 +6187,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474281472"/>
+        <c:crossAx val="485936128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="474281472"/>
+        <c:axId val="485936128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6216,12 +6245,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474279936"/>
+        <c:crossAx val="485934592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="474283008"/>
+        <c:axId val="485946112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6258,12 +6287,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474284800"/>
+        <c:crossAx val="485947648"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="474284800"/>
+        <c:axId val="485947648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6272,7 +6301,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="474283008"/>
+        <c:crossAx val="485946112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6434,7 +6463,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6554,6 +6583,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1453.1359981414703</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2610.2554863989344</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6568,8 +6600,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="535668992"/>
-        <c:axId val="535667072"/>
+        <c:axId val="507291520"/>
+        <c:axId val="505338496"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6594,7 +6626,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6714,6 +6746,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6723,7 +6758,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6843,6 +6878,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.76700001955032349</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.77700001001358032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6859,11 +6897,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="535655552"/>
-        <c:axId val="535657088"/>
+        <c:axId val="505326592"/>
+        <c:axId val="505336960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="535655552"/>
+        <c:axId val="505326592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6906,14 +6944,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="535657088"/>
+        <c:crossAx val="505336960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="535657088"/>
+        <c:axId val="505336960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6964,12 +7002,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="535655552"/>
+        <c:crossAx val="505326592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="535667072"/>
+        <c:axId val="505338496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7006,12 +7044,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="535668992"/>
+        <c:crossAx val="507291520"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="535668992"/>
+        <c:axId val="507291520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7020,7 +7058,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="535667072"/>
+        <c:crossAx val="505338496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7199,7 +7237,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7319,6 +7357,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7328,7 +7369,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7448,6 +7489,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1313122.4656745361</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1313644.516771816</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7490,7 +7534,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7610,6 +7654,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7619,7 +7666,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7739,6 +7786,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1387636.5592142332</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1406250.3339163498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7781,7 +7831,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7901,6 +7951,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7910,7 +7963,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8030,6 +8083,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>74514.093539697118</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>92605.817144533852</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8051,11 +8107,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="535683840"/>
-        <c:axId val="535685376"/>
+        <c:axId val="516726784"/>
+        <c:axId val="516729088"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="535683840"/>
+        <c:axId val="516726784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8098,14 +8154,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="535685376"/>
+        <c:crossAx val="516729088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="535685376"/>
+        <c:axId val="516729088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8156,7 +8212,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="535683840"/>
+        <c:crossAx val="516726784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8356,7 +8412,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8476,6 +8532,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1380.4791982343968</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>522.05109727978686</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8490,8 +8549,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="537019904"/>
-        <c:axId val="536976768"/>
+        <c:axId val="534107264"/>
+        <c:axId val="531447808"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8516,7 +8575,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8636,6 +8695,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8645,7 +8707,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8765,6 +8827,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.76700001955032349</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.77700001001358032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8781,11 +8846,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="536950656"/>
-        <c:axId val="536975232"/>
+        <c:axId val="516990464"/>
+        <c:axId val="516992000"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="536950656"/>
+        <c:axId val="516990464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8828,14 +8893,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536975232"/>
+        <c:crossAx val="516992000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="536975232"/>
+        <c:axId val="516992000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8886,12 +8951,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536950656"/>
+        <c:crossAx val="516990464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="536976768"/>
+        <c:axId val="531447808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8928,12 +8993,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537019904"/>
+        <c:crossAx val="534107264"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="537019904"/>
+        <c:axId val="534107264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8942,7 +9007,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="536976768"/>
+        <c:crossAx val="531447808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9121,7 +9186,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9241,6 +9306,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9250,7 +9318,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9370,6 +9438,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>10878572.67544049</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10878917.659425518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9412,7 +9483,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9532,6 +9603,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9541,7 +9615,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9661,6 +9735,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>11783830.98632065</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11937811.165195141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9703,7 +9780,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9823,6 +9900,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9832,7 +9912,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9952,6 +10032,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>905258.31088015996</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1058893.5057696234</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9973,11 +10056,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="537046016"/>
-        <c:axId val="537179648"/>
+        <c:axId val="547400320"/>
+        <c:axId val="548951168"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="537046016"/>
+        <c:axId val="547400320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10020,14 +10103,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537179648"/>
+        <c:crossAx val="548951168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="537179648"/>
+        <c:axId val="548951168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10078,7 +10161,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537046016"/>
+        <c:crossAx val="547400320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10278,7 +10361,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10398,6 +10481,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>507.85418168098141</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>344.98398502661962</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10412,8 +10498,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="537358336"/>
-        <c:axId val="537327104"/>
+        <c:axId val="549740928"/>
+        <c:axId val="549738752"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10438,7 +10524,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10558,6 +10644,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10567,7 +10656,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -10687,6 +10776,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.76700001955032349</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.77700001001358032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10703,11 +10795,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="537323392"/>
-        <c:axId val="537325568"/>
+        <c:axId val="549734656"/>
+        <c:axId val="549736832"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="537323392"/>
+        <c:axId val="549734656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10750,14 +10842,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537325568"/>
+        <c:crossAx val="549736832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="537325568"/>
+        <c:axId val="549736832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10808,12 +10900,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537323392"/>
+        <c:crossAx val="549734656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="537327104"/>
+        <c:axId val="549738752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10850,12 +10942,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537358336"/>
+        <c:crossAx val="549740928"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="537358336"/>
+        <c:axId val="549740928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10864,7 +10956,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="537327104"/>
+        <c:crossAx val="549738752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11043,7 +11135,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11163,6 +11255,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11172,7 +11267,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11288,10 +11383,13 @@
                   <c:v>1298139.6408142245</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1318414.8443036517</c:v>
+                  <c:v>1318414.8443058322</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1318597.7397115075</c:v>
+                  <c:v>1318597.7397139578</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1318597.7397139578</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11334,7 +11432,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11454,6 +11552,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11463,7 +11564,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11579,10 +11680,13 @@
                   <c:v>1262690.3025894526</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1237085.7610170722</c:v>
+                  <c:v>1237085.7610192525</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1555666.1423490932</c:v>
+                  <c:v>1555666.1423521044</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1575948.6015320313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11625,7 +11729,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11745,6 +11849,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11754,7 +11861,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11870,10 +11977,13 @@
                   <c:v>-35449.338224771898</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-81329.083286579465</c:v>
+                  <c:v>-81329.083286579698</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>237068.40263758576</c:v>
+                  <c:v>237068.40263814665</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>257350.86181807355</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11895,11 +12005,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="538286336"/>
-        <c:axId val="538357760"/>
+        <c:axId val="549828480"/>
+        <c:axId val="549830656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="538286336"/>
+        <c:axId val="549828480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11942,14 +12052,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538357760"/>
+        <c:crossAx val="549830656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="538357760"/>
+        <c:axId val="549830656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12000,7 +12110,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538286336"/>
+        <c:crossAx val="549828480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12191,7 +12301,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12307,10 +12417,13 @@
                   <c:v>67122.661507759942</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>20275.20348942732</c:v>
+                  <c:v>20275.203491607746</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>182.89540785582676</c:v>
+                  <c:v>182.89540812551292</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12325,8 +12438,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="595125376"/>
-        <c:axId val="595108608"/>
+        <c:axId val="550080512"/>
+        <c:axId val="550004608"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -12351,7 +12464,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12471,6 +12584,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12480,7 +12596,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -12600,6 +12716,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.76700001955032349</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.77700001001358032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12616,11 +12735,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="591687680"/>
-        <c:axId val="592320000"/>
+        <c:axId val="549993088"/>
+        <c:axId val="550003072"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="591687680"/>
+        <c:axId val="549993088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12663,14 +12782,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="592320000"/>
+        <c:crossAx val="550003072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="592320000"/>
+        <c:axId val="550003072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12721,12 +12840,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="591687680"/>
+        <c:crossAx val="549993088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="595108608"/>
+        <c:axId val="550004608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12763,12 +12882,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="595125376"/>
+        <c:crossAx val="550080512"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="595125376"/>
+        <c:axId val="550080512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12777,7 +12896,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="595108608"/>
+        <c:crossAx val="550004608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12956,7 +13075,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -13076,6 +13195,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13085,7 +13207,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13205,6 +13327,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1140966.1637783926</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1143576.4192647915</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13247,7 +13372,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -13367,6 +13492,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13376,7 +13504,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13496,6 +13624,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1225613.8195964145</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1244203.3791182756</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13538,7 +13669,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -13658,6 +13789,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13667,7 +13801,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13787,6 +13921,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>84647.655818021856</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>100626.95985348406</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13808,11 +13945,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="597549056"/>
-        <c:axId val="597551360"/>
+        <c:axId val="614791040"/>
+        <c:axId val="631035008"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="597549056"/>
+        <c:axId val="614791040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13855,14 +13992,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="597551360"/>
+        <c:crossAx val="631035008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="597551360"/>
+        <c:axId val="631035008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13913,7 +14050,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="597549056"/>
+        <c:crossAx val="614791040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14765,7 +14902,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG42"/>
+  <dimension ref="A1:AG43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16589,6 +16726,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="43" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="32">
+        <v>45596</v>
+      </c>
+      <c r="B43" s="31">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="C43" s="31">
+        <v>24.940000529999999</v>
+      </c>
+      <c r="D43" s="29">
+        <v>25.600824703771881</v>
+      </c>
+      <c r="E43" s="29">
+        <v>2610.2554863989344</v>
+      </c>
+      <c r="F43" s="30">
+        <v>3359.4021271033353</v>
+      </c>
+      <c r="G43" s="30">
+        <v>1575775.9429142717</v>
+      </c>
+      <c r="H43" s="30">
+        <v>1224377.923423548</v>
+      </c>
+      <c r="I43" s="30">
+        <v>1127257.6528514628</v>
+      </c>
+      <c r="J43" s="30">
+        <v>1224377.923423548</v>
+      </c>
+      <c r="K43" s="30">
+        <v>97120.270572085166</v>
+      </c>
+      <c r="L43" s="29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -16605,7 +16780,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH42"/>
+  <dimension ref="A1:AH43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16682,16 +16857,16 @@
         <v>12</v>
       </c>
       <c r="M1" s="44" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="N1" s="44" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="O1" s="48" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -16753,7 +16928,7 @@
       </c>
       <c r="M3" s="21"/>
       <c r="Q3" s="45" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="R3" s="46" t="s">
         <v>13</v>
@@ -18888,6 +19063,56 @@
       </c>
       <c r="P42" s="1">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="15">
+        <v>45596</v>
+      </c>
+      <c r="B43" s="31">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="C43" s="16">
+        <v>24.940000529999999</v>
+      </c>
+      <c r="D43" s="17">
+        <v>25.600824703771881</v>
+      </c>
+      <c r="E43" s="17">
+        <v>522.05109727978686</v>
+      </c>
+      <c r="F43" s="18">
+        <v>671.88042542066694</v>
+      </c>
+      <c r="G43" s="18">
+        <v>1809845.9662719585</v>
+      </c>
+      <c r="H43" s="18">
+        <v>1406250.3339163498</v>
+      </c>
+      <c r="I43" s="18">
+        <v>1313644.516771816</v>
+      </c>
+      <c r="J43" s="18">
+        <v>1406250.3339163498</v>
+      </c>
+      <c r="K43" s="18">
+        <v>92605.817144533852</v>
+      </c>
+      <c r="L43" s="17">
+        <v>0</v>
+      </c>
+      <c r="M43" s="22">
+        <v>3.2466712754612458E-2</v>
+      </c>
+      <c r="N43" s="22">
+        <v>4.5104453656082198E-2</v>
+      </c>
+      <c r="O43" s="22">
+        <v>71.981168427775472</v>
+      </c>
+      <c r="P43" s="1">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -18906,7 +19131,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH42"/>
+  <dimension ref="A1:AH43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18983,16 +19208,16 @@
         <v>12</v>
       </c>
       <c r="M1" s="44" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="N1" s="44" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="O1" s="48" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -21189,6 +21414,56 @@
       </c>
       <c r="P42" s="1">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="15">
+        <v>45596</v>
+      </c>
+      <c r="B43" s="31">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="C43" s="16">
+        <v>24.940000529999999</v>
+      </c>
+      <c r="D43" s="17">
+        <v>25.600824703771881</v>
+      </c>
+      <c r="E43" s="17">
+        <v>344.98398502661962</v>
+      </c>
+      <c r="F43" s="18">
+        <v>443.99482700211297</v>
+      </c>
+      <c r="G43" s="18">
+        <v>15363978.135581354</v>
+      </c>
+      <c r="H43" s="18">
+        <v>11937811.165195141</v>
+      </c>
+      <c r="I43" s="18">
+        <v>10878917.659425518</v>
+      </c>
+      <c r="J43" s="18">
+        <v>11937811.165195141</v>
+      </c>
+      <c r="K43" s="18">
+        <v>1058893.5057696234</v>
+      </c>
+      <c r="L43" s="17">
+        <v>0</v>
+      </c>
+      <c r="M43" s="22">
+        <v>3.2466712754612458E-2</v>
+      </c>
+      <c r="N43" s="22">
+        <v>4.5104453656082198E-2</v>
+      </c>
+      <c r="O43" s="22">
+        <v>71.981168427775472</v>
+      </c>
+      <c r="P43" s="1">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -21207,7 +21482,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ42"/>
+  <dimension ref="A1:AJ43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21260,10 +21535,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -21290,16 +21565,16 @@
         <v>12</v>
       </c>
       <c r="O1" s="44" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="P1" s="44" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="Q1" s="48" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -23643,7 +23918,7 @@
         <v>20.56999969</v>
       </c>
       <c r="D41" s="17">
-        <v>25.729715551443242</v>
+        <v>25.729715551720684</v>
       </c>
       <c r="E41" s="17">
         <v>6956200</v>
@@ -23652,25 +23927,25 @@
         <v>4772486.4689518735</v>
       </c>
       <c r="G41" s="17">
-        <v>20275.20348942732</v>
+        <v>20275.203491607746</v>
       </c>
       <c r="H41" s="18">
-        <v>33238.03772779242</v>
+        <v>33238.037731366887</v>
       </c>
       <c r="I41" s="18">
-        <v>2028009.3967314181</v>
+        <v>2028009.3967349925</v>
       </c>
       <c r="J41" s="18">
-        <v>1237085.7610170722</v>
+        <v>1237085.7610192525</v>
       </c>
       <c r="K41" s="18">
-        <v>1318414.8443036517</v>
+        <v>1318414.8443058322</v>
       </c>
       <c r="L41" s="18">
-        <v>1237085.7610170722</v>
+        <v>1237085.7610192525</v>
       </c>
       <c r="M41" s="18">
-        <v>-81329.083286579465</v>
+        <v>-81329.083286579698</v>
       </c>
       <c r="N41" s="17">
         <v>0</v>
@@ -23699,7 +23974,7 @@
         <v>25.239999770000001</v>
       </c>
       <c r="D42" s="17">
-        <v>25.607882301175056</v>
+        <v>25.607882301446285</v>
       </c>
       <c r="E42" s="17">
         <v>12479809</v>
@@ -23708,25 +23983,25 @@
         <v>4825138.2799101509</v>
       </c>
       <c r="G42" s="17">
-        <v>182.89540785582676</v>
+        <v>182.89540812551292</v>
       </c>
       <c r="H42" s="18">
-        <v>238.45554523330341</v>
+        <v>238.45554558491509</v>
       </c>
       <c r="I42" s="18">
-        <v>2028247.8522766514</v>
+        <v>2028247.8522805774</v>
       </c>
       <c r="J42" s="18">
-        <v>1555666.1423490932</v>
+        <v>1555666.1423521044</v>
       </c>
       <c r="K42" s="18">
-        <v>1318597.7397115075</v>
+        <v>1318597.7397139578</v>
       </c>
       <c r="L42" s="18">
-        <v>1555666.1423490932</v>
+        <v>1555666.1423521044</v>
       </c>
       <c r="M42" s="18">
-        <v>237068.40263758576</v>
+        <v>237068.40263814665</v>
       </c>
       <c r="N42" s="17">
         <v>0</v>
@@ -23742,6 +24017,62 @@
       </c>
       <c r="R42" s="1">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="15">
+        <v>45596</v>
+      </c>
+      <c r="B43" s="31">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="C43" s="16">
+        <v>24.940000529999999</v>
+      </c>
+      <c r="D43" s="17">
+        <v>25.600824703771881</v>
+      </c>
+      <c r="E43" s="17">
+        <v>0</v>
+      </c>
+      <c r="F43" s="17">
+        <v>4776893.3677173248</v>
+      </c>
+      <c r="G43" s="17">
+        <v>0</v>
+      </c>
+      <c r="H43" s="18">
+        <v>0</v>
+      </c>
+      <c r="I43" s="18">
+        <v>2028247.8522805774</v>
+      </c>
+      <c r="J43" s="18">
+        <v>1575948.6015320313</v>
+      </c>
+      <c r="K43" s="18">
+        <v>1318597.7397139578</v>
+      </c>
+      <c r="L43" s="18">
+        <v>1575948.6015320313</v>
+      </c>
+      <c r="M43" s="18">
+        <v>257350.86181807355</v>
+      </c>
+      <c r="N43" s="17">
+        <v>0</v>
+      </c>
+      <c r="O43" s="22">
+        <v>3.2466712754612458E-2</v>
+      </c>
+      <c r="P43" s="22">
+        <v>4.5104453656082198E-2</v>
+      </c>
+      <c r="Q43" s="22">
+        <v>71.981168427775472</v>
+      </c>
+      <c r="R43" s="1">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -23760,7 +24091,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ42"/>
+  <dimension ref="A1:AJ43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23801,16 +24132,16 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="E1" s="40" t="s">
         <v>5</v>
@@ -23837,19 +24168,19 @@
         <v>12</v>
       </c>
       <c r="M1" s="48" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="N1" s="48" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="O1" s="48" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="P1" s="48" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -26181,6 +26512,59 @@
         <v>97.318163597327825</v>
       </c>
       <c r="Q42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="15">
+        <v>45596</v>
+      </c>
+      <c r="B43" s="31">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="C43" s="16">
+        <v>24.940000529999999</v>
+      </c>
+      <c r="D43" s="17">
+        <v>25.600824703771881</v>
+      </c>
+      <c r="E43" s="17">
+        <v>2610.2554863989344</v>
+      </c>
+      <c r="F43" s="18">
+        <v>3359.4021271033353</v>
+      </c>
+      <c r="G43" s="18">
+        <v>1601291.3295799436</v>
+      </c>
+      <c r="H43" s="18">
+        <v>1244203.3791182756</v>
+      </c>
+      <c r="I43" s="18">
+        <v>1143576.4192647915</v>
+      </c>
+      <c r="J43" s="18">
+        <v>1244203.3791182756</v>
+      </c>
+      <c r="K43" s="18">
+        <v>100626.95985348406</v>
+      </c>
+      <c r="L43" s="17">
+        <v>0</v>
+      </c>
+      <c r="M43" s="21">
+        <v>100</v>
+      </c>
+      <c r="N43" s="21">
+        <v>69.598581301519474</v>
+      </c>
+      <c r="O43" s="21">
+        <v>55.738790153615305</v>
+      </c>
+      <c r="P43" s="21">
+        <v>97.318163597327825</v>
+      </c>
+      <c r="Q43" s="1">
         <v>1</v>
       </c>
     </row>
@@ -26200,7 +26584,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ42"/>
+  <dimension ref="A1:AJ43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -26241,7 +26625,7 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -26253,10 +26637,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -28196,7 +28580,7 @@
         <v>20.56999969</v>
       </c>
       <c r="D41" s="17">
-        <v>25.729715551443242</v>
+        <v>25.729715551720684</v>
       </c>
       <c r="E41" s="17">
         <v>6956200</v>
@@ -28205,25 +28589,25 @@
         <v>4772486.4689518735</v>
       </c>
       <c r="G41" s="17">
-        <v>153276.65795835006</v>
+        <v>153276.65797483371</v>
       </c>
       <c r="H41" s="18">
-        <v>251273.20387517713</v>
+        <v>251273.20390219952</v>
       </c>
       <c r="I41" s="18">
-        <v>12752176.384095924</v>
+        <v>12752176.384122947</v>
       </c>
       <c r="J41" s="18">
-        <v>7778827.7767198598</v>
+        <v>7778827.7767363442</v>
       </c>
       <c r="K41" s="18">
-        <v>8256379.9279247131</v>
+        <v>8256379.9279411966</v>
       </c>
       <c r="L41" s="18">
-        <v>7778827.7767198598</v>
+        <v>7778827.7767363442</v>
       </c>
       <c r="M41" s="18">
-        <v>-477552.15120485332</v>
+        <v>-477552.15120485239</v>
       </c>
       <c r="N41" s="17">
         <v>0</v>
@@ -28240,7 +28624,7 @@
         <v>25.239999770000001</v>
       </c>
       <c r="D42" s="17">
-        <v>25.607882301175056</v>
+        <v>25.607882301446285</v>
       </c>
       <c r="E42" s="17">
         <v>12479809</v>
@@ -28249,27 +28633,71 @@
         <v>4825138.2799101509</v>
       </c>
       <c r="G42" s="17">
-        <v>1382.6542794842405</v>
+        <v>1382.6542815230166</v>
       </c>
       <c r="H42" s="18">
-        <v>1802.6782845388486</v>
+        <v>1802.678287196966</v>
       </c>
       <c r="I42" s="18">
-        <v>12753979.062380463</v>
+        <v>12753979.062410144</v>
       </c>
       <c r="J42" s="18">
-        <v>9782302.1901902314</v>
+        <v>9782302.1902129967</v>
       </c>
       <c r="K42" s="18">
-        <v>8257762.5822041975</v>
+        <v>8257762.5822227197</v>
       </c>
       <c r="L42" s="18">
-        <v>9782302.1901902314</v>
+        <v>9782302.1902129967</v>
       </c>
       <c r="M42" s="18">
-        <v>1524539.6079860339</v>
+        <v>1524539.607990277</v>
       </c>
       <c r="N42" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="15">
+        <v>45596</v>
+      </c>
+      <c r="B43" s="31">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="C43" s="16">
+        <v>24.940000529999999</v>
+      </c>
+      <c r="D43" s="17">
+        <v>25.600824703771881</v>
+      </c>
+      <c r="E43" s="17">
+        <v>0</v>
+      </c>
+      <c r="F43" s="17">
+        <v>4776893.3677173248</v>
+      </c>
+      <c r="G43" s="17">
+        <v>0</v>
+      </c>
+      <c r="H43" s="18">
+        <v>0</v>
+      </c>
+      <c r="I43" s="18">
+        <v>12753979.062410144</v>
+      </c>
+      <c r="J43" s="18">
+        <v>9909841.8592056762</v>
+      </c>
+      <c r="K43" s="18">
+        <v>8257762.5822227197</v>
+      </c>
+      <c r="L43" s="18">
+        <v>9909841.8592056762</v>
+      </c>
+      <c r="M43" s="18">
+        <v>1652079.2769829566</v>
+      </c>
+      <c r="N43" s="17">
         <v>0</v>
       </c>
     </row>
@@ -28289,7 +28717,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG42"/>
+  <dimension ref="A1:AG43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -28330,40 +28758,40 @@
   <sheetData>
     <row r="1" spans="1:33" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="I1" s="41" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="J1" s="39" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="K1" s="43" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="L1" s="44" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="N1" s="12"/>
     </row>
@@ -28426,28 +28854,28 @@
       </c>
       <c r="M3" s="7"/>
       <c r="P3" s="45" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="46" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="R3" s="46" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="S3" s="46" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="T3" s="46" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="U3" s="47" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="V3" s="46" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="W3" s="46" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="Y3" s="42">
         <v>44561</v>
@@ -30110,6 +30538,44 @@
         <v>895836.25972505473</v>
       </c>
       <c r="L42" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="15">
+        <v>45596</v>
+      </c>
+      <c r="B43" s="31">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="C43" s="16">
+        <v>24.940000529999999</v>
+      </c>
+      <c r="D43" s="17">
+        <v>25.600824703771881</v>
+      </c>
+      <c r="E43" s="17">
+        <v>1724.9199251330979</v>
+      </c>
+      <c r="F43" s="18">
+        <v>2219.9741350105646</v>
+      </c>
+      <c r="G43" s="18">
+        <v>13314938.783818783</v>
+      </c>
+      <c r="H43" s="18">
+        <v>10345707.568357404</v>
+      </c>
+      <c r="I43" s="18">
+        <v>9316744.2474954911</v>
+      </c>
+      <c r="J43" s="18">
+        <v>10345707.568357404</v>
+      </c>
+      <c r="K43" s="18">
+        <v>1028963.3208619133</v>
+      </c>
+      <c r="L43" s="17">
         <v>0</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ)cn.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="32">
   <si>
     <t>in practice</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -165,14 +165,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>成交量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成交均量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>深创100ETF</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -181,7 +173,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>PE均值</t>
+    <t>成交量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成交均量</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -660,7 +656,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -783,6 +779,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -792,7 +791,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -915,6 +914,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1127257.6528514628</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1130707.2667107254</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -957,7 +959,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1080,6 +1082,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1089,7 +1094,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1212,6 +1217,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1224377.923423548</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1234130.6538280728</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1254,7 +1262,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1377,6 +1385,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1386,7 +1397,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1509,6 +1520,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>97120.270572085166</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>103423.38711734745</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1530,11 +1544,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="505233792"/>
-        <c:axId val="505238656"/>
+        <c:axId val="494708608"/>
+        <c:axId val="494710144"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="505233792"/>
+        <c:axId val="494708608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1577,14 +1591,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="505238656"/>
+        <c:crossAx val="494710144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="505238656"/>
+        <c:axId val="494710144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1635,7 +1649,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="505233792"/>
+        <c:crossAx val="494708608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1826,7 +1840,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1949,6 +1963,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>2610.2554863989344</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3449.6138592626553</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1963,8 +1980,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="472776064"/>
-        <c:axId val="472774528"/>
+        <c:axId val="493351680"/>
+        <c:axId val="493337600"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1989,7 +2006,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2112,6 +2129,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2121,7 +2141,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2244,6 +2264,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.77700001001358032</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2260,11 +2283,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="472763008"/>
-        <c:axId val="472772992"/>
+        <c:axId val="493334528"/>
+        <c:axId val="493336064"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="472763008"/>
+        <c:axId val="493334528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2307,14 +2330,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472772992"/>
+        <c:crossAx val="493336064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="472772992"/>
+        <c:axId val="493336064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2365,12 +2388,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472763008"/>
+        <c:crossAx val="493334528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="472774528"/>
+        <c:axId val="493337600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2407,12 +2430,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472776064"/>
+        <c:crossAx val="493351680"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="472776064"/>
+        <c:axId val="493351680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2421,7 +2444,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="472774528"/>
+        <c:crossAx val="493337600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2600,7 +2623,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2723,6 +2746,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2732,7 +2758,7 @@
               <c:f>'模型二 (2)PE副本成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2854,7 +2880,10 @@
                   <c:v>8257762.5822227197</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>8257762.5822227197</c:v>
+                  <c:v>8258332.3049658481</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8259407.9355940465</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2897,7 +2926,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3020,6 +3049,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3029,7 +3061,7 @@
               <c:f>'模型二 (2)PE副本成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3151,7 +3183,10 @@
                   <c:v>9782302.1902129967</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9909841.8592056762</c:v>
+                  <c:v>9910411.5819488037</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9962506.1651548725</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3194,7 +3229,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3317,6 +3352,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3326,7 +3364,7 @@
               <c:f>'模型二 (2)PE副本成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3448,7 +3486,10 @@
                   <c:v>1524539.607990277</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1652079.2769829566</c:v>
+                  <c:v>1652079.2769829556</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1703098.229560826</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3470,11 +3511,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="476464256"/>
-        <c:axId val="476465792"/>
+        <c:axId val="495147264"/>
+        <c:axId val="495149056"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="476464256"/>
+        <c:axId val="495147264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3517,14 +3558,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476465792"/>
+        <c:crossAx val="495149056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="476465792"/>
+        <c:axId val="495149056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3575,7 +3616,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476464256"/>
+        <c:crossAx val="495147264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3766,7 +3807,7 @@
               <c:f>'模型二 (2)PE副本成交量'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3888,7 +3929,10 @@
                   <c:v>1382.6542815230166</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>569.72274312846628</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1075.6306281980965</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3903,8 +3947,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="485886592"/>
-        <c:axId val="485885056"/>
+        <c:axId val="495177728"/>
+        <c:axId val="495175936"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3929,7 +3973,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4052,6 +4096,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4061,7 +4108,7 @@
               <c:f>'模型二 (2)PE副本成交量'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4184,6 +4231,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.77700001001358032</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4200,11 +4250,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="478279552"/>
-        <c:axId val="478281088"/>
+        <c:axId val="495172608"/>
+        <c:axId val="495174400"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="478279552"/>
+        <c:axId val="495172608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4247,14 +4297,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478281088"/>
+        <c:crossAx val="495174400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="478281088"/>
+        <c:axId val="495174400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4305,12 +4355,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478279552"/>
+        <c:crossAx val="495172608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="485885056"/>
+        <c:axId val="495175936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4347,12 +4397,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485886592"/>
+        <c:crossAx val="495177728"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="485886592"/>
+        <c:axId val="495177728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4361,7 +4411,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="485885056"/>
+        <c:crossAx val="495175936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4540,7 +4590,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4663,6 +4713,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4672,7 +4725,7 @@
               <c:f>'模型二 (2)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4795,6 +4848,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>9316744.2474954911</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9319756.864148153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4837,7 +4893,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4960,6 +5016,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4969,7 +5028,7 @@
               <c:f>'模型二 (2)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5092,6 +5151,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>10345707.568357404</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10401980.048079319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5134,7 +5196,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5257,6 +5319,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5266,7 +5331,7 @@
               <c:f>'模型二 (2)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5389,6 +5454,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1028963.3208619133</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1082223.1839311663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5410,11 +5478,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="485905152"/>
-        <c:axId val="485906688"/>
+        <c:axId val="503248384"/>
+        <c:axId val="503249920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="485905152"/>
+        <c:axId val="503248384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5457,14 +5525,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485906688"/>
+        <c:crossAx val="503249920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="485906688"/>
+        <c:axId val="503249920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5515,7 +5583,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485905152"/>
+        <c:crossAx val="503248384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5706,7 +5774,7 @@
               <c:f>'模型二 (2)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5829,6 +5897,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1724.9199251330979</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3012.6166526625288</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5843,8 +5914,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="485947648"/>
-        <c:axId val="485946112"/>
+        <c:axId val="506063872"/>
+        <c:axId val="506062336"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5869,7 +5940,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5992,6 +6063,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6001,7 +6075,7 @@
               <c:f>'模型二 (2)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6124,6 +6198,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.77700001001358032</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6140,11 +6217,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="485934592"/>
-        <c:axId val="485936128"/>
+        <c:axId val="506050816"/>
+        <c:axId val="506060800"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="485934592"/>
+        <c:axId val="506050816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6187,14 +6264,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485936128"/>
+        <c:crossAx val="506060800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="485936128"/>
+        <c:axId val="506060800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6245,12 +6322,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485934592"/>
+        <c:crossAx val="506050816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="485946112"/>
+        <c:axId val="506062336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6287,12 +6364,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485947648"/>
+        <c:crossAx val="506063872"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="485947648"/>
+        <c:axId val="506063872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6301,7 +6378,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="485946112"/>
+        <c:crossAx val="506062336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6463,7 +6540,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6586,6 +6663,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>2610.2554863989344</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3449.6138592626553</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6600,8 +6680,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="507291520"/>
-        <c:axId val="505338496"/>
+        <c:axId val="549769216"/>
+        <c:axId val="549767424"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6626,7 +6706,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6749,6 +6829,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6758,7 +6841,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6881,6 +6964,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.77700001001358032</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6897,11 +6983,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="505326592"/>
-        <c:axId val="505336960"/>
+        <c:axId val="549751040"/>
+        <c:axId val="549765504"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="505326592"/>
+        <c:axId val="549751040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6944,14 +7030,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="505336960"/>
+        <c:crossAx val="549765504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="505336960"/>
+        <c:axId val="549765504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7002,12 +7088,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="505326592"/>
+        <c:crossAx val="549751040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="505338496"/>
+        <c:axId val="549767424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7044,12 +7130,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507291520"/>
+        <c:crossAx val="549769216"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="507291520"/>
+        <c:axId val="549769216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7058,7 +7144,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="505338496"/>
+        <c:crossAx val="549767424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7237,7 +7323,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7360,6 +7446,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7369,7 +7458,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7492,6 +7581,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1313644.516771816</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1314334.4395436684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7534,7 +7626,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7657,6 +7749,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7666,7 +7761,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7789,6 +7884,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1406250.3339163498</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1414179.6552243209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7831,7 +7929,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7954,6 +8052,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7963,7 +8064,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8086,6 +8187,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>92605.817144533852</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>99845.215680652531</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8107,11 +8211,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="516726784"/>
-        <c:axId val="516729088"/>
+        <c:axId val="578509824"/>
+        <c:axId val="578540288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="516726784"/>
+        <c:axId val="578509824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8154,14 +8258,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516729088"/>
+        <c:crossAx val="578540288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="516729088"/>
+        <c:axId val="578540288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8212,7 +8316,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516726784"/>
+        <c:crossAx val="578509824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8412,7 +8516,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8535,6 +8639,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>522.05109727978686</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>689.92277185253113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8549,8 +8656,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="534107264"/>
-        <c:axId val="531447808"/>
+        <c:axId val="583153920"/>
+        <c:axId val="583152384"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8575,7 +8682,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8698,6 +8805,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8707,7 +8817,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8830,6 +8940,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.77700001001358032</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8846,11 +8959,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="516990464"/>
-        <c:axId val="516992000"/>
+        <c:axId val="582946176"/>
+        <c:axId val="583009792"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="516990464"/>
+        <c:axId val="582946176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8893,14 +9006,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516992000"/>
+        <c:crossAx val="583009792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="516992000"/>
+        <c:axId val="583009792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8951,12 +9064,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516990464"/>
+        <c:crossAx val="582946176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="531447808"/>
+        <c:axId val="583152384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8993,12 +9106,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="534107264"/>
+        <c:crossAx val="583153920"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="534107264"/>
+        <c:axId val="583153920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9007,7 +9120,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="531447808"/>
+        <c:crossAx val="583152384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9186,7 +9299,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9309,6 +9422,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9318,7 +9434,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9441,6 +9557,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>10878917.659425518</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10879520.18275605</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9483,7 +9602,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9606,6 +9725,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9615,7 +9737,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9738,6 +9860,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>11937811.165195141</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11999869.725611966</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9780,7 +9905,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9903,6 +10028,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9912,7 +10040,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10035,6 +10163,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1058893.5057696234</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1120349.5428559165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10056,11 +10187,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="547400320"/>
-        <c:axId val="548951168"/>
+        <c:axId val="583740416"/>
+        <c:axId val="583742976"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="547400320"/>
+        <c:axId val="583740416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10103,14 +10234,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548951168"/>
+        <c:crossAx val="583742976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="548951168"/>
+        <c:axId val="583742976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10161,7 +10292,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="547400320"/>
+        <c:crossAx val="583740416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10361,7 +10492,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10484,6 +10615,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>344.98398502661962</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>602.52333053250584</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10498,8 +10632,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="549740928"/>
-        <c:axId val="549738752"/>
+        <c:axId val="583784320"/>
+        <c:axId val="583773568"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10524,7 +10658,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10647,6 +10781,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10656,7 +10793,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -10779,6 +10916,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.77700001001358032</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10795,11 +10935,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="549734656"/>
-        <c:axId val="549736832"/>
+        <c:axId val="583769088"/>
+        <c:axId val="583771264"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="549734656"/>
+        <c:axId val="583769088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10842,14 +10982,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="549736832"/>
+        <c:crossAx val="583771264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="549736832"/>
+        <c:axId val="583771264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10900,12 +11040,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="549734656"/>
+        <c:crossAx val="583769088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="549738752"/>
+        <c:axId val="583773568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10942,12 +11082,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="549740928"/>
+        <c:crossAx val="583784320"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="549740928"/>
+        <c:axId val="583784320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10956,7 +11096,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="549738752"/>
+        <c:crossAx val="583773568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11135,7 +11275,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11258,6 +11398,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11267,7 +11410,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11389,7 +11532,10 @@
                   <c:v>1318597.7397139578</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1318597.7397139578</c:v>
+                  <c:v>1318613.6054106019</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1318643.5596812607</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11432,7 +11578,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11555,6 +11701,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11564,7 +11713,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11686,7 +11835,10 @@
                   <c:v>1555666.1423521044</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1575948.6015320313</c:v>
+                  <c:v>1575964.4672286755</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1584107.5110267559</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11729,7 +11881,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11852,6 +12004,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11861,7 +12016,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11984,6 +12139,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>257350.86181807355</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>265463.95134549518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12005,11 +12163,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="549828480"/>
-        <c:axId val="549830656"/>
+        <c:axId val="584108288"/>
+        <c:axId val="584114176"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="549828480"/>
+        <c:axId val="584108288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12052,14 +12210,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="549830656"/>
+        <c:crossAx val="584114176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="549830656"/>
+        <c:axId val="584114176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12110,7 +12268,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="549828480"/>
+        <c:crossAx val="584108288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12301,7 +12459,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12423,7 +12581,10 @@
                   <c:v>182.89540812551292</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>15.86569664408387</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>29.954270658681178</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12438,8 +12599,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="550080512"/>
-        <c:axId val="550004608"/>
+        <c:axId val="616336000"/>
+        <c:axId val="584871936"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -12464,7 +12625,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12587,6 +12748,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12596,7 +12760,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -12719,6 +12883,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.77700001001358032</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12735,11 +12902,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="549993088"/>
-        <c:axId val="550003072"/>
+        <c:axId val="584473216"/>
+        <c:axId val="584493312"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="549993088"/>
+        <c:axId val="584473216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12782,14 +12949,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="550003072"/>
+        <c:crossAx val="584493312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="550003072"/>
+        <c:axId val="584493312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12840,12 +13007,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="549993088"/>
+        <c:crossAx val="584473216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="550004608"/>
+        <c:axId val="584871936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12882,12 +13049,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="550080512"/>
+        <c:crossAx val="616336000"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="550080512"/>
+        <c:axId val="616336000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12896,7 +13063,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="550004608"/>
+        <c:crossAx val="584871936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13075,7 +13242,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -13198,6 +13365,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13207,7 +13377,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13330,6 +13500,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1143576.4192647915</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1147026.0331240541</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13372,7 +13545,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -13495,6 +13668,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13504,7 +13680,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13627,6 +13803,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1244203.3791182756</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1254058.1712762965</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13669,7 +13848,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -13792,6 +13971,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13801,7 +13983,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13924,6 +14106,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>100626.95985348406</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>107032.13815224241</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13945,11 +14130,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="614791040"/>
-        <c:axId val="631035008"/>
+        <c:axId val="491564032"/>
+        <c:axId val="491565824"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="614791040"/>
+        <c:axId val="491564032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13992,14 +14177,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="631035008"/>
+        <c:crossAx val="491565824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="631035008"/>
+        <c:axId val="491565824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14050,7 +14235,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="614791040"/>
+        <c:crossAx val="491564032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14902,7 +15087,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG43"/>
+  <dimension ref="A1:AG44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16764,6 +16949,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="44" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="32">
+        <v>45625</v>
+      </c>
+      <c r="B44" s="31">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C44" s="31">
+        <v>24.719999309999999</v>
+      </c>
+      <c r="D44" s="29">
+        <v>25.593319274370291</v>
+      </c>
+      <c r="E44" s="29">
+        <v>3449.6138592626553</v>
+      </c>
+      <c r="F44" s="30">
+        <v>4416.9190515094906</v>
+      </c>
+      <c r="G44" s="30">
+        <v>1580192.8619657813</v>
+      </c>
+      <c r="H44" s="30">
+        <v>1234130.6538280728</v>
+      </c>
+      <c r="I44" s="30">
+        <v>1130707.2667107254</v>
+      </c>
+      <c r="J44" s="30">
+        <v>1234130.6538280728</v>
+      </c>
+      <c r="K44" s="30">
+        <v>103423.38711734745</v>
+      </c>
+      <c r="L44" s="29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -16780,7 +17003,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH43"/>
+  <dimension ref="A1:AH44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16928,7 +17151,7 @@
       </c>
       <c r="M3" s="21"/>
       <c r="Q3" s="45" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="R3" s="46" t="s">
         <v>13</v>
@@ -19103,15 +19326,65 @@
         <v>0</v>
       </c>
       <c r="M43" s="22">
-        <v>3.2466712754612458E-2</v>
+        <v>2.8722259039386522E-2</v>
       </c>
       <c r="N43" s="22">
-        <v>4.5104453656082198E-2</v>
+        <v>3.9253709790611303E-2</v>
       </c>
       <c r="O43" s="22">
-        <v>71.981168427775472</v>
+        <v>73.17081415386707</v>
       </c>
       <c r="P43" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="15">
+        <v>45625</v>
+      </c>
+      <c r="B44" s="31">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C44" s="16">
+        <v>24.719999309999999</v>
+      </c>
+      <c r="D44" s="17">
+        <v>25.593319274370291</v>
+      </c>
+      <c r="E44" s="17">
+        <v>689.92277185253113</v>
+      </c>
+      <c r="F44" s="18">
+        <v>883.38381030189828</v>
+      </c>
+      <c r="G44" s="18">
+        <v>1810729.3500822606</v>
+      </c>
+      <c r="H44" s="18">
+        <v>1414179.6552243209</v>
+      </c>
+      <c r="I44" s="18">
+        <v>1314334.4395436684</v>
+      </c>
+      <c r="J44" s="18">
+        <v>1414179.6552243209</v>
+      </c>
+      <c r="K44" s="18">
+        <v>99845.215680652531</v>
+      </c>
+      <c r="L44" s="17">
+        <v>0</v>
+      </c>
+      <c r="M44" s="22">
+        <v>2.4601883883860715E-2</v>
+      </c>
+      <c r="N44" s="22">
+        <v>3.3378092843214698E-2</v>
+      </c>
+      <c r="O44" s="22">
+        <v>73.706679406225973</v>
+      </c>
+      <c r="P44" s="1">
         <v>0.2</v>
       </c>
     </row>
@@ -19131,7 +19404,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH43"/>
+  <dimension ref="A1:AH44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21454,15 +21727,65 @@
         <v>0</v>
       </c>
       <c r="M43" s="22">
-        <v>3.2466712754612458E-2</v>
+        <v>2.8722259039386522E-2</v>
       </c>
       <c r="N43" s="22">
-        <v>4.5104453656082198E-2</v>
+        <v>3.9253709790611303E-2</v>
       </c>
       <c r="O43" s="22">
-        <v>71.981168427775472</v>
+        <v>73.17081415386707</v>
       </c>
       <c r="P43" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="15">
+        <v>45625</v>
+      </c>
+      <c r="B44" s="31">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C44" s="16">
+        <v>24.719999309999999</v>
+      </c>
+      <c r="D44" s="17">
+        <v>25.593319274370291</v>
+      </c>
+      <c r="E44" s="17">
+        <v>602.52333053250584</v>
+      </c>
+      <c r="F44" s="18">
+        <v>771.47671773814693</v>
+      </c>
+      <c r="G44" s="18">
+        <v>15364749.612299092</v>
+      </c>
+      <c r="H44" s="18">
+        <v>11999869.725611966</v>
+      </c>
+      <c r="I44" s="18">
+        <v>10879520.18275605</v>
+      </c>
+      <c r="J44" s="18">
+        <v>11999869.725611966</v>
+      </c>
+      <c r="K44" s="18">
+        <v>1120349.5428559165</v>
+      </c>
+      <c r="L44" s="17">
+        <v>0</v>
+      </c>
+      <c r="M44" s="22">
+        <v>2.4601883883860715E-2</v>
+      </c>
+      <c r="N44" s="22">
+        <v>3.3378092843214698E-2</v>
+      </c>
+      <c r="O44" s="22">
+        <v>73.706679406225973</v>
+      </c>
+      <c r="P44" s="1">
         <v>0.2</v>
       </c>
     </row>
@@ -21482,7 +21805,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ43"/>
+  <dimension ref="A1:AJ44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21535,10 +21858,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -24033,28 +24356,28 @@
         <v>25.600824703771881</v>
       </c>
       <c r="E43" s="17">
-        <v>0</v>
+        <v>1578400</v>
       </c>
       <c r="F43" s="17">
-        <v>4776893.3677173248</v>
+        <v>4778839.6069281753</v>
       </c>
       <c r="G43" s="17">
-        <v>0</v>
+        <v>15.86569664408387</v>
       </c>
       <c r="H43" s="18">
-        <v>0</v>
+        <v>20.419171736956056</v>
       </c>
       <c r="I43" s="18">
-        <v>2028247.8522805774</v>
+        <v>2028268.2714523145</v>
       </c>
       <c r="J43" s="18">
-        <v>1575948.6015320313</v>
+        <v>1575964.4672286755</v>
       </c>
       <c r="K43" s="18">
-        <v>1318597.7397139578</v>
+        <v>1318613.6054106019</v>
       </c>
       <c r="L43" s="18">
-        <v>1575948.6015320313</v>
+        <v>1575964.4672286755</v>
       </c>
       <c r="M43" s="18">
         <v>257350.86181807355</v>
@@ -24063,15 +24386,71 @@
         <v>0</v>
       </c>
       <c r="O43" s="22">
-        <v>3.2466712754612458E-2</v>
+        <v>2.8722259039386522E-2</v>
       </c>
       <c r="P43" s="22">
-        <v>4.5104453656082198E-2</v>
+        <v>3.9253709790611303E-2</v>
       </c>
       <c r="Q43" s="22">
-        <v>71.981168427775472</v>
+        <v>73.17081415386707</v>
       </c>
       <c r="R43" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="15">
+        <v>45625</v>
+      </c>
+      <c r="B44" s="31">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C44" s="16">
+        <v>24.719999309999999</v>
+      </c>
+      <c r="D44" s="17">
+        <v>25.593319274370291</v>
+      </c>
+      <c r="E44" s="17">
+        <v>1693501</v>
+      </c>
+      <c r="F44" s="17">
+        <v>4743142.4693134017</v>
+      </c>
+      <c r="G44" s="17">
+        <v>29.954270658681178</v>
+      </c>
+      <c r="H44" s="18">
+        <v>38.353738749959852</v>
+      </c>
+      <c r="I44" s="18">
+        <v>2028306.6251910643</v>
+      </c>
+      <c r="J44" s="18">
+        <v>1584107.5110267559</v>
+      </c>
+      <c r="K44" s="18">
+        <v>1318643.5596812607</v>
+      </c>
+      <c r="L44" s="18">
+        <v>1584107.5110267559</v>
+      </c>
+      <c r="M44" s="18">
+        <v>265463.95134549518</v>
+      </c>
+      <c r="N44" s="17">
+        <v>0</v>
+      </c>
+      <c r="O44" s="22">
+        <v>2.4601883883860715E-2</v>
+      </c>
+      <c r="P44" s="22">
+        <v>3.3378092843214698E-2</v>
+      </c>
+      <c r="Q44" s="22">
+        <v>73.706679406225973</v>
+      </c>
+      <c r="R44" s="1">
         <v>0.2</v>
       </c>
     </row>
@@ -24091,7 +24470,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ43"/>
+  <dimension ref="A1:AJ44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -24132,16 +24511,16 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="E1" s="40" t="s">
         <v>5</v>
@@ -24168,19 +24547,19 @@
         <v>12</v>
       </c>
       <c r="M1" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="48" t="s">
+      <c r="O1" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="P1" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="48" t="s">
+      <c r="Q1" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -26553,18 +26932,71 @@
         <v>0</v>
       </c>
       <c r="M43" s="21">
-        <v>100</v>
+        <v>71.301774260986164</v>
       </c>
       <c r="N43" s="21">
-        <v>69.598581301519474</v>
+        <v>70.166312288008371</v>
       </c>
       <c r="O43" s="21">
-        <v>55.738790153615305</v>
+        <v>60.547964198412991</v>
       </c>
       <c r="P43" s="21">
-        <v>97.318163597327825</v>
+        <v>89.403008467199115</v>
       </c>
       <c r="Q43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="15">
+        <v>45625</v>
+      </c>
+      <c r="B44" s="31">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C44" s="16">
+        <v>24.719999309999999</v>
+      </c>
+      <c r="D44" s="17">
+        <v>25.593319274370291</v>
+      </c>
+      <c r="E44" s="17">
+        <v>3449.6138592626553</v>
+      </c>
+      <c r="F44" s="18">
+        <v>4416.9190515094906</v>
+      </c>
+      <c r="G44" s="18">
+        <v>1605708.2486314531</v>
+      </c>
+      <c r="H44" s="18">
+        <v>1254058.1712762965</v>
+      </c>
+      <c r="I44" s="18">
+        <v>1147026.0331240541</v>
+      </c>
+      <c r="J44" s="18">
+        <v>1254058.1712762965</v>
+      </c>
+      <c r="K44" s="18">
+        <v>107032.13815224241</v>
+      </c>
+      <c r="L44" s="17">
+        <v>0</v>
+      </c>
+      <c r="M44" s="21">
+        <v>67.931038664297006</v>
+      </c>
+      <c r="N44" s="21">
+        <v>69.421221080104587</v>
+      </c>
+      <c r="O44" s="21">
+        <v>63.505716492310192</v>
+      </c>
+      <c r="P44" s="21">
+        <v>81.252230255693362</v>
+      </c>
+      <c r="Q44" s="1">
         <v>1</v>
       </c>
     </row>
@@ -26584,7 +27016,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ43"/>
+  <dimension ref="A1:AJ44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -26628,19 +27060,19 @@
         <v>22</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -28671,33 +29103,77 @@
         <v>25.600824703771881</v>
       </c>
       <c r="E43" s="17">
-        <v>0</v>
+        <v>1578400</v>
       </c>
       <c r="F43" s="17">
-        <v>4776893.3677173248</v>
+        <v>4778839.6069281753</v>
       </c>
       <c r="G43" s="17">
-        <v>0</v>
+        <v>569.72274312846628</v>
       </c>
       <c r="H43" s="18">
-        <v>0</v>
+        <v>733.23389419069474</v>
       </c>
       <c r="I43" s="18">
-        <v>12753979.062410144</v>
+        <v>12754712.296304334</v>
       </c>
       <c r="J43" s="18">
-        <v>9909841.8592056762</v>
+        <v>9910411.5819488037</v>
       </c>
       <c r="K43" s="18">
-        <v>8257762.5822227197</v>
+        <v>8258332.3049658481</v>
       </c>
       <c r="L43" s="18">
-        <v>9909841.8592056762</v>
+        <v>9910411.5819488037</v>
       </c>
       <c r="M43" s="18">
-        <v>1652079.2769829566</v>
+        <v>1652079.2769829556</v>
       </c>
       <c r="N43" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="15">
+        <v>45625</v>
+      </c>
+      <c r="B44" s="31">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C44" s="16">
+        <v>24.719999309999999</v>
+      </c>
+      <c r="D44" s="17">
+        <v>25.593319274370291</v>
+      </c>
+      <c r="E44" s="17">
+        <v>1693501</v>
+      </c>
+      <c r="F44" s="17">
+        <v>4743142.4693134017</v>
+      </c>
+      <c r="G44" s="17">
+        <v>1075.6306281980965</v>
+      </c>
+      <c r="H44" s="18">
+        <v>1377.2478914758306</v>
+      </c>
+      <c r="I44" s="18">
+        <v>12756089.54419581</v>
+      </c>
+      <c r="J44" s="18">
+        <v>9962506.1651548725</v>
+      </c>
+      <c r="K44" s="18">
+        <v>8259407.9355940465</v>
+      </c>
+      <c r="L44" s="18">
+        <v>9962506.1651548725</v>
+      </c>
+      <c r="M44" s="18">
+        <v>1703098.229560826</v>
+      </c>
+      <c r="N44" s="17">
         <v>0</v>
       </c>
     </row>
@@ -28717,7 +29193,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG43"/>
+  <dimension ref="A1:AG44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -30579,6 +31055,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="44" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="15">
+        <v>45625</v>
+      </c>
+      <c r="B44" s="31">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C44" s="16">
+        <v>24.719999309999999</v>
+      </c>
+      <c r="D44" s="17">
+        <v>25.593319274370291</v>
+      </c>
+      <c r="E44" s="17">
+        <v>3012.6166526625288</v>
+      </c>
+      <c r="F44" s="18">
+        <v>3857.3835886907341</v>
+      </c>
+      <c r="G44" s="18">
+        <v>13318796.167407474</v>
+      </c>
+      <c r="H44" s="18">
+        <v>10401980.048079319</v>
+      </c>
+      <c r="I44" s="18">
+        <v>9319756.864148153</v>
+      </c>
+      <c r="J44" s="18">
+        <v>10401980.048079319</v>
+      </c>
+      <c r="K44" s="18">
+        <v>1082223.1839311663</v>
+      </c>
+      <c r="L44" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ)cn.xlsx
@@ -355,7 +355,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -443,6 +443,8 @@
     <xf numFmtId="176" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -656,7 +658,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -782,6 +784,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -791,7 +796,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -907,16 +912,19 @@
                   <c:v>1102813.3837142217</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1123194.2613669224</c:v>
+                  <c:v>1123194.2613680183</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1124647.3973650639</c:v>
+                  <c:v>1124647.3973672311</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1127257.6528514628</c:v>
+                  <c:v>1127257.65285363</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1130707.2667107254</c:v>
+                  <c:v>1130707.2667128926</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1133785.7241379421</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -959,7 +967,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1085,6 +1093,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1094,7 +1105,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1210,16 +1221,19 @@
                   <c:v>972991.0953141842</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>958018.42403340735</c:v>
+                  <c:v>958018.42403450317</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1206043.51752501</c:v>
+                  <c:v>1206043.5175274594</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1224377.923423548</c:v>
+                  <c:v>1224377.9234260293</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1234130.6538280728</c:v>
+                  <c:v>1234130.6538305667</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1249850.5855833527</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1262,7 +1276,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1388,6 +1402,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1397,7 +1414,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1513,16 +1530,19 @@
                   <c:v>-129822.28840003745</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-165175.83733351505</c:v>
+                  <c:v>-165175.83733351517</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>81396.120159946149</c:v>
+                  <c:v>81396.12016022834</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>97120.270572085166</c:v>
+                  <c:v>97120.270572399255</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>103423.38711734745</c:v>
+                  <c:v>103423.38711767411</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>116064.86144541064</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1544,11 +1564,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="494708608"/>
-        <c:axId val="494710144"/>
+        <c:axId val="445868672"/>
+        <c:axId val="461361920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="494708608"/>
+        <c:axId val="445868672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1591,14 +1611,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494710144"/>
+        <c:crossAx val="461361920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="494710144"/>
+        <c:axId val="461361920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1649,7 +1669,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494708608"/>
+        <c:crossAx val="445868672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1840,7 +1860,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1956,16 +1976,19 @@
                   <c:v>32552.967778666007</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>20380.877652700809</c:v>
+                  <c:v>20380.877653796702</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1453.1359981414703</c:v>
+                  <c:v>1453.1359992128223</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>2610.2554863989344</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>3449.6138592626553</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3078.4574250494734</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1980,8 +2003,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="493351680"/>
-        <c:axId val="493337600"/>
+        <c:axId val="492771200"/>
+        <c:axId val="492769664"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2006,7 +2029,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2132,6 +2155,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2141,7 +2167,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2267,6 +2293,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.78899997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2283,11 +2312,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="493334528"/>
-        <c:axId val="493336064"/>
+        <c:axId val="492299392"/>
+        <c:axId val="492300928"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="493334528"/>
+        <c:axId val="492299392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2330,14 +2359,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493336064"/>
+        <c:crossAx val="492300928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="493336064"/>
+        <c:axId val="492300928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2388,12 +2417,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493334528"/>
+        <c:crossAx val="492299392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="493337600"/>
+        <c:axId val="492769664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2430,12 +2459,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493351680"/>
+        <c:crossAx val="492771200"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="493351680"/>
+        <c:axId val="492771200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2444,7 +2473,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="493337600"/>
+        <c:crossAx val="492769664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2623,7 +2652,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2749,6 +2778,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2758,7 +2790,7 @@
               <c:f>'模型二 (2)PE副本成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2884,6 +2916,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>8259407.9355940465</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8260653.9744826676</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2926,7 +2961,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3052,6 +3087,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3061,7 +3099,7 @@
               <c:f>'模型二 (2)PE副本成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3187,6 +3225,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>9962506.1651548725</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10065800.366882509</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3229,7 +3270,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3355,6 +3396,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3364,7 +3408,7 @@
               <c:f>'模型二 (2)PE副本成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3490,6 +3534,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>1703098.229560826</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1805146.392399841</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3511,11 +3558,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="495147264"/>
-        <c:axId val="495149056"/>
+        <c:axId val="492850560"/>
+        <c:axId val="492856448"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="495147264"/>
+        <c:axId val="492850560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3558,14 +3605,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495149056"/>
+        <c:crossAx val="492856448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="495149056"/>
+        <c:axId val="492856448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3616,7 +3663,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495147264"/>
+        <c:crossAx val="492850560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3807,7 +3854,7 @@
               <c:f>'模型二 (2)PE副本成交量'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3933,6 +3980,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>1075.6306281980965</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1246.0388886215089</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3947,8 +3997,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="495177728"/>
-        <c:axId val="495175936"/>
+        <c:axId val="492921984"/>
+        <c:axId val="492907904"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3973,7 +4023,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4099,6 +4149,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4108,7 +4161,7 @@
               <c:f>'模型二 (2)PE副本成交量'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4234,6 +4287,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.78899997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4250,11 +4306,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="495172608"/>
-        <c:axId val="495174400"/>
+        <c:axId val="492904832"/>
+        <c:axId val="492906368"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="495172608"/>
+        <c:axId val="492904832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4297,14 +4353,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495174400"/>
+        <c:crossAx val="492906368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="495174400"/>
+        <c:axId val="492906368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4355,12 +4411,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495172608"/>
+        <c:crossAx val="492904832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="495175936"/>
+        <c:axId val="492907904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4397,12 +4453,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495177728"/>
+        <c:crossAx val="492921984"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="495177728"/>
+        <c:axId val="492921984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4411,7 +4467,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="495175936"/>
+        <c:crossAx val="492907904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4590,7 +4646,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4716,6 +4772,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4725,7 +4784,7 @@
               <c:f>'模型二 (2)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4841,16 +4900,19 @@
                   <c:v>9209325.2065264452</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9314484.7442212198</c:v>
+                  <c:v>9314484.7442325279</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9315019.3275703583</c:v>
+                  <c:v>9315019.3275824543</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9316744.2474954911</c:v>
+                  <c:v>9316744.2475075871</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9319756.864148153</c:v>
+                  <c:v>9319756.864160249</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9322156.0793799553</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4893,7 +4955,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5019,6 +5081,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5028,7 +5093,7 @@
               <c:f>'模型二 (2)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5144,16 +5209,19 @@
                   <c:v>8317385.4645985421</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8120333.5067951689</c:v>
+                  <c:v>8120333.506806477</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>10210855.587295413</c:v>
+                  <c:v>10210855.58731042</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>10345707.568357404</c:v>
+                  <c:v>10345707.568372607</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>10401980.048079319</c:v>
+                  <c:v>10401980.048094602</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10510929.054722106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5196,7 +5264,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5322,6 +5390,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5331,7 +5402,7 @@
               <c:f>'模型二 (2)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5450,13 +5521,16 @@
                   <c:v>-1194151.2374260509</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>895836.25972505473</c:v>
+                  <c:v>895836.25972796604</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1028963.3208619133</c:v>
+                  <c:v>1028963.3208650202</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1082223.1839311663</c:v>
+                  <c:v>1082223.1839343533</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1188772.9753421508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5478,11 +5552,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="503248384"/>
-        <c:axId val="503249920"/>
+        <c:axId val="493046784"/>
+        <c:axId val="493060864"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="503248384"/>
+        <c:axId val="493046784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5525,14 +5599,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503249920"/>
+        <c:crossAx val="493060864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="503249920"/>
+        <c:axId val="493060864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5583,7 +5657,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503248384"/>
+        <c:crossAx val="493046784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5774,7 +5848,7 @@
               <c:f>'模型二 (2)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5890,16 +5964,19 @@
                   <c:v>268277.3952402196</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>105159.53769477447</c:v>
+                  <c:v>105159.5377060835</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>534.58334913787519</c:v>
+                  <c:v>534.58334992613857</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1724.9199251330979</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>3012.6166526625288</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2399.2152197068949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5914,8 +5991,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="506063872"/>
-        <c:axId val="506062336"/>
+        <c:axId val="493077248"/>
+        <c:axId val="493075456"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5940,7 +6017,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6066,6 +6143,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6075,7 +6155,7 @@
               <c:f>'模型二 (2)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6201,6 +6281,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.78899997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6217,11 +6300,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="506050816"/>
-        <c:axId val="506060800"/>
+        <c:axId val="493072384"/>
+        <c:axId val="493073920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="506050816"/>
+        <c:axId val="493072384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6264,14 +6347,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506060800"/>
+        <c:crossAx val="493073920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="506060800"/>
+        <c:axId val="493073920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6322,12 +6405,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506050816"/>
+        <c:crossAx val="493072384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="506062336"/>
+        <c:axId val="493075456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6364,12 +6447,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506063872"/>
+        <c:crossAx val="493077248"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="506063872"/>
+        <c:axId val="493077248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6378,7 +6461,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="506062336"/>
+        <c:crossAx val="493075456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6540,7 +6623,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6656,16 +6739,19 @@
                   <c:v>32552.967778666007</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>20380.877652700809</c:v>
+                  <c:v>20380.877653796702</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1453.1359981414703</c:v>
+                  <c:v>1453.1359992128223</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>2610.2554863989344</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>3449.6138592626553</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3078.4574250494734</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6680,8 +6766,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="549769216"/>
-        <c:axId val="549767424"/>
+        <c:axId val="492348544"/>
+        <c:axId val="492330368"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6706,7 +6792,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6832,6 +6918,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6841,7 +6930,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6967,6 +7056,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.78899997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6983,11 +7075,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="549751040"/>
-        <c:axId val="549765504"/>
+        <c:axId val="492305408"/>
+        <c:axId val="492328832"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="549751040"/>
+        <c:axId val="492305408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7030,14 +7122,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="549765504"/>
+        <c:crossAx val="492328832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="549765504"/>
+        <c:axId val="492328832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7088,12 +7180,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="549751040"/>
+        <c:crossAx val="492305408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="549767424"/>
+        <c:axId val="492330368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7130,12 +7222,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="549769216"/>
+        <c:crossAx val="492348544"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="549769216"/>
+        <c:axId val="492348544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7144,7 +7236,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="549767424"/>
+        <c:crossAx val="492330368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7323,7 +7415,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7449,6 +7541,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7458,7 +7553,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7574,16 +7669,19 @@
                   <c:v>1292380.1527062359</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1311741.9864763017</c:v>
+                  <c:v>1311741.9864773427</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1313122.4656745361</c:v>
+                  <c:v>1313122.4656765948</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1313644.516771816</c:v>
+                  <c:v>1313644.5167738746</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1314334.4395436684</c:v>
+                  <c:v>1314334.4395457271</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1314950.131030737</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7626,7 +7724,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7752,6 +7850,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7761,7 +7862,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7877,16 +7978,19 @@
                   <c:v>1123976.0552000301</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1102498.3143234849</c:v>
+                  <c:v>1102498.3143245261</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1387636.5592142332</c:v>
+                  <c:v>1387636.5592165601</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1406250.3339163498</c:v>
+                  <c:v>1406250.333918707</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1414179.6552243209</c:v>
+                  <c:v>1414179.6552266902</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1429281.102940886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7929,7 +8033,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8055,6 +8159,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8064,7 +8171,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8180,16 +8287,19 @@
                   <c:v>-168404.09750620578</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-209243.67215281678</c:v>
+                  <c:v>-209243.67215281655</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>74514.093539697118</c:v>
+                  <c:v>74514.093539965339</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>92605.817144533852</c:v>
+                  <c:v>92605.817144832341</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>99845.215680652531</c:v>
+                  <c:v>99845.215680963127</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>114330.97191014909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8211,11 +8321,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="578509824"/>
-        <c:axId val="578540288"/>
+        <c:axId val="492822912"/>
+        <c:axId val="492824448"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="578509824"/>
+        <c:axId val="492822912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8258,14 +8368,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="578540288"/>
+        <c:crossAx val="492824448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="578540288"/>
+        <c:axId val="492824448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8316,7 +8426,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="578509824"/>
+        <c:crossAx val="492822912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8516,7 +8626,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8632,16 +8742,19 @@
                   <c:v>30925.319389732704</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>19361.833770065768</c:v>
+                  <c:v>19361.833771106867</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1380.4791982343968</c:v>
+                  <c:v>1380.4791992521812</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>522.05109727978686</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>689.92277185253113</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>615.69148500989468</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8656,8 +8769,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="583153920"/>
-        <c:axId val="583152384"/>
+        <c:axId val="494324352"/>
+        <c:axId val="494322432"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8682,7 +8795,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8808,6 +8921,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8817,7 +8933,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8943,6 +9059,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.78899997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8959,11 +9078,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="582946176"/>
-        <c:axId val="583009792"/>
+        <c:axId val="494318336"/>
+        <c:axId val="494320256"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="582946176"/>
+        <c:axId val="494318336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9006,14 +9125,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="583009792"/>
+        <c:crossAx val="494320256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="583009792"/>
+        <c:axId val="494320256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9064,12 +9183,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="582946176"/>
+        <c:crossAx val="494318336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="583152384"/>
+        <c:axId val="494322432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9106,12 +9225,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="583153920"/>
+        <c:crossAx val="494324352"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="583153920"/>
+        <c:axId val="494324352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9120,7 +9239,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="583152384"/>
+        <c:crossAx val="494322432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9299,7 +9418,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9425,6 +9544,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9434,7 +9556,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9550,16 +9672,19 @@
                   <c:v>10778163.260448774</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>10878064.821258809</c:v>
+                  <c:v>10878064.821269553</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>10878572.67544049</c:v>
+                  <c:v>10878572.675451983</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>10878917.659425518</c:v>
+                  <c:v>10878917.65943701</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>10879520.18275605</c:v>
+                  <c:v>10879520.182767542</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10880000.025811484</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9602,7 +9727,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9728,6 +9853,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9737,7 +9865,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9853,16 +9981,19 @@
                   <c:v>9621029.8903031498</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9371352.1459629666</c:v>
+                  <c:v>9371352.1459737085</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>11783830.98632065</c:v>
+                  <c:v>11783830.986334907</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>11937811.165195141</c:v>
+                  <c:v>11937811.165209584</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>11999869.725611966</c:v>
+                  <c:v>11999869.725626484</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12123266.898858964</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9905,7 +10036,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10031,6 +10162,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10040,7 +10174,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10156,16 +10290,19 @@
                   <c:v>-1157133.3701456245</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-1506712.6752958428</c:v>
+                  <c:v>-1506712.6752958447</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>905258.31088015996</c:v>
+                  <c:v>905258.31088292412</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1058893.5057696234</c:v>
+                  <c:v>1058893.5057725739</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1120349.5428559165</c:v>
+                  <c:v>1120349.5428589415</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1243266.8730474804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10187,11 +10324,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="583740416"/>
-        <c:axId val="583742976"/>
+        <c:axId val="496334336"/>
+        <c:axId val="496336256"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="583740416"/>
+        <c:axId val="496334336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10234,14 +10371,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="583742976"/>
+        <c:crossAx val="496336256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="583742976"/>
+        <c:axId val="496336256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10292,7 +10429,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="583740416"/>
+        <c:crossAx val="496334336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10492,7 +10629,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10608,16 +10745,19 @@
                   <c:v>254863.52547820861</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>99901.560810035735</c:v>
+                  <c:v>99901.560820779327</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>507.85418168098141</c:v>
+                  <c:v>507.85418242983161</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>344.98398502661962</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>602.52333053250584</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>479.84304394137899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10632,8 +10772,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="583784320"/>
-        <c:axId val="583773568"/>
+        <c:axId val="496381952"/>
+        <c:axId val="496367872"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10658,7 +10798,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10784,6 +10924,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10793,7 +10936,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -10919,6 +11062,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.78899997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10935,11 +11081,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="583769088"/>
-        <c:axId val="583771264"/>
+        <c:axId val="496355968"/>
+        <c:axId val="496365952"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="583769088"/>
+        <c:axId val="496355968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10982,14 +11128,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="583771264"/>
+        <c:crossAx val="496365952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="583771264"/>
+        <c:axId val="496365952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11040,12 +11186,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="583769088"/>
+        <c:crossAx val="496355968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="583773568"/>
+        <c:axId val="496367872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11082,12 +11228,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="583784320"/>
+        <c:crossAx val="496381952"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="583784320"/>
+        <c:axId val="496381952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11096,7 +11242,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="583773568"/>
+        <c:crossAx val="496367872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11275,7 +11421,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11401,6 +11547,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11410,7 +11559,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11536,6 +11685,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>1318643.5596812607</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1318678.2594984123</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11578,7 +11730,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11704,6 +11856,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11713,7 +11868,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11839,6 +11994,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>1584107.5110267559</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1600368.575832787</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11881,7 +12039,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12007,6 +12165,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12016,7 +12177,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12142,6 +12303,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>265463.95134549518</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>281690.31633437471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12163,11 +12327,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="584108288"/>
-        <c:axId val="584114176"/>
+        <c:axId val="496449792"/>
+        <c:axId val="496454272"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="584108288"/>
+        <c:axId val="496449792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12210,14 +12374,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584114176"/>
+        <c:crossAx val="496454272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="584114176"/>
+        <c:axId val="496454272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12268,7 +12432,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584108288"/>
+        <c:crossAx val="496449792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12459,7 +12623,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12585,6 +12749,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>29.954270658681178</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>34.699817151485057</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12599,8 +12766,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="616336000"/>
-        <c:axId val="584871936"/>
+        <c:axId val="496691072"/>
+        <c:axId val="496688512"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -12625,7 +12792,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12751,6 +12918,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12760,7 +12930,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -12886,6 +13056,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.78899997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12902,11 +13075,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="584473216"/>
-        <c:axId val="584493312"/>
+        <c:axId val="496590208"/>
+        <c:axId val="496686208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="584473216"/>
+        <c:axId val="496590208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12949,14 +13122,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584493312"/>
+        <c:crossAx val="496686208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="584493312"/>
+        <c:axId val="496686208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13007,12 +13180,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584473216"/>
+        <c:crossAx val="496590208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="584871936"/>
+        <c:axId val="496688512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13049,12 +13222,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616336000"/>
+        <c:crossAx val="496691072"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="616336000"/>
+        <c:axId val="496691072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13063,7 +13236,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="584871936"/>
+        <c:crossAx val="496688512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13242,7 +13415,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -13368,6 +13541,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13377,7 +13553,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13493,16 +13669,19 @@
                   <c:v>1119132.1501275504</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1139513.0277802511</c:v>
+                  <c:v>1139513.027781347</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1140966.1637783926</c:v>
+                  <c:v>1140966.1637805598</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1143576.4192647915</c:v>
+                  <c:v>1143576.4192669587</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1147026.0331240541</c:v>
+                  <c:v>1147026.0331262213</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1150104.4905512708</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13545,7 +13724,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -13671,6 +13850,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13680,7 +13862,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13796,16 +13978,19 @@
                   <c:v>989142.33548722172</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>973582.81026446761</c:v>
+                  <c:v>973582.81026556354</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1225613.8195964145</c:v>
+                  <c:v>1225613.8195988638</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1244203.3791182756</c:v>
+                  <c:v>1244203.3791207566</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1254058.1712762965</c:v>
+                  <c:v>1254058.1712787906</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1269982.2250177334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13848,7 +14033,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -13974,6 +14159,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13983,7 +14171,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14102,13 +14290,16 @@
                   <c:v>-165930.2175157835</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>84647.655818021856</c:v>
+                  <c:v>84647.655818304047</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>100626.95985348406</c:v>
+                  <c:v>100626.95985379792</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>107032.13815224241</c:v>
+                  <c:v>107032.1381525693</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>119877.73446646263</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14130,11 +14321,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="491564032"/>
-        <c:axId val="491565824"/>
+        <c:axId val="498918144"/>
+        <c:axId val="498919680"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="491564032"/>
+        <c:axId val="498918144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14177,14 +14368,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491565824"/>
+        <c:crossAx val="498919680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="491565824"/>
+        <c:axId val="498919680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14235,7 +14426,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491564032"/>
+        <c:crossAx val="498918144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15087,7 +15278,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG44"/>
+  <dimension ref="A1:AG46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15267,6 +15458,16 @@
         <f>-AC3</f>
         <v>-71470.218956071636</v>
       </c>
+      <c r="AE3" s="42">
+        <v>44561</v>
+      </c>
+      <c r="AF3" s="24">
+        <v>71470.218956071636</v>
+      </c>
+      <c r="AG3" s="24">
+        <f>-AF3</f>
+        <v>-71470.218956071636</v>
+      </c>
     </row>
     <row r="4" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="32">
@@ -15350,9 +15551,16 @@
         <f>-AC4</f>
         <v>-401953.44479283423</v>
       </c>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="27"/>
-      <c r="AG4" s="27"/>
+      <c r="AE4" s="42">
+        <v>44925</v>
+      </c>
+      <c r="AF4" s="27">
+        <v>401953.44479283423</v>
+      </c>
+      <c r="AG4" s="27">
+        <f>-AF4</f>
+        <v>-401953.44479283423</v>
+      </c>
     </row>
     <row r="5" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="32">
@@ -15433,9 +15641,16 @@
         <f>-AC5</f>
         <v>-377214.1657703988</v>
       </c>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="27"/>
-      <c r="AG5" s="27"/>
+      <c r="AE5" s="42">
+        <v>45289</v>
+      </c>
+      <c r="AF5" s="27">
+        <v>377214.1657703988</v>
+      </c>
+      <c r="AG5" s="27">
+        <f>-AF5</f>
+        <v>-377214.1657703988</v>
+      </c>
     </row>
     <row r="6" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="32">
@@ -15511,7 +15726,16 @@
       <c r="AD6" s="28">
         <v>731948.73696905444</v>
       </c>
-      <c r="AE6" s="19"/>
+      <c r="AE6" s="42">
+        <v>45657</v>
+      </c>
+      <c r="AF6" s="24">
+        <v>283147.89461647021</v>
+      </c>
+      <c r="AG6" s="24">
+        <f>-AF6</f>
+        <v>-283147.89461647021</v>
+      </c>
     </row>
     <row r="7" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="32">
@@ -15551,13 +15775,42 @@
         <v>0</v>
       </c>
       <c r="M7" s="27"/>
+      <c r="P7" s="42">
+        <v>45657</v>
+      </c>
+      <c r="Q7" s="35">
+        <v>283147.89461863739</v>
+      </c>
+      <c r="R7" s="34">
+        <v>1133785.7241379421</v>
+      </c>
+      <c r="S7" s="34">
+        <v>1249850.5855833527</v>
+      </c>
+      <c r="T7" s="34">
+        <v>116064.86144541064</v>
+      </c>
+      <c r="U7" s="34">
+        <v>0</v>
+      </c>
+      <c r="V7" s="33">
+        <v>0.10236930927460647</v>
+      </c>
+      <c r="W7" s="33">
+        <v>4.4302839298554275E-2</v>
+      </c>
       <c r="Y7" s="27"/>
       <c r="Z7" s="27"/>
       <c r="AA7" s="27"/>
       <c r="AD7" s="25">
         <v>-8.8470898848600599E-2</v>
       </c>
-      <c r="AG7" s="25"/>
+      <c r="AE7" s="42">
+        <v>45657</v>
+      </c>
+      <c r="AG7" s="25">
+        <v>1249850.5855808333</v>
+      </c>
     </row>
     <row r="8" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="32">
@@ -15597,6 +15850,9 @@
         <v>0</v>
       </c>
       <c r="M8" s="27"/>
+      <c r="AG8" s="25">
+        <v>4.4302839298554275E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="32">
@@ -16846,28 +17102,28 @@
         <v>20.56999969</v>
       </c>
       <c r="D41" s="29">
-        <v>25.729715551443242</v>
+        <v>25.729715551720684</v>
       </c>
       <c r="E41" s="29">
-        <v>20380.877652700809</v>
+        <v>20380.877653796702</v>
       </c>
       <c r="F41" s="30">
-        <v>33411.274056965078</v>
+        <v>33411.274058761628</v>
       </c>
       <c r="G41" s="30">
-        <v>1570521.9697818202</v>
+        <v>1570521.9697836167</v>
       </c>
       <c r="H41" s="30">
-        <v>958018.42403340735</v>
+        <v>958018.42403450317</v>
       </c>
       <c r="I41" s="30">
-        <v>1123194.2613669224</v>
+        <v>1123194.2613680183</v>
       </c>
       <c r="J41" s="30">
-        <v>958018.42403340735</v>
+        <v>958018.42403450317</v>
       </c>
       <c r="K41" s="30">
-        <v>-165175.83733351505</v>
+        <v>-165175.83733351517</v>
       </c>
       <c r="L41" s="29">
         <v>0</v>
@@ -16884,28 +17140,28 @@
         <v>25.239999770000001</v>
       </c>
       <c r="D42" s="29">
-        <v>25.607882301175056</v>
+        <v>25.607882301446285</v>
       </c>
       <c r="E42" s="29">
-        <v>1453.1359981414703</v>
+        <v>1453.1359992128223</v>
       </c>
       <c r="F42" s="30">
-        <v>1894.5710053481021</v>
+        <v>1894.5710067449104</v>
       </c>
       <c r="G42" s="30">
-        <v>1572416.5407871683</v>
+        <v>1572416.5407903616</v>
       </c>
       <c r="H42" s="30">
-        <v>1206043.51752501</v>
+        <v>1206043.5175274594</v>
       </c>
       <c r="I42" s="30">
-        <v>1124647.3973650639</v>
+        <v>1124647.3973672311</v>
       </c>
       <c r="J42" s="30">
-        <v>1206043.51752501</v>
+        <v>1206043.5175274594</v>
       </c>
       <c r="K42" s="30">
-        <v>81396.120159946149</v>
+        <v>81396.12016022834</v>
       </c>
       <c r="L42" s="29">
         <v>0</v>
@@ -16931,19 +17187,19 @@
         <v>3359.4021271033353</v>
       </c>
       <c r="G43" s="30">
-        <v>1575775.9429142717</v>
+        <v>1575775.942917465</v>
       </c>
       <c r="H43" s="30">
-        <v>1224377.923423548</v>
+        <v>1224377.9234260293</v>
       </c>
       <c r="I43" s="30">
-        <v>1127257.6528514628</v>
+        <v>1127257.65285363</v>
       </c>
       <c r="J43" s="30">
-        <v>1224377.923423548</v>
+        <v>1224377.9234260293</v>
       </c>
       <c r="K43" s="30">
-        <v>97120.270572085166</v>
+        <v>97120.270572399255</v>
       </c>
       <c r="L43" s="29">
         <v>0</v>
@@ -16969,23 +17225,64 @@
         <v>4416.9190515094906</v>
       </c>
       <c r="G44" s="30">
-        <v>1580192.8619657813</v>
+        <v>1580192.8619689746</v>
       </c>
       <c r="H44" s="30">
-        <v>1234130.6538280728</v>
+        <v>1234130.6538305667</v>
       </c>
       <c r="I44" s="30">
-        <v>1130707.2667107254</v>
+        <v>1130707.2667128926</v>
       </c>
       <c r="J44" s="30">
-        <v>1234130.6538280728</v>
+        <v>1234130.6538305667</v>
       </c>
       <c r="K44" s="30">
-        <v>103423.38711734745</v>
+        <v>103423.38711767411</v>
       </c>
       <c r="L44" s="29">
         <v>0</v>
       </c>
+    </row>
+    <row r="45" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="32">
+        <v>45657</v>
+      </c>
+      <c r="B45" s="31">
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C45" s="31">
+        <v>24.799999239999998</v>
+      </c>
+      <c r="D45" s="29">
+        <v>25.579355550139105</v>
+      </c>
+      <c r="E45" s="29">
+        <v>3078.4574250494734</v>
+      </c>
+      <c r="F45" s="30">
+        <v>3901.7205623006294</v>
+      </c>
+      <c r="G45" s="30">
+        <v>1584094.5825312752</v>
+      </c>
+      <c r="H45" s="30">
+        <v>1249850.5855833527</v>
+      </c>
+      <c r="I45" s="30">
+        <v>1133785.7241379421</v>
+      </c>
+      <c r="J45" s="30">
+        <v>1249850.5855833527</v>
+      </c>
+      <c r="K45" s="30">
+        <v>116064.86144541064</v>
+      </c>
+      <c r="L45" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A46" s="49"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -17003,7 +17300,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH44"/>
+  <dimension ref="A1:AH46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17194,6 +17491,16 @@
         <f>-AD3</f>
         <v>-111243.6393122976</v>
       </c>
+      <c r="AF3" s="42">
+        <v>44561</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>111243.6393122976</v>
+      </c>
+      <c r="AH3" s="1">
+        <f>-AG3</f>
+        <v>-111243.6393122976</v>
+      </c>
     </row>
     <row r="4" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
@@ -17285,9 +17592,16 @@
         <f>-AD4</f>
         <v>-560921.33505378838</v>
       </c>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="7"/>
-      <c r="AH4" s="7"/>
+      <c r="AF4" s="42">
+        <v>44925</v>
+      </c>
+      <c r="AG4" s="7">
+        <v>560921.33505378838</v>
+      </c>
+      <c r="AH4" s="7">
+        <f>-AG4</f>
+        <v>-560921.33505378838</v>
+      </c>
     </row>
     <row r="5" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
@@ -17379,9 +17693,16 @@
         <f>-AD5</f>
         <v>-338361.24530388066</v>
       </c>
-      <c r="AF5" s="19"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
+      <c r="AF5" s="42">
+        <v>45289</v>
+      </c>
+      <c r="AG5" s="7">
+        <v>338361.24530388066</v>
+      </c>
+      <c r="AH5" s="7">
+        <f>-AG5</f>
+        <v>-338361.24530388066</v>
+      </c>
     </row>
     <row r="6" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
@@ -17468,7 +17789,16 @@
       <c r="AE6" s="8">
         <v>855691.54938569851</v>
       </c>
-      <c r="AF6" s="19"/>
+      <c r="AF6" s="42">
+        <v>45657</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>304423.91135871166</v>
+      </c>
+      <c r="AH6" s="1">
+        <f>-AG6</f>
+        <v>-304423.91135871166</v>
+      </c>
     </row>
     <row r="7" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
@@ -17518,6 +17848,30 @@
       </c>
       <c r="P7" s="1">
         <v>2</v>
+      </c>
+      <c r="Q7" s="42">
+        <v>45657</v>
+      </c>
+      <c r="R7" s="10">
+        <v>304423.91136077035</v>
+      </c>
+      <c r="S7" s="4">
+        <v>1314950.131030737</v>
+      </c>
+      <c r="T7" s="4">
+        <v>1429281.102940886</v>
+      </c>
+      <c r="U7" s="4">
+        <v>114330.97191014909</v>
+      </c>
+      <c r="V7" s="4">
+        <v>0</v>
+      </c>
+      <c r="W7" s="9">
+        <v>8.6947002180629923E-2</v>
+      </c>
+      <c r="X7" s="9">
+        <v>3.5661040175850145E-2</v>
       </c>
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
@@ -17525,7 +17879,12 @@
       <c r="AE7" s="2">
         <v>-9.0333955811988886E-2</v>
       </c>
-      <c r="AH7" s="2"/>
+      <c r="AF7" s="42">
+        <v>45657</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>1429281.1029384923</v>
+      </c>
     </row>
     <row r="8" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
@@ -17575,6 +17934,9 @@
       </c>
       <c r="P8" s="1">
         <v>1</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>3.5661040175850145E-2</v>
       </c>
     </row>
     <row r="9" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -19199,28 +19561,28 @@
         <v>20.56999969</v>
       </c>
       <c r="D41" s="17">
-        <v>25.729715551443242</v>
+        <v>25.729715551720684</v>
       </c>
       <c r="E41" s="17">
-        <v>19361.833770065768</v>
+        <v>19361.833771106867</v>
       </c>
       <c r="F41" s="18">
-        <v>31740.710354116829</v>
+        <v>31740.710355823547</v>
       </c>
       <c r="G41" s="18">
-        <v>1807374.2433914572</v>
+        <v>1807374.2433931641</v>
       </c>
       <c r="H41" s="18">
-        <v>1102498.3143234849</v>
+        <v>1102498.3143245261</v>
       </c>
       <c r="I41" s="18">
-        <v>1311741.9864763017</v>
+        <v>1311741.9864773427</v>
       </c>
       <c r="J41" s="18">
-        <v>1102498.3143234849</v>
+        <v>1102498.3143245261</v>
       </c>
       <c r="K41" s="18">
-        <v>-209243.67215281678</v>
+        <v>-209243.67215281655</v>
       </c>
       <c r="L41" s="17">
         <v>0</v>
@@ -19249,28 +19611,28 @@
         <v>25.239999770000001</v>
       </c>
       <c r="D42" s="17">
-        <v>25.607882301175056</v>
+        <v>25.607882301446285</v>
       </c>
       <c r="E42" s="17">
-        <v>1380.4791982343968</v>
+        <v>1380.4791992521812</v>
       </c>
       <c r="F42" s="18">
-        <v>1799.8424550806969</v>
+        <v>1799.8424564076647</v>
       </c>
       <c r="G42" s="18">
-        <v>1809174.085846538</v>
+        <v>1809174.0858495717</v>
       </c>
       <c r="H42" s="18">
-        <v>1387636.5592142332</v>
+        <v>1387636.5592165601</v>
       </c>
       <c r="I42" s="18">
-        <v>1313122.4656745361</v>
+        <v>1313122.4656765948</v>
       </c>
       <c r="J42" s="18">
-        <v>1387636.5592142332</v>
+        <v>1387636.5592165601</v>
       </c>
       <c r="K42" s="18">
-        <v>74514.093539697118</v>
+        <v>74514.093539965339</v>
       </c>
       <c r="L42" s="17">
         <v>0</v>
@@ -19308,19 +19670,19 @@
         <v>671.88042542066694</v>
       </c>
       <c r="G43" s="18">
-        <v>1809845.9662719585</v>
+        <v>1809845.9662749923</v>
       </c>
       <c r="H43" s="18">
-        <v>1406250.3339163498</v>
+        <v>1406250.333918707</v>
       </c>
       <c r="I43" s="18">
-        <v>1313644.516771816</v>
+        <v>1313644.5167738746</v>
       </c>
       <c r="J43" s="18">
-        <v>1406250.3339163498</v>
+        <v>1406250.333918707</v>
       </c>
       <c r="K43" s="18">
-        <v>92605.817144533852</v>
+        <v>92605.817144832341</v>
       </c>
       <c r="L43" s="17">
         <v>0</v>
@@ -19358,19 +19720,19 @@
         <v>883.38381030189828</v>
       </c>
       <c r="G44" s="18">
-        <v>1810729.3500822606</v>
+        <v>1810729.3500852943</v>
       </c>
       <c r="H44" s="18">
-        <v>1414179.6552243209</v>
+        <v>1414179.6552266902</v>
       </c>
       <c r="I44" s="18">
-        <v>1314334.4395436684</v>
+        <v>1314334.4395457271</v>
       </c>
       <c r="J44" s="18">
-        <v>1414179.6552243209</v>
+        <v>1414179.6552266902</v>
       </c>
       <c r="K44" s="18">
-        <v>99845.215680652531</v>
+        <v>99845.215680963127</v>
       </c>
       <c r="L44" s="17">
         <v>0</v>
@@ -19387,6 +19749,59 @@
       <c r="P44" s="1">
         <v>0.2</v>
       </c>
+    </row>
+    <row r="45" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="15">
+        <v>45657</v>
+      </c>
+      <c r="B45" s="31">
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C45" s="16">
+        <v>24.799999239999998</v>
+      </c>
+      <c r="D45" s="17">
+        <v>25.579355550139105</v>
+      </c>
+      <c r="E45" s="17">
+        <v>615.69148500989468</v>
+      </c>
+      <c r="F45" s="18">
+        <v>780.34411246012587</v>
+      </c>
+      <c r="G45" s="18">
+        <v>1811509.6941977544</v>
+      </c>
+      <c r="H45" s="18">
+        <v>1429281.102940886</v>
+      </c>
+      <c r="I45" s="18">
+        <v>1314950.131030737</v>
+      </c>
+      <c r="J45" s="18">
+        <v>1429281.102940886</v>
+      </c>
+      <c r="K45" s="18">
+        <v>114330.97191014909</v>
+      </c>
+      <c r="L45" s="17">
+        <v>0</v>
+      </c>
+      <c r="M45" s="22">
+        <v>2.1834896004520363E-2</v>
+      </c>
+      <c r="N45" s="22">
+        <v>2.914840347064868E-2</v>
+      </c>
+      <c r="O45" s="22">
+        <v>74.909406364253414</v>
+      </c>
+      <c r="P45" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A46" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -19404,7 +19819,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH44"/>
+  <dimension ref="A1:AH46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19595,6 +20010,16 @@
         <f>-AD3</f>
         <v>-391166.03767330461</v>
       </c>
+      <c r="AF3" s="42">
+        <v>44561</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>391166.03767330461</v>
+      </c>
+      <c r="AH3" s="1">
+        <f>-AG3</f>
+        <v>-391166.03767330461</v>
+      </c>
     </row>
     <row r="4" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
@@ -19686,9 +20111,16 @@
         <f>-AD4</f>
         <v>-4936141.1701060347</v>
       </c>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="7"/>
-      <c r="AH4" s="7"/>
+      <c r="AF4" s="42">
+        <v>44925</v>
+      </c>
+      <c r="AG4" s="7">
+        <v>4936141.1701060347</v>
+      </c>
+      <c r="AH4" s="7">
+        <f>-AG4</f>
+        <v>-4936141.1701060347</v>
+      </c>
     </row>
     <row r="5" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
@@ -19780,9 +20212,16 @@
         <f>-AD5</f>
         <v>-2811253.8169439584</v>
       </c>
-      <c r="AF5" s="19"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
+      <c r="AF5" s="42">
+        <v>45289</v>
+      </c>
+      <c r="AG5" s="7">
+        <v>2811253.8169439584</v>
+      </c>
+      <c r="AH5" s="7">
+        <f>-AG5</f>
+        <v>-2811253.8169439584</v>
+      </c>
     </row>
     <row r="6" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
@@ -19869,7 +20308,16 @@
       <c r="AE6" s="8">
         <v>7072800.7878068425</v>
       </c>
-      <c r="AF6" s="19"/>
+      <c r="AF6" s="42">
+        <v>45657</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>2741439.0010766936</v>
+      </c>
+      <c r="AH6" s="1">
+        <f>-AG6</f>
+        <v>-2741439.0010766936</v>
+      </c>
     </row>
     <row r="7" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
@@ -19919,6 +20367,30 @@
       </c>
       <c r="P7" s="1">
         <v>2</v>
+      </c>
+      <c r="Q7" s="42">
+        <v>45657</v>
+      </c>
+      <c r="R7" s="10">
+        <v>2741439.0010881862</v>
+      </c>
+      <c r="S7" s="4">
+        <v>10880000.025811484</v>
+      </c>
+      <c r="T7" s="4">
+        <v>12123266.898858964</v>
+      </c>
+      <c r="U7" s="4">
+        <v>1243266.8730474804</v>
+      </c>
+      <c r="V7" s="4">
+        <v>0</v>
+      </c>
+      <c r="W7" s="9">
+        <v>0.11427085203106435</v>
+      </c>
+      <c r="X7" s="9">
+        <v>4.8343179700312433E-2</v>
       </c>
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
@@ -19926,7 +20398,12 @@
       <c r="AE7" s="2">
         <v>-7.9697327658813766E-2</v>
       </c>
-      <c r="AH7" s="2"/>
+      <c r="AF7" s="42">
+        <v>45657</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>12123266.898844298</v>
+      </c>
     </row>
     <row r="8" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
@@ -19976,6 +20453,9 @@
       </c>
       <c r="P8" s="1">
         <v>1</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>4.8343179700312433E-2</v>
       </c>
     </row>
     <row r="9" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -21600,28 +22080,28 @@
         <v>20.56999969</v>
       </c>
       <c r="D41" s="17">
-        <v>25.729715551443242</v>
+        <v>25.729715551720684</v>
       </c>
       <c r="E41" s="17">
-        <v>99901.560810035735</v>
+        <v>99901.560820779327</v>
       </c>
       <c r="F41" s="18">
-        <v>163773.0466676123</v>
+        <v>163773.04668522475</v>
       </c>
       <c r="G41" s="18">
-        <v>15362872.010156261</v>
+        <v>15362872.010173872</v>
       </c>
       <c r="H41" s="18">
-        <v>9371352.1459629666</v>
+        <v>9371352.1459737085</v>
       </c>
       <c r="I41" s="18">
-        <v>10878064.821258809</v>
+        <v>10878064.821269553</v>
       </c>
       <c r="J41" s="18">
-        <v>9371352.1459629666</v>
+        <v>9371352.1459737085</v>
       </c>
       <c r="K41" s="18">
-        <v>-1506712.6752958428</v>
+        <v>-1506712.6752958447</v>
       </c>
       <c r="L41" s="17">
         <v>0</v>
@@ -21650,28 +22130,28 @@
         <v>25.239999770000001</v>
       </c>
       <c r="D42" s="17">
-        <v>25.607882301175056</v>
+        <v>25.607882301446285</v>
       </c>
       <c r="E42" s="17">
-        <v>507.85418168098141</v>
+        <v>507.85418242983161</v>
       </c>
       <c r="F42" s="18">
-        <v>662.13059809141339</v>
+        <v>662.13059906774993</v>
       </c>
       <c r="G42" s="18">
-        <v>15363534.140754351</v>
+        <v>15363534.140772941</v>
       </c>
       <c r="H42" s="18">
-        <v>11783830.98632065</v>
+        <v>11783830.986334907</v>
       </c>
       <c r="I42" s="18">
-        <v>10878572.67544049</v>
+        <v>10878572.675451983</v>
       </c>
       <c r="J42" s="18">
-        <v>11783830.98632065</v>
+        <v>11783830.986334907</v>
       </c>
       <c r="K42" s="18">
-        <v>905258.31088015996</v>
+        <v>905258.31088292412</v>
       </c>
       <c r="L42" s="17">
         <v>0</v>
@@ -21709,19 +22189,19 @@
         <v>443.99482700211297</v>
       </c>
       <c r="G43" s="18">
-        <v>15363978.135581354</v>
+        <v>15363978.135599943</v>
       </c>
       <c r="H43" s="18">
-        <v>11937811.165195141</v>
+        <v>11937811.165209584</v>
       </c>
       <c r="I43" s="18">
-        <v>10878917.659425518</v>
+        <v>10878917.65943701</v>
       </c>
       <c r="J43" s="18">
-        <v>11937811.165195141</v>
+        <v>11937811.165209584</v>
       </c>
       <c r="K43" s="18">
-        <v>1058893.5057696234</v>
+        <v>1058893.5057725739</v>
       </c>
       <c r="L43" s="17">
         <v>0</v>
@@ -21759,19 +22239,19 @@
         <v>771.47671773814693</v>
       </c>
       <c r="G44" s="18">
-        <v>15364749.612299092</v>
+        <v>15364749.612317681</v>
       </c>
       <c r="H44" s="18">
-        <v>11999869.725611966</v>
+        <v>11999869.725626484</v>
       </c>
       <c r="I44" s="18">
-        <v>10879520.18275605</v>
+        <v>10879520.182767542</v>
       </c>
       <c r="J44" s="18">
-        <v>11999869.725611966</v>
+        <v>11999869.725626484</v>
       </c>
       <c r="K44" s="18">
-        <v>1120349.5428559165</v>
+        <v>1120349.5428589415</v>
       </c>
       <c r="L44" s="17">
         <v>0</v>
@@ -21788,6 +22268,59 @@
       <c r="P44" s="1">
         <v>0.2</v>
       </c>
+    </row>
+    <row r="45" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="15">
+        <v>45657</v>
+      </c>
+      <c r="B45" s="31">
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C45" s="16">
+        <v>24.799999239999998</v>
+      </c>
+      <c r="D45" s="17">
+        <v>25.579355550139105</v>
+      </c>
+      <c r="E45" s="17">
+        <v>479.84304394137899</v>
+      </c>
+      <c r="F45" s="18">
+        <v>608.16610812570025</v>
+      </c>
+      <c r="G45" s="18">
+        <v>15365357.778425807</v>
+      </c>
+      <c r="H45" s="18">
+        <v>12123266.898858964</v>
+      </c>
+      <c r="I45" s="18">
+        <v>10880000.025811484</v>
+      </c>
+      <c r="J45" s="18">
+        <v>12123266.898858964</v>
+      </c>
+      <c r="K45" s="18">
+        <v>1243266.8730474804</v>
+      </c>
+      <c r="L45" s="17">
+        <v>0</v>
+      </c>
+      <c r="M45" s="22">
+        <v>2.1834896004520363E-2</v>
+      </c>
+      <c r="N45" s="22">
+        <v>2.914840347064868E-2</v>
+      </c>
+      <c r="O45" s="22">
+        <v>74.909406364253414</v>
+      </c>
+      <c r="P45" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A46" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -21805,7 +22338,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ44"/>
+  <dimension ref="A1:AJ46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22014,6 +22547,16 @@
         <f>-AF3</f>
         <v>-10976.008183548318</v>
       </c>
+      <c r="AH3" s="42">
+        <v>44561</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>10976.008183548318</v>
+      </c>
+      <c r="AJ3" s="1">
+        <f>-AI3</f>
+        <v>-10976.008183548318</v>
+      </c>
     </row>
     <row r="4" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
@@ -22111,9 +22654,16 @@
         <f>-AF4</f>
         <v>-211828.4724995298</v>
       </c>
-      <c r="AH4" s="6"/>
-      <c r="AI4" s="7"/>
-      <c r="AJ4" s="7"/>
+      <c r="AH4" s="42">
+        <v>44925</v>
+      </c>
+      <c r="AI4" s="7">
+        <v>211828.4724995298</v>
+      </c>
+      <c r="AJ4" s="7">
+        <f>-AI4</f>
+        <v>-211828.4724995298</v>
+      </c>
     </row>
     <row r="5" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
@@ -22211,9 +22761,16 @@
         <f>-AF5</f>
         <v>-263265.13798341731</v>
       </c>
-      <c r="AH5" s="19"/>
-      <c r="AI5" s="7"/>
-      <c r="AJ5" s="7"/>
+      <c r="AH5" s="42">
+        <v>45289</v>
+      </c>
+      <c r="AI5" s="7">
+        <v>263265.13798341731</v>
+      </c>
+      <c r="AJ5" s="7">
+        <f>-AI5</f>
+        <v>-263265.13798341731</v>
+      </c>
     </row>
     <row r="6" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
@@ -22306,7 +22863,16 @@
       <c r="AG6" s="8">
         <v>440577.85841508594</v>
       </c>
-      <c r="AH6" s="19"/>
+      <c r="AH6" s="42">
+        <v>45657</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>832608.64083191683</v>
+      </c>
+      <c r="AJ6" s="1">
+        <f>-AI6</f>
+        <v>-832608.64083191683</v>
+      </c>
     </row>
     <row r="7" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
@@ -22362,6 +22928,30 @@
       </c>
       <c r="R7" s="1">
         <v>2</v>
+      </c>
+      <c r="S7" s="42">
+        <v>45657</v>
+      </c>
+      <c r="T7" s="10">
+        <v>832608.64083191683</v>
+      </c>
+      <c r="U7" s="4">
+        <v>1318678.2594984123</v>
+      </c>
+      <c r="V7" s="4">
+        <v>1600368.575832787</v>
+      </c>
+      <c r="W7" s="4">
+        <v>281690.31633437471</v>
+      </c>
+      <c r="X7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>0.21361565211632572</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>0.1299195578465453</v>
       </c>
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
@@ -22369,7 +22959,12 @@
       <c r="AG7" s="2">
         <v>-6.4611465400573387E-2</v>
       </c>
-      <c r="AJ7" s="2"/>
+      <c r="AH7" s="42">
+        <v>45657</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>1600368.575832787</v>
+      </c>
     </row>
     <row r="8" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
@@ -22425,6 +23020,9 @@
       </c>
       <c r="R8" s="1">
         <v>1</v>
+      </c>
+      <c r="AJ8" s="2">
+        <v>0.1299195578465453</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -24453,6 +25051,65 @@
       <c r="R44" s="1">
         <v>0.2</v>
       </c>
+    </row>
+    <row r="45" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="15">
+        <v>45657</v>
+      </c>
+      <c r="B45" s="31">
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C45" s="16">
+        <v>24.799999239999998</v>
+      </c>
+      <c r="D45" s="17">
+        <v>25.579355550139105</v>
+      </c>
+      <c r="E45" s="17">
+        <v>2431000</v>
+      </c>
+      <c r="F45" s="17">
+        <v>4680826.7802620027</v>
+      </c>
+      <c r="G45" s="17">
+        <v>34.699817151485057</v>
+      </c>
+      <c r="H45" s="18">
+        <v>43.979490827567801</v>
+      </c>
+      <c r="I45" s="18">
+        <v>2028350.6046818919</v>
+      </c>
+      <c r="J45" s="18">
+        <v>1600368.575832787</v>
+      </c>
+      <c r="K45" s="18">
+        <v>1318678.2594984123</v>
+      </c>
+      <c r="L45" s="18">
+        <v>1600368.575832787</v>
+      </c>
+      <c r="M45" s="18">
+        <v>281690.31633437471</v>
+      </c>
+      <c r="N45" s="17">
+        <v>0</v>
+      </c>
+      <c r="O45" s="22">
+        <v>2.1834896004520363E-2</v>
+      </c>
+      <c r="P45" s="22">
+        <v>2.914840347064868E-2</v>
+      </c>
+      <c r="Q45" s="22">
+        <v>74.909406364253414</v>
+      </c>
+      <c r="R45" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A46" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -24470,7 +25127,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ44"/>
+  <dimension ref="A1:AJ46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -24680,6 +25337,16 @@
         <f>-AF3</f>
         <v>-71470.218956071636</v>
       </c>
+      <c r="AH3" s="42">
+        <v>44561</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>71470.218956071636</v>
+      </c>
+      <c r="AJ3" s="1">
+        <f>-AI3</f>
+        <v>-71470.218956071636</v>
+      </c>
     </row>
     <row r="4" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
@@ -24777,9 +25444,16 @@
         <f>-AF4</f>
         <v>-408826.47803933907</v>
       </c>
-      <c r="AH4" s="6"/>
-      <c r="AI4" s="7"/>
-      <c r="AJ4" s="7"/>
+      <c r="AH4" s="42">
+        <v>44925</v>
+      </c>
+      <c r="AI4" s="7">
+        <v>408826.47803933907</v>
+      </c>
+      <c r="AJ4" s="7">
+        <f>-AI4</f>
+        <v>-408826.47803933907</v>
+      </c>
     </row>
     <row r="5" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
@@ -24874,9 +25548,16 @@
         <f>-AF5</f>
         <v>-377214.1657703988</v>
       </c>
-      <c r="AH5" s="19"/>
-      <c r="AI5" s="7"/>
-      <c r="AJ5" s="7"/>
+      <c r="AH5" s="42">
+        <v>45289</v>
+      </c>
+      <c r="AI5" s="7">
+        <v>377214.1657703988</v>
+      </c>
+      <c r="AJ5" s="7">
+        <f>-AI5</f>
+        <v>-377214.1657703988</v>
+      </c>
     </row>
     <row r="6" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
@@ -24966,7 +25647,16 @@
       <c r="AG6" s="8">
         <v>737546.09345506981</v>
       </c>
-      <c r="AH6" s="19"/>
+      <c r="AH6" s="42">
+        <v>45657</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>292593.62778329407</v>
+      </c>
+      <c r="AJ6" s="1">
+        <f>-AI6</f>
+        <v>-292593.62778329407</v>
+      </c>
     </row>
     <row r="7" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
@@ -25019,6 +25709,30 @@
       </c>
       <c r="Q7" s="1">
         <v>1</v>
+      </c>
+      <c r="S7" s="42">
+        <v>45657</v>
+      </c>
+      <c r="T7" s="10">
+        <v>292593.62778546126</v>
+      </c>
+      <c r="U7" s="4">
+        <v>1150104.4905512708</v>
+      </c>
+      <c r="V7" s="4">
+        <v>1269982.2250177334</v>
+      </c>
+      <c r="W7" s="4">
+        <v>119877.73446646263</v>
+      </c>
+      <c r="X7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>0.10423203756817136</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>4.5191517497272793E-2</v>
       </c>
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
@@ -25026,7 +25740,12 @@
       <c r="AG7" s="2">
         <v>-8.8558045934028273E-2</v>
       </c>
-      <c r="AJ7" s="2"/>
+      <c r="AH7" s="42">
+        <v>45657</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>1269982.2250152139</v>
+      </c>
     </row>
     <row r="8" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
@@ -25079,6 +25798,9 @@
       </c>
       <c r="Q8" s="1">
         <v>1</v>
+      </c>
+      <c r="AJ8" s="2">
+        <v>4.5191517497272793E-2</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -26799,25 +27521,25 @@
         <v>20.56999969</v>
       </c>
       <c r="D41" s="17">
-        <v>25.729715551443242</v>
+        <v>25.729715551720684</v>
       </c>
       <c r="E41" s="17">
-        <v>20380.877652700809</v>
+        <v>20380.877653796702</v>
       </c>
       <c r="F41" s="18">
-        <v>33411.274056965078</v>
+        <v>33411.274058761628</v>
       </c>
       <c r="G41" s="18">
-        <v>1596037.356447492</v>
+        <v>1596037.3564492885</v>
       </c>
       <c r="H41" s="18">
-        <v>973582.81026446761</v>
+        <v>973582.81026556354</v>
       </c>
       <c r="I41" s="18">
-        <v>1139513.0277802511</v>
+        <v>1139513.027781347</v>
       </c>
       <c r="J41" s="18">
-        <v>973582.81026446761</v>
+        <v>973582.81026556354</v>
       </c>
       <c r="K41" s="18">
         <v>-165930.2175157835</v>
@@ -26852,28 +27574,28 @@
         <v>25.239999770000001</v>
       </c>
       <c r="D42" s="17">
-        <v>25.607882301175056</v>
+        <v>25.607882301446285</v>
       </c>
       <c r="E42" s="17">
-        <v>1453.1359981414703</v>
+        <v>1453.1359992128223</v>
       </c>
       <c r="F42" s="18">
-        <v>1894.5710053481021</v>
+        <v>1894.5710067449104</v>
       </c>
       <c r="G42" s="18">
-        <v>1597931.9274528401</v>
+        <v>1597931.9274560334</v>
       </c>
       <c r="H42" s="18">
-        <v>1225613.8195964145</v>
+        <v>1225613.8195988638</v>
       </c>
       <c r="I42" s="18">
-        <v>1140966.1637783926</v>
+        <v>1140966.1637805598</v>
       </c>
       <c r="J42" s="18">
-        <v>1225613.8195964145</v>
+        <v>1225613.8195988638</v>
       </c>
       <c r="K42" s="18">
-        <v>84647.655818021856</v>
+        <v>84647.655818304047</v>
       </c>
       <c r="L42" s="17">
         <v>0</v>
@@ -26914,19 +27636,19 @@
         <v>3359.4021271033353</v>
       </c>
       <c r="G43" s="18">
-        <v>1601291.3295799436</v>
+        <v>1601291.3295831368</v>
       </c>
       <c r="H43" s="18">
-        <v>1244203.3791182756</v>
+        <v>1244203.3791207566</v>
       </c>
       <c r="I43" s="18">
-        <v>1143576.4192647915</v>
+        <v>1143576.4192669587</v>
       </c>
       <c r="J43" s="18">
-        <v>1244203.3791182756</v>
+        <v>1244203.3791207566</v>
       </c>
       <c r="K43" s="18">
-        <v>100626.95985348406</v>
+        <v>100626.95985379792</v>
       </c>
       <c r="L43" s="17">
         <v>0</v>
@@ -26967,19 +27689,19 @@
         <v>4416.9190515094906</v>
       </c>
       <c r="G44" s="18">
-        <v>1605708.2486314531</v>
+        <v>1605708.2486346464</v>
       </c>
       <c r="H44" s="18">
-        <v>1254058.1712762965</v>
+        <v>1254058.1712787906</v>
       </c>
       <c r="I44" s="18">
-        <v>1147026.0331240541</v>
+        <v>1147026.0331262213</v>
       </c>
       <c r="J44" s="18">
-        <v>1254058.1712762965</v>
+        <v>1254058.1712787906</v>
       </c>
       <c r="K44" s="18">
-        <v>107032.13815224241</v>
+        <v>107032.1381525693</v>
       </c>
       <c r="L44" s="17">
         <v>0</v>
@@ -26999,6 +27721,62 @@
       <c r="Q44" s="1">
         <v>1</v>
       </c>
+    </row>
+    <row r="45" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="15">
+        <v>45657</v>
+      </c>
+      <c r="B45" s="31">
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C45" s="16">
+        <v>24.799999239999998</v>
+      </c>
+      <c r="D45" s="17">
+        <v>25.579355550139105</v>
+      </c>
+      <c r="E45" s="17">
+        <v>3078.4574250494734</v>
+      </c>
+      <c r="F45" s="18">
+        <v>3901.7205623006294</v>
+      </c>
+      <c r="G45" s="18">
+        <v>1609609.9691969471</v>
+      </c>
+      <c r="H45" s="18">
+        <v>1269982.2250177334</v>
+      </c>
+      <c r="I45" s="18">
+        <v>1150104.4905512708</v>
+      </c>
+      <c r="J45" s="18">
+        <v>1269982.2250177334</v>
+      </c>
+      <c r="K45" s="18">
+        <v>119877.73446646263</v>
+      </c>
+      <c r="L45" s="17">
+        <v>0</v>
+      </c>
+      <c r="M45" s="21">
+        <v>70.689644187016341</v>
+      </c>
+      <c r="N45" s="21">
+        <v>69.8440287824085</v>
+      </c>
+      <c r="O45" s="21">
+        <v>65.6184872556763</v>
+      </c>
+      <c r="P45" s="21">
+        <v>78.295111835872916</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A46" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -27016,7 +27794,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ44"/>
+  <dimension ref="A1:AJ46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -27211,6 +27989,16 @@
         <f>-AF3</f>
         <v>-50321.457799113727</v>
       </c>
+      <c r="AH3" s="42">
+        <v>44561</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>50321.457799113727</v>
+      </c>
+      <c r="AJ3" s="1">
+        <f>-AI3</f>
+        <v>-50321.457799113727</v>
+      </c>
     </row>
     <row r="4" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
@@ -27300,9 +28088,16 @@
         <f>-AF4</f>
         <v>-1176285.4650423238</v>
       </c>
-      <c r="AH4" s="6"/>
-      <c r="AI4" s="7"/>
-      <c r="AJ4" s="7"/>
+      <c r="AH4" s="42">
+        <v>44925</v>
+      </c>
+      <c r="AI4" s="7">
+        <v>1176285.4650423238</v>
+      </c>
+      <c r="AJ4" s="7">
+        <f>-AI4</f>
+        <v>-1176285.4650423238</v>
+      </c>
     </row>
     <row r="5" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
@@ -27389,9 +28184,16 @@
         <f>-AF5</f>
         <v>-2010570.7877592836</v>
       </c>
-      <c r="AH5" s="19"/>
-      <c r="AI5" s="7"/>
-      <c r="AJ5" s="7"/>
+      <c r="AH5" s="42">
+        <v>45289</v>
+      </c>
+      <c r="AI5" s="7">
+        <v>2010570.7877592836</v>
+      </c>
+      <c r="AJ5" s="7">
+        <f>-AI5</f>
+        <v>-2010570.7877592836</v>
+      </c>
     </row>
     <row r="6" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
@@ -27473,7 +28275,16 @@
       <c r="AG6" s="8">
         <v>2964830.4750532256</v>
       </c>
-      <c r="AH6" s="19"/>
+      <c r="AH6" s="42">
+        <v>45657</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>5023476.263881946</v>
+      </c>
+      <c r="AJ6" s="1">
+        <f>-AI6</f>
+        <v>-5023476.263881946</v>
+      </c>
     </row>
     <row r="7" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
@@ -27519,13 +28330,42 @@
         <v>0</v>
       </c>
       <c r="O7" s="7"/>
+      <c r="S7" s="42">
+        <v>45657</v>
+      </c>
+      <c r="T7" s="10">
+        <v>5023476.263881946</v>
+      </c>
+      <c r="U7" s="4">
+        <v>8260653.9744826676</v>
+      </c>
+      <c r="V7" s="4">
+        <v>10065800.366882509</v>
+      </c>
+      <c r="W7" s="4">
+        <v>1805146.392399841</v>
+      </c>
+      <c r="X7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>0.21852342417149731</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>0.13296659389418197</v>
+      </c>
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
       <c r="AG7" s="2">
         <v>-6.1439790124808824E-2</v>
       </c>
-      <c r="AJ7" s="2"/>
+      <c r="AH7" s="42">
+        <v>45657</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>10065800.366882509</v>
+      </c>
     </row>
     <row r="8" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
@@ -27571,6 +28411,9 @@
         <v>0</v>
       </c>
       <c r="O8" s="7"/>
+      <c r="AJ8" s="2">
+        <v>0.13296659389418197</v>
+      </c>
     </row>
     <row r="9" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
@@ -29176,6 +30019,53 @@
       <c r="N44" s="17">
         <v>0</v>
       </c>
+    </row>
+    <row r="45" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="15">
+        <v>45657</v>
+      </c>
+      <c r="B45" s="31">
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C45" s="16">
+        <v>24.799999239999998</v>
+      </c>
+      <c r="D45" s="17">
+        <v>25.579355550139105</v>
+      </c>
+      <c r="E45" s="17">
+        <v>2431000</v>
+      </c>
+      <c r="F45" s="17">
+        <v>4680826.7802620027</v>
+      </c>
+      <c r="G45" s="17">
+        <v>1246.0388886215089</v>
+      </c>
+      <c r="H45" s="18">
+        <v>1579.263534262662</v>
+      </c>
+      <c r="I45" s="18">
+        <v>12757668.807730073</v>
+      </c>
+      <c r="J45" s="18">
+        <v>10065800.366882509</v>
+      </c>
+      <c r="K45" s="18">
+        <v>8260653.9744826676</v>
+      </c>
+      <c r="L45" s="18">
+        <v>10065800.366882509</v>
+      </c>
+      <c r="M45" s="18">
+        <v>1805146.392399841</v>
+      </c>
+      <c r="N45" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A46" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -29193,7 +30083,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG44"/>
+  <dimension ref="A1:AG46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -29373,6 +30263,16 @@
         <f>-AC3</f>
         <v>-245217.76659387304</v>
       </c>
+      <c r="AE3" s="42">
+        <v>44561</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>245217.76659387304</v>
+      </c>
+      <c r="AG3" s="1">
+        <f>-AF3</f>
+        <v>-245217.76659387304</v>
+      </c>
     </row>
     <row r="4" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
@@ -29456,9 +30356,16 @@
         <f>-AC4</f>
         <v>-3518640.0102128703</v>
       </c>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
+      <c r="AE4" s="42">
+        <v>44925</v>
+      </c>
+      <c r="AF4" s="7">
+        <v>3518640.0102128703</v>
+      </c>
+      <c r="AG4" s="7">
+        <f>-AF4</f>
+        <v>-3518640.0102128703</v>
+      </c>
     </row>
     <row r="5" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
@@ -29539,9 +30446,16 @@
         <f>-AC5</f>
         <v>-3101231.3499326059</v>
       </c>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
+      <c r="AE5" s="42">
+        <v>45289</v>
+      </c>
+      <c r="AF5" s="7">
+        <v>3101231.3499326059</v>
+      </c>
+      <c r="AG5" s="7">
+        <f>-AF5</f>
+        <v>-3101231.3499326059</v>
+      </c>
     </row>
     <row r="6" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
@@ -29617,7 +30531,16 @@
       <c r="AD6" s="8">
         <v>6043907.692957717</v>
       </c>
-      <c r="AE6" s="19"/>
+      <c r="AE6" s="42">
+        <v>45657</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>2457066.9526285101</v>
+      </c>
+      <c r="AG6" s="1">
+        <f>-AF6</f>
+        <v>-2457066.9526285101</v>
+      </c>
     </row>
     <row r="7" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
@@ -29657,13 +30580,42 @@
         <v>0</v>
       </c>
       <c r="M7" s="7"/>
+      <c r="P7" s="42">
+        <v>45657</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>2457066.9526406061</v>
+      </c>
+      <c r="R7" s="4">
+        <v>9322156.0793799553</v>
+      </c>
+      <c r="S7" s="4">
+        <v>10510929.054722106</v>
+      </c>
+      <c r="T7" s="4">
+        <v>1188772.9753421508</v>
+      </c>
+      <c r="U7" s="4">
+        <v>0</v>
+      </c>
+      <c r="V7" s="9">
+        <v>0.1275212477906956</v>
+      </c>
+      <c r="W7" s="9">
+        <v>5.6434982564923741E-2</v>
+      </c>
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
       <c r="AD7" s="2">
         <v>-7.7878942670306261E-2</v>
       </c>
-      <c r="AG7" s="2"/>
+      <c r="AE7" s="42">
+        <v>45657</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>10510929.054706667</v>
+      </c>
     </row>
     <row r="8" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
@@ -29703,6 +30655,9 @@
         <v>0</v>
       </c>
       <c r="M8" s="7"/>
+      <c r="AG8" s="2">
+        <v>5.6434982564923741E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
@@ -30952,25 +31907,25 @@
         <v>20.56999969</v>
       </c>
       <c r="D41" s="17">
-        <v>25.729715551443242</v>
+        <v>25.729715551720684</v>
       </c>
       <c r="E41" s="17">
-        <v>105159.53769477447</v>
+        <v>105159.5377060835</v>
       </c>
       <c r="F41" s="18">
-        <v>172392.68070274981</v>
+        <v>172392.68072128922</v>
       </c>
       <c r="G41" s="18">
-        <v>13312021.830106834</v>
+        <v>13312021.830125373</v>
       </c>
       <c r="H41" s="18">
-        <v>8120333.5067951689</v>
+        <v>8120333.506806477</v>
       </c>
       <c r="I41" s="18">
-        <v>9314484.7442212198</v>
+        <v>9314484.7442325279</v>
       </c>
       <c r="J41" s="18">
-        <v>8120333.5067951689</v>
+        <v>8120333.506806477</v>
       </c>
       <c r="K41" s="18">
         <v>-1194151.2374260509</v>
@@ -30990,28 +31945,28 @@
         <v>25.239999770000001</v>
       </c>
       <c r="D42" s="17">
-        <v>25.607882301175056</v>
+        <v>25.607882301446285</v>
       </c>
       <c r="E42" s="17">
-        <v>534.58334913787519</v>
+        <v>534.58334992613857</v>
       </c>
       <c r="F42" s="18">
-        <v>696.97957693832984</v>
+        <v>696.9795779660526</v>
       </c>
       <c r="G42" s="18">
-        <v>13312718.809683772</v>
+        <v>13312718.809703339</v>
       </c>
       <c r="H42" s="18">
-        <v>10210855.587295413</v>
+        <v>10210855.58731042</v>
       </c>
       <c r="I42" s="18">
-        <v>9315019.3275703583</v>
+        <v>9315019.3275824543</v>
       </c>
       <c r="J42" s="18">
-        <v>10210855.587295413</v>
+        <v>10210855.58731042</v>
       </c>
       <c r="K42" s="18">
-        <v>895836.25972505473</v>
+        <v>895836.25972796604</v>
       </c>
       <c r="L42" s="17">
         <v>0</v>
@@ -31037,19 +31992,19 @@
         <v>2219.9741350105646</v>
       </c>
       <c r="G43" s="18">
-        <v>13314938.783818783</v>
+        <v>13314938.78383835</v>
       </c>
       <c r="H43" s="18">
-        <v>10345707.568357404</v>
+        <v>10345707.568372607</v>
       </c>
       <c r="I43" s="18">
-        <v>9316744.2474954911</v>
+        <v>9316744.2475075871</v>
       </c>
       <c r="J43" s="18">
-        <v>10345707.568357404</v>
+        <v>10345707.568372607</v>
       </c>
       <c r="K43" s="18">
-        <v>1028963.3208619133</v>
+        <v>1028963.3208650202</v>
       </c>
       <c r="L43" s="17">
         <v>0</v>
@@ -31075,23 +32030,64 @@
         <v>3857.3835886907341</v>
       </c>
       <c r="G44" s="18">
-        <v>13318796.167407474</v>
+        <v>13318796.167427041</v>
       </c>
       <c r="H44" s="18">
-        <v>10401980.048079319</v>
+        <v>10401980.048094602</v>
       </c>
       <c r="I44" s="18">
-        <v>9319756.864148153</v>
+        <v>9319756.864160249</v>
       </c>
       <c r="J44" s="18">
-        <v>10401980.048079319</v>
+        <v>10401980.048094602</v>
       </c>
       <c r="K44" s="18">
-        <v>1082223.1839311663</v>
+        <v>1082223.1839343533</v>
       </c>
       <c r="L44" s="17">
         <v>0</v>
       </c>
+    </row>
+    <row r="45" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="15">
+        <v>45657</v>
+      </c>
+      <c r="B45" s="31">
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C45" s="16">
+        <v>24.799999239999998</v>
+      </c>
+      <c r="D45" s="17">
+        <v>25.579355550139105</v>
+      </c>
+      <c r="E45" s="17">
+        <v>2399.2152197068949</v>
+      </c>
+      <c r="F45" s="18">
+        <v>3040.8305406285012</v>
+      </c>
+      <c r="G45" s="18">
+        <v>13321836.99796767</v>
+      </c>
+      <c r="H45" s="18">
+        <v>10510929.054722106</v>
+      </c>
+      <c r="I45" s="18">
+        <v>9322156.0793799553</v>
+      </c>
+      <c r="J45" s="18">
+        <v>10510929.054722106</v>
+      </c>
+      <c r="K45" s="18">
+        <v>1188772.9753421508</v>
+      </c>
+      <c r="L45" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A46" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ)cn.xlsx
@@ -355,7 +355,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -443,8 +443,6 @@
     <xf numFmtId="176" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1564,11 +1562,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="445868672"/>
-        <c:axId val="461361920"/>
+        <c:axId val="160004352"/>
+        <c:axId val="160007296"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="445868672"/>
+        <c:axId val="160004352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1611,14 +1609,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461361920"/>
+        <c:crossAx val="160007296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="461361920"/>
+        <c:axId val="160007296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1669,7 +1667,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="445868672"/>
+        <c:crossAx val="160004352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2003,8 +2001,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="492771200"/>
-        <c:axId val="492769664"/>
+        <c:axId val="504801152"/>
+        <c:axId val="504799616"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2312,11 +2310,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="492299392"/>
-        <c:axId val="492300928"/>
+        <c:axId val="504788096"/>
+        <c:axId val="504789632"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="492299392"/>
+        <c:axId val="504788096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2359,14 +2357,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492300928"/>
+        <c:crossAx val="504789632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="492300928"/>
+        <c:axId val="504789632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2417,12 +2415,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492299392"/>
+        <c:crossAx val="504788096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="492769664"/>
+        <c:axId val="504799616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2459,12 +2457,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492771200"/>
+        <c:crossAx val="504801152"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="492771200"/>
+        <c:axId val="504801152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2473,7 +2471,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="492769664"/>
+        <c:crossAx val="504799616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3558,11 +3556,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="492850560"/>
-        <c:axId val="492856448"/>
+        <c:axId val="504921472"/>
+        <c:axId val="504923264"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="492850560"/>
+        <c:axId val="504921472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3605,14 +3603,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492856448"/>
+        <c:crossAx val="504923264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="492856448"/>
+        <c:axId val="504923264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3663,7 +3661,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492850560"/>
+        <c:crossAx val="504921472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3997,8 +3995,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="492921984"/>
-        <c:axId val="492907904"/>
+        <c:axId val="505914496"/>
+        <c:axId val="505912704"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4306,11 +4304,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="492904832"/>
-        <c:axId val="492906368"/>
+        <c:axId val="505909632"/>
+        <c:axId val="505911168"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="492904832"/>
+        <c:axId val="505909632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4353,14 +4351,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492906368"/>
+        <c:crossAx val="505911168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="492906368"/>
+        <c:axId val="505911168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4411,12 +4409,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492904832"/>
+        <c:crossAx val="505909632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="492907904"/>
+        <c:axId val="505912704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4453,12 +4451,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492921984"/>
+        <c:crossAx val="505914496"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="492921984"/>
+        <c:axId val="505914496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4467,7 +4465,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="492907904"/>
+        <c:crossAx val="505912704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5552,11 +5550,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="493046784"/>
-        <c:axId val="493060864"/>
+        <c:axId val="506133120"/>
+        <c:axId val="506139008"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="493046784"/>
+        <c:axId val="506133120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5599,14 +5597,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493060864"/>
+        <c:crossAx val="506139008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="493060864"/>
+        <c:axId val="506139008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5657,7 +5655,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493046784"/>
+        <c:crossAx val="506133120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5991,8 +5989,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="493077248"/>
-        <c:axId val="493075456"/>
+        <c:axId val="506179968"/>
+        <c:axId val="506178176"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6300,11 +6298,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="493072384"/>
-        <c:axId val="493073920"/>
+        <c:axId val="506154368"/>
+        <c:axId val="506176640"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="493072384"/>
+        <c:axId val="506154368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6347,14 +6345,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493073920"/>
+        <c:crossAx val="506176640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="493073920"/>
+        <c:axId val="506176640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6405,12 +6403,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493072384"/>
+        <c:crossAx val="506154368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="493075456"/>
+        <c:axId val="506178176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6447,12 +6445,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493077248"/>
+        <c:crossAx val="506179968"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="493077248"/>
+        <c:axId val="506179968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6461,7 +6459,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="493075456"/>
+        <c:crossAx val="506178176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6766,8 +6764,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="492348544"/>
-        <c:axId val="492330368"/>
+        <c:axId val="429929984"/>
+        <c:axId val="429918080"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7075,11 +7073,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="492305408"/>
-        <c:axId val="492328832"/>
+        <c:axId val="160037888"/>
+        <c:axId val="429916544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="492305408"/>
+        <c:axId val="160037888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7122,14 +7120,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492328832"/>
+        <c:crossAx val="429916544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="492328832"/>
+        <c:axId val="429916544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7180,12 +7178,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492305408"/>
+        <c:crossAx val="160037888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="492330368"/>
+        <c:axId val="429918080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7222,12 +7220,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492348544"/>
+        <c:crossAx val="429929984"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="492348544"/>
+        <c:axId val="429929984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7236,7 +7234,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="492330368"/>
+        <c:crossAx val="429918080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8321,11 +8319,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="492822912"/>
-        <c:axId val="492824448"/>
+        <c:axId val="504823168"/>
+        <c:axId val="504899072"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="492822912"/>
+        <c:axId val="504823168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8368,14 +8366,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492824448"/>
+        <c:crossAx val="504899072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="492824448"/>
+        <c:axId val="504899072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8426,7 +8424,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492822912"/>
+        <c:crossAx val="504823168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8769,8 +8767,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="494324352"/>
-        <c:axId val="494322432"/>
+        <c:axId val="507127680"/>
+        <c:axId val="507126144"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9078,11 +9076,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="494318336"/>
-        <c:axId val="494320256"/>
+        <c:axId val="507118720"/>
+        <c:axId val="507120256"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="494318336"/>
+        <c:axId val="507118720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9125,14 +9123,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494320256"/>
+        <c:crossAx val="507120256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="494320256"/>
+        <c:axId val="507120256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9183,12 +9181,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494318336"/>
+        <c:crossAx val="507118720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="494322432"/>
+        <c:axId val="507126144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9225,12 +9223,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494324352"/>
+        <c:crossAx val="507127680"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="494324352"/>
+        <c:axId val="507127680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9239,7 +9237,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="494322432"/>
+        <c:crossAx val="507126144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10324,11 +10322,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="496334336"/>
-        <c:axId val="496336256"/>
+        <c:axId val="508984320"/>
+        <c:axId val="509007744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="496334336"/>
+        <c:axId val="508984320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10371,14 +10369,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496336256"/>
+        <c:crossAx val="509007744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="496336256"/>
+        <c:axId val="509007744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10429,7 +10427,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496334336"/>
+        <c:crossAx val="508984320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10772,8 +10770,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="496381952"/>
-        <c:axId val="496367872"/>
+        <c:axId val="509043456"/>
+        <c:axId val="509041664"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -11081,11 +11079,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="496355968"/>
-        <c:axId val="496365952"/>
+        <c:axId val="509037568"/>
+        <c:axId val="509040128"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="496355968"/>
+        <c:axId val="509037568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11128,14 +11126,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496365952"/>
+        <c:crossAx val="509040128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="496365952"/>
+        <c:axId val="509040128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11186,12 +11184,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496355968"/>
+        <c:crossAx val="509037568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="496367872"/>
+        <c:axId val="509041664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11228,12 +11226,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496381952"/>
+        <c:crossAx val="509043456"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="496381952"/>
+        <c:axId val="509043456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11242,7 +11240,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="496367872"/>
+        <c:crossAx val="509041664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12327,11 +12325,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="496449792"/>
-        <c:axId val="496454272"/>
+        <c:axId val="509298560"/>
+        <c:axId val="509309312"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="496449792"/>
+        <c:axId val="509298560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12374,14 +12372,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496454272"/>
+        <c:crossAx val="509309312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="496454272"/>
+        <c:axId val="509309312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12432,7 +12430,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496449792"/>
+        <c:crossAx val="509298560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12766,8 +12764,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="496691072"/>
-        <c:axId val="496688512"/>
+        <c:axId val="510795136"/>
+        <c:axId val="510793216"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -13075,11 +13073,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="496590208"/>
-        <c:axId val="496686208"/>
+        <c:axId val="510060416"/>
+        <c:axId val="510791680"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="496590208"/>
+        <c:axId val="510060416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13122,14 +13120,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496686208"/>
+        <c:crossAx val="510791680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="496686208"/>
+        <c:axId val="510791680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13180,12 +13178,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496590208"/>
+        <c:crossAx val="510060416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="496688512"/>
+        <c:axId val="510793216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13222,12 +13220,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496691072"/>
+        <c:crossAx val="510795136"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="496691072"/>
+        <c:axId val="510795136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13236,7 +13234,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="496688512"/>
+        <c:crossAx val="510793216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14321,11 +14319,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="498918144"/>
-        <c:axId val="498919680"/>
+        <c:axId val="565499008"/>
+        <c:axId val="574411520"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="498918144"/>
+        <c:axId val="565499008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14368,14 +14366,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="498919680"/>
+        <c:crossAx val="574411520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="498919680"/>
+        <c:axId val="574411520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14426,7 +14424,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="498918144"/>
+        <c:crossAx val="565499008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15278,7 +15276,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG46"/>
+  <dimension ref="A1:AG45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17281,9 +17279,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A46" s="49"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -17300,7 +17295,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH46"/>
+  <dimension ref="A1:AH45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19800,9 +19795,6 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A46" s="50"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -19819,7 +19811,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH46"/>
+  <dimension ref="A1:AH45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22319,9 +22311,6 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A46" s="50"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -22338,7 +22327,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ46"/>
+  <dimension ref="A1:AJ45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -25108,9 +25097,6 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A46" s="50"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J2">
@@ -25127,7 +25113,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ46"/>
+  <dimension ref="A1:AJ45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -27775,9 +27761,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A46" s="50"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -27794,7 +27777,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ46"/>
+  <dimension ref="A1:AJ45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -30064,9 +30047,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A46" s="50"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J2">
@@ -30083,7 +30063,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG46"/>
+  <dimension ref="A1:AG45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -32086,9 +32066,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A46" s="50"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ)cn.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="29">
   <si>
     <t>in practice</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -158,18 +158,6 @@
   </si>
   <si>
     <t>标志</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>深创100ETF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -656,7 +644,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -785,6 +773,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -794,7 +785,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -923,6 +914,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1133785.7241379421</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1138289.8930741674</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -965,7 +959,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1094,6 +1088,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1103,7 +1100,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1232,6 +1229,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1249850.5855833527</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1241682.0665966475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1274,7 +1274,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1403,6 +1403,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1412,7 +1415,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1541,6 +1544,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>116064.86144541064</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>103392.17352248007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1562,11 +1568,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="160004352"/>
-        <c:axId val="160007296"/>
+        <c:axId val="515077248"/>
+        <c:axId val="515079168"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="160004352"/>
+        <c:axId val="515077248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1609,14 +1615,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160007296"/>
+        <c:crossAx val="515079168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="160007296"/>
+        <c:axId val="515079168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1667,7 +1673,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160004352"/>
+        <c:crossAx val="515077248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1858,7 +1864,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1987,6 +1993,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>3078.4574250494734</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4504.1689362253819</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2001,8 +2010,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="504801152"/>
-        <c:axId val="504799616"/>
+        <c:axId val="527351808"/>
+        <c:axId val="625981696"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2027,7 +2036,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2156,6 +2165,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2165,7 +2177,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2294,6 +2306,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0.78899997472763062</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2310,11 +2325,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="504788096"/>
-        <c:axId val="504789632"/>
+        <c:axId val="625973504"/>
+        <c:axId val="625980160"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="504788096"/>
+        <c:axId val="625973504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2357,14 +2372,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504789632"/>
+        <c:crossAx val="625980160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="504789632"/>
+        <c:axId val="625980160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2415,12 +2430,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504788096"/>
+        <c:crossAx val="625973504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="504799616"/>
+        <c:axId val="625981696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2457,12 +2472,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504801152"/>
+        <c:crossAx val="527351808"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="504801152"/>
+        <c:axId val="527351808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2471,7 +2486,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="504799616"/>
+        <c:crossAx val="625981696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2650,7 +2665,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2779,6 +2794,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2788,7 +2806,7 @@
               <c:f>'模型二 (2)PE副本成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2917,6 +2935,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>8260653.9744826676</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8261600.0727247298</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2959,7 +2980,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3088,6 +3109,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3097,7 +3121,7 @@
               <c:f>'模型二 (2)PE副本成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3226,6 +3250,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>10065800.366882509</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9964685.668245811</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3268,7 +3295,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3397,6 +3424,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3406,7 +3436,7 @@
               <c:f>'模型二 (2)PE副本成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3535,6 +3565,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1805146.392399841</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1703085.5955210812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3556,11 +3589,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="504921472"/>
-        <c:axId val="504923264"/>
+        <c:axId val="527394304"/>
+        <c:axId val="527395840"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="504921472"/>
+        <c:axId val="527394304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3603,14 +3636,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504923264"/>
+        <c:crossAx val="527395840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="504923264"/>
+        <c:axId val="527395840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3661,7 +3694,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504921472"/>
+        <c:crossAx val="527394304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3852,7 +3885,7 @@
               <c:f>'模型二 (2)PE副本成交量'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3981,6 +4014,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1246.0388886215089</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>946.09824206255894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3995,8 +4031,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="505914496"/>
-        <c:axId val="505912704"/>
+        <c:axId val="527444992"/>
+        <c:axId val="527443456"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4021,7 +4057,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4150,6 +4186,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4159,7 +4198,7 @@
               <c:f>'模型二 (2)PE副本成交量'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4288,6 +4327,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0.78899997472763062</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4304,11 +4346,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="505909632"/>
-        <c:axId val="505911168"/>
+        <c:axId val="527427840"/>
+        <c:axId val="527441920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="505909632"/>
+        <c:axId val="527427840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4351,14 +4393,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="505911168"/>
+        <c:crossAx val="527441920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="505911168"/>
+        <c:axId val="527441920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4409,12 +4451,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="505909632"/>
+        <c:crossAx val="527427840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="505912704"/>
+        <c:axId val="527443456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4451,12 +4493,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="505914496"/>
+        <c:crossAx val="527444992"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="505914496"/>
+        <c:axId val="527444992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4465,7 +4507,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="505912704"/>
+        <c:crossAx val="527443456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4644,7 +4686,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4773,6 +4815,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4782,7 +4827,7 @@
               <c:f>'模型二 (2)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4911,6 +4956,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>9322156.0793799553</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9327292.1649004761</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4953,7 +5001,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5082,6 +5130,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5091,7 +5142,7 @@
               <c:f>'模型二 (2)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5220,6 +5271,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>10510929.054722106</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10409491.022322454</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5262,7 +5316,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5391,6 +5445,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5400,7 +5457,7 @@
               <c:f>'模型二 (2)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5529,6 +5586,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1188772.9753421508</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1082198.8574219774</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5550,11 +5610,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="506133120"/>
-        <c:axId val="506139008"/>
+        <c:axId val="533525248"/>
+        <c:axId val="533526784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="506133120"/>
+        <c:axId val="533525248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5597,14 +5657,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506139008"/>
+        <c:crossAx val="533526784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="506139008"/>
+        <c:axId val="533526784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5655,7 +5715,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506133120"/>
+        <c:crossAx val="533525248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5846,7 +5906,7 @@
               <c:f>'模型二 (2)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5975,6 +6035,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>2399.2152197068949</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5136.0855205209327</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5989,8 +6052,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="506179968"/>
-        <c:axId val="506178176"/>
+        <c:axId val="536758528"/>
+        <c:axId val="536756992"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6015,7 +6078,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6144,6 +6207,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6153,7 +6219,7 @@
               <c:f>'模型二 (2)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6282,6 +6348,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0.78899997472763062</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6298,11 +6367,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="506154368"/>
-        <c:axId val="506176640"/>
+        <c:axId val="533579264"/>
+        <c:axId val="533580800"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="506154368"/>
+        <c:axId val="533579264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6345,14 +6414,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506176640"/>
+        <c:crossAx val="533580800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="506176640"/>
+        <c:axId val="533580800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6403,12 +6472,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506154368"/>
+        <c:crossAx val="533579264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="506178176"/>
+        <c:axId val="536756992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6445,12 +6514,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506179968"/>
+        <c:crossAx val="536758528"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="506179968"/>
+        <c:axId val="536758528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6459,7 +6528,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="506178176"/>
+        <c:crossAx val="536756992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6621,7 +6690,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6750,6 +6819,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>3078.4574250494734</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4504.1689362253819</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6764,8 +6836,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="429929984"/>
-        <c:axId val="429918080"/>
+        <c:axId val="527489280"/>
+        <c:axId val="527487744"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6790,7 +6862,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6919,6 +6991,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6928,7 +7003,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7057,6 +7132,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0.78899997472763062</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7073,11 +7151,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="160037888"/>
-        <c:axId val="429916544"/>
+        <c:axId val="527372672"/>
+        <c:axId val="527374208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="160037888"/>
+        <c:axId val="527372672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7120,14 +7198,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429916544"/>
+        <c:crossAx val="527374208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="429916544"/>
+        <c:axId val="527374208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7178,12 +7256,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160037888"/>
+        <c:crossAx val="527372672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="429918080"/>
+        <c:axId val="527487744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7220,12 +7298,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429929984"/>
+        <c:crossAx val="527489280"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="429929984"/>
+        <c:axId val="527489280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7234,7 +7312,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="429918080"/>
+        <c:crossAx val="527487744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7413,7 +7491,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7542,6 +7620,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7551,7 +7632,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7680,6 +7761,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1314950.131030737</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1315850.9648179819</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7722,7 +7806,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7851,6 +7935,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7860,7 +7947,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7989,6 +8076,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1429281.102940886</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1415689.9377799064</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8031,7 +8121,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8160,6 +8250,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8169,7 +8262,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8298,6 +8391,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>114330.97191014909</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>99838.972961924504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8319,11 +8415,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="504823168"/>
-        <c:axId val="504899072"/>
+        <c:axId val="536753280"/>
+        <c:axId val="536847872"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="504823168"/>
+        <c:axId val="536753280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8366,14 +8462,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504899072"/>
+        <c:crossAx val="536847872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="504899072"/>
+        <c:axId val="536847872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8424,7 +8520,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504823168"/>
+        <c:crossAx val="536753280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8624,7 +8720,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8753,6 +8849,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>615.69148500989468</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>900.83378724507645</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8767,8 +8866,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="507127680"/>
-        <c:axId val="507126144"/>
+        <c:axId val="559331200"/>
+        <c:axId val="559217664"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8793,7 +8892,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8922,6 +9021,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8931,7 +9033,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9060,6 +9162,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0.78899997472763062</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9076,11 +9181,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="507118720"/>
-        <c:axId val="507120256"/>
+        <c:axId val="558542208"/>
+        <c:axId val="559167360"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="507118720"/>
+        <c:axId val="558542208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9123,14 +9228,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507120256"/>
+        <c:crossAx val="559167360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="507120256"/>
+        <c:axId val="559167360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9181,12 +9286,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507118720"/>
+        <c:crossAx val="558542208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="507126144"/>
+        <c:axId val="559217664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9223,12 +9328,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507127680"/>
+        <c:crossAx val="559331200"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="507127680"/>
+        <c:axId val="559331200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9237,7 +9342,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="507126144"/>
+        <c:crossAx val="559217664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9416,7 +9521,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9545,6 +9650,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9554,7 +9662,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9683,6 +9791,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>10880000.025811484</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10881027.242915587</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9725,7 +9836,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9854,6 +9965,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9863,7 +9977,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9992,6 +10106,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>12123266.898858964</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>12001371.920472054</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10034,7 +10151,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10163,6 +10280,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10172,7 +10292,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10301,6 +10421,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1243266.8730474804</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1120344.6775564663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10322,11 +10445,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="508984320"/>
-        <c:axId val="509007744"/>
+        <c:axId val="580901504"/>
+        <c:axId val="584327552"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="508984320"/>
+        <c:axId val="580901504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10369,14 +10492,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509007744"/>
+        <c:crossAx val="584327552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="509007744"/>
+        <c:axId val="584327552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10427,7 +10550,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508984320"/>
+        <c:crossAx val="580901504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10627,7 +10750,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10756,6 +10879,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>479.84304394137899</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1027.2171041041865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10770,8 +10896,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="509043456"/>
-        <c:axId val="509041664"/>
+        <c:axId val="584395776"/>
+        <c:axId val="584393856"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10796,7 +10922,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10925,6 +11051,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10934,7 +11063,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -11063,6 +11192,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0.78899997472763062</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11079,11 +11211,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="509037568"/>
-        <c:axId val="509040128"/>
+        <c:axId val="584378240"/>
+        <c:axId val="584379776"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="509037568"/>
+        <c:axId val="584378240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11126,14 +11258,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509040128"/>
+        <c:crossAx val="584379776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="509040128"/>
+        <c:axId val="584379776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11184,12 +11316,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509037568"/>
+        <c:crossAx val="584378240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="509041664"/>
+        <c:axId val="584393856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11226,12 +11358,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509043456"/>
+        <c:crossAx val="584395776"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="509043456"/>
+        <c:axId val="584395776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11240,7 +11372,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="509041664"/>
+        <c:crossAx val="584393856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11419,7 +11551,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11548,6 +11680,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11557,7 +11692,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11686,6 +11821,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1318678.2594984123</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1318704.6065380645</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11728,7 +11866,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11857,6 +11995,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11866,7 +12007,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11995,6 +12136,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1600368.575832787</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1584168.2060495415</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12037,7 +12181,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12166,6 +12310,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12175,7 +12322,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12304,6 +12451,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>281690.31633437471</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>265463.59951147693</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12325,11 +12475,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="509298560"/>
-        <c:axId val="509309312"/>
+        <c:axId val="584478720"/>
+        <c:axId val="584480256"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="509298560"/>
+        <c:axId val="584478720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12372,14 +12522,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509309312"/>
+        <c:crossAx val="584480256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="509309312"/>
+        <c:axId val="584480256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12430,7 +12580,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509298560"/>
+        <c:crossAx val="584478720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12621,7 +12771,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12750,6 +12900,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>34.699817151485057</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>26.347039652375056</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12764,8 +12917,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="510795136"/>
-        <c:axId val="510793216"/>
+        <c:axId val="584828416"/>
+        <c:axId val="584826880"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -12790,7 +12943,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12919,6 +13072,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12928,7 +13084,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -13057,6 +13213,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0.78899997472763062</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13073,11 +13232,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="510060416"/>
-        <c:axId val="510791680"/>
+        <c:axId val="584781184"/>
+        <c:axId val="584808704"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="510060416"/>
+        <c:axId val="584781184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13120,14 +13279,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510791680"/>
+        <c:crossAx val="584808704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="510791680"/>
+        <c:axId val="584808704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13178,12 +13337,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510060416"/>
+        <c:crossAx val="584781184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="510793216"/>
+        <c:axId val="584826880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13220,12 +13379,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510795136"/>
+        <c:crossAx val="584828416"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="510795136"/>
+        <c:axId val="584828416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13234,7 +13393,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="510793216"/>
+        <c:crossAx val="584826880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13413,7 +13572,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -13542,6 +13701,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13551,7 +13713,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13680,6 +13842,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1150104.4905512708</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1154608.6594874961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13722,7 +13887,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -13851,6 +14016,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13860,7 +14028,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13989,6 +14157,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1269982.2250177334</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1261609.5840448712</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14031,7 +14202,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -14160,6 +14331,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14169,7 +14343,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14298,6 +14472,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>119877.73446646263</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>107000.92455737502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14319,11 +14496,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="565499008"/>
-        <c:axId val="574411520"/>
+        <c:axId val="614688640"/>
+        <c:axId val="614884096"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="565499008"/>
+        <c:axId val="614688640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14366,14 +14543,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="574411520"/>
+        <c:crossAx val="614884096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="574411520"/>
+        <c:axId val="614884096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14424,7 +14601,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="565499008"/>
+        <c:crossAx val="614688640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15276,7 +15453,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG45"/>
+  <dimension ref="A1:AG46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17279,6 +17456,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="46" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="32">
+        <v>45684</v>
+      </c>
+      <c r="B46" s="31">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C46" s="31">
+        <v>24.409999849999998</v>
+      </c>
+      <c r="D46" s="29">
+        <v>25.550295783221614</v>
+      </c>
+      <c r="E46" s="29">
+        <v>4504.1689362253819</v>
+      </c>
+      <c r="F46" s="30">
+        <v>5767.1816027210443</v>
+      </c>
+      <c r="G46" s="30">
+        <v>1589861.7641339963</v>
+      </c>
+      <c r="H46" s="30">
+        <v>1241682.0665966475</v>
+      </c>
+      <c r="I46" s="30">
+        <v>1138289.8930741674</v>
+      </c>
+      <c r="J46" s="30">
+        <v>1241682.0665966475</v>
+      </c>
+      <c r="K46" s="30">
+        <v>103392.17352248007</v>
+      </c>
+      <c r="L46" s="29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -17295,7 +17510,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH45"/>
+  <dimension ref="A1:AH46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19795,6 +20010,56 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="46" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B46" s="31">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C46" s="16">
+        <v>24.409999849999998</v>
+      </c>
+      <c r="D46" s="17">
+        <v>25.550295783221614</v>
+      </c>
+      <c r="E46" s="17">
+        <v>900.83378724507645</v>
+      </c>
+      <c r="F46" s="18">
+        <v>1153.4363205442089</v>
+      </c>
+      <c r="G46" s="18">
+        <v>1812663.1305182986</v>
+      </c>
+      <c r="H46" s="18">
+        <v>1415689.9377799064</v>
+      </c>
+      <c r="I46" s="18">
+        <v>1315850.9648179819</v>
+      </c>
+      <c r="J46" s="18">
+        <v>1415689.9377799064</v>
+      </c>
+      <c r="K46" s="18">
+        <v>99838.972961924504</v>
+      </c>
+      <c r="L46" s="17">
+        <v>0</v>
+      </c>
+      <c r="M46" s="22">
+        <v>1.8195746670433634E-2</v>
+      </c>
+      <c r="N46" s="22">
+        <v>2.5623662326843669E-2</v>
+      </c>
+      <c r="O46" s="22">
+        <v>71.01149881830726</v>
+      </c>
+      <c r="P46" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -19811,7 +20076,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH45"/>
+  <dimension ref="A1:AH46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22311,6 +22576,56 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="46" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B46" s="31">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C46" s="16">
+        <v>24.409999849999998</v>
+      </c>
+      <c r="D46" s="17">
+        <v>25.550295783221614</v>
+      </c>
+      <c r="E46" s="17">
+        <v>1027.2171041041865</v>
+      </c>
+      <c r="F46" s="18">
+        <v>1315.2587455466651</v>
+      </c>
+      <c r="G46" s="18">
+        <v>15366673.037171355</v>
+      </c>
+      <c r="H46" s="18">
+        <v>12001371.920472054</v>
+      </c>
+      <c r="I46" s="18">
+        <v>10881027.242915587</v>
+      </c>
+      <c r="J46" s="18">
+        <v>12001371.920472054</v>
+      </c>
+      <c r="K46" s="18">
+        <v>1120344.6775564663</v>
+      </c>
+      <c r="L46" s="17">
+        <v>0</v>
+      </c>
+      <c r="M46" s="22">
+        <v>1.8195746670433634E-2</v>
+      </c>
+      <c r="N46" s="22">
+        <v>2.5623662326843669E-2</v>
+      </c>
+      <c r="O46" s="22">
+        <v>71.01149881830726</v>
+      </c>
+      <c r="P46" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -22327,7 +22642,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ45"/>
+  <dimension ref="A1:AJ46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22380,10 +22695,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -25094,6 +25409,62 @@
         <v>74.909406364253414</v>
       </c>
       <c r="R45" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B46" s="31">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C46" s="16">
+        <v>24.409999849999998</v>
+      </c>
+      <c r="D46" s="17">
+        <v>25.550295783221614</v>
+      </c>
+      <c r="E46" s="17">
+        <v>851700</v>
+      </c>
+      <c r="F46" s="17">
+        <v>4623625.5848982222</v>
+      </c>
+      <c r="G46" s="17">
+        <v>26.347039652375056</v>
+      </c>
+      <c r="H46" s="18">
+        <v>33.735005174267741</v>
+      </c>
+      <c r="I46" s="18">
+        <v>2028384.3396870662</v>
+      </c>
+      <c r="J46" s="18">
+        <v>1584168.2060495415</v>
+      </c>
+      <c r="K46" s="18">
+        <v>1318704.6065380645</v>
+      </c>
+      <c r="L46" s="18">
+        <v>1584168.2060495415</v>
+      </c>
+      <c r="M46" s="18">
+        <v>265463.59951147693</v>
+      </c>
+      <c r="N46" s="17">
+        <v>0</v>
+      </c>
+      <c r="O46" s="22">
+        <v>1.8195746670433634E-2</v>
+      </c>
+      <c r="P46" s="22">
+        <v>2.5623662326843669E-2</v>
+      </c>
+      <c r="Q46" s="22">
+        <v>71.01149881830726</v>
+      </c>
+      <c r="R46" s="1">
         <v>0.2</v>
       </c>
     </row>
@@ -25113,7 +25484,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ45"/>
+  <dimension ref="A1:AJ46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -25190,19 +25561,19 @@
         <v>12</v>
       </c>
       <c r="M1" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="48" t="s">
+      <c r="Q1" s="11" t="s">
         <v>28</v>
-      </c>
-      <c r="O1" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -27758,6 +28129,59 @@
         <v>78.295111835872916</v>
       </c>
       <c r="Q45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B46" s="31">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C46" s="16">
+        <v>24.409999849999998</v>
+      </c>
+      <c r="D46" s="17">
+        <v>25.550295783221614</v>
+      </c>
+      <c r="E46" s="17">
+        <v>4504.1689362253819</v>
+      </c>
+      <c r="F46" s="18">
+        <v>5767.1816027210443</v>
+      </c>
+      <c r="G46" s="18">
+        <v>1615377.1507996682</v>
+      </c>
+      <c r="H46" s="18">
+        <v>1261609.5840448712</v>
+      </c>
+      <c r="I46" s="18">
+        <v>1154608.6594874961</v>
+      </c>
+      <c r="J46" s="18">
+        <v>1261609.5840448712</v>
+      </c>
+      <c r="K46" s="18">
+        <v>107000.92455737502</v>
+      </c>
+      <c r="L46" s="17">
+        <v>0</v>
+      </c>
+      <c r="M46" s="21">
+        <v>67.931038664297006</v>
+      </c>
+      <c r="N46" s="21">
+        <v>69.206365409704674</v>
+      </c>
+      <c r="O46" s="21">
+        <v>66.814446640352415</v>
+      </c>
+      <c r="P46" s="21">
+        <v>73.990202948409177</v>
+      </c>
+      <c r="Q46" s="1">
         <v>1</v>
       </c>
     </row>
@@ -27777,7 +28201,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ45"/>
+  <dimension ref="A1:AJ46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -27818,22 +28242,22 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -30044,6 +30468,50 @@
         <v>1805146.392399841</v>
       </c>
       <c r="N45" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B46" s="31">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C46" s="16">
+        <v>24.409999849999998</v>
+      </c>
+      <c r="D46" s="17">
+        <v>25.550295783221614</v>
+      </c>
+      <c r="E46" s="17">
+        <v>851700</v>
+      </c>
+      <c r="F46" s="17">
+        <v>4623625.5848982222</v>
+      </c>
+      <c r="G46" s="17">
+        <v>946.09824206255894</v>
+      </c>
+      <c r="H46" s="18">
+        <v>1211.3933676214326</v>
+      </c>
+      <c r="I46" s="18">
+        <v>12758880.201097695</v>
+      </c>
+      <c r="J46" s="18">
+        <v>9964685.668245811</v>
+      </c>
+      <c r="K46" s="18">
+        <v>8261600.0727247298</v>
+      </c>
+      <c r="L46" s="18">
+        <v>9964685.668245811</v>
+      </c>
+      <c r="M46" s="18">
+        <v>1703085.5955210812</v>
+      </c>
+      <c r="N46" s="17">
         <v>0</v>
       </c>
     </row>
@@ -30063,7 +30531,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG45"/>
+  <dimension ref="A1:AG46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -32066,6 +32534,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="46" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B46" s="31">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C46" s="16">
+        <v>24.409999849999998</v>
+      </c>
+      <c r="D46" s="17">
+        <v>25.550295783221614</v>
+      </c>
+      <c r="E46" s="17">
+        <v>5136.0855205209327</v>
+      </c>
+      <c r="F46" s="18">
+        <v>6576.2937277333249</v>
+      </c>
+      <c r="G46" s="18">
+        <v>13328413.291695403</v>
+      </c>
+      <c r="H46" s="18">
+        <v>10409491.022322454</v>
+      </c>
+      <c r="I46" s="18">
+        <v>9327292.1649004761</v>
+      </c>
+      <c r="J46" s="18">
+        <v>10409491.022322454</v>
+      </c>
+      <c r="K46" s="18">
+        <v>1082198.8574219774</v>
+      </c>
+      <c r="L46" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ)cn.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="32">
   <si>
     <t>in practice</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -158,6 +158,18 @@
   </si>
   <si>
     <t>标志</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>深创100ETF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -644,7 +656,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -776,6 +788,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -785,7 +800,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -916,6 +931,9 @@
                   <c:v>1133785.7241379421</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>1138289.8930741674</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>1138289.8930741674</c:v>
                 </c:pt>
               </c:numCache>
@@ -959,7 +977,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1091,6 +1109,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1100,7 +1121,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1232,6 +1253,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1241682.0665966475</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1314815.7138116525</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1274,7 +1298,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1406,6 +1430,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1415,7 +1442,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1547,6 +1574,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>103392.17352248007</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>176525.82073748508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1568,11 +1598,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="515077248"/>
-        <c:axId val="515079168"/>
+        <c:axId val="447963136"/>
+        <c:axId val="447965440"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="515077248"/>
+        <c:axId val="447963136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1615,14 +1645,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515079168"/>
+        <c:crossAx val="447965440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="515079168"/>
+        <c:axId val="447965440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1673,7 +1703,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515077248"/>
+        <c:crossAx val="447963136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1864,7 +1894,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1996,6 +2026,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>4504.1689362253819</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-2040.9409313837987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2010,8 +2043,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="527351808"/>
-        <c:axId val="625981696"/>
+        <c:axId val="448477056"/>
+        <c:axId val="448475520"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2036,7 +2069,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2168,6 +2201,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2177,7 +2213,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2309,6 +2345,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.82700002193450928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2325,11 +2364,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="625973504"/>
-        <c:axId val="625980160"/>
+        <c:axId val="448443520"/>
+        <c:axId val="448445056"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="625973504"/>
+        <c:axId val="448443520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2372,14 +2411,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="625980160"/>
+        <c:crossAx val="448445056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="625980160"/>
+        <c:axId val="448445056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2430,12 +2469,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="625973504"/>
+        <c:crossAx val="448443520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="625981696"/>
+        <c:axId val="448475520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2472,12 +2511,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527351808"/>
+        <c:crossAx val="448477056"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="527351808"/>
+        <c:axId val="448477056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2486,7 +2525,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="625981696"/>
+        <c:crossAx val="448475520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2665,7 +2704,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2797,6 +2836,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2806,7 +2848,7 @@
               <c:f>'模型二 (2)PE副本成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2937,6 +2979,9 @@
                   <c:v>8260653.9744826676</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>8261600.0727247298</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>8261600.0727247298</c:v>
                 </c:pt>
               </c:numCache>
@@ -2980,7 +3025,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3112,6 +3157,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3121,7 +3169,7 @@
               <c:f>'模型二 (2)PE副本成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3253,6 +3301,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>9964685.668245811</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10551594.206167569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3295,7 +3346,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3427,6 +3478,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3436,7 +3490,7 @@
               <c:f>'模型二 (2)PE副本成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3568,6 +3622,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1703085.5955210812</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2289994.1334428396</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3589,11 +3646,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="527394304"/>
-        <c:axId val="527395840"/>
+        <c:axId val="455024000"/>
+        <c:axId val="455033984"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="527394304"/>
+        <c:axId val="455024000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3636,14 +3693,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527395840"/>
+        <c:crossAx val="455033984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="527395840"/>
+        <c:axId val="455033984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3694,7 +3751,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527394304"/>
+        <c:crossAx val="455024000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3885,7 +3942,7 @@
               <c:f>'模型二 (2)PE副本成交量'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4017,6 +4074,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>946.09824206255894</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-295.3426593807647</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4031,8 +4091,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="527444992"/>
-        <c:axId val="527443456"/>
+        <c:axId val="455074944"/>
+        <c:axId val="455073152"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4057,7 +4117,7 @@
               <c:f>'模型二 (2)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4189,6 +4249,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4198,7 +4261,7 @@
               <c:f>'模型二 (2)PE副本成交量'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4330,6 +4393,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.82700002193450928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4346,11 +4412,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="527427840"/>
-        <c:axId val="527441920"/>
+        <c:axId val="455070080"/>
+        <c:axId val="455071616"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="527427840"/>
+        <c:axId val="455070080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4393,14 +4459,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527441920"/>
+        <c:crossAx val="455071616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="527441920"/>
+        <c:axId val="455071616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4451,12 +4517,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527427840"/>
+        <c:crossAx val="455070080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="527443456"/>
+        <c:axId val="455073152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4493,12 +4559,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527444992"/>
+        <c:crossAx val="455074944"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="527444992"/>
+        <c:axId val="455074944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4507,7 +4573,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="527443456"/>
+        <c:crossAx val="455073152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4686,7 +4752,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4818,6 +4884,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4827,7 +4896,7 @@
               <c:f>'模型二 (2)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4958,6 +5027,9 @@
                   <c:v>9322156.0793799553</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>9327292.1649004761</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>9327292.1649004761</c:v>
                 </c:pt>
               </c:numCache>
@@ -5001,7 +5073,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5133,6 +5205,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5142,7 +5217,7 @@
               <c:f>'模型二 (2)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5274,6 +5349,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>10409491.022322454</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11022598.084584303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5316,7 +5394,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5448,6 +5526,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5457,7 +5538,7 @@
               <c:f>'模型二 (2)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5589,6 +5670,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1082198.8574219774</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1695305.9196838271</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5610,11 +5694,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="533525248"/>
-        <c:axId val="533526784"/>
+        <c:axId val="455158400"/>
+        <c:axId val="455164288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="533525248"/>
+        <c:axId val="455158400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5657,14 +5741,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533526784"/>
+        <c:crossAx val="455164288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="533526784"/>
+        <c:axId val="455164288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5715,7 +5799,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533525248"/>
+        <c:crossAx val="455158400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5906,7 +5990,7 @@
               <c:f>'模型二 (2)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6038,6 +6122,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>5136.0855205209327</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-1054.5417431386754</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6052,8 +6139,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="536758528"/>
-        <c:axId val="536756992"/>
+        <c:axId val="504623488"/>
+        <c:axId val="504617600"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6078,7 +6165,7 @@
               <c:f>'模型二 (2)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6210,6 +6297,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6219,7 +6309,7 @@
               <c:f>'模型二 (2)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6351,6 +6441,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.82700002193450928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6367,11 +6460,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="533579264"/>
-        <c:axId val="533580800"/>
+        <c:axId val="455212416"/>
+        <c:axId val="504616064"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="533579264"/>
+        <c:axId val="455212416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6414,14 +6507,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533580800"/>
+        <c:crossAx val="504616064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="533580800"/>
+        <c:axId val="504616064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6472,12 +6565,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533579264"/>
+        <c:crossAx val="455212416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="536756992"/>
+        <c:axId val="504617600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6514,12 +6607,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536758528"/>
+        <c:crossAx val="504623488"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="536758528"/>
+        <c:axId val="504623488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6528,7 +6621,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="536756992"/>
+        <c:crossAx val="504617600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6690,7 +6783,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6822,6 +6915,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>4504.1689362253819</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-2040.9409313837987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6836,8 +6932,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="527489280"/>
-        <c:axId val="527487744"/>
+        <c:axId val="448022784"/>
+        <c:axId val="448020864"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6862,7 +6958,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6994,6 +7090,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7003,7 +7102,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7135,6 +7234,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.82700002193450928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7151,11 +7253,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="527372672"/>
-        <c:axId val="527374208"/>
+        <c:axId val="448008192"/>
+        <c:axId val="448010112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="527372672"/>
+        <c:axId val="448008192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7198,14 +7300,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527374208"/>
+        <c:crossAx val="448010112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="527374208"/>
+        <c:axId val="448010112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7256,12 +7358,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527372672"/>
+        <c:crossAx val="448008192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="527487744"/>
+        <c:axId val="448020864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7298,12 +7400,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527489280"/>
+        <c:crossAx val="448022784"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="527489280"/>
+        <c:axId val="448022784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7312,7 +7414,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="527487744"/>
+        <c:crossAx val="448020864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7491,7 +7593,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7623,6 +7725,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7632,7 +7737,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7763,6 +7868,9 @@
                   <c:v>1314950.131030737</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>1315850.9648179819</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>1315850.9648179819</c:v>
                 </c:pt>
               </c:numCache>
@@ -7806,7 +7914,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7938,6 +8046,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7947,7 +8058,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8079,6 +8190,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1415689.9377799064</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1499072.4486985093</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8121,7 +8235,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8253,6 +8367,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8262,7 +8379,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8394,6 +8511,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>99838.972961924504</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>183221.48388052732</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8415,11 +8535,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="536753280"/>
-        <c:axId val="536847872"/>
+        <c:axId val="448194048"/>
+        <c:axId val="448195584"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="536753280"/>
+        <c:axId val="448194048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8462,14 +8582,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536847872"/>
+        <c:crossAx val="448195584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="536847872"/>
+        <c:axId val="448195584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8520,7 +8640,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536753280"/>
+        <c:crossAx val="448194048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8720,7 +8840,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8852,6 +8972,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>900.83378724507645</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-408.18818627675978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8866,8 +8989,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="559331200"/>
-        <c:axId val="559217664"/>
+        <c:axId val="454983680"/>
+        <c:axId val="454979968"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8892,7 +9015,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9024,6 +9147,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9033,7 +9159,7 @@
               <c:f>'模型二 (1)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9165,6 +9291,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.82700002193450928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9181,11 +9310,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="558542208"/>
-        <c:axId val="559167360"/>
+        <c:axId val="454974464"/>
+        <c:axId val="454977408"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="558542208"/>
+        <c:axId val="454974464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9228,14 +9357,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="559167360"/>
+        <c:crossAx val="454977408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="559167360"/>
+        <c:axId val="454977408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9286,12 +9415,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558542208"/>
+        <c:crossAx val="454974464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="559217664"/>
+        <c:axId val="454979968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9328,12 +9457,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="559331200"/>
+        <c:crossAx val="454983680"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="559331200"/>
+        <c:axId val="454983680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9342,7 +9471,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="559217664"/>
+        <c:crossAx val="454979968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9521,7 +9650,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9653,6 +9782,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9662,7 +9794,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9793,6 +9925,9 @@
                   <c:v>10880000.025811484</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>10881027.242915587</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>10881027.242915587</c:v>
                 </c:pt>
               </c:numCache>
@@ -9836,7 +9971,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9968,6 +10103,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9977,7 +10115,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10109,6 +10247,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>12001371.920472054</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>12708238.938801141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10151,7 +10292,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10283,6 +10424,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10292,7 +10436,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10424,6 +10568,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1120344.6775564663</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1827211.695885554</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10445,11 +10592,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="580901504"/>
-        <c:axId val="584327552"/>
+        <c:axId val="455142400"/>
+        <c:axId val="455153536"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="580901504"/>
+        <c:axId val="455142400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10492,14 +10639,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584327552"/>
+        <c:crossAx val="455153536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="584327552"/>
+        <c:axId val="455153536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10550,7 +10697,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="580901504"/>
+        <c:crossAx val="455142400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10750,7 +10897,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10882,6 +11029,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1027.2171041041865</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-210.90834862773511</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10896,8 +11046,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="584395776"/>
-        <c:axId val="584393856"/>
+        <c:axId val="530846848"/>
+        <c:axId val="530845056"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10922,7 +11072,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11054,6 +11204,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11063,7 +11216,7 @@
               <c:f>'模型二 (2)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -11195,6 +11348,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.82700002193450928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11211,11 +11367,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="584378240"/>
-        <c:axId val="584379776"/>
+        <c:axId val="530841600"/>
+        <c:axId val="530843136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="584378240"/>
+        <c:axId val="530841600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11258,14 +11414,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584379776"/>
+        <c:crossAx val="530843136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="584379776"/>
+        <c:axId val="530843136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11316,12 +11472,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584378240"/>
+        <c:crossAx val="530841600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="584393856"/>
+        <c:axId val="530845056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11358,12 +11514,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584395776"/>
+        <c:crossAx val="530846848"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="584395776"/>
+        <c:axId val="530846848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11372,7 +11528,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="584393856"/>
+        <c:crossAx val="530845056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11551,7 +11707,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11683,6 +11839,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11692,7 +11851,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11823,6 +11982,9 @@
                   <c:v>1318678.2594984123</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>1318704.6065380645</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>1318704.6065380645</c:v>
                 </c:pt>
               </c:numCache>
@@ -11866,7 +12028,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11998,6 +12160,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12007,7 +12172,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12139,6 +12304,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1584168.2060495415</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1677473.8934128189</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12181,7 +12349,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12313,6 +12481,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12322,7 +12493,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12454,6 +12625,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>265463.59951147693</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>358769.28687475435</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12475,11 +12649,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="584478720"/>
-        <c:axId val="584480256"/>
+        <c:axId val="530883328"/>
+        <c:axId val="530885248"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="584478720"/>
+        <c:axId val="530883328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12522,14 +12696,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584480256"/>
+        <c:crossAx val="530885248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="584480256"/>
+        <c:axId val="530885248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12580,7 +12754,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584478720"/>
+        <c:crossAx val="530883328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12771,7 +12945,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12903,6 +13077,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>26.347039652375056</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-8.2247322865529409</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12917,8 +13094,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="584828416"/>
-        <c:axId val="584826880"/>
+        <c:axId val="535682048"/>
+        <c:axId val="535680512"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -12943,7 +13120,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -13075,6 +13252,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13084,7 +13264,7 @@
               <c:f>'模型二 (2)PE副本成交量计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -13216,6 +13396,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.82700002193450928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13232,11 +13415,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="584781184"/>
-        <c:axId val="584808704"/>
+        <c:axId val="535664512"/>
+        <c:axId val="535666048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="584781184"/>
+        <c:axId val="535664512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13279,14 +13462,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584808704"/>
+        <c:crossAx val="535666048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="584808704"/>
+        <c:axId val="535666048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13337,12 +13520,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584781184"/>
+        <c:crossAx val="535664512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="584826880"/>
+        <c:axId val="535680512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13379,12 +13562,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584828416"/>
+        <c:crossAx val="535682048"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="584828416"/>
+        <c:axId val="535682048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13393,7 +13576,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="584826880"/>
+        <c:crossAx val="535680512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13572,7 +13755,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -13704,6 +13887,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13713,7 +13899,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13844,6 +14030,9 @@
                   <c:v>1150104.4905512708</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>1154608.6594874961</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>1154608.6594874961</c:v>
                 </c:pt>
               </c:numCache>
@@ -13887,7 +14076,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -14019,6 +14208,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14028,7 +14220,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14160,6 +14352,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1261609.5840448712</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1335916.9391438307</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14202,7 +14397,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -14334,6 +14529,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14343,7 +14541,7 @@
               <c:f>'模型二 (1)PE副本计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14475,6 +14673,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>107000.92455737502</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>181308.27965633455</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14496,11 +14697,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="614688640"/>
-        <c:axId val="614884096"/>
+        <c:axId val="656020224"/>
+        <c:axId val="656304768"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="614688640"/>
+        <c:axId val="656020224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14543,14 +14744,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="614884096"/>
+        <c:crossAx val="656304768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="614884096"/>
+        <c:axId val="656304768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14601,7 +14802,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="614688640"/>
+        <c:crossAx val="656020224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15453,7 +15654,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG46"/>
+  <dimension ref="A1:AG47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17494,6 +17695,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="47" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="32">
+        <v>45716</v>
+      </c>
+      <c r="B47" s="31">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="C47" s="31">
+        <v>26.079999923706055</v>
+      </c>
+      <c r="D47" s="29">
+        <v>25.563306017026612</v>
+      </c>
+      <c r="E47" s="29">
+        <v>-2040.9409313837987</v>
+      </c>
+      <c r="F47" s="30">
+        <v>-2467.8849785392413</v>
+      </c>
+      <c r="G47" s="30">
+        <v>1587393.879155457</v>
+      </c>
+      <c r="H47" s="30">
+        <v>1312774.7728802687</v>
+      </c>
+      <c r="I47" s="30">
+        <v>1138289.8930741674</v>
+      </c>
+      <c r="J47" s="30">
+        <v>1314815.7138116525</v>
+      </c>
+      <c r="K47" s="30">
+        <v>176525.82073748508</v>
+      </c>
+      <c r="L47" s="29">
+        <v>2040.9409313837987</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -17510,7 +17749,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH46"/>
+  <dimension ref="A1:AH47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20060,6 +20299,56 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="47" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="15">
+        <v>45716</v>
+      </c>
+      <c r="B47" s="31">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="C47" s="16">
+        <v>26.079999923706055</v>
+      </c>
+      <c r="D47" s="17">
+        <v>25.563306017026612</v>
+      </c>
+      <c r="E47" s="17">
+        <v>-408.18818627675978</v>
+      </c>
+      <c r="F47" s="18">
+        <v>-493.57699570784837</v>
+      </c>
+      <c r="G47" s="18">
+        <v>1812169.5535225908</v>
+      </c>
+      <c r="H47" s="18">
+        <v>1498664.2605122325</v>
+      </c>
+      <c r="I47" s="18">
+        <v>1315850.9648179819</v>
+      </c>
+      <c r="J47" s="18">
+        <v>1499072.4486985093</v>
+      </c>
+      <c r="K47" s="18">
+        <v>183221.48388052732</v>
+      </c>
+      <c r="L47" s="17">
+        <v>408.18818627675978</v>
+      </c>
+      <c r="M47" s="22">
+        <v>2.2829789527810906E-2</v>
+      </c>
+      <c r="N47" s="22">
+        <v>2.9019719241485931E-2</v>
+      </c>
+      <c r="O47" s="22">
+        <v>78.66991867782771</v>
+      </c>
+      <c r="P47" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -20076,7 +20365,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH46"/>
+  <dimension ref="A1:AH47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20117,7 +20406,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -22623,6 +22912,56 @@
         <v>71.01149881830726</v>
       </c>
       <c r="P46" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="15">
+        <v>45716</v>
+      </c>
+      <c r="B47" s="31">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="C47" s="16">
+        <v>26.079999923706055</v>
+      </c>
+      <c r="D47" s="17">
+        <v>25.563306017026612</v>
+      </c>
+      <c r="E47" s="17">
+        <v>-210.90834862773511</v>
+      </c>
+      <c r="F47" s="18">
+        <v>-255.0282261593907</v>
+      </c>
+      <c r="G47" s="18">
+        <v>15366418.008945195</v>
+      </c>
+      <c r="H47" s="18">
+        <v>12708028.030452514</v>
+      </c>
+      <c r="I47" s="18">
+        <v>10881027.242915587</v>
+      </c>
+      <c r="J47" s="18">
+        <v>12708238.938801141</v>
+      </c>
+      <c r="K47" s="18">
+        <v>1827211.695885554</v>
+      </c>
+      <c r="L47" s="17">
+        <v>210.90834862773511</v>
+      </c>
+      <c r="M47" s="22">
+        <v>2.2829789527810906E-2</v>
+      </c>
+      <c r="N47" s="22">
+        <v>2.9019719241485931E-2</v>
+      </c>
+      <c r="O47" s="22">
+        <v>78.66991867782771</v>
+      </c>
+      <c r="P47" s="1">
         <v>0.2</v>
       </c>
     </row>
@@ -22642,7 +22981,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ46"/>
+  <dimension ref="A1:AJ47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22683,10 +23022,10 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>3</v>
@@ -22695,10 +23034,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -25465,6 +25804,62 @@
         <v>71.01149881830726</v>
       </c>
       <c r="R46" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="15">
+        <v>45716</v>
+      </c>
+      <c r="B47" s="31">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="C47" s="16">
+        <v>26.079999923706055</v>
+      </c>
+      <c r="D47" s="17">
+        <v>25.563306017026612</v>
+      </c>
+      <c r="E47" s="17">
+        <v>1283704</v>
+      </c>
+      <c r="F47" s="17">
+        <v>4583555.4425912919</v>
+      </c>
+      <c r="G47" s="17">
+        <v>-8.2247322865529409</v>
+      </c>
+      <c r="H47" s="18">
+        <v>-9.9452624769147384</v>
+      </c>
+      <c r="I47" s="18">
+        <v>2028374.3944245894</v>
+      </c>
+      <c r="J47" s="18">
+        <v>1677465.6686805324</v>
+      </c>
+      <c r="K47" s="18">
+        <v>1318704.6065380645</v>
+      </c>
+      <c r="L47" s="18">
+        <v>1677473.8934128189</v>
+      </c>
+      <c r="M47" s="18">
+        <v>358769.28687475435</v>
+      </c>
+      <c r="N47" s="17">
+        <v>8.2247322865529409</v>
+      </c>
+      <c r="O47" s="22">
+        <v>2.2829789527810906E-2</v>
+      </c>
+      <c r="P47" s="22">
+        <v>2.9019719241485931E-2</v>
+      </c>
+      <c r="Q47" s="22">
+        <v>78.66991867782771</v>
+      </c>
+      <c r="R47" s="1">
         <v>0.2</v>
       </c>
     </row>
@@ -25484,7 +25879,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ46"/>
+  <dimension ref="A1:AJ47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -25561,19 +25956,19 @@
         <v>12</v>
       </c>
       <c r="M1" s="48" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N1" s="48" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O1" s="48" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P1" s="48" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -28182,6 +28577,59 @@
         <v>73.990202948409177</v>
       </c>
       <c r="Q46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="15">
+        <v>45716</v>
+      </c>
+      <c r="B47" s="31">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="C47" s="16">
+        <v>26.079999923706055</v>
+      </c>
+      <c r="D47" s="17">
+        <v>25.563306017026612</v>
+      </c>
+      <c r="E47" s="17">
+        <v>-2040.9409313837987</v>
+      </c>
+      <c r="F47" s="18">
+        <v>-2467.8849785392413</v>
+      </c>
+      <c r="G47" s="18">
+        <v>1612909.2658211289</v>
+      </c>
+      <c r="H47" s="18">
+        <v>1333875.9982124469</v>
+      </c>
+      <c r="I47" s="18">
+        <v>1154608.6594874961</v>
+      </c>
+      <c r="J47" s="18">
+        <v>1335916.9391438307</v>
+      </c>
+      <c r="K47" s="18">
+        <v>181308.27965633455</v>
+      </c>
+      <c r="L47" s="17">
+        <v>2040.9409313837987</v>
+      </c>
+      <c r="M47" s="21">
+        <v>83.79310777156131</v>
+      </c>
+      <c r="N47" s="21">
+        <v>74.068612863656881</v>
+      </c>
+      <c r="O47" s="21">
+        <v>69.232502048120566</v>
+      </c>
+      <c r="P47" s="21">
+        <v>83.740834494729512</v>
+      </c>
+      <c r="Q47" s="1">
         <v>1</v>
       </c>
     </row>
@@ -28201,7 +28649,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ46"/>
+  <dimension ref="A1:AJ47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -28242,22 +28690,22 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -30513,6 +30961,50 @@
       </c>
       <c r="N46" s="17">
         <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="15">
+        <v>45716</v>
+      </c>
+      <c r="B47" s="31">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="C47" s="16">
+        <v>26.079999923706055</v>
+      </c>
+      <c r="D47" s="17">
+        <v>25.563306017026612</v>
+      </c>
+      <c r="E47" s="17">
+        <v>1283704</v>
+      </c>
+      <c r="F47" s="17">
+        <v>4583555.4425912919</v>
+      </c>
+      <c r="G47" s="17">
+        <v>-295.3426593807647</v>
+      </c>
+      <c r="H47" s="18">
+        <v>-357.12533439830196</v>
+      </c>
+      <c r="I47" s="18">
+        <v>12758523.075763296</v>
+      </c>
+      <c r="J47" s="18">
+        <v>10551298.863508189</v>
+      </c>
+      <c r="K47" s="18">
+        <v>8261600.0727247298</v>
+      </c>
+      <c r="L47" s="18">
+        <v>10551594.206167569</v>
+      </c>
+      <c r="M47" s="18">
+        <v>2289994.1334428396</v>
+      </c>
+      <c r="N47" s="17">
+        <v>295.3426593807647</v>
       </c>
     </row>
   </sheetData>
@@ -30531,7 +31023,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG46"/>
+  <dimension ref="A1:AG47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -32572,6 +33064,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="47" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="15">
+        <v>45716</v>
+      </c>
+      <c r="B47" s="31">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="C47" s="16">
+        <v>26.079999923706055</v>
+      </c>
+      <c r="D47" s="17">
+        <v>25.563306017026612</v>
+      </c>
+      <c r="E47" s="17">
+        <v>-1054.5417431386754</v>
+      </c>
+      <c r="F47" s="18">
+        <v>-1275.1411307969533</v>
+      </c>
+      <c r="G47" s="18">
+        <v>13327138.150564605</v>
+      </c>
+      <c r="H47" s="18">
+        <v>11021543.542841164</v>
+      </c>
+      <c r="I47" s="18">
+        <v>9327292.1649004761</v>
+      </c>
+      <c r="J47" s="18">
+        <v>11022598.084584303</v>
+      </c>
+      <c r="K47" s="18">
+        <v>1695305.9196838271</v>
+      </c>
+      <c r="L47" s="17">
+        <v>1054.5417431386754</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ)cn.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="30">
   <si>
     <t>in practice</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -145,6 +145,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>SMA之MAX</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -158,18 +162,6 @@
   </si>
   <si>
     <t>标志</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>深创100ETF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -656,7 +648,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -791,6 +783,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -800,7 +795,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -934,6 +929,9 @@
                   <c:v>1138289.8930741674</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>1138289.8930741674</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>1138289.8930741674</c:v>
                 </c:pt>
               </c:numCache>
@@ -977,7 +975,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1112,6 +1110,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1121,7 +1122,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1256,6 +1257,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>1314815.7138116525</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1294179.5752163501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1298,7 +1302,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1433,6 +1437,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1442,7 +1449,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1577,6 +1584,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>176525.82073748508</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>155889.68214218272</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1598,11 +1608,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="447963136"/>
-        <c:axId val="447965440"/>
+        <c:axId val="463516032"/>
+        <c:axId val="463517952"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="447963136"/>
+        <c:axId val="463516032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1645,14 +1655,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="447965440"/>
+        <c:crossAx val="463517952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="447965440"/>
+        <c:axId 